--- a/Setting/inputs/Setting.xlsx
+++ b/Setting/inputs/Setting.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -64,6 +64,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -492,7 +560,11 @@
           <t>Behaviour change intervention physical setting [BCIO:026000]</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr"/>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>test1</t>
+        </is>
+      </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
@@ -519,7 +591,11 @@
       <c r="P2" t="inlineStr"/>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr"/>
-      <c r="S2" t="inlineStr"/>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>to</t>
+        </is>
+      </c>
       <c r="T2" t="inlineStr">
         <is>
           <t>External</t>

--- a/Setting/inputs/Setting.xlsx
+++ b/Setting/inputs/Setting.xlsx
@@ -562,10 +562,14 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>test1</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr"/>
+          <t>test2</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>test3</t>
+        </is>
+      </c>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
@@ -620,7 +624,11 @@
           <t>geographic location [GAZ:00000448]</t>
         </is>
       </c>
-      <c r="D3" s="2" t="inlineStr"/>
+      <c r="D3" s="2" t="inlineStr">
+        <is>
+          <t>test4</t>
+        </is>
+      </c>
       <c r="E3" s="2" t="inlineStr"/>
       <c r="F3" s="2" t="inlineStr"/>
       <c r="G3" s="2" t="inlineStr"/>
@@ -643,7 +651,11 @@
       </c>
       <c r="Q3" s="2" t="inlineStr"/>
       <c r="R3" s="2" t="inlineStr"/>
-      <c r="S3" s="2" t="inlineStr"/>
+      <c r="S3" s="2" t="inlineStr">
+        <is>
+          <t>to</t>
+        </is>
+      </c>
       <c r="T3" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>

--- a/Setting/inputs/Setting.xlsx
+++ b/Setting/inputs/Setting.xlsx
@@ -562,17 +562,14 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>test1</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
+          <t>test2</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>test3</t>
+        </is>
+      </c>
       <c r="M2" t="inlineStr">
         <is>
           <t>A reference to a place on the Earth, by its name or by its geographical location</t>
@@ -588,9 +585,6 @@
           <t>Gazeteer Ontology</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
       <c r="S2" t="inlineStr">
         <is>
           <t>to</t>
@@ -601,8 +595,6 @@
           <t>External</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr"/>
-      <c r="V2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
@@ -620,37 +612,45 @@
           <t>geographic location [GAZ:00000448]</t>
         </is>
       </c>
-      <c r="D3" s="2" t="inlineStr"/>
-      <c r="E3" s="2" t="inlineStr"/>
-      <c r="F3" s="2" t="inlineStr"/>
-      <c r="G3" s="2" t="inlineStr"/>
-      <c r="H3" s="2" t="inlineStr"/>
-      <c r="I3" s="2" t="inlineStr"/>
-      <c r="J3" s="2" t="inlineStr"/>
-      <c r="K3" s="2" t="inlineStr"/>
-      <c r="L3" s="2" t="inlineStr"/>
+      <c r="D3" s="2" t="inlineStr">
+        <is>
+          <t>test4</t>
+        </is>
+      </c>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="inlineStr">
         <is>
           <t>A geographical location of a country where the intervention takes place.</t>
         </is>
       </c>
-      <c r="N3" s="2" t="inlineStr"/>
-      <c r="O3" s="2" t="inlineStr"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
       <c r="P3" s="2" t="inlineStr">
         <is>
           <t>United Kingdom; Spain</t>
         </is>
       </c>
-      <c r="Q3" s="2" t="inlineStr"/>
-      <c r="R3" s="2" t="inlineStr"/>
-      <c r="S3" s="2" t="inlineStr"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="inlineStr">
+        <is>
+          <t>to</t>
+        </is>
+      </c>
       <c r="T3" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U3" s="2" t="inlineStr"/>
-      <c r="V3" s="2" t="inlineStr"/>
+      <c r="U3" s="2" t="n"/>
+      <c r="V3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
@@ -668,37 +668,37 @@
           <t>geographic location [GAZ:00000448]</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr"/>
-      <c r="E4" s="2" t="inlineStr"/>
-      <c r="F4" s="2" t="inlineStr"/>
-      <c r="G4" s="2" t="inlineStr"/>
-      <c r="H4" s="2" t="inlineStr"/>
-      <c r="I4" s="2" t="inlineStr"/>
-      <c r="J4" s="2" t="inlineStr"/>
-      <c r="K4" s="2" t="inlineStr"/>
-      <c r="L4" s="2" t="inlineStr"/>
+      <c r="D4" s="2" t="n"/>
+      <c r="E4" s="2" t="n"/>
+      <c r="F4" s="2" t="n"/>
+      <c r="G4" s="2" t="n"/>
+      <c r="H4" s="2" t="n"/>
+      <c r="I4" s="2" t="n"/>
+      <c r="J4" s="2" t="n"/>
+      <c r="K4" s="2" t="n"/>
+      <c r="L4" s="2" t="n"/>
       <c r="M4" s="2" t="inlineStr">
         <is>
           <t>A geographical location within a country where the intervention takes place.</t>
         </is>
       </c>
-      <c r="N4" s="2" t="inlineStr"/>
-      <c r="O4" s="2" t="inlineStr"/>
+      <c r="N4" s="2" t="n"/>
+      <c r="O4" s="2" t="n"/>
       <c r="P4" s="2" t="inlineStr">
         <is>
           <t>Region; Town; City; State; New York; Rotterdam</t>
         </is>
       </c>
-      <c r="Q4" s="2" t="inlineStr"/>
-      <c r="R4" s="2" t="inlineStr"/>
-      <c r="S4" s="2" t="inlineStr"/>
+      <c r="Q4" s="2" t="n"/>
+      <c r="R4" s="2" t="n"/>
+      <c r="S4" s="2" t="n"/>
       <c r="T4" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U4" s="2" t="inlineStr"/>
-      <c r="V4" s="2" t="inlineStr"/>
+      <c r="U4" s="2" t="n"/>
+      <c r="V4" s="2" t="n"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
@@ -721,32 +721,32 @@
           <t>Behaviour change intervention physical setting [BCIO:026000]</t>
         </is>
       </c>
-      <c r="E5" s="2" t="inlineStr"/>
-      <c r="F5" s="2" t="inlineStr"/>
-      <c r="G5" s="2" t="inlineStr"/>
-      <c r="H5" s="2" t="inlineStr"/>
-      <c r="I5" s="2" t="inlineStr"/>
-      <c r="J5" s="2" t="inlineStr"/>
-      <c r="K5" s="2" t="inlineStr"/>
-      <c r="L5" s="2" t="inlineStr"/>
+      <c r="E5" s="2" t="n"/>
+      <c r="F5" s="2" t="n"/>
+      <c r="G5" s="2" t="n"/>
+      <c r="H5" s="2" t="n"/>
+      <c r="I5" s="2" t="n"/>
+      <c r="J5" s="2" t="n"/>
+      <c r="K5" s="2" t="n"/>
+      <c r="L5" s="2" t="n"/>
       <c r="M5" s="2" t="inlineStr">
         <is>
           <t>Features of a given location, such as social and economic characteristics.</t>
         </is>
       </c>
-      <c r="N5" s="2" t="inlineStr"/>
-      <c r="O5" s="2" t="inlineStr"/>
-      <c r="P5" s="2" t="inlineStr"/>
-      <c r="Q5" s="2" t="inlineStr"/>
-      <c r="R5" s="2" t="inlineStr"/>
-      <c r="S5" s="2" t="inlineStr"/>
+      <c r="N5" s="2" t="n"/>
+      <c r="O5" s="2" t="n"/>
+      <c r="P5" s="2" t="n"/>
+      <c r="Q5" s="2" t="n"/>
+      <c r="R5" s="2" t="n"/>
+      <c r="S5" s="2" t="n"/>
       <c r="T5" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U5" s="2" t="inlineStr"/>
-      <c r="V5" s="2" t="inlineStr"/>
+      <c r="U5" s="2" t="n"/>
+      <c r="V5" s="2" t="n"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
@@ -764,37 +764,37 @@
           <t>attribute of location [BCIO:026003]</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr"/>
-      <c r="E6" s="2" t="inlineStr"/>
-      <c r="F6" s="2" t="inlineStr"/>
-      <c r="G6" s="2" t="inlineStr"/>
-      <c r="H6" s="2" t="inlineStr"/>
-      <c r="I6" s="2" t="inlineStr"/>
-      <c r="J6" s="2" t="inlineStr"/>
-      <c r="K6" s="2" t="inlineStr"/>
-      <c r="L6" s="2" t="inlineStr"/>
+      <c r="D6" s="2" t="n"/>
+      <c r="E6" s="2" t="n"/>
+      <c r="F6" s="2" t="n"/>
+      <c r="G6" s="2" t="n"/>
+      <c r="H6" s="2" t="n"/>
+      <c r="I6" s="2" t="n"/>
+      <c r="J6" s="2" t="n"/>
+      <c r="K6" s="2" t="n"/>
+      <c r="L6" s="2" t="n"/>
       <c r="M6" s="2" t="inlineStr">
         <is>
           <t>An attribute of location describing the overall socioeconomic state of a location.</t>
         </is>
       </c>
-      <c r="N6" s="2" t="inlineStr"/>
-      <c r="O6" s="2" t="inlineStr"/>
+      <c r="N6" s="2" t="n"/>
+      <c r="O6" s="2" t="n"/>
       <c r="P6" s="2" t="inlineStr">
         <is>
           <t>disadvantaged area; crime rates; World Bank Classifications</t>
         </is>
       </c>
-      <c r="Q6" s="2" t="inlineStr"/>
-      <c r="R6" s="2" t="inlineStr"/>
-      <c r="S6" s="2" t="inlineStr"/>
+      <c r="Q6" s="2" t="n"/>
+      <c r="R6" s="2" t="n"/>
+      <c r="S6" s="2" t="n"/>
       <c r="T6" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U6" s="2" t="inlineStr"/>
-      <c r="V6" s="2" t="inlineStr"/>
+      <c r="U6" s="2" t="n"/>
+      <c r="V6" s="2" t="n"/>
     </row>
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
@@ -812,37 +812,37 @@
           <t>area social and economic condition [BCIO:026004]</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr"/>
-      <c r="E7" s="2" t="inlineStr"/>
-      <c r="F7" s="2" t="inlineStr"/>
-      <c r="G7" s="2" t="inlineStr"/>
-      <c r="H7" s="2" t="inlineStr"/>
-      <c r="I7" s="2" t="inlineStr"/>
-      <c r="J7" s="2" t="inlineStr"/>
-      <c r="K7" s="2" t="inlineStr"/>
-      <c r="L7" s="2" t="inlineStr"/>
+      <c r="D7" s="2" t="n"/>
+      <c r="E7" s="2" t="n"/>
+      <c r="F7" s="2" t="n"/>
+      <c r="G7" s="2" t="n"/>
+      <c r="H7" s="2" t="n"/>
+      <c r="I7" s="2" t="n"/>
+      <c r="J7" s="2" t="n"/>
+      <c r="K7" s="2" t="n"/>
+      <c r="L7" s="2" t="n"/>
       <c r="M7" s="2" t="inlineStr">
         <is>
           <t>An area social and economic condition described to have a low-income, whether at a country or within-country level.</t>
         </is>
       </c>
-      <c r="N7" s="2" t="inlineStr"/>
-      <c r="O7" s="2" t="inlineStr"/>
+      <c r="N7" s="2" t="n"/>
+      <c r="O7" s="2" t="n"/>
       <c r="P7" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">developing country </t>
         </is>
       </c>
-      <c r="Q7" s="2" t="inlineStr"/>
-      <c r="R7" s="2" t="inlineStr"/>
-      <c r="S7" s="2" t="inlineStr"/>
+      <c r="Q7" s="2" t="n"/>
+      <c r="R7" s="2" t="n"/>
+      <c r="S7" s="2" t="n"/>
       <c r="T7" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U7" s="2" t="inlineStr"/>
-      <c r="V7" s="2" t="inlineStr"/>
+      <c r="U7" s="2" t="n"/>
+      <c r="V7" s="2" t="n"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
@@ -860,37 +860,37 @@
           <t>area social and economic condition [BCIO:026004]</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr"/>
-      <c r="E8" s="2" t="inlineStr"/>
-      <c r="F8" s="2" t="inlineStr"/>
-      <c r="G8" s="2" t="inlineStr"/>
-      <c r="H8" s="2" t="inlineStr"/>
-      <c r="I8" s="2" t="inlineStr"/>
-      <c r="J8" s="2" t="inlineStr"/>
-      <c r="K8" s="2" t="inlineStr"/>
-      <c r="L8" s="2" t="inlineStr"/>
+      <c r="D8" s="2" t="n"/>
+      <c r="E8" s="2" t="n"/>
+      <c r="F8" s="2" t="n"/>
+      <c r="G8" s="2" t="n"/>
+      <c r="H8" s="2" t="n"/>
+      <c r="I8" s="2" t="n"/>
+      <c r="J8" s="2" t="n"/>
+      <c r="K8" s="2" t="n"/>
+      <c r="L8" s="2" t="n"/>
       <c r="M8" s="2" t="inlineStr">
         <is>
           <t>An area social and economic condition described to have a high-income, whether at a country or within-country level.</t>
         </is>
       </c>
-      <c r="N8" s="2" t="inlineStr"/>
-      <c r="O8" s="2" t="inlineStr"/>
+      <c r="N8" s="2" t="n"/>
+      <c r="O8" s="2" t="n"/>
       <c r="P8" s="2" t="inlineStr">
         <is>
           <t>developed country</t>
         </is>
       </c>
-      <c r="Q8" s="2" t="inlineStr"/>
-      <c r="R8" s="2" t="inlineStr"/>
-      <c r="S8" s="2" t="inlineStr"/>
+      <c r="Q8" s="2" t="n"/>
+      <c r="R8" s="2" t="n"/>
+      <c r="S8" s="2" t="n"/>
       <c r="T8" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U8" s="2" t="inlineStr"/>
-      <c r="V8" s="2" t="inlineStr"/>
+      <c r="U8" s="2" t="n"/>
+      <c r="V8" s="2" t="n"/>
     </row>
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
@@ -908,33 +908,33 @@
           <t>attribute of location [BCIO:026003]</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr"/>
-      <c r="E9" s="2" t="inlineStr"/>
-      <c r="F9" s="2" t="inlineStr"/>
-      <c r="G9" s="2" t="inlineStr"/>
-      <c r="H9" s="2" t="inlineStr"/>
-      <c r="I9" s="2" t="inlineStr"/>
-      <c r="J9" s="2" t="inlineStr"/>
-      <c r="K9" s="2" t="inlineStr"/>
-      <c r="L9" s="2" t="inlineStr"/>
+      <c r="D9" s="2" t="n"/>
+      <c r="E9" s="2" t="n"/>
+      <c r="F9" s="2" t="n"/>
+      <c r="G9" s="2" t="n"/>
+      <c r="H9" s="2" t="n"/>
+      <c r="I9" s="2" t="n"/>
+      <c r="J9" s="2" t="n"/>
+      <c r="K9" s="2" t="n"/>
+      <c r="L9" s="2" t="n"/>
       <c r="M9" s="2" t="inlineStr">
         <is>
           <t>An attribute of location describing the density of an area, in terms of people and resources within it.</t>
         </is>
       </c>
-      <c r="N9" s="2" t="inlineStr"/>
-      <c r="O9" s="2" t="inlineStr"/>
-      <c r="P9" s="2" t="inlineStr"/>
-      <c r="Q9" s="2" t="inlineStr"/>
-      <c r="R9" s="2" t="inlineStr"/>
-      <c r="S9" s="2" t="inlineStr"/>
+      <c r="N9" s="2" t="n"/>
+      <c r="O9" s="2" t="n"/>
+      <c r="P9" s="2" t="n"/>
+      <c r="Q9" s="2" t="n"/>
+      <c r="R9" s="2" t="n"/>
+      <c r="S9" s="2" t="n"/>
       <c r="T9" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U9" s="2" t="inlineStr"/>
-      <c r="V9" s="2" t="inlineStr"/>
+      <c r="U9" s="2" t="n"/>
+      <c r="V9" s="2" t="n"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -952,15 +952,6 @@
           <t>population and resource density [BCIO:026007]</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr">
         <is>
           <t>An area which is outside of a town, city, or urban area. Rural areas are primarily used for agriculture or pastoralism and may contain rural settlements</t>
@@ -976,17 +967,11 @@
           <t>Environment Ontology</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="inlineStr"/>
       <c r="T10" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="U10" t="inlineStr"/>
-      <c r="V10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
@@ -1004,33 +989,33 @@
           <t>population and resource density [BCIO:026007]</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr"/>
-      <c r="E11" s="2" t="inlineStr"/>
-      <c r="F11" s="2" t="inlineStr"/>
-      <c r="G11" s="2" t="inlineStr"/>
-      <c r="H11" s="2" t="inlineStr"/>
-      <c r="I11" s="2" t="inlineStr"/>
-      <c r="J11" s="2" t="inlineStr"/>
-      <c r="K11" s="2" t="inlineStr"/>
-      <c r="L11" s="2" t="inlineStr"/>
+      <c r="D11" s="2" t="n"/>
+      <c r="E11" s="2" t="n"/>
+      <c r="F11" s="2" t="n"/>
+      <c r="G11" s="2" t="n"/>
+      <c r="H11" s="2" t="n"/>
+      <c r="I11" s="2" t="n"/>
+      <c r="J11" s="2" t="n"/>
+      <c r="K11" s="2" t="n"/>
+      <c r="L11" s="2" t="n"/>
       <c r="M11" s="2" t="inlineStr">
         <is>
           <t>An area on the edge of a large town or city where a proportion of those who work in the town or city live.</t>
         </is>
       </c>
-      <c r="N11" s="2" t="inlineStr"/>
-      <c r="O11" s="2" t="inlineStr"/>
-      <c r="P11" s="2" t="inlineStr"/>
-      <c r="Q11" s="2" t="inlineStr"/>
-      <c r="R11" s="2" t="inlineStr"/>
-      <c r="S11" s="2" t="inlineStr"/>
+      <c r="N11" s="2" t="n"/>
+      <c r="O11" s="2" t="n"/>
+      <c r="P11" s="2" t="n"/>
+      <c r="Q11" s="2" t="n"/>
+      <c r="R11" s="2" t="n"/>
+      <c r="S11" s="2" t="n"/>
       <c r="T11" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U11" s="2" t="inlineStr"/>
-      <c r="V11" s="2" t="inlineStr"/>
+      <c r="U11" s="2" t="n"/>
+      <c r="V11" s="2" t="n"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1048,15 +1033,6 @@
           <t>population and resource density [BCIO:026007]</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr">
         <is>
           <t>Incorporated populated place</t>
@@ -1072,17 +1048,11 @@
           <t>Environment Ontology</t>
         </is>
       </c>
-      <c r="P12" t="inlineStr"/>
-      <c r="Q12" t="inlineStr"/>
-      <c r="R12" t="inlineStr"/>
-      <c r="S12" t="inlineStr"/>
       <c r="T12" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="U12" t="inlineStr"/>
-      <c r="V12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1100,15 +1070,6 @@
           <t>Behaviour change intervention physical setting [BCIO:026000]</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr">
         <is>
           <t>A three-dimensional immaterial entity that is (partially or wholly) bounded by a material entity or it is a three-dimensional immaterial part thereof.</t>
@@ -1124,17 +1085,11 @@
           <t>Basic Formal Ontology</t>
         </is>
       </c>
-      <c r="P13" t="inlineStr"/>
-      <c r="Q13" t="inlineStr"/>
-      <c r="R13" t="inlineStr"/>
-      <c r="S13" t="inlineStr"/>
       <c r="T13" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="U13" t="inlineStr"/>
-      <c r="V13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1152,15 +1107,6 @@
           <t>site [BFO:0000029]</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr">
         <is>
           <t>An architectural structure that bears some function3</t>
@@ -1176,17 +1122,11 @@
           <t>Ontology of Medically Related Social Entities</t>
         </is>
       </c>
-      <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr"/>
-      <c r="S14" t="inlineStr"/>
       <c r="T14" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="U14" t="inlineStr"/>
-      <c r="V14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1204,15 +1144,6 @@
           <t>facility [OMRSE:00000062]</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr">
         <is>
           <t>A facility that has at least one housing unit as part in which a person or persons live</t>
@@ -1228,17 +1159,11 @@
           <t>Ontology of Medically Related Social Entities; contacted ontology authors to add definition</t>
         </is>
       </c>
-      <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr"/>
-      <c r="S15" t="inlineStr"/>
       <c r="T15" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="U15" t="inlineStr"/>
-      <c r="V15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
@@ -1256,33 +1181,33 @@
           <t>residential facility [OMRSE:00000191]</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr"/>
-      <c r="E16" s="2" t="inlineStr"/>
-      <c r="F16" s="2" t="inlineStr"/>
-      <c r="G16" s="2" t="inlineStr"/>
-      <c r="H16" s="2" t="inlineStr"/>
-      <c r="I16" s="2" t="inlineStr"/>
-      <c r="J16" s="2" t="inlineStr"/>
-      <c r="K16" s="2" t="inlineStr"/>
-      <c r="L16" s="2" t="inlineStr"/>
+      <c r="D16" s="2" t="n"/>
+      <c r="E16" s="2" t="n"/>
+      <c r="F16" s="2" t="n"/>
+      <c r="G16" s="2" t="n"/>
+      <c r="H16" s="2" t="n"/>
+      <c r="I16" s="2" t="n"/>
+      <c r="J16" s="2" t="n"/>
+      <c r="K16" s="2" t="n"/>
+      <c r="L16" s="2" t="n"/>
       <c r="M16" s="2" t="inlineStr">
         <is>
           <t>A facility where an individual is living alone or with one or more person. The individuals do not have to be related.</t>
         </is>
       </c>
-      <c r="N16" s="2" t="inlineStr"/>
-      <c r="O16" s="2" t="inlineStr"/>
-      <c r="P16" s="2" t="inlineStr"/>
-      <c r="Q16" s="2" t="inlineStr"/>
-      <c r="R16" s="2" t="inlineStr"/>
-      <c r="S16" s="2" t="inlineStr"/>
+      <c r="N16" s="2" t="n"/>
+      <c r="O16" s="2" t="n"/>
+      <c r="P16" s="2" t="n"/>
+      <c r="Q16" s="2" t="n"/>
+      <c r="R16" s="2" t="n"/>
+      <c r="S16" s="2" t="n"/>
       <c r="T16" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U16" s="2" t="inlineStr"/>
-      <c r="V16" s="2" t="inlineStr"/>
+      <c r="U16" s="2" t="n"/>
+      <c r="V16" s="2" t="n"/>
     </row>
     <row r="17">
       <c r="A17" s="2" t="inlineStr">
@@ -1300,37 +1225,37 @@
           <t>residential facility [OMRSE:00000191]</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr"/>
-      <c r="E17" s="2" t="inlineStr"/>
-      <c r="F17" s="2" t="inlineStr"/>
-      <c r="G17" s="2" t="inlineStr"/>
-      <c r="H17" s="2" t="inlineStr"/>
-      <c r="I17" s="2" t="inlineStr"/>
-      <c r="J17" s="2" t="inlineStr"/>
-      <c r="K17" s="2" t="inlineStr"/>
-      <c r="L17" s="2" t="inlineStr"/>
+      <c r="D17" s="2" t="n"/>
+      <c r="E17" s="2" t="n"/>
+      <c r="F17" s="2" t="n"/>
+      <c r="G17" s="2" t="n"/>
+      <c r="H17" s="2" t="n"/>
+      <c r="I17" s="2" t="n"/>
+      <c r="J17" s="2" t="n"/>
+      <c r="K17" s="2" t="n"/>
+      <c r="L17" s="2" t="n"/>
       <c r="M17" s="2" t="inlineStr">
         <is>
           <t>A facility where an individual lives with many others that may be collected according to a social structure such as education or disability.</t>
         </is>
       </c>
-      <c r="N17" s="2" t="inlineStr"/>
-      <c r="O17" s="2" t="inlineStr"/>
+      <c r="N17" s="2" t="n"/>
+      <c r="O17" s="2" t="n"/>
       <c r="P17" s="2" t="inlineStr">
         <is>
           <t>bedsit</t>
         </is>
       </c>
-      <c r="Q17" s="2" t="inlineStr"/>
-      <c r="R17" s="2" t="inlineStr"/>
-      <c r="S17" s="2" t="inlineStr"/>
+      <c r="Q17" s="2" t="n"/>
+      <c r="R17" s="2" t="n"/>
+      <c r="S17" s="2" t="n"/>
       <c r="T17" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U17" s="2" t="inlineStr"/>
-      <c r="V17" s="2" t="inlineStr"/>
+      <c r="U17" s="2" t="n"/>
+      <c r="V17" s="2" t="n"/>
     </row>
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
@@ -1348,37 +1273,37 @@
           <t>multiple occupancy residence [BCIO:026010]</t>
         </is>
       </c>
-      <c r="D18" s="2" t="inlineStr"/>
-      <c r="E18" s="2" t="inlineStr"/>
-      <c r="F18" s="2" t="inlineStr"/>
-      <c r="G18" s="2" t="inlineStr"/>
-      <c r="H18" s="2" t="inlineStr"/>
-      <c r="I18" s="2" t="inlineStr"/>
-      <c r="J18" s="2" t="inlineStr"/>
-      <c r="K18" s="2" t="inlineStr"/>
-      <c r="L18" s="2" t="inlineStr"/>
+      <c r="D18" s="2" t="n"/>
+      <c r="E18" s="2" t="n"/>
+      <c r="F18" s="2" t="n"/>
+      <c r="G18" s="2" t="n"/>
+      <c r="H18" s="2" t="n"/>
+      <c r="I18" s="2" t="n"/>
+      <c r="J18" s="2" t="n"/>
+      <c r="K18" s="2" t="n"/>
+      <c r="L18" s="2" t="n"/>
       <c r="M18" s="2" t="inlineStr">
         <is>
           <t>A multiple occupancy residence where many students live.</t>
         </is>
       </c>
-      <c r="N18" s="2" t="inlineStr"/>
-      <c r="O18" s="2" t="inlineStr"/>
+      <c r="N18" s="2" t="n"/>
+      <c r="O18" s="2" t="n"/>
       <c r="P18" s="2" t="inlineStr">
         <is>
           <t>student hall</t>
         </is>
       </c>
-      <c r="Q18" s="2" t="inlineStr"/>
-      <c r="R18" s="2" t="inlineStr"/>
-      <c r="S18" s="2" t="inlineStr"/>
+      <c r="Q18" s="2" t="n"/>
+      <c r="R18" s="2" t="n"/>
+      <c r="S18" s="2" t="n"/>
       <c r="T18" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U18" s="2" t="inlineStr"/>
-      <c r="V18" s="2" t="inlineStr"/>
+      <c r="U18" s="2" t="n"/>
+      <c r="V18" s="2" t="n"/>
     </row>
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
@@ -1396,37 +1321,37 @@
           <t>multiple occupancy residence [BCIO:026010]</t>
         </is>
       </c>
-      <c r="D19" s="2" t="inlineStr"/>
-      <c r="E19" s="2" t="inlineStr"/>
-      <c r="F19" s="2" t="inlineStr"/>
-      <c r="G19" s="2" t="inlineStr"/>
-      <c r="H19" s="2" t="inlineStr"/>
-      <c r="I19" s="2" t="inlineStr"/>
-      <c r="J19" s="2" t="inlineStr"/>
-      <c r="K19" s="2" t="inlineStr"/>
-      <c r="L19" s="2" t="inlineStr"/>
+      <c r="D19" s="2" t="n"/>
+      <c r="E19" s="2" t="n"/>
+      <c r="F19" s="2" t="n"/>
+      <c r="G19" s="2" t="n"/>
+      <c r="H19" s="2" t="n"/>
+      <c r="I19" s="2" t="n"/>
+      <c r="J19" s="2" t="n"/>
+      <c r="K19" s="2" t="n"/>
+      <c r="L19" s="2" t="n"/>
       <c r="M19" s="2" t="inlineStr">
         <is>
           <t>A multiple occupancy residence where multiple vulnerable people live</t>
         </is>
       </c>
-      <c r="N19" s="2" t="inlineStr"/>
-      <c r="O19" s="2" t="inlineStr"/>
+      <c r="N19" s="2" t="n"/>
+      <c r="O19" s="2" t="n"/>
       <c r="P19" s="2" t="inlineStr">
         <is>
           <t>retirement home</t>
         </is>
       </c>
-      <c r="Q19" s="2" t="inlineStr"/>
-      <c r="R19" s="2" t="inlineStr"/>
-      <c r="S19" s="2" t="inlineStr"/>
+      <c r="Q19" s="2" t="n"/>
+      <c r="R19" s="2" t="n"/>
+      <c r="S19" s="2" t="n"/>
       <c r="T19" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U19" s="2" t="inlineStr"/>
-      <c r="V19" s="2" t="inlineStr"/>
+      <c r="U19" s="2" t="n"/>
+      <c r="V19" s="2" t="n"/>
     </row>
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
@@ -1444,37 +1369,37 @@
           <t>residential facility [OMRSE:00000191]</t>
         </is>
       </c>
-      <c r="D20" s="2" t="inlineStr"/>
-      <c r="E20" s="2" t="inlineStr"/>
-      <c r="F20" s="2" t="inlineStr"/>
-      <c r="G20" s="2" t="inlineStr"/>
-      <c r="H20" s="2" t="inlineStr"/>
-      <c r="I20" s="2" t="inlineStr"/>
-      <c r="J20" s="2" t="inlineStr"/>
-      <c r="K20" s="2" t="inlineStr"/>
-      <c r="L20" s="2" t="inlineStr"/>
+      <c r="D20" s="2" t="n"/>
+      <c r="E20" s="2" t="n"/>
+      <c r="F20" s="2" t="n"/>
+      <c r="G20" s="2" t="n"/>
+      <c r="H20" s="2" t="n"/>
+      <c r="I20" s="2" t="n"/>
+      <c r="J20" s="2" t="n"/>
+      <c r="K20" s="2" t="n"/>
+      <c r="L20" s="2" t="n"/>
       <c r="M20" s="2" t="inlineStr">
         <is>
           <t>A residential facility where an individual is living that is not stable and secure.</t>
         </is>
       </c>
-      <c r="N20" s="2" t="inlineStr"/>
-      <c r="O20" s="2" t="inlineStr"/>
+      <c r="N20" s="2" t="n"/>
+      <c r="O20" s="2" t="n"/>
       <c r="P20" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">an architectural structure for which an individual does not have a legal right to stay </t>
         </is>
       </c>
-      <c r="Q20" s="2" t="inlineStr"/>
-      <c r="R20" s="2" t="inlineStr"/>
-      <c r="S20" s="2" t="inlineStr"/>
+      <c r="Q20" s="2" t="n"/>
+      <c r="R20" s="2" t="n"/>
+      <c r="S20" s="2" t="n"/>
       <c r="T20" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U20" s="2" t="inlineStr"/>
-      <c r="V20" s="2" t="inlineStr"/>
+      <c r="U20" s="2" t="n"/>
+      <c r="V20" s="2" t="n"/>
     </row>
     <row r="21">
       <c r="A21" s="2" t="inlineStr">
@@ -1492,37 +1417,37 @@
           <t>residential facility [OMRSE:00000191]</t>
         </is>
       </c>
-      <c r="D21" s="2" t="inlineStr"/>
-      <c r="E21" s="2" t="inlineStr"/>
-      <c r="F21" s="2" t="inlineStr"/>
-      <c r="G21" s="2" t="inlineStr"/>
-      <c r="H21" s="2" t="inlineStr"/>
-      <c r="I21" s="2" t="inlineStr"/>
-      <c r="J21" s="2" t="inlineStr"/>
-      <c r="K21" s="2" t="inlineStr"/>
-      <c r="L21" s="2" t="inlineStr"/>
+      <c r="D21" s="2" t="n"/>
+      <c r="E21" s="2" t="n"/>
+      <c r="F21" s="2" t="n"/>
+      <c r="G21" s="2" t="n"/>
+      <c r="H21" s="2" t="n"/>
+      <c r="I21" s="2" t="n"/>
+      <c r="J21" s="2" t="n"/>
+      <c r="K21" s="2" t="n"/>
+      <c r="L21" s="2" t="n"/>
       <c r="M21" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">A residential facility where individuals are in a transitional state of housing and not staying for a prolonged period. </t>
         </is>
       </c>
-      <c r="N21" s="2" t="inlineStr"/>
-      <c r="O21" s="2" t="inlineStr"/>
+      <c r="N21" s="2" t="n"/>
+      <c r="O21" s="2" t="n"/>
       <c r="P21" s="2" t="inlineStr">
         <is>
           <t>Hostels; BandB; emergency accomnodation</t>
         </is>
       </c>
-      <c r="Q21" s="2" t="inlineStr"/>
-      <c r="R21" s="2" t="inlineStr"/>
-      <c r="S21" s="2" t="inlineStr"/>
+      <c r="Q21" s="2" t="n"/>
+      <c r="R21" s="2" t="n"/>
+      <c r="S21" s="2" t="n"/>
       <c r="T21" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U21" s="2" t="inlineStr"/>
-      <c r="V21" s="2" t="inlineStr"/>
+      <c r="U21" s="2" t="n"/>
+      <c r="V21" s="2" t="n"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1540,15 +1465,6 @@
           <t>facility [OMRSE:00000062]</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr"/>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr">
         <is>
           <t>A facility that’s administered by a health care organisation for the purpose of providing health care to a patient population</t>
@@ -1564,17 +1480,11 @@
           <t>Ontology of Medically Related Social Entities</t>
         </is>
       </c>
-      <c r="P22" t="inlineStr"/>
-      <c r="Q22" t="inlineStr"/>
-      <c r="R22" t="inlineStr"/>
-      <c r="S22" t="inlineStr"/>
       <c r="T22" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="U22" t="inlineStr"/>
-      <c r="V22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1592,15 +1502,6 @@
           <t>healthcare facility [OMRSE:00000102]</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr"/>
-      <c r="G23" t="inlineStr"/>
-      <c r="H23" t="inlineStr"/>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr">
         <is>
           <t>A facility that is run by a hospital organization, such as emergency departments, outpatient clinics and rehabilitation and is the bearer of a hospital function</t>
@@ -1616,17 +1517,11 @@
           <t>Ontology of Medically Related Social Entities</t>
         </is>
       </c>
-      <c r="P23" t="inlineStr"/>
-      <c r="Q23" t="inlineStr"/>
-      <c r="R23" t="inlineStr"/>
-      <c r="S23" t="inlineStr"/>
       <c r="T23" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="U23" t="inlineStr"/>
-      <c r="V23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1644,15 +1539,6 @@
           <t>hospital facility [OMRSE:00000063]</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr"/>
-      <c r="G24" t="inlineStr"/>
-      <c r="H24" t="inlineStr"/>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr">
         <is>
           <t>A health care facility that bears a function to provide emergency healthcare services and the acute care of patients who present without prior appointment, having arrived either by their own means or by ambulance</t>
@@ -1668,17 +1554,11 @@
           <t>OMRSE_00000114</t>
         </is>
       </c>
-      <c r="P24" t="inlineStr"/>
-      <c r="Q24" t="inlineStr"/>
-      <c r="R24" t="inlineStr"/>
-      <c r="S24" t="inlineStr"/>
       <c r="T24" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="U24" t="inlineStr"/>
-      <c r="V24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="2" t="inlineStr">
@@ -1696,33 +1576,33 @@
           <t>hospital facility [OMRSE:00000063]</t>
         </is>
       </c>
-      <c r="D25" s="2" t="inlineStr"/>
-      <c r="E25" s="2" t="inlineStr"/>
-      <c r="F25" s="2" t="inlineStr"/>
-      <c r="G25" s="2" t="inlineStr"/>
-      <c r="H25" s="2" t="inlineStr"/>
-      <c r="I25" s="2" t="inlineStr"/>
-      <c r="J25" s="2" t="inlineStr"/>
-      <c r="K25" s="2" t="inlineStr"/>
-      <c r="L25" s="2" t="inlineStr"/>
+      <c r="D25" s="2" t="n"/>
+      <c r="E25" s="2" t="n"/>
+      <c r="F25" s="2" t="n"/>
+      <c r="G25" s="2" t="n"/>
+      <c r="H25" s="2" t="n"/>
+      <c r="I25" s="2" t="n"/>
+      <c r="J25" s="2" t="n"/>
+      <c r="K25" s="2" t="n"/>
+      <c r="L25" s="2" t="n"/>
       <c r="M25" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">A hospital facility to treat patients without them staying overnight, often after a hospital visit. </t>
         </is>
       </c>
-      <c r="N25" s="2" t="inlineStr"/>
-      <c r="O25" s="2" t="inlineStr"/>
-      <c r="P25" s="2" t="inlineStr"/>
-      <c r="Q25" s="2" t="inlineStr"/>
-      <c r="R25" s="2" t="inlineStr"/>
-      <c r="S25" s="2" t="inlineStr"/>
+      <c r="N25" s="2" t="n"/>
+      <c r="O25" s="2" t="n"/>
+      <c r="P25" s="2" t="n"/>
+      <c r="Q25" s="2" t="n"/>
+      <c r="R25" s="2" t="n"/>
+      <c r="S25" s="2" t="n"/>
       <c r="T25" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U25" s="2" t="inlineStr"/>
-      <c r="V25" s="2" t="inlineStr"/>
+      <c r="U25" s="2" t="n"/>
+      <c r="V25" s="2" t="n"/>
     </row>
     <row r="26">
       <c r="A26" s="2" t="inlineStr">
@@ -1740,37 +1620,37 @@
           <t>healthcare facility [OMRSE:00000102]</t>
         </is>
       </c>
-      <c r="D26" s="2" t="inlineStr"/>
-      <c r="E26" s="2" t="inlineStr"/>
-      <c r="F26" s="2" t="inlineStr"/>
-      <c r="G26" s="2" t="inlineStr"/>
-      <c r="H26" s="2" t="inlineStr"/>
-      <c r="I26" s="2" t="inlineStr"/>
-      <c r="J26" s="2" t="inlineStr"/>
-      <c r="K26" s="2" t="inlineStr"/>
-      <c r="L26" s="2" t="inlineStr"/>
+      <c r="D26" s="2" t="n"/>
+      <c r="E26" s="2" t="n"/>
+      <c r="F26" s="2" t="n"/>
+      <c r="G26" s="2" t="n"/>
+      <c r="H26" s="2" t="n"/>
+      <c r="I26" s="2" t="n"/>
+      <c r="J26" s="2" t="n"/>
+      <c r="K26" s="2" t="n"/>
+      <c r="L26" s="2" t="n"/>
       <c r="M26" s="2" t="inlineStr">
         <is>
           <t>A healthcare facility led by doctors.</t>
         </is>
       </c>
-      <c r="N26" s="2" t="inlineStr"/>
-      <c r="O26" s="2" t="inlineStr"/>
+      <c r="N26" s="2" t="n"/>
+      <c r="O26" s="2" t="n"/>
       <c r="P26" s="2" t="inlineStr">
         <is>
           <t>general practitioners surgery; doctor surgery</t>
         </is>
       </c>
-      <c r="Q26" s="2" t="inlineStr"/>
-      <c r="R26" s="2" t="inlineStr"/>
-      <c r="S26" s="2" t="inlineStr"/>
+      <c r="Q26" s="2" t="n"/>
+      <c r="R26" s="2" t="n"/>
+      <c r="S26" s="2" t="n"/>
       <c r="T26" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U26" s="2" t="inlineStr"/>
-      <c r="V26" s="2" t="inlineStr"/>
+      <c r="U26" s="2" t="n"/>
+      <c r="V26" s="2" t="n"/>
     </row>
     <row r="27">
       <c r="A27" s="2" t="inlineStr">
@@ -1788,33 +1668,33 @@
           <t>healthcare facility [OMRSE:00000102]</t>
         </is>
       </c>
-      <c r="D27" s="2" t="inlineStr"/>
-      <c r="E27" s="2" t="inlineStr"/>
-      <c r="F27" s="2" t="inlineStr"/>
-      <c r="G27" s="2" t="inlineStr"/>
-      <c r="H27" s="2" t="inlineStr"/>
-      <c r="I27" s="2" t="inlineStr"/>
-      <c r="J27" s="2" t="inlineStr"/>
-      <c r="K27" s="2" t="inlineStr"/>
-      <c r="L27" s="2" t="inlineStr"/>
+      <c r="D27" s="2" t="n"/>
+      <c r="E27" s="2" t="n"/>
+      <c r="F27" s="2" t="n"/>
+      <c r="G27" s="2" t="n"/>
+      <c r="H27" s="2" t="n"/>
+      <c r="I27" s="2" t="n"/>
+      <c r="J27" s="2" t="n"/>
+      <c r="K27" s="2" t="n"/>
+      <c r="L27" s="2" t="n"/>
       <c r="M27" s="2" t="inlineStr">
         <is>
           <t>A healthcare facility that is run by a care home organization and is the bearer of a care home function.</t>
         </is>
       </c>
-      <c r="N27" s="2" t="inlineStr"/>
-      <c r="O27" s="2" t="inlineStr"/>
-      <c r="P27" s="2" t="inlineStr"/>
-      <c r="Q27" s="2" t="inlineStr"/>
-      <c r="R27" s="2" t="inlineStr"/>
-      <c r="S27" s="2" t="inlineStr"/>
+      <c r="N27" s="2" t="n"/>
+      <c r="O27" s="2" t="n"/>
+      <c r="P27" s="2" t="n"/>
+      <c r="Q27" s="2" t="n"/>
+      <c r="R27" s="2" t="n"/>
+      <c r="S27" s="2" t="n"/>
       <c r="T27" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U27" s="2" t="inlineStr"/>
-      <c r="V27" s="2" t="inlineStr"/>
+      <c r="U27" s="2" t="n"/>
+      <c r="V27" s="2" t="n"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1832,15 +1712,6 @@
           <t>healthcare facility [OMRSE:00000102]</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr"/>
-      <c r="G28" t="inlineStr"/>
-      <c r="H28" t="inlineStr"/>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
       <c r="M28" t="inlineStr">
         <is>
           <t>A health care facility that bears a function to provide healthcare to the sick or terminally ill</t>
@@ -1856,17 +1727,11 @@
           <t>Ontology of Medically Related Social Entities; contacted ontology authors to add definition</t>
         </is>
       </c>
-      <c r="P28" t="inlineStr"/>
-      <c r="Q28" t="inlineStr"/>
-      <c r="R28" t="inlineStr"/>
-      <c r="S28" t="inlineStr"/>
       <c r="T28" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="U28" t="inlineStr"/>
-      <c r="V28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1884,15 +1749,6 @@
           <t>healthcare facility [OMRSE:00000102]</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr"/>
-      <c r="E29" t="inlineStr"/>
-      <c r="F29" t="inlineStr"/>
-      <c r="G29" t="inlineStr"/>
-      <c r="H29" t="inlineStr"/>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
       <c r="M29" t="inlineStr">
         <is>
           <t>A health care facility whose function is to store, prepare, dispense, and monitor the usage of pharmaceutical drugs among patients in a given area or encountered in a given health care provider organization</t>
@@ -1908,17 +1764,11 @@
           <t>The Prescription of Drugs Ontology</t>
         </is>
       </c>
-      <c r="P29" t="inlineStr"/>
-      <c r="Q29" t="inlineStr"/>
-      <c r="R29" t="inlineStr"/>
-      <c r="S29" t="inlineStr"/>
       <c r="T29" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="U29" t="inlineStr"/>
-      <c r="V29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1936,15 +1786,6 @@
           <t>healthcare facility [OMRSE:00000102]</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr"/>
-      <c r="G30" t="inlineStr"/>
-      <c r="H30" t="inlineStr"/>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr">
         <is>
           <t>A facility to assist in physical or addiction recovery</t>
@@ -1960,17 +1801,11 @@
           <t>Ontology of Medically Related Social Entities; contacted ontology authors to add definition</t>
         </is>
       </c>
-      <c r="P30" t="inlineStr"/>
-      <c r="Q30" t="inlineStr"/>
-      <c r="R30" t="inlineStr"/>
-      <c r="S30" t="inlineStr"/>
       <c r="T30" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="U30" t="inlineStr"/>
-      <c r="V30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="2" t="inlineStr">
@@ -1988,33 +1823,33 @@
           <t>rehabilitation facility [OMRSE:00000106]</t>
         </is>
       </c>
-      <c r="D31" s="2" t="inlineStr"/>
-      <c r="E31" s="2" t="inlineStr"/>
-      <c r="F31" s="2" t="inlineStr"/>
-      <c r="G31" s="2" t="inlineStr"/>
-      <c r="H31" s="2" t="inlineStr"/>
-      <c r="I31" s="2" t="inlineStr"/>
-      <c r="J31" s="2" t="inlineStr"/>
-      <c r="K31" s="2" t="inlineStr"/>
-      <c r="L31" s="2" t="inlineStr"/>
+      <c r="D31" s="2" t="n"/>
+      <c r="E31" s="2" t="n"/>
+      <c r="F31" s="2" t="n"/>
+      <c r="G31" s="2" t="n"/>
+      <c r="H31" s="2" t="n"/>
+      <c r="I31" s="2" t="n"/>
+      <c r="J31" s="2" t="n"/>
+      <c r="K31" s="2" t="n"/>
+      <c r="L31" s="2" t="n"/>
       <c r="M31" s="2" t="inlineStr">
         <is>
           <t>A rehabilitation facility to assist the recovery of people with drug or alcohol addiction.</t>
         </is>
       </c>
-      <c r="N31" s="2" t="inlineStr"/>
-      <c r="O31" s="2" t="inlineStr"/>
-      <c r="P31" s="2" t="inlineStr"/>
-      <c r="Q31" s="2" t="inlineStr"/>
-      <c r="R31" s="2" t="inlineStr"/>
-      <c r="S31" s="2" t="inlineStr"/>
+      <c r="N31" s="2" t="n"/>
+      <c r="O31" s="2" t="n"/>
+      <c r="P31" s="2" t="n"/>
+      <c r="Q31" s="2" t="n"/>
+      <c r="R31" s="2" t="n"/>
+      <c r="S31" s="2" t="n"/>
       <c r="T31" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U31" s="2" t="inlineStr"/>
-      <c r="V31" s="2" t="inlineStr"/>
+      <c r="U31" s="2" t="n"/>
+      <c r="V31" s="2" t="n"/>
     </row>
     <row r="32">
       <c r="A32" s="2" t="inlineStr">
@@ -2032,15 +1867,15 @@
           <t>healthcare facility [OMRSE:00000102]</t>
         </is>
       </c>
-      <c r="D32" s="2" t="inlineStr"/>
-      <c r="E32" s="2" t="inlineStr"/>
-      <c r="F32" s="2" t="inlineStr"/>
-      <c r="G32" s="2" t="inlineStr"/>
-      <c r="H32" s="2" t="inlineStr"/>
-      <c r="I32" s="2" t="inlineStr"/>
-      <c r="J32" s="2" t="inlineStr"/>
-      <c r="K32" s="2" t="inlineStr"/>
-      <c r="L32" s="2" t="inlineStr"/>
+      <c r="D32" s="2" t="n"/>
+      <c r="E32" s="2" t="n"/>
+      <c r="F32" s="2" t="n"/>
+      <c r="G32" s="2" t="n"/>
+      <c r="H32" s="2" t="n"/>
+      <c r="I32" s="2" t="n"/>
+      <c r="J32" s="2" t="n"/>
+      <c r="K32" s="2" t="n"/>
+      <c r="L32" s="2" t="n"/>
       <c r="M32" s="2" t="inlineStr">
         <is>
           <t>A place designed and staffed to house and treat individuals that need assistance with mental dysfunctions</t>
@@ -2056,17 +1891,17 @@
           <t>NCI Thesaurus OBO Edition</t>
         </is>
       </c>
-      <c r="P32" s="2" t="inlineStr"/>
-      <c r="Q32" s="2" t="inlineStr"/>
-      <c r="R32" s="2" t="inlineStr"/>
-      <c r="S32" s="2" t="inlineStr"/>
+      <c r="P32" s="2" t="n"/>
+      <c r="Q32" s="2" t="n"/>
+      <c r="R32" s="2" t="n"/>
+      <c r="S32" s="2" t="n"/>
       <c r="T32" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U32" s="2" t="inlineStr"/>
-      <c r="V32" s="2" t="inlineStr"/>
+      <c r="U32" s="2" t="n"/>
+      <c r="V32" s="2" t="n"/>
     </row>
     <row r="33">
       <c r="A33" s="2" t="inlineStr">
@@ -2084,37 +1919,37 @@
           <t>healthcare facility [OMRSE:00000102]</t>
         </is>
       </c>
-      <c r="D33" s="2" t="inlineStr"/>
-      <c r="E33" s="2" t="inlineStr"/>
-      <c r="F33" s="2" t="inlineStr"/>
-      <c r="G33" s="2" t="inlineStr"/>
-      <c r="H33" s="2" t="inlineStr"/>
-      <c r="I33" s="2" t="inlineStr"/>
-      <c r="J33" s="2" t="inlineStr"/>
-      <c r="K33" s="2" t="inlineStr"/>
-      <c r="L33" s="2" t="inlineStr"/>
+      <c r="D33" s="2" t="n"/>
+      <c r="E33" s="2" t="n"/>
+      <c r="F33" s="2" t="n"/>
+      <c r="G33" s="2" t="n"/>
+      <c r="H33" s="2" t="n"/>
+      <c r="I33" s="2" t="n"/>
+      <c r="J33" s="2" t="n"/>
+      <c r="K33" s="2" t="n"/>
+      <c r="L33" s="2" t="n"/>
       <c r="M33" s="2" t="inlineStr">
         <is>
           <t>A clinic providing healthcare services to people in a certain area</t>
         </is>
       </c>
-      <c r="N33" s="2" t="inlineStr"/>
-      <c r="O33" s="2" t="inlineStr"/>
+      <c r="N33" s="2" t="n"/>
+      <c r="O33" s="2" t="n"/>
       <c r="P33" s="2" t="inlineStr">
         <is>
           <t>polyclinic</t>
         </is>
       </c>
-      <c r="Q33" s="2" t="inlineStr"/>
-      <c r="R33" s="2" t="inlineStr"/>
-      <c r="S33" s="2" t="inlineStr"/>
+      <c r="Q33" s="2" t="n"/>
+      <c r="R33" s="2" t="n"/>
+      <c r="S33" s="2" t="n"/>
       <c r="T33" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U33" s="2" t="inlineStr"/>
-      <c r="V33" s="2" t="inlineStr"/>
+      <c r="U33" s="2" t="n"/>
+      <c r="V33" s="2" t="n"/>
     </row>
     <row r="34">
       <c r="A34" s="2" t="inlineStr">
@@ -2132,33 +1967,33 @@
           <t>community healthcare facility [BCIO:026019]</t>
         </is>
       </c>
-      <c r="D34" s="2" t="inlineStr"/>
-      <c r="E34" s="2" t="inlineStr"/>
-      <c r="F34" s="2" t="inlineStr"/>
-      <c r="G34" s="2" t="inlineStr"/>
-      <c r="H34" s="2" t="inlineStr"/>
-      <c r="I34" s="2" t="inlineStr"/>
-      <c r="J34" s="2" t="inlineStr"/>
-      <c r="K34" s="2" t="inlineStr"/>
-      <c r="L34" s="2" t="inlineStr"/>
+      <c r="D34" s="2" t="n"/>
+      <c r="E34" s="2" t="n"/>
+      <c r="F34" s="2" t="n"/>
+      <c r="G34" s="2" t="n"/>
+      <c r="H34" s="2" t="n"/>
+      <c r="I34" s="2" t="n"/>
+      <c r="J34" s="2" t="n"/>
+      <c r="K34" s="2" t="n"/>
+      <c r="L34" s="2" t="n"/>
       <c r="M34" s="2" t="inlineStr">
         <is>
           <t>A healthcare facility to treat patients in the community without them staying overnight.</t>
         </is>
       </c>
-      <c r="N34" s="2" t="inlineStr"/>
-      <c r="O34" s="2" t="inlineStr"/>
-      <c r="P34" s="2" t="inlineStr"/>
-      <c r="Q34" s="2" t="inlineStr"/>
-      <c r="R34" s="2" t="inlineStr"/>
-      <c r="S34" s="2" t="inlineStr"/>
+      <c r="N34" s="2" t="n"/>
+      <c r="O34" s="2" t="n"/>
+      <c r="P34" s="2" t="n"/>
+      <c r="Q34" s="2" t="n"/>
+      <c r="R34" s="2" t="n"/>
+      <c r="S34" s="2" t="n"/>
       <c r="T34" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U34" s="2" t="inlineStr"/>
-      <c r="V34" s="2" t="inlineStr"/>
+      <c r="U34" s="2" t="n"/>
+      <c r="V34" s="2" t="n"/>
     </row>
     <row r="35">
       <c r="A35" s="2" t="inlineStr">
@@ -2176,33 +2011,33 @@
           <t>healthcare facility [OMRSE:00000102]</t>
         </is>
       </c>
-      <c r="D35" s="2" t="inlineStr"/>
-      <c r="E35" s="2" t="inlineStr"/>
-      <c r="F35" s="2" t="inlineStr"/>
-      <c r="G35" s="2" t="inlineStr"/>
-      <c r="H35" s="2" t="inlineStr"/>
-      <c r="I35" s="2" t="inlineStr"/>
-      <c r="J35" s="2" t="inlineStr"/>
-      <c r="K35" s="2" t="inlineStr"/>
-      <c r="L35" s="2" t="inlineStr"/>
+      <c r="D35" s="2" t="n"/>
+      <c r="E35" s="2" t="n"/>
+      <c r="F35" s="2" t="n"/>
+      <c r="G35" s="2" t="n"/>
+      <c r="H35" s="2" t="n"/>
+      <c r="I35" s="2" t="n"/>
+      <c r="J35" s="2" t="n"/>
+      <c r="K35" s="2" t="n"/>
+      <c r="L35" s="2" t="n"/>
       <c r="M35" s="2" t="inlineStr">
         <is>
           <t>A healthcare facility where dental healthcare is provided.</t>
         </is>
       </c>
-      <c r="N35" s="2" t="inlineStr"/>
-      <c r="O35" s="2" t="inlineStr"/>
-      <c r="P35" s="2" t="inlineStr"/>
-      <c r="Q35" s="2" t="inlineStr"/>
-      <c r="R35" s="2" t="inlineStr"/>
-      <c r="S35" s="2" t="inlineStr"/>
+      <c r="N35" s="2" t="n"/>
+      <c r="O35" s="2" t="n"/>
+      <c r="P35" s="2" t="n"/>
+      <c r="Q35" s="2" t="n"/>
+      <c r="R35" s="2" t="n"/>
+      <c r="S35" s="2" t="n"/>
       <c r="T35" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U35" s="2" t="inlineStr"/>
-      <c r="V35" s="2" t="inlineStr"/>
+      <c r="U35" s="2" t="n"/>
+      <c r="V35" s="2" t="n"/>
     </row>
     <row r="36">
       <c r="A36" s="2" t="inlineStr">
@@ -2220,33 +2055,33 @@
           <t>facility [OMRSE:00000062]</t>
         </is>
       </c>
-      <c r="D36" s="2" t="inlineStr"/>
-      <c r="E36" s="2" t="inlineStr"/>
-      <c r="F36" s="2" t="inlineStr"/>
-      <c r="G36" s="2" t="inlineStr"/>
-      <c r="H36" s="2" t="inlineStr"/>
-      <c r="I36" s="2" t="inlineStr"/>
-      <c r="J36" s="2" t="inlineStr"/>
-      <c r="K36" s="2" t="inlineStr"/>
-      <c r="L36" s="2" t="inlineStr"/>
+      <c r="D36" s="2" t="n"/>
+      <c r="E36" s="2" t="n"/>
+      <c r="F36" s="2" t="n"/>
+      <c r="G36" s="2" t="n"/>
+      <c r="H36" s="2" t="n"/>
+      <c r="I36" s="2" t="n"/>
+      <c r="J36" s="2" t="n"/>
+      <c r="K36" s="2" t="n"/>
+      <c r="L36" s="2" t="n"/>
       <c r="M36" s="2" t="inlineStr">
         <is>
           <t>A facility in which formal education is provided to a student population.</t>
         </is>
       </c>
-      <c r="N36" s="2" t="inlineStr"/>
-      <c r="O36" s="2" t="inlineStr"/>
-      <c r="P36" s="2" t="inlineStr"/>
-      <c r="Q36" s="2" t="inlineStr"/>
-      <c r="R36" s="2" t="inlineStr"/>
-      <c r="S36" s="2" t="inlineStr"/>
+      <c r="N36" s="2" t="n"/>
+      <c r="O36" s="2" t="n"/>
+      <c r="P36" s="2" t="n"/>
+      <c r="Q36" s="2" t="n"/>
+      <c r="R36" s="2" t="n"/>
+      <c r="S36" s="2" t="n"/>
       <c r="T36" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U36" s="2" t="inlineStr"/>
-      <c r="V36" s="2" t="inlineStr"/>
+      <c r="U36" s="2" t="n"/>
+      <c r="V36" s="2" t="n"/>
     </row>
     <row r="37">
       <c r="A37" s="2" t="inlineStr">
@@ -2264,37 +2099,37 @@
           <t>educational facility [BCIO:026022]</t>
         </is>
       </c>
-      <c r="D37" s="2" t="inlineStr"/>
-      <c r="E37" s="2" t="inlineStr"/>
-      <c r="F37" s="2" t="inlineStr"/>
-      <c r="G37" s="2" t="inlineStr"/>
-      <c r="H37" s="2" t="inlineStr"/>
-      <c r="I37" s="2" t="inlineStr"/>
-      <c r="J37" s="2" t="inlineStr"/>
-      <c r="K37" s="2" t="inlineStr"/>
-      <c r="L37" s="2" t="inlineStr"/>
+      <c r="D37" s="2" t="n"/>
+      <c r="E37" s="2" t="n"/>
+      <c r="F37" s="2" t="n"/>
+      <c r="G37" s="2" t="n"/>
+      <c r="H37" s="2" t="n"/>
+      <c r="I37" s="2" t="n"/>
+      <c r="J37" s="2" t="n"/>
+      <c r="K37" s="2" t="n"/>
+      <c r="L37" s="2" t="n"/>
       <c r="M37" s="2" t="inlineStr">
         <is>
           <t>An educational facility in which pre-school education is provided.</t>
         </is>
       </c>
-      <c r="N37" s="2" t="inlineStr"/>
-      <c r="O37" s="2" t="inlineStr"/>
+      <c r="N37" s="2" t="n"/>
+      <c r="O37" s="2" t="n"/>
       <c r="P37" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">nursery school </t>
         </is>
       </c>
-      <c r="Q37" s="2" t="inlineStr"/>
-      <c r="R37" s="2" t="inlineStr"/>
-      <c r="S37" s="2" t="inlineStr"/>
+      <c r="Q37" s="2" t="n"/>
+      <c r="R37" s="2" t="n"/>
+      <c r="S37" s="2" t="n"/>
       <c r="T37" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U37" s="2" t="inlineStr"/>
-      <c r="V37" s="2" t="inlineStr"/>
+      <c r="U37" s="2" t="n"/>
+      <c r="V37" s="2" t="n"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -2312,15 +2147,6 @@
           <t>educational facility [BCIO:026022]</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr"/>
-      <c r="E38" t="inlineStr"/>
-      <c r="F38" t="inlineStr"/>
-      <c r="G38" t="inlineStr"/>
-      <c r="H38" t="inlineStr"/>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
       <c r="M38" t="inlineStr">
         <is>
           <t>A facility that is run by a school organization and is the bearer of a school function</t>
@@ -2336,17 +2162,11 @@
           <t>Ontology of Medically Related Social Entities</t>
         </is>
       </c>
-      <c r="P38" t="inlineStr"/>
-      <c r="Q38" t="inlineStr"/>
-      <c r="R38" t="inlineStr"/>
-      <c r="S38" t="inlineStr"/>
       <c r="T38" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="U38" t="inlineStr"/>
-      <c r="V38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="2" t="inlineStr">
@@ -2364,33 +2184,33 @@
           <t>school facility [OMRSE:00000064]</t>
         </is>
       </c>
-      <c r="D39" s="2" t="inlineStr"/>
-      <c r="E39" s="2" t="inlineStr"/>
-      <c r="F39" s="2" t="inlineStr"/>
-      <c r="G39" s="2" t="inlineStr"/>
-      <c r="H39" s="2" t="inlineStr"/>
-      <c r="I39" s="2" t="inlineStr"/>
-      <c r="J39" s="2" t="inlineStr"/>
-      <c r="K39" s="2" t="inlineStr"/>
-      <c r="L39" s="2" t="inlineStr"/>
+      <c r="D39" s="2" t="n"/>
+      <c r="E39" s="2" t="n"/>
+      <c r="F39" s="2" t="n"/>
+      <c r="G39" s="2" t="n"/>
+      <c r="H39" s="2" t="n"/>
+      <c r="I39" s="2" t="n"/>
+      <c r="J39" s="2" t="n"/>
+      <c r="K39" s="2" t="n"/>
+      <c r="L39" s="2" t="n"/>
       <c r="M39" s="2" t="inlineStr">
         <is>
           <t>A school facility for younger children, typically aged between five and eleven.</t>
         </is>
       </c>
-      <c r="N39" s="2" t="inlineStr"/>
-      <c r="O39" s="2" t="inlineStr"/>
-      <c r="P39" s="2" t="inlineStr"/>
-      <c r="Q39" s="2" t="inlineStr"/>
-      <c r="R39" s="2" t="inlineStr"/>
-      <c r="S39" s="2" t="inlineStr"/>
+      <c r="N39" s="2" t="n"/>
+      <c r="O39" s="2" t="n"/>
+      <c r="P39" s="2" t="n"/>
+      <c r="Q39" s="2" t="n"/>
+      <c r="R39" s="2" t="n"/>
+      <c r="S39" s="2" t="n"/>
       <c r="T39" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U39" s="2" t="inlineStr"/>
-      <c r="V39" s="2" t="inlineStr"/>
+      <c r="U39" s="2" t="n"/>
+      <c r="V39" s="2" t="n"/>
     </row>
     <row r="40">
       <c r="A40" s="2" t="inlineStr">
@@ -2408,33 +2228,33 @@
           <t>school facility [OMRSE:00000064]</t>
         </is>
       </c>
-      <c r="D40" s="2" t="inlineStr"/>
-      <c r="E40" s="2" t="inlineStr"/>
-      <c r="F40" s="2" t="inlineStr"/>
-      <c r="G40" s="2" t="inlineStr"/>
-      <c r="H40" s="2" t="inlineStr"/>
-      <c r="I40" s="2" t="inlineStr"/>
-      <c r="J40" s="2" t="inlineStr"/>
-      <c r="K40" s="2" t="inlineStr"/>
-      <c r="L40" s="2" t="inlineStr"/>
+      <c r="D40" s="2" t="n"/>
+      <c r="E40" s="2" t="n"/>
+      <c r="F40" s="2" t="n"/>
+      <c r="G40" s="2" t="n"/>
+      <c r="H40" s="2" t="n"/>
+      <c r="I40" s="2" t="n"/>
+      <c r="J40" s="2" t="n"/>
+      <c r="K40" s="2" t="n"/>
+      <c r="L40" s="2" t="n"/>
       <c r="M40" s="2" t="inlineStr">
         <is>
           <t>A school facility providing education between primary and secondary school.</t>
         </is>
       </c>
-      <c r="N40" s="2" t="inlineStr"/>
-      <c r="O40" s="2" t="inlineStr"/>
-      <c r="P40" s="2" t="inlineStr"/>
-      <c r="Q40" s="2" t="inlineStr"/>
-      <c r="R40" s="2" t="inlineStr"/>
-      <c r="S40" s="2" t="inlineStr"/>
+      <c r="N40" s="2" t="n"/>
+      <c r="O40" s="2" t="n"/>
+      <c r="P40" s="2" t="n"/>
+      <c r="Q40" s="2" t="n"/>
+      <c r="R40" s="2" t="n"/>
+      <c r="S40" s="2" t="n"/>
       <c r="T40" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U40" s="2" t="inlineStr"/>
-      <c r="V40" s="2" t="inlineStr"/>
+      <c r="U40" s="2" t="n"/>
+      <c r="V40" s="2" t="n"/>
     </row>
     <row r="41">
       <c r="A41" s="2" t="inlineStr">
@@ -2452,37 +2272,37 @@
           <t>school facility [OMRSE:00000064]</t>
         </is>
       </c>
-      <c r="D41" s="2" t="inlineStr"/>
-      <c r="E41" s="2" t="inlineStr"/>
-      <c r="F41" s="2" t="inlineStr"/>
-      <c r="G41" s="2" t="inlineStr"/>
-      <c r="H41" s="2" t="inlineStr"/>
-      <c r="I41" s="2" t="inlineStr"/>
-      <c r="J41" s="2" t="inlineStr"/>
-      <c r="K41" s="2" t="inlineStr"/>
-      <c r="L41" s="2" t="inlineStr"/>
+      <c r="D41" s="2" t="n"/>
+      <c r="E41" s="2" t="n"/>
+      <c r="F41" s="2" t="n"/>
+      <c r="G41" s="2" t="n"/>
+      <c r="H41" s="2" t="n"/>
+      <c r="I41" s="2" t="n"/>
+      <c r="J41" s="2" t="n"/>
+      <c r="K41" s="2" t="n"/>
+      <c r="L41" s="2" t="n"/>
       <c r="M41" s="2" t="inlineStr">
         <is>
           <t>A school facility for older children and teenagers, typically aged between eleven and eighteen.</t>
         </is>
       </c>
-      <c r="N41" s="2" t="inlineStr"/>
-      <c r="O41" s="2" t="inlineStr"/>
+      <c r="N41" s="2" t="n"/>
+      <c r="O41" s="2" t="n"/>
       <c r="P41" s="2" t="inlineStr">
         <is>
           <t>high school</t>
         </is>
       </c>
-      <c r="Q41" s="2" t="inlineStr"/>
-      <c r="R41" s="2" t="inlineStr"/>
-      <c r="S41" s="2" t="inlineStr"/>
+      <c r="Q41" s="2" t="n"/>
+      <c r="R41" s="2" t="n"/>
+      <c r="S41" s="2" t="n"/>
       <c r="T41" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U41" s="2" t="inlineStr"/>
-      <c r="V41" s="2" t="inlineStr"/>
+      <c r="U41" s="2" t="n"/>
+      <c r="V41" s="2" t="n"/>
     </row>
     <row r="42">
       <c r="A42" s="2" t="inlineStr">
@@ -2500,33 +2320,33 @@
           <t>educational facility [BCIO:026022]</t>
         </is>
       </c>
-      <c r="D42" s="2" t="inlineStr"/>
-      <c r="E42" s="2" t="inlineStr"/>
-      <c r="F42" s="2" t="inlineStr"/>
-      <c r="G42" s="2" t="inlineStr"/>
-      <c r="H42" s="2" t="inlineStr"/>
-      <c r="I42" s="2" t="inlineStr"/>
-      <c r="J42" s="2" t="inlineStr"/>
-      <c r="K42" s="2" t="inlineStr"/>
-      <c r="L42" s="2" t="inlineStr"/>
+      <c r="D42" s="2" t="n"/>
+      <c r="E42" s="2" t="n"/>
+      <c r="F42" s="2" t="n"/>
+      <c r="G42" s="2" t="n"/>
+      <c r="H42" s="2" t="n"/>
+      <c r="I42" s="2" t="n"/>
+      <c r="J42" s="2" t="n"/>
+      <c r="K42" s="2" t="n"/>
+      <c r="L42" s="2" t="n"/>
       <c r="M42" s="2" t="inlineStr">
         <is>
           <t>An educational facility providing practically based, occupationally-specific teaching.</t>
         </is>
       </c>
-      <c r="N42" s="2" t="inlineStr"/>
-      <c r="O42" s="2" t="inlineStr"/>
-      <c r="P42" s="2" t="inlineStr"/>
-      <c r="Q42" s="2" t="inlineStr"/>
-      <c r="R42" s="2" t="inlineStr"/>
-      <c r="S42" s="2" t="inlineStr"/>
+      <c r="N42" s="2" t="n"/>
+      <c r="O42" s="2" t="n"/>
+      <c r="P42" s="2" t="n"/>
+      <c r="Q42" s="2" t="n"/>
+      <c r="R42" s="2" t="n"/>
+      <c r="S42" s="2" t="n"/>
       <c r="T42" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U42" s="2" t="inlineStr"/>
-      <c r="V42" s="2" t="inlineStr"/>
+      <c r="U42" s="2" t="n"/>
+      <c r="V42" s="2" t="n"/>
     </row>
     <row r="43">
       <c r="A43" s="2" t="inlineStr">
@@ -2544,33 +2364,33 @@
           <t>educational facility [BCIO:026022]</t>
         </is>
       </c>
-      <c r="D43" s="2" t="inlineStr"/>
-      <c r="E43" s="2" t="inlineStr"/>
-      <c r="F43" s="2" t="inlineStr"/>
-      <c r="G43" s="2" t="inlineStr"/>
-      <c r="H43" s="2" t="inlineStr"/>
-      <c r="I43" s="2" t="inlineStr"/>
-      <c r="J43" s="2" t="inlineStr"/>
-      <c r="K43" s="2" t="inlineStr"/>
-      <c r="L43" s="2" t="inlineStr"/>
+      <c r="D43" s="2" t="n"/>
+      <c r="E43" s="2" t="n"/>
+      <c r="F43" s="2" t="n"/>
+      <c r="G43" s="2" t="n"/>
+      <c r="H43" s="2" t="n"/>
+      <c r="I43" s="2" t="n"/>
+      <c r="J43" s="2" t="n"/>
+      <c r="K43" s="2" t="n"/>
+      <c r="L43" s="2" t="n"/>
       <c r="M43" s="2" t="inlineStr">
         <is>
           <t>An educational facility in which students study for degrees and academic research is done.</t>
         </is>
       </c>
-      <c r="N43" s="2" t="inlineStr"/>
-      <c r="O43" s="2" t="inlineStr"/>
-      <c r="P43" s="2" t="inlineStr"/>
-      <c r="Q43" s="2" t="inlineStr"/>
-      <c r="R43" s="2" t="inlineStr"/>
-      <c r="S43" s="2" t="inlineStr"/>
+      <c r="N43" s="2" t="n"/>
+      <c r="O43" s="2" t="n"/>
+      <c r="P43" s="2" t="n"/>
+      <c r="Q43" s="2" t="n"/>
+      <c r="R43" s="2" t="n"/>
+      <c r="S43" s="2" t="n"/>
       <c r="T43" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U43" s="2" t="inlineStr"/>
-      <c r="V43" s="2" t="inlineStr"/>
+      <c r="U43" s="2" t="n"/>
+      <c r="V43" s="2" t="n"/>
     </row>
     <row r="44">
       <c r="A44" s="2" t="inlineStr">
@@ -2588,37 +2408,37 @@
           <t>facility [OMRSE:00000062]</t>
         </is>
       </c>
-      <c r="D44" s="2" t="inlineStr"/>
-      <c r="E44" s="2" t="inlineStr"/>
-      <c r="F44" s="2" t="inlineStr"/>
-      <c r="G44" s="2" t="inlineStr"/>
-      <c r="H44" s="2" t="inlineStr"/>
-      <c r="I44" s="2" t="inlineStr"/>
-      <c r="J44" s="2" t="inlineStr"/>
-      <c r="K44" s="2" t="inlineStr"/>
-      <c r="L44" s="2" t="inlineStr"/>
+      <c r="D44" s="2" t="n"/>
+      <c r="E44" s="2" t="n"/>
+      <c r="F44" s="2" t="n"/>
+      <c r="G44" s="2" t="n"/>
+      <c r="H44" s="2" t="n"/>
+      <c r="I44" s="2" t="n"/>
+      <c r="J44" s="2" t="n"/>
+      <c r="K44" s="2" t="n"/>
+      <c r="L44" s="2" t="n"/>
       <c r="M44" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">A facility used by a group of people living in the same place or having a particular characteristic in common. </t>
         </is>
       </c>
-      <c r="N44" s="2" t="inlineStr"/>
-      <c r="O44" s="2" t="inlineStr"/>
+      <c r="N44" s="2" t="n"/>
+      <c r="O44" s="2" t="n"/>
       <c r="P44" s="2" t="inlineStr">
         <is>
           <t>food bank; recycling centre</t>
         </is>
       </c>
-      <c r="Q44" s="2" t="inlineStr"/>
-      <c r="R44" s="2" t="inlineStr"/>
-      <c r="S44" s="2" t="inlineStr"/>
+      <c r="Q44" s="2" t="n"/>
+      <c r="R44" s="2" t="n"/>
+      <c r="S44" s="2" t="n"/>
       <c r="T44" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U44" s="2" t="inlineStr"/>
-      <c r="V44" s="2" t="inlineStr"/>
+      <c r="U44" s="2" t="n"/>
+      <c r="V44" s="2" t="n"/>
     </row>
     <row r="45">
       <c r="A45" s="2" t="inlineStr">
@@ -2636,37 +2456,37 @@
           <t>community facility [BCIO:026029]</t>
         </is>
       </c>
-      <c r="D45" s="2" t="inlineStr"/>
-      <c r="E45" s="2" t="inlineStr"/>
-      <c r="F45" s="2" t="inlineStr"/>
-      <c r="G45" s="2" t="inlineStr"/>
-      <c r="H45" s="2" t="inlineStr"/>
-      <c r="I45" s="2" t="inlineStr"/>
-      <c r="J45" s="2" t="inlineStr"/>
-      <c r="K45" s="2" t="inlineStr"/>
-      <c r="L45" s="2" t="inlineStr"/>
+      <c r="D45" s="2" t="n"/>
+      <c r="E45" s="2" t="n"/>
+      <c r="F45" s="2" t="n"/>
+      <c r="G45" s="2" t="n"/>
+      <c r="H45" s="2" t="n"/>
+      <c r="I45" s="2" t="n"/>
+      <c r="J45" s="2" t="n"/>
+      <c r="K45" s="2" t="n"/>
+      <c r="L45" s="2" t="n"/>
       <c r="M45" s="2" t="inlineStr">
         <is>
           <t>A community facility used for exercising.</t>
         </is>
       </c>
-      <c r="N45" s="2" t="inlineStr"/>
-      <c r="O45" s="2" t="inlineStr"/>
+      <c r="N45" s="2" t="n"/>
+      <c r="O45" s="2" t="n"/>
       <c r="P45" s="2" t="inlineStr">
         <is>
           <t>gym; stadium; tennis court; swimming pool</t>
         </is>
       </c>
-      <c r="Q45" s="2" t="inlineStr"/>
-      <c r="R45" s="2" t="inlineStr"/>
-      <c r="S45" s="2" t="inlineStr"/>
+      <c r="Q45" s="2" t="n"/>
+      <c r="R45" s="2" t="n"/>
+      <c r="S45" s="2" t="n"/>
       <c r="T45" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U45" s="2" t="inlineStr"/>
-      <c r="V45" s="2" t="inlineStr"/>
+      <c r="U45" s="2" t="n"/>
+      <c r="V45" s="2" t="n"/>
     </row>
     <row r="46">
       <c r="A46" s="2" t="inlineStr">
@@ -2684,37 +2504,37 @@
           <t>community facility [BCIO:026029]</t>
         </is>
       </c>
-      <c r="D46" s="2" t="inlineStr"/>
-      <c r="E46" s="2" t="inlineStr"/>
-      <c r="F46" s="2" t="inlineStr"/>
-      <c r="G46" s="2" t="inlineStr"/>
-      <c r="H46" s="2" t="inlineStr"/>
-      <c r="I46" s="2" t="inlineStr"/>
-      <c r="J46" s="2" t="inlineStr"/>
-      <c r="K46" s="2" t="inlineStr"/>
-      <c r="L46" s="2" t="inlineStr"/>
+      <c r="D46" s="2" t="n"/>
+      <c r="E46" s="2" t="n"/>
+      <c r="F46" s="2" t="n"/>
+      <c r="G46" s="2" t="n"/>
+      <c r="H46" s="2" t="n"/>
+      <c r="I46" s="2" t="n"/>
+      <c r="J46" s="2" t="n"/>
+      <c r="K46" s="2" t="n"/>
+      <c r="L46" s="2" t="n"/>
       <c r="M46" s="2" t="inlineStr">
         <is>
           <t>A community facility used for socialising by those living in a given area.</t>
         </is>
       </c>
-      <c r="N46" s="2" t="inlineStr"/>
-      <c r="O46" s="2" t="inlineStr"/>
+      <c r="N46" s="2" t="n"/>
+      <c r="O46" s="2" t="n"/>
       <c r="P46" s="2" t="inlineStr">
         <is>
           <t>YMCA; working mens club</t>
         </is>
       </c>
-      <c r="Q46" s="2" t="inlineStr"/>
-      <c r="R46" s="2" t="inlineStr"/>
-      <c r="S46" s="2" t="inlineStr"/>
+      <c r="Q46" s="2" t="n"/>
+      <c r="R46" s="2" t="n"/>
+      <c r="S46" s="2" t="n"/>
       <c r="T46" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U46" s="2" t="inlineStr"/>
-      <c r="V46" s="2" t="inlineStr"/>
+      <c r="U46" s="2" t="n"/>
+      <c r="V46" s="2" t="n"/>
     </row>
     <row r="47">
       <c r="A47" s="2" t="inlineStr">
@@ -2732,33 +2552,33 @@
           <t>community facility [BCIO:026029]</t>
         </is>
       </c>
-      <c r="D47" s="2" t="inlineStr"/>
-      <c r="E47" s="2" t="inlineStr"/>
-      <c r="F47" s="2" t="inlineStr"/>
-      <c r="G47" s="2" t="inlineStr"/>
-      <c r="H47" s="2" t="inlineStr"/>
-      <c r="I47" s="2" t="inlineStr"/>
-      <c r="J47" s="2" t="inlineStr"/>
-      <c r="K47" s="2" t="inlineStr"/>
-      <c r="L47" s="2" t="inlineStr"/>
+      <c r="D47" s="2" t="n"/>
+      <c r="E47" s="2" t="n"/>
+      <c r="F47" s="2" t="n"/>
+      <c r="G47" s="2" t="n"/>
+      <c r="H47" s="2" t="n"/>
+      <c r="I47" s="2" t="n"/>
+      <c r="J47" s="2" t="n"/>
+      <c r="K47" s="2" t="n"/>
+      <c r="L47" s="2" t="n"/>
       <c r="M47" s="2" t="inlineStr">
         <is>
           <t>A community facility containing a collection of books and learning resources for loan.</t>
         </is>
       </c>
-      <c r="N47" s="2" t="inlineStr"/>
-      <c r="O47" s="2" t="inlineStr"/>
-      <c r="P47" s="2" t="inlineStr"/>
-      <c r="Q47" s="2" t="inlineStr"/>
-      <c r="R47" s="2" t="inlineStr"/>
-      <c r="S47" s="2" t="inlineStr"/>
+      <c r="N47" s="2" t="n"/>
+      <c r="O47" s="2" t="n"/>
+      <c r="P47" s="2" t="n"/>
+      <c r="Q47" s="2" t="n"/>
+      <c r="R47" s="2" t="n"/>
+      <c r="S47" s="2" t="n"/>
       <c r="T47" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U47" s="2" t="inlineStr"/>
-      <c r="V47" s="2" t="inlineStr"/>
+      <c r="U47" s="2" t="n"/>
+      <c r="V47" s="2" t="n"/>
     </row>
     <row r="48">
       <c r="A48" s="2" t="inlineStr">
@@ -2776,37 +2596,37 @@
           <t>community facility [BCIO:026029]</t>
         </is>
       </c>
-      <c r="D48" s="2" t="inlineStr"/>
-      <c r="E48" s="2" t="inlineStr"/>
-      <c r="F48" s="2" t="inlineStr"/>
-      <c r="G48" s="2" t="inlineStr"/>
-      <c r="H48" s="2" t="inlineStr"/>
-      <c r="I48" s="2" t="inlineStr"/>
-      <c r="J48" s="2" t="inlineStr"/>
-      <c r="K48" s="2" t="inlineStr"/>
-      <c r="L48" s="2" t="inlineStr"/>
+      <c r="D48" s="2" t="n"/>
+      <c r="E48" s="2" t="n"/>
+      <c r="F48" s="2" t="n"/>
+      <c r="G48" s="2" t="n"/>
+      <c r="H48" s="2" t="n"/>
+      <c r="I48" s="2" t="n"/>
+      <c r="J48" s="2" t="n"/>
+      <c r="K48" s="2" t="n"/>
+      <c r="L48" s="2" t="n"/>
       <c r="M48" s="2" t="inlineStr">
         <is>
           <t>A community facility where individuals or a group of people come to perform acts of devotion and veneration.</t>
         </is>
       </c>
-      <c r="N48" s="2" t="inlineStr"/>
-      <c r="O48" s="2" t="inlineStr"/>
+      <c r="N48" s="2" t="n"/>
+      <c r="O48" s="2" t="n"/>
       <c r="P48" s="2" t="inlineStr">
         <is>
           <t>mosque; church; temple</t>
         </is>
       </c>
-      <c r="Q48" s="2" t="inlineStr"/>
-      <c r="R48" s="2" t="inlineStr"/>
-      <c r="S48" s="2" t="inlineStr"/>
+      <c r="Q48" s="2" t="n"/>
+      <c r="R48" s="2" t="n"/>
+      <c r="S48" s="2" t="n"/>
       <c r="T48" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U48" s="2" t="inlineStr"/>
-      <c r="V48" s="2" t="inlineStr"/>
+      <c r="U48" s="2" t="n"/>
+      <c r="V48" s="2" t="n"/>
     </row>
     <row r="49">
       <c r="A49" s="2" t="inlineStr">
@@ -2824,37 +2644,37 @@
           <t>community facility [BCIO:026029]</t>
         </is>
       </c>
-      <c r="D49" s="2" t="inlineStr"/>
-      <c r="E49" s="2" t="inlineStr"/>
-      <c r="F49" s="2" t="inlineStr"/>
-      <c r="G49" s="2" t="inlineStr"/>
-      <c r="H49" s="2" t="inlineStr"/>
-      <c r="I49" s="2" t="inlineStr"/>
-      <c r="J49" s="2" t="inlineStr"/>
-      <c r="K49" s="2" t="inlineStr"/>
-      <c r="L49" s="2" t="inlineStr"/>
+      <c r="D49" s="2" t="n"/>
+      <c r="E49" s="2" t="n"/>
+      <c r="F49" s="2" t="n"/>
+      <c r="G49" s="2" t="n"/>
+      <c r="H49" s="2" t="n"/>
+      <c r="I49" s="2" t="n"/>
+      <c r="J49" s="2" t="n"/>
+      <c r="K49" s="2" t="n"/>
+      <c r="L49" s="2" t="n"/>
       <c r="M49" s="2" t="inlineStr">
         <is>
           <t>A community facility used to serve food.</t>
         </is>
       </c>
-      <c r="N49" s="2" t="inlineStr"/>
-      <c r="O49" s="2" t="inlineStr"/>
+      <c r="N49" s="2" t="n"/>
+      <c r="O49" s="2" t="n"/>
       <c r="P49" s="2" t="inlineStr">
         <is>
           <t>diner; restaurant; pub; bar</t>
         </is>
       </c>
-      <c r="Q49" s="2" t="inlineStr"/>
-      <c r="R49" s="2" t="inlineStr"/>
-      <c r="S49" s="2" t="inlineStr"/>
+      <c r="Q49" s="2" t="n"/>
+      <c r="R49" s="2" t="n"/>
+      <c r="S49" s="2" t="n"/>
       <c r="T49" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U49" s="2" t="inlineStr"/>
-      <c r="V49" s="2" t="inlineStr"/>
+      <c r="U49" s="2" t="n"/>
+      <c r="V49" s="2" t="n"/>
     </row>
     <row r="50">
       <c r="A50" s="2" t="inlineStr">
@@ -2872,37 +2692,37 @@
           <t>community facility [BCIO:026029]</t>
         </is>
       </c>
-      <c r="D50" s="2" t="inlineStr"/>
-      <c r="E50" s="2" t="inlineStr"/>
-      <c r="F50" s="2" t="inlineStr"/>
-      <c r="G50" s="2" t="inlineStr"/>
-      <c r="H50" s="2" t="inlineStr"/>
-      <c r="I50" s="2" t="inlineStr"/>
-      <c r="J50" s="2" t="inlineStr"/>
-      <c r="K50" s="2" t="inlineStr"/>
-      <c r="L50" s="2" t="inlineStr"/>
+      <c r="D50" s="2" t="n"/>
+      <c r="E50" s="2" t="n"/>
+      <c r="F50" s="2" t="n"/>
+      <c r="G50" s="2" t="n"/>
+      <c r="H50" s="2" t="n"/>
+      <c r="I50" s="2" t="n"/>
+      <c r="J50" s="2" t="n"/>
+      <c r="K50" s="2" t="n"/>
+      <c r="L50" s="2" t="n"/>
       <c r="M50" s="2" t="inlineStr">
         <is>
           <t>A community facility designed to entertain or amuse.</t>
         </is>
       </c>
-      <c r="N50" s="2" t="inlineStr"/>
-      <c r="O50" s="2" t="inlineStr"/>
+      <c r="N50" s="2" t="n"/>
+      <c r="O50" s="2" t="n"/>
       <c r="P50" s="2" t="inlineStr">
         <is>
           <t>cinema; theatre; disco</t>
         </is>
       </c>
-      <c r="Q50" s="2" t="inlineStr"/>
-      <c r="R50" s="2" t="inlineStr"/>
-      <c r="S50" s="2" t="inlineStr"/>
+      <c r="Q50" s="2" t="n"/>
+      <c r="R50" s="2" t="n"/>
+      <c r="S50" s="2" t="n"/>
       <c r="T50" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U50" s="2" t="inlineStr"/>
-      <c r="V50" s="2" t="inlineStr"/>
+      <c r="U50" s="2" t="n"/>
+      <c r="V50" s="2" t="n"/>
     </row>
     <row r="51">
       <c r="A51" s="2" t="inlineStr">
@@ -2920,37 +2740,37 @@
           <t>facility [OMRSE:00000062]</t>
         </is>
       </c>
-      <c r="D51" s="2" t="inlineStr"/>
-      <c r="E51" s="2" t="inlineStr"/>
-      <c r="F51" s="2" t="inlineStr"/>
-      <c r="G51" s="2" t="inlineStr"/>
-      <c r="H51" s="2" t="inlineStr"/>
-      <c r="I51" s="2" t="inlineStr"/>
-      <c r="J51" s="2" t="inlineStr"/>
-      <c r="K51" s="2" t="inlineStr"/>
-      <c r="L51" s="2" t="inlineStr"/>
+      <c r="D51" s="2" t="n"/>
+      <c r="E51" s="2" t="n"/>
+      <c r="F51" s="2" t="n"/>
+      <c r="G51" s="2" t="n"/>
+      <c r="H51" s="2" t="n"/>
+      <c r="I51" s="2" t="n"/>
+      <c r="J51" s="2" t="n"/>
+      <c r="K51" s="2" t="n"/>
+      <c r="L51" s="2" t="n"/>
       <c r="M51" s="2" t="inlineStr">
         <is>
           <t>A facility used as an outlet for shopping.</t>
         </is>
       </c>
-      <c r="N51" s="2" t="inlineStr"/>
-      <c r="O51" s="2" t="inlineStr"/>
+      <c r="N51" s="2" t="n"/>
+      <c r="O51" s="2" t="n"/>
       <c r="P51" s="2" t="inlineStr">
         <is>
           <t>supermarket; market; shopping centre</t>
         </is>
       </c>
-      <c r="Q51" s="2" t="inlineStr"/>
-      <c r="R51" s="2" t="inlineStr"/>
-      <c r="S51" s="2" t="inlineStr"/>
+      <c r="Q51" s="2" t="n"/>
+      <c r="R51" s="2" t="n"/>
+      <c r="S51" s="2" t="n"/>
       <c r="T51" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U51" s="2" t="inlineStr"/>
-      <c r="V51" s="2" t="inlineStr"/>
+      <c r="U51" s="2" t="n"/>
+      <c r="V51" s="2" t="n"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -2968,15 +2788,6 @@
           <t>facility [OMRSE:00000062]</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr"/>
-      <c r="E52" t="inlineStr"/>
-      <c r="F52" t="inlineStr"/>
-      <c r="G52" t="inlineStr"/>
-      <c r="H52" t="inlineStr"/>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr">
         <is>
           <t>A facility, permanent or temporary, on land, in air, space or water, where scientific research or measurements can be undertaken</t>
@@ -2997,16 +2808,11 @@
           <t>research lab</t>
         </is>
       </c>
-      <c r="Q52" t="inlineStr"/>
-      <c r="R52" t="inlineStr"/>
-      <c r="S52" t="inlineStr"/>
       <c r="T52" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="U52" t="inlineStr"/>
-      <c r="V52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="2" t="inlineStr">
@@ -3024,33 +2830,33 @@
           <t>facility [OMRSE:00000062]</t>
         </is>
       </c>
-      <c r="D53" s="2" t="inlineStr"/>
-      <c r="E53" s="2" t="inlineStr"/>
-      <c r="F53" s="2" t="inlineStr"/>
-      <c r="G53" s="2" t="inlineStr"/>
-      <c r="H53" s="2" t="inlineStr"/>
-      <c r="I53" s="2" t="inlineStr"/>
-      <c r="J53" s="2" t="inlineStr"/>
-      <c r="K53" s="2" t="inlineStr"/>
-      <c r="L53" s="2" t="inlineStr"/>
+      <c r="D53" s="2" t="n"/>
+      <c r="E53" s="2" t="n"/>
+      <c r="F53" s="2" t="n"/>
+      <c r="G53" s="2" t="n"/>
+      <c r="H53" s="2" t="n"/>
+      <c r="I53" s="2" t="n"/>
+      <c r="J53" s="2" t="n"/>
+      <c r="K53" s="2" t="n"/>
+      <c r="L53" s="2" t="n"/>
       <c r="M53" s="2" t="inlineStr">
         <is>
           <t>A facility of a room, set of rooms, or building used as a place for commercial, professional, or bureaucratic work.</t>
         </is>
       </c>
-      <c r="N53" s="2" t="inlineStr"/>
-      <c r="O53" s="2" t="inlineStr"/>
-      <c r="P53" s="2" t="inlineStr"/>
-      <c r="Q53" s="2" t="inlineStr"/>
-      <c r="R53" s="2" t="inlineStr"/>
-      <c r="S53" s="2" t="inlineStr"/>
+      <c r="N53" s="2" t="n"/>
+      <c r="O53" s="2" t="n"/>
+      <c r="P53" s="2" t="n"/>
+      <c r="Q53" s="2" t="n"/>
+      <c r="R53" s="2" t="n"/>
+      <c r="S53" s="2" t="n"/>
       <c r="T53" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U53" s="2" t="inlineStr"/>
-      <c r="V53" s="2" t="inlineStr"/>
+      <c r="U53" s="2" t="n"/>
+      <c r="V53" s="2" t="n"/>
     </row>
     <row r="54">
       <c r="A54" s="2" t="inlineStr">
@@ -3068,37 +2874,37 @@
           <t>facility [OMRSE:00000062]</t>
         </is>
       </c>
-      <c r="D54" s="2" t="inlineStr"/>
-      <c r="E54" s="2" t="inlineStr"/>
-      <c r="F54" s="2" t="inlineStr"/>
-      <c r="G54" s="2" t="inlineStr"/>
-      <c r="H54" s="2" t="inlineStr"/>
-      <c r="I54" s="2" t="inlineStr"/>
-      <c r="J54" s="2" t="inlineStr"/>
-      <c r="K54" s="2" t="inlineStr"/>
-      <c r="L54" s="2" t="inlineStr"/>
+      <c r="D54" s="2" t="n"/>
+      <c r="E54" s="2" t="n"/>
+      <c r="F54" s="2" t="n"/>
+      <c r="G54" s="2" t="n"/>
+      <c r="H54" s="2" t="n"/>
+      <c r="I54" s="2" t="n"/>
+      <c r="J54" s="2" t="n"/>
+      <c r="K54" s="2" t="n"/>
+      <c r="L54" s="2" t="n"/>
       <c r="M54" s="2" t="inlineStr">
         <is>
           <t>A facility where individuals are being reprimanded, detained or imprisoned.</t>
         </is>
       </c>
-      <c r="N54" s="2" t="inlineStr"/>
-      <c r="O54" s="2" t="inlineStr"/>
+      <c r="N54" s="2" t="n"/>
+      <c r="O54" s="2" t="n"/>
       <c r="P54" s="2" t="inlineStr">
         <is>
           <t>prison</t>
         </is>
       </c>
-      <c r="Q54" s="2" t="inlineStr"/>
-      <c r="R54" s="2" t="inlineStr"/>
-      <c r="S54" s="2" t="inlineStr"/>
+      <c r="Q54" s="2" t="n"/>
+      <c r="R54" s="2" t="n"/>
+      <c r="S54" s="2" t="n"/>
       <c r="T54" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U54" s="2" t="inlineStr"/>
-      <c r="V54" s="2" t="inlineStr"/>
+      <c r="U54" s="2" t="n"/>
+      <c r="V54" s="2" t="n"/>
     </row>
     <row r="55">
       <c r="A55" s="2" t="inlineStr">
@@ -3116,33 +2922,33 @@
           <t>facility [OMRSE:00000062]</t>
         </is>
       </c>
-      <c r="D55" s="2" t="inlineStr"/>
-      <c r="E55" s="2" t="inlineStr"/>
-      <c r="F55" s="2" t="inlineStr"/>
-      <c r="G55" s="2" t="inlineStr"/>
-      <c r="H55" s="2" t="inlineStr"/>
-      <c r="I55" s="2" t="inlineStr"/>
-      <c r="J55" s="2" t="inlineStr"/>
-      <c r="K55" s="2" t="inlineStr"/>
-      <c r="L55" s="2" t="inlineStr"/>
+      <c r="D55" s="2" t="n"/>
+      <c r="E55" s="2" t="n"/>
+      <c r="F55" s="2" t="n"/>
+      <c r="G55" s="2" t="n"/>
+      <c r="H55" s="2" t="n"/>
+      <c r="I55" s="2" t="n"/>
+      <c r="J55" s="2" t="n"/>
+      <c r="K55" s="2" t="n"/>
+      <c r="L55" s="2" t="n"/>
       <c r="M55" s="2" t="inlineStr">
         <is>
           <t>A facility of a building or group of buildings where goods are manufactured or assembled chiefly by machine</t>
         </is>
       </c>
-      <c r="N55" s="2" t="inlineStr"/>
-      <c r="O55" s="2" t="inlineStr"/>
-      <c r="P55" s="2" t="inlineStr"/>
-      <c r="Q55" s="2" t="inlineStr"/>
-      <c r="R55" s="2" t="inlineStr"/>
-      <c r="S55" s="2" t="inlineStr"/>
+      <c r="N55" s="2" t="n"/>
+      <c r="O55" s="2" t="n"/>
+      <c r="P55" s="2" t="n"/>
+      <c r="Q55" s="2" t="n"/>
+      <c r="R55" s="2" t="n"/>
+      <c r="S55" s="2" t="n"/>
       <c r="T55" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U55" s="2" t="inlineStr"/>
-      <c r="V55" s="2" t="inlineStr"/>
+      <c r="U55" s="2" t="n"/>
+      <c r="V55" s="2" t="n"/>
     </row>
     <row r="56">
       <c r="A56" s="2" t="inlineStr">
@@ -3160,37 +2966,37 @@
           <t>facility [OMRSE:00000062]</t>
         </is>
       </c>
-      <c r="D56" s="2" t="inlineStr"/>
-      <c r="E56" s="2" t="inlineStr"/>
-      <c r="F56" s="2" t="inlineStr"/>
-      <c r="G56" s="2" t="inlineStr"/>
-      <c r="H56" s="2" t="inlineStr"/>
-      <c r="I56" s="2" t="inlineStr"/>
-      <c r="J56" s="2" t="inlineStr"/>
-      <c r="K56" s="2" t="inlineStr"/>
-      <c r="L56" s="2" t="inlineStr"/>
+      <c r="D56" s="2" t="n"/>
+      <c r="E56" s="2" t="n"/>
+      <c r="F56" s="2" t="n"/>
+      <c r="G56" s="2" t="n"/>
+      <c r="H56" s="2" t="n"/>
+      <c r="I56" s="2" t="n"/>
+      <c r="J56" s="2" t="n"/>
+      <c r="K56" s="2" t="n"/>
+      <c r="L56" s="2" t="n"/>
       <c r="M56" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">A facility relating to or characteristic of soldiers or armed forces </t>
         </is>
       </c>
-      <c r="N56" s="2" t="inlineStr"/>
-      <c r="O56" s="2" t="inlineStr"/>
+      <c r="N56" s="2" t="n"/>
+      <c r="O56" s="2" t="n"/>
       <c r="P56" s="2" t="inlineStr">
         <is>
           <t>army; navy; air force</t>
         </is>
       </c>
-      <c r="Q56" s="2" t="inlineStr"/>
-      <c r="R56" s="2" t="inlineStr"/>
-      <c r="S56" s="2" t="inlineStr"/>
+      <c r="Q56" s="2" t="n"/>
+      <c r="R56" s="2" t="n"/>
+      <c r="S56" s="2" t="n"/>
       <c r="T56" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U56" s="2" t="inlineStr"/>
-      <c r="V56" s="2" t="inlineStr"/>
+      <c r="U56" s="2" t="n"/>
+      <c r="V56" s="2" t="n"/>
     </row>
     <row r="57">
       <c r="A57" s="2" t="inlineStr">
@@ -3208,15 +3014,15 @@
           <t>site [BFO:0000029]</t>
         </is>
       </c>
-      <c r="D57" s="2" t="inlineStr"/>
-      <c r="E57" s="2" t="inlineStr"/>
-      <c r="F57" s="2" t="inlineStr"/>
-      <c r="G57" s="2" t="inlineStr"/>
-      <c r="H57" s="2" t="inlineStr"/>
-      <c r="I57" s="2" t="inlineStr"/>
-      <c r="J57" s="2" t="inlineStr"/>
-      <c r="K57" s="2" t="inlineStr"/>
-      <c r="L57" s="2" t="inlineStr"/>
+      <c r="D57" s="2" t="n"/>
+      <c r="E57" s="2" t="n"/>
+      <c r="F57" s="2" t="n"/>
+      <c r="G57" s="2" t="n"/>
+      <c r="H57" s="2" t="n"/>
+      <c r="I57" s="2" t="n"/>
+      <c r="J57" s="2" t="n"/>
+      <c r="K57" s="2" t="n"/>
+      <c r="L57" s="2" t="n"/>
       <c r="M57" s="2" t="inlineStr">
         <is>
           <t>Methods of traveling from one place to another.</t>
@@ -3232,17 +3038,17 @@
           <t>NCI Thesaurus OBO Edition</t>
         </is>
       </c>
-      <c r="P57" s="2" t="inlineStr"/>
-      <c r="Q57" s="2" t="inlineStr"/>
-      <c r="R57" s="2" t="inlineStr"/>
-      <c r="S57" s="2" t="inlineStr"/>
+      <c r="P57" s="2" t="n"/>
+      <c r="Q57" s="2" t="n"/>
+      <c r="R57" s="2" t="n"/>
+      <c r="S57" s="2" t="n"/>
       <c r="T57" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U57" s="2" t="inlineStr"/>
-      <c r="V57" s="2" t="inlineStr"/>
+      <c r="U57" s="2" t="n"/>
+      <c r="V57" s="2" t="n"/>
     </row>
     <row r="58">
       <c r="A58" s="2" t="inlineStr">
@@ -3260,15 +3066,15 @@
           <t>transportation [BCIO:026041]</t>
         </is>
       </c>
-      <c r="D58" s="2" t="inlineStr"/>
-      <c r="E58" s="2" t="inlineStr"/>
-      <c r="F58" s="2" t="inlineStr"/>
-      <c r="G58" s="2" t="inlineStr"/>
-      <c r="H58" s="2" t="inlineStr"/>
-      <c r="I58" s="2" t="inlineStr"/>
-      <c r="J58" s="2" t="inlineStr"/>
-      <c r="K58" s="2" t="inlineStr"/>
-      <c r="L58" s="2" t="inlineStr"/>
+      <c r="D58" s="2" t="n"/>
+      <c r="E58" s="2" t="n"/>
+      <c r="F58" s="2" t="n"/>
+      <c r="G58" s="2" t="n"/>
+      <c r="H58" s="2" t="n"/>
+      <c r="I58" s="2" t="n"/>
+      <c r="J58" s="2" t="n"/>
+      <c r="K58" s="2" t="n"/>
+      <c r="L58" s="2" t="n"/>
       <c r="M58" s="2" t="inlineStr">
         <is>
           <t>Forms of transportation that run on fixed routes and are available to the public, usually for a set fare</t>
@@ -3289,16 +3095,16 @@
           <t>bus; train; plane</t>
         </is>
       </c>
-      <c r="Q58" s="2" t="inlineStr"/>
-      <c r="R58" s="2" t="inlineStr"/>
-      <c r="S58" s="2" t="inlineStr"/>
+      <c r="Q58" s="2" t="n"/>
+      <c r="R58" s="2" t="n"/>
+      <c r="S58" s="2" t="n"/>
       <c r="T58" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U58" s="2" t="inlineStr"/>
-      <c r="V58" s="2" t="inlineStr"/>
+      <c r="U58" s="2" t="n"/>
+      <c r="V58" s="2" t="n"/>
     </row>
     <row r="59">
       <c r="A59" s="2" t="inlineStr">
@@ -3316,37 +3122,37 @@
           <t>transportation [BCIO:026041]</t>
         </is>
       </c>
-      <c r="D59" s="2" t="inlineStr"/>
-      <c r="E59" s="2" t="inlineStr"/>
-      <c r="F59" s="2" t="inlineStr"/>
-      <c r="G59" s="2" t="inlineStr"/>
-      <c r="H59" s="2" t="inlineStr"/>
-      <c r="I59" s="2" t="inlineStr"/>
-      <c r="J59" s="2" t="inlineStr"/>
-      <c r="K59" s="2" t="inlineStr"/>
-      <c r="L59" s="2" t="inlineStr"/>
+      <c r="D59" s="2" t="n"/>
+      <c r="E59" s="2" t="n"/>
+      <c r="F59" s="2" t="n"/>
+      <c r="G59" s="2" t="n"/>
+      <c r="H59" s="2" t="n"/>
+      <c r="I59" s="2" t="n"/>
+      <c r="J59" s="2" t="n"/>
+      <c r="K59" s="2" t="n"/>
+      <c r="L59" s="2" t="n"/>
       <c r="M59" s="2" t="inlineStr">
         <is>
           <t>A form of transportation owned by an individual for individual or group use.</t>
         </is>
       </c>
-      <c r="N59" s="2" t="inlineStr"/>
-      <c r="O59" s="2" t="inlineStr"/>
+      <c r="N59" s="2" t="n"/>
+      <c r="O59" s="2" t="n"/>
       <c r="P59" s="2" t="inlineStr">
         <is>
           <t>car; bicycle; motorbike</t>
         </is>
       </c>
-      <c r="Q59" s="2" t="inlineStr"/>
-      <c r="R59" s="2" t="inlineStr"/>
-      <c r="S59" s="2" t="inlineStr"/>
+      <c r="Q59" s="2" t="n"/>
+      <c r="R59" s="2" t="n"/>
+      <c r="S59" s="2" t="n"/>
       <c r="T59" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U59" s="2" t="inlineStr"/>
-      <c r="V59" s="2" t="inlineStr"/>
+      <c r="U59" s="2" t="n"/>
+      <c r="V59" s="2" t="n"/>
     </row>
     <row r="60">
       <c r="A60" s="2" t="inlineStr">
@@ -3364,37 +3170,37 @@
           <t>transportation [BCIO:026041]</t>
         </is>
       </c>
-      <c r="D60" s="2" t="inlineStr"/>
-      <c r="E60" s="2" t="inlineStr"/>
-      <c r="F60" s="2" t="inlineStr"/>
-      <c r="G60" s="2" t="inlineStr"/>
-      <c r="H60" s="2" t="inlineStr"/>
-      <c r="I60" s="2" t="inlineStr"/>
-      <c r="J60" s="2" t="inlineStr"/>
-      <c r="K60" s="2" t="inlineStr"/>
-      <c r="L60" s="2" t="inlineStr"/>
+      <c r="D60" s="2" t="n"/>
+      <c r="E60" s="2" t="n"/>
+      <c r="F60" s="2" t="n"/>
+      <c r="G60" s="2" t="n"/>
+      <c r="H60" s="2" t="n"/>
+      <c r="I60" s="2" t="n"/>
+      <c r="J60" s="2" t="n"/>
+      <c r="K60" s="2" t="n"/>
+      <c r="L60" s="2" t="n"/>
       <c r="M60" s="2" t="inlineStr">
         <is>
           <t>A form of transportation delivering interventions in transient locations.</t>
         </is>
       </c>
-      <c r="N60" s="2" t="inlineStr"/>
-      <c r="O60" s="2" t="inlineStr"/>
+      <c r="N60" s="2" t="n"/>
+      <c r="O60" s="2" t="n"/>
       <c r="P60" s="2" t="inlineStr">
         <is>
           <t>mobile van</t>
         </is>
       </c>
-      <c r="Q60" s="2" t="inlineStr"/>
-      <c r="R60" s="2" t="inlineStr"/>
-      <c r="S60" s="2" t="inlineStr"/>
+      <c r="Q60" s="2" t="n"/>
+      <c r="R60" s="2" t="n"/>
+      <c r="S60" s="2" t="n"/>
       <c r="T60" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U60" s="2" t="inlineStr"/>
-      <c r="V60" s="2" t="inlineStr"/>
+      <c r="U60" s="2" t="n"/>
+      <c r="V60" s="2" t="n"/>
     </row>
     <row r="61">
       <c r="A61" s="2" t="inlineStr">
@@ -3412,33 +3218,33 @@
           <t>transportation [BCIO:026041]</t>
         </is>
       </c>
-      <c r="D61" s="2" t="inlineStr"/>
-      <c r="E61" s="2" t="inlineStr"/>
-      <c r="F61" s="2" t="inlineStr"/>
-      <c r="G61" s="2" t="inlineStr"/>
-      <c r="H61" s="2" t="inlineStr"/>
-      <c r="I61" s="2" t="inlineStr"/>
-      <c r="J61" s="2" t="inlineStr"/>
-      <c r="K61" s="2" t="inlineStr"/>
-      <c r="L61" s="2" t="inlineStr"/>
+      <c r="D61" s="2" t="n"/>
+      <c r="E61" s="2" t="n"/>
+      <c r="F61" s="2" t="n"/>
+      <c r="G61" s="2" t="n"/>
+      <c r="H61" s="2" t="n"/>
+      <c r="I61" s="2" t="n"/>
+      <c r="J61" s="2" t="n"/>
+      <c r="K61" s="2" t="n"/>
+      <c r="L61" s="2" t="n"/>
       <c r="M61" s="2" t="inlineStr">
         <is>
           <t>A form of transporation which can transport patients for health treatment, and in some instances will also provide out-of-hospital healthcare to the patient.</t>
         </is>
       </c>
-      <c r="N61" s="2" t="inlineStr"/>
-      <c r="O61" s="2" t="inlineStr"/>
-      <c r="P61" s="2" t="inlineStr"/>
-      <c r="Q61" s="2" t="inlineStr"/>
-      <c r="R61" s="2" t="inlineStr"/>
-      <c r="S61" s="2" t="inlineStr"/>
+      <c r="N61" s="2" t="n"/>
+      <c r="O61" s="2" t="n"/>
+      <c r="P61" s="2" t="n"/>
+      <c r="Q61" s="2" t="n"/>
+      <c r="R61" s="2" t="n"/>
+      <c r="S61" s="2" t="n"/>
       <c r="T61" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U61" s="2" t="inlineStr"/>
-      <c r="V61" s="2" t="inlineStr"/>
+      <c r="U61" s="2" t="n"/>
+      <c r="V61" s="2" t="n"/>
     </row>
     <row r="62">
       <c r="A62" s="2" t="inlineStr">
@@ -3456,33 +3262,33 @@
           <t>site [BFO:0000029]</t>
         </is>
       </c>
-      <c r="D62" s="2" t="inlineStr"/>
-      <c r="E62" s="2" t="inlineStr"/>
-      <c r="F62" s="2" t="inlineStr"/>
-      <c r="G62" s="2" t="inlineStr"/>
-      <c r="H62" s="2" t="inlineStr"/>
-      <c r="I62" s="2" t="inlineStr"/>
-      <c r="J62" s="2" t="inlineStr"/>
-      <c r="K62" s="2" t="inlineStr"/>
-      <c r="L62" s="2" t="inlineStr"/>
+      <c r="D62" s="2" t="n"/>
+      <c r="E62" s="2" t="n"/>
+      <c r="F62" s="2" t="n"/>
+      <c r="G62" s="2" t="n"/>
+      <c r="H62" s="2" t="n"/>
+      <c r="I62" s="2" t="n"/>
+      <c r="J62" s="2" t="n"/>
+      <c r="K62" s="2" t="n"/>
+      <c r="L62" s="2" t="n"/>
       <c r="M62" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">A site which is an outdoor location outside of a building. </t>
         </is>
       </c>
-      <c r="N62" s="2" t="inlineStr"/>
-      <c r="O62" s="2" t="inlineStr"/>
-      <c r="P62" s="2" t="inlineStr"/>
-      <c r="Q62" s="2" t="inlineStr"/>
-      <c r="R62" s="2" t="inlineStr"/>
-      <c r="S62" s="2" t="inlineStr"/>
+      <c r="N62" s="2" t="n"/>
+      <c r="O62" s="2" t="n"/>
+      <c r="P62" s="2" t="n"/>
+      <c r="Q62" s="2" t="n"/>
+      <c r="R62" s="2" t="n"/>
+      <c r="S62" s="2" t="n"/>
       <c r="T62" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U62" s="2" t="inlineStr"/>
-      <c r="V62" s="2" t="inlineStr"/>
+      <c r="U62" s="2" t="n"/>
+      <c r="V62" s="2" t="n"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -3500,15 +3306,6 @@
           <t>outdoor environment [BCIO:026046]</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr"/>
-      <c r="E63" t="inlineStr"/>
-      <c r="F63" t="inlineStr"/>
-      <c r="G63" t="inlineStr"/>
-      <c r="H63" t="inlineStr"/>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
       <c r="M63" t="inlineStr">
         <is>
           <t>A bounded area of land, or water, usually in its natural or semi-natural (landscaped) state and set aside for some purpose, usually to do with recreation or conservation</t>
@@ -3524,17 +3321,11 @@
           <t>Environment Ontology</t>
         </is>
       </c>
-      <c r="P63" t="inlineStr"/>
-      <c r="Q63" t="inlineStr"/>
-      <c r="R63" t="inlineStr"/>
-      <c r="S63" t="inlineStr"/>
       <c r="T63" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="U63" t="inlineStr"/>
-      <c r="V63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -3552,15 +3343,6 @@
           <t>outdoor environment [BCIO:026046]</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr"/>
-      <c r="E64" t="inlineStr"/>
-      <c r="F64" t="inlineStr"/>
-      <c r="G64" t="inlineStr"/>
-      <c r="H64" t="inlineStr"/>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
       <c r="M64" t="inlineStr">
         <is>
           <t>An area with a high density of trees. A small forest may be called a wood</t>
@@ -3576,17 +3358,11 @@
           <t>Environment Ontology</t>
         </is>
       </c>
-      <c r="P64" t="inlineStr"/>
-      <c r="Q64" t="inlineStr"/>
-      <c r="R64" t="inlineStr"/>
-      <c r="S64" t="inlineStr"/>
       <c r="T64" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="U64" t="inlineStr"/>
-      <c r="V64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -3604,15 +3380,6 @@
           <t>outdoor environment [BCIO:026046]</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr"/>
-      <c r="E65" t="inlineStr"/>
-      <c r="F65" t="inlineStr"/>
-      <c r="G65" t="inlineStr"/>
-      <c r="H65" t="inlineStr"/>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
       <c r="M65" t="inlineStr">
         <is>
           <t>A landform consisting of loose rock particles such as sand, gravel, shingle, pebbles, cobble, or even shell fragments along the shoreline of a body of wate</t>
@@ -3628,17 +3395,11 @@
           <t>Environment Ontology</t>
         </is>
       </c>
-      <c r="P65" t="inlineStr"/>
-      <c r="Q65" t="inlineStr"/>
-      <c r="R65" t="inlineStr"/>
-      <c r="S65" t="inlineStr"/>
       <c r="T65" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="U65" t="inlineStr"/>
-      <c r="V65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="2" t="inlineStr">
@@ -3656,33 +3417,33 @@
           <t>outdoor environment [BCIO:026046]</t>
         </is>
       </c>
-      <c r="D66" s="2" t="inlineStr"/>
-      <c r="E66" s="2" t="inlineStr"/>
-      <c r="F66" s="2" t="inlineStr"/>
-      <c r="G66" s="2" t="inlineStr"/>
-      <c r="H66" s="2" t="inlineStr"/>
-      <c r="I66" s="2" t="inlineStr"/>
-      <c r="J66" s="2" t="inlineStr"/>
-      <c r="K66" s="2" t="inlineStr"/>
-      <c r="L66" s="2" t="inlineStr"/>
+      <c r="D66" s="2" t="n"/>
+      <c r="E66" s="2" t="n"/>
+      <c r="F66" s="2" t="n"/>
+      <c r="G66" s="2" t="n"/>
+      <c r="H66" s="2" t="n"/>
+      <c r="I66" s="2" t="n"/>
+      <c r="J66" s="2" t="n"/>
+      <c r="K66" s="2" t="n"/>
+      <c r="L66" s="2" t="n"/>
       <c r="M66" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">An outdoor environment set in an expanse of water. </t>
         </is>
       </c>
-      <c r="N66" s="2" t="inlineStr"/>
-      <c r="O66" s="2" t="inlineStr"/>
-      <c r="P66" s="2" t="inlineStr"/>
-      <c r="Q66" s="2" t="inlineStr"/>
-      <c r="R66" s="2" t="inlineStr"/>
-      <c r="S66" s="2" t="inlineStr"/>
+      <c r="N66" s="2" t="n"/>
+      <c r="O66" s="2" t="n"/>
+      <c r="P66" s="2" t="n"/>
+      <c r="Q66" s="2" t="n"/>
+      <c r="R66" s="2" t="n"/>
+      <c r="S66" s="2" t="n"/>
       <c r="T66" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U66" s="2" t="inlineStr"/>
-      <c r="V66" s="2" t="inlineStr"/>
+      <c r="U66" s="2" t="n"/>
+      <c r="V66" s="2" t="n"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -3700,15 +3461,6 @@
           <t>outdoor environment [BCIO:026046]</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr"/>
-      <c r="E67" t="inlineStr"/>
-      <c r="F67" t="inlineStr"/>
-      <c r="G67" t="inlineStr"/>
-      <c r="H67" t="inlineStr"/>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
       <c r="M67" t="inlineStr">
         <is>
           <t>An area in which grasses (Graminae) are a significant component of the vegetation</t>
@@ -3724,17 +3476,11 @@
           <t>Environment Ontology</t>
         </is>
       </c>
-      <c r="P67" t="inlineStr"/>
-      <c r="Q67" t="inlineStr"/>
-      <c r="R67" t="inlineStr"/>
-      <c r="S67" t="inlineStr"/>
       <c r="T67" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="U67" t="inlineStr"/>
-      <c r="V67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -3752,15 +3498,6 @@
           <t>outdoor environment [BCIO:026046]</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr"/>
-      <c r="E68" t="inlineStr"/>
-      <c r="F68" t="inlineStr"/>
-      <c r="G68" t="inlineStr"/>
-      <c r="H68" t="inlineStr"/>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
       <c r="M68" t="inlineStr">
         <is>
           <t>An open way for the passage of vehicles, persons, or animals on land</t>
@@ -3776,17 +3513,11 @@
           <t>Environment Ontology</t>
         </is>
       </c>
-      <c r="P68" t="inlineStr"/>
-      <c r="Q68" t="inlineStr"/>
-      <c r="R68" t="inlineStr"/>
-      <c r="S68" t="inlineStr"/>
       <c r="T68" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="U68" t="inlineStr"/>
-      <c r="V68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="2" t="inlineStr">
@@ -3804,33 +3535,33 @@
           <t>outdoor environment [BCIO:026046]</t>
         </is>
       </c>
-      <c r="D69" s="2" t="inlineStr"/>
-      <c r="E69" s="2" t="inlineStr"/>
-      <c r="F69" s="2" t="inlineStr"/>
-      <c r="G69" s="2" t="inlineStr"/>
-      <c r="H69" s="2" t="inlineStr"/>
-      <c r="I69" s="2" t="inlineStr"/>
-      <c r="J69" s="2" t="inlineStr"/>
-      <c r="K69" s="2" t="inlineStr"/>
-      <c r="L69" s="2" t="inlineStr"/>
+      <c r="D69" s="2" t="n"/>
+      <c r="E69" s="2" t="n"/>
+      <c r="F69" s="2" t="n"/>
+      <c r="G69" s="2" t="n"/>
+      <c r="H69" s="2" t="n"/>
+      <c r="I69" s="2" t="n"/>
+      <c r="J69" s="2" t="n"/>
+      <c r="K69" s="2" t="n"/>
+      <c r="L69" s="2" t="n"/>
       <c r="M69" s="2" t="inlineStr">
         <is>
           <t>An outdoor environment for the passage of persons or cyclists on land</t>
         </is>
       </c>
-      <c r="N69" s="2" t="inlineStr"/>
-      <c r="O69" s="2" t="inlineStr"/>
-      <c r="P69" s="2" t="inlineStr"/>
-      <c r="Q69" s="2" t="inlineStr"/>
-      <c r="R69" s="2" t="inlineStr"/>
-      <c r="S69" s="2" t="inlineStr"/>
+      <c r="N69" s="2" t="n"/>
+      <c r="O69" s="2" t="n"/>
+      <c r="P69" s="2" t="n"/>
+      <c r="Q69" s="2" t="n"/>
+      <c r="R69" s="2" t="n"/>
+      <c r="S69" s="2" t="n"/>
       <c r="T69" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U69" s="2" t="inlineStr"/>
-      <c r="V69" s="2" t="inlineStr"/>
+      <c r="U69" s="2" t="n"/>
+      <c r="V69" s="2" t="n"/>
     </row>
     <row r="70">
       <c r="A70" s="2" t="inlineStr">
@@ -3848,33 +3579,33 @@
           <t>path or pavement [BCIO:026048]</t>
         </is>
       </c>
-      <c r="D70" s="2" t="inlineStr"/>
-      <c r="E70" s="2" t="inlineStr"/>
-      <c r="F70" s="2" t="inlineStr"/>
-      <c r="G70" s="2" t="inlineStr"/>
-      <c r="H70" s="2" t="inlineStr"/>
-      <c r="I70" s="2" t="inlineStr"/>
-      <c r="J70" s="2" t="inlineStr"/>
-      <c r="K70" s="2" t="inlineStr"/>
-      <c r="L70" s="2" t="inlineStr"/>
+      <c r="D70" s="2" t="n"/>
+      <c r="E70" s="2" t="n"/>
+      <c r="F70" s="2" t="n"/>
+      <c r="G70" s="2" t="n"/>
+      <c r="H70" s="2" t="n"/>
+      <c r="I70" s="2" t="n"/>
+      <c r="J70" s="2" t="n"/>
+      <c r="K70" s="2" t="n"/>
+      <c r="L70" s="2" t="n"/>
       <c r="M70" s="2" t="inlineStr">
         <is>
           <t>A path or pavement for the passage of persons only on land.</t>
         </is>
       </c>
-      <c r="N70" s="2" t="inlineStr"/>
-      <c r="O70" s="2" t="inlineStr"/>
-      <c r="P70" s="2" t="inlineStr"/>
-      <c r="Q70" s="2" t="inlineStr"/>
-      <c r="R70" s="2" t="inlineStr"/>
-      <c r="S70" s="2" t="inlineStr"/>
+      <c r="N70" s="2" t="n"/>
+      <c r="O70" s="2" t="n"/>
+      <c r="P70" s="2" t="n"/>
+      <c r="Q70" s="2" t="n"/>
+      <c r="R70" s="2" t="n"/>
+      <c r="S70" s="2" t="n"/>
       <c r="T70" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U70" s="2" t="inlineStr"/>
-      <c r="V70" s="2" t="inlineStr"/>
+      <c r="U70" s="2" t="n"/>
+      <c r="V70" s="2" t="n"/>
     </row>
     <row r="71">
       <c r="A71" s="2" t="inlineStr">
@@ -3892,33 +3623,33 @@
           <t>path or pavement [BCIO:026048]</t>
         </is>
       </c>
-      <c r="D71" s="2" t="inlineStr"/>
-      <c r="E71" s="2" t="inlineStr"/>
-      <c r="F71" s="2" t="inlineStr"/>
-      <c r="G71" s="2" t="inlineStr"/>
-      <c r="H71" s="2" t="inlineStr"/>
-      <c r="I71" s="2" t="inlineStr"/>
-      <c r="J71" s="2" t="inlineStr"/>
-      <c r="K71" s="2" t="inlineStr"/>
-      <c r="L71" s="2" t="inlineStr"/>
+      <c r="D71" s="2" t="n"/>
+      <c r="E71" s="2" t="n"/>
+      <c r="F71" s="2" t="n"/>
+      <c r="G71" s="2" t="n"/>
+      <c r="H71" s="2" t="n"/>
+      <c r="I71" s="2" t="n"/>
+      <c r="J71" s="2" t="n"/>
+      <c r="K71" s="2" t="n"/>
+      <c r="L71" s="2" t="n"/>
       <c r="M71" s="2" t="inlineStr">
         <is>
           <t>A path or pavement for the passage of people using bicycles only on land.</t>
         </is>
       </c>
-      <c r="N71" s="2" t="inlineStr"/>
-      <c r="O71" s="2" t="inlineStr"/>
-      <c r="P71" s="2" t="inlineStr"/>
-      <c r="Q71" s="2" t="inlineStr"/>
-      <c r="R71" s="2" t="inlineStr"/>
-      <c r="S71" s="2" t="inlineStr"/>
+      <c r="N71" s="2" t="n"/>
+      <c r="O71" s="2" t="n"/>
+      <c r="P71" s="2" t="n"/>
+      <c r="Q71" s="2" t="n"/>
+      <c r="R71" s="2" t="n"/>
+      <c r="S71" s="2" t="n"/>
       <c r="T71" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U71" s="2" t="inlineStr"/>
-      <c r="V71" s="2" t="inlineStr"/>
+      <c r="U71" s="2" t="n"/>
+      <c r="V71" s="2" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Setting/inputs/Setting.xlsx
+++ b/Setting/inputs/Setting.xlsx
@@ -562,14 +562,17 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>test2</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>test3</t>
-        </is>
-      </c>
+          <t>test1</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr">
         <is>
           <t>A reference to a place on the Earth, by its name or by its geographical location</t>
@@ -585,6 +588,9 @@
           <t>Gazeteer Ontology</t>
         </is>
       </c>
+      <c r="P2" t="inlineStr"/>
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr"/>
       <c r="S2" t="inlineStr">
         <is>
           <t>to</t>
@@ -595,6 +601,8 @@
           <t>External</t>
         </is>
       </c>
+      <c r="U2" t="inlineStr"/>
+      <c r="V2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
@@ -614,31 +622,35 @@
       </c>
       <c r="D3" s="2" t="inlineStr">
         <is>
-          <t>test4</t>
-        </is>
-      </c>
-      <c r="E3" s="2" t="n"/>
-      <c r="F3" s="2" t="n"/>
-      <c r="G3" s="2" t="n"/>
-      <c r="H3" s="2" t="n"/>
-      <c r="I3" s="2" t="n"/>
-      <c r="J3" s="2" t="n"/>
-      <c r="K3" s="2" t="n"/>
-      <c r="L3" s="2" t="n"/>
+          <t>test5</t>
+        </is>
+      </c>
+      <c r="E3" s="2" t="inlineStr">
+        <is>
+          <t>test6</t>
+        </is>
+      </c>
+      <c r="F3" s="2" t="inlineStr"/>
+      <c r="G3" s="2" t="inlineStr"/>
+      <c r="H3" s="2" t="inlineStr"/>
+      <c r="I3" s="2" t="inlineStr"/>
+      <c r="J3" s="2" t="inlineStr"/>
+      <c r="K3" s="2" t="inlineStr"/>
+      <c r="L3" s="2" t="inlineStr"/>
       <c r="M3" s="2" t="inlineStr">
         <is>
           <t>A geographical location of a country where the intervention takes place.</t>
         </is>
       </c>
-      <c r="N3" s="2" t="n"/>
-      <c r="O3" s="2" t="n"/>
+      <c r="N3" s="2" t="inlineStr"/>
+      <c r="O3" s="2" t="inlineStr"/>
       <c r="P3" s="2" t="inlineStr">
         <is>
           <t>United Kingdom; Spain</t>
         </is>
       </c>
-      <c r="Q3" s="2" t="n"/>
-      <c r="R3" s="2" t="n"/>
+      <c r="Q3" s="2" t="inlineStr"/>
+      <c r="R3" s="2" t="inlineStr"/>
       <c r="S3" s="2" t="inlineStr">
         <is>
           <t>to</t>
@@ -649,8 +661,8 @@
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U3" s="2" t="n"/>
-      <c r="V3" s="2" t="n"/>
+      <c r="U3" s="2" t="inlineStr"/>
+      <c r="V3" s="2" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
@@ -668,37 +680,37 @@
           <t>geographic location [GAZ:00000448]</t>
         </is>
       </c>
-      <c r="D4" s="2" t="n"/>
-      <c r="E4" s="2" t="n"/>
-      <c r="F4" s="2" t="n"/>
-      <c r="G4" s="2" t="n"/>
-      <c r="H4" s="2" t="n"/>
-      <c r="I4" s="2" t="n"/>
-      <c r="J4" s="2" t="n"/>
-      <c r="K4" s="2" t="n"/>
-      <c r="L4" s="2" t="n"/>
+      <c r="D4" s="2" t="inlineStr"/>
+      <c r="E4" s="2" t="inlineStr"/>
+      <c r="F4" s="2" t="inlineStr"/>
+      <c r="G4" s="2" t="inlineStr"/>
+      <c r="H4" s="2" t="inlineStr"/>
+      <c r="I4" s="2" t="inlineStr"/>
+      <c r="J4" s="2" t="inlineStr"/>
+      <c r="K4" s="2" t="inlineStr"/>
+      <c r="L4" s="2" t="inlineStr"/>
       <c r="M4" s="2" t="inlineStr">
         <is>
           <t>A geographical location within a country where the intervention takes place.</t>
         </is>
       </c>
-      <c r="N4" s="2" t="n"/>
-      <c r="O4" s="2" t="n"/>
+      <c r="N4" s="2" t="inlineStr"/>
+      <c r="O4" s="2" t="inlineStr"/>
       <c r="P4" s="2" t="inlineStr">
         <is>
           <t>Region; Town; City; State; New York; Rotterdam</t>
         </is>
       </c>
-      <c r="Q4" s="2" t="n"/>
-      <c r="R4" s="2" t="n"/>
-      <c r="S4" s="2" t="n"/>
+      <c r="Q4" s="2" t="inlineStr"/>
+      <c r="R4" s="2" t="inlineStr"/>
+      <c r="S4" s="2" t="inlineStr"/>
       <c r="T4" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U4" s="2" t="n"/>
-      <c r="V4" s="2" t="n"/>
+      <c r="U4" s="2" t="inlineStr"/>
+      <c r="V4" s="2" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
@@ -721,32 +733,32 @@
           <t>Behaviour change intervention physical setting [BCIO:026000]</t>
         </is>
       </c>
-      <c r="E5" s="2" t="n"/>
-      <c r="F5" s="2" t="n"/>
-      <c r="G5" s="2" t="n"/>
-      <c r="H5" s="2" t="n"/>
-      <c r="I5" s="2" t="n"/>
-      <c r="J5" s="2" t="n"/>
-      <c r="K5" s="2" t="n"/>
-      <c r="L5" s="2" t="n"/>
+      <c r="E5" s="2" t="inlineStr"/>
+      <c r="F5" s="2" t="inlineStr"/>
+      <c r="G5" s="2" t="inlineStr"/>
+      <c r="H5" s="2" t="inlineStr"/>
+      <c r="I5" s="2" t="inlineStr"/>
+      <c r="J5" s="2" t="inlineStr"/>
+      <c r="K5" s="2" t="inlineStr"/>
+      <c r="L5" s="2" t="inlineStr"/>
       <c r="M5" s="2" t="inlineStr">
         <is>
           <t>Features of a given location, such as social and economic characteristics.</t>
         </is>
       </c>
-      <c r="N5" s="2" t="n"/>
-      <c r="O5" s="2" t="n"/>
-      <c r="P5" s="2" t="n"/>
-      <c r="Q5" s="2" t="n"/>
-      <c r="R5" s="2" t="n"/>
-      <c r="S5" s="2" t="n"/>
+      <c r="N5" s="2" t="inlineStr"/>
+      <c r="O5" s="2" t="inlineStr"/>
+      <c r="P5" s="2" t="inlineStr"/>
+      <c r="Q5" s="2" t="inlineStr"/>
+      <c r="R5" s="2" t="inlineStr"/>
+      <c r="S5" s="2" t="inlineStr"/>
       <c r="T5" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U5" s="2" t="n"/>
-      <c r="V5" s="2" t="n"/>
+      <c r="U5" s="2" t="inlineStr"/>
+      <c r="V5" s="2" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
@@ -764,37 +776,37 @@
           <t>attribute of location [BCIO:026003]</t>
         </is>
       </c>
-      <c r="D6" s="2" t="n"/>
-      <c r="E6" s="2" t="n"/>
-      <c r="F6" s="2" t="n"/>
-      <c r="G6" s="2" t="n"/>
-      <c r="H6" s="2" t="n"/>
-      <c r="I6" s="2" t="n"/>
-      <c r="J6" s="2" t="n"/>
-      <c r="K6" s="2" t="n"/>
-      <c r="L6" s="2" t="n"/>
+      <c r="D6" s="2" t="inlineStr"/>
+      <c r="E6" s="2" t="inlineStr"/>
+      <c r="F6" s="2" t="inlineStr"/>
+      <c r="G6" s="2" t="inlineStr"/>
+      <c r="H6" s="2" t="inlineStr"/>
+      <c r="I6" s="2" t="inlineStr"/>
+      <c r="J6" s="2" t="inlineStr"/>
+      <c r="K6" s="2" t="inlineStr"/>
+      <c r="L6" s="2" t="inlineStr"/>
       <c r="M6" s="2" t="inlineStr">
         <is>
           <t>An attribute of location describing the overall socioeconomic state of a location.</t>
         </is>
       </c>
-      <c r="N6" s="2" t="n"/>
-      <c r="O6" s="2" t="n"/>
+      <c r="N6" s="2" t="inlineStr"/>
+      <c r="O6" s="2" t="inlineStr"/>
       <c r="P6" s="2" t="inlineStr">
         <is>
           <t>disadvantaged area; crime rates; World Bank Classifications</t>
         </is>
       </c>
-      <c r="Q6" s="2" t="n"/>
-      <c r="R6" s="2" t="n"/>
-      <c r="S6" s="2" t="n"/>
+      <c r="Q6" s="2" t="inlineStr"/>
+      <c r="R6" s="2" t="inlineStr"/>
+      <c r="S6" s="2" t="inlineStr"/>
       <c r="T6" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U6" s="2" t="n"/>
-      <c r="V6" s="2" t="n"/>
+      <c r="U6" s="2" t="inlineStr"/>
+      <c r="V6" s="2" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
@@ -812,37 +824,37 @@
           <t>area social and economic condition [BCIO:026004]</t>
         </is>
       </c>
-      <c r="D7" s="2" t="n"/>
-      <c r="E7" s="2" t="n"/>
-      <c r="F7" s="2" t="n"/>
-      <c r="G7" s="2" t="n"/>
-      <c r="H7" s="2" t="n"/>
-      <c r="I7" s="2" t="n"/>
-      <c r="J7" s="2" t="n"/>
-      <c r="K7" s="2" t="n"/>
-      <c r="L7" s="2" t="n"/>
+      <c r="D7" s="2" t="inlineStr"/>
+      <c r="E7" s="2" t="inlineStr"/>
+      <c r="F7" s="2" t="inlineStr"/>
+      <c r="G7" s="2" t="inlineStr"/>
+      <c r="H7" s="2" t="inlineStr"/>
+      <c r="I7" s="2" t="inlineStr"/>
+      <c r="J7" s="2" t="inlineStr"/>
+      <c r="K7" s="2" t="inlineStr"/>
+      <c r="L7" s="2" t="inlineStr"/>
       <c r="M7" s="2" t="inlineStr">
         <is>
           <t>An area social and economic condition described to have a low-income, whether at a country or within-country level.</t>
         </is>
       </c>
-      <c r="N7" s="2" t="n"/>
-      <c r="O7" s="2" t="n"/>
+      <c r="N7" s="2" t="inlineStr"/>
+      <c r="O7" s="2" t="inlineStr"/>
       <c r="P7" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">developing country </t>
         </is>
       </c>
-      <c r="Q7" s="2" t="n"/>
-      <c r="R7" s="2" t="n"/>
-      <c r="S7" s="2" t="n"/>
+      <c r="Q7" s="2" t="inlineStr"/>
+      <c r="R7" s="2" t="inlineStr"/>
+      <c r="S7" s="2" t="inlineStr"/>
       <c r="T7" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U7" s="2" t="n"/>
-      <c r="V7" s="2" t="n"/>
+      <c r="U7" s="2" t="inlineStr"/>
+      <c r="V7" s="2" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
@@ -860,37 +872,37 @@
           <t>area social and economic condition [BCIO:026004]</t>
         </is>
       </c>
-      <c r="D8" s="2" t="n"/>
-      <c r="E8" s="2" t="n"/>
-      <c r="F8" s="2" t="n"/>
-      <c r="G8" s="2" t="n"/>
-      <c r="H8" s="2" t="n"/>
-      <c r="I8" s="2" t="n"/>
-      <c r="J8" s="2" t="n"/>
-      <c r="K8" s="2" t="n"/>
-      <c r="L8" s="2" t="n"/>
+      <c r="D8" s="2" t="inlineStr"/>
+      <c r="E8" s="2" t="inlineStr"/>
+      <c r="F8" s="2" t="inlineStr"/>
+      <c r="G8" s="2" t="inlineStr"/>
+      <c r="H8" s="2" t="inlineStr"/>
+      <c r="I8" s="2" t="inlineStr"/>
+      <c r="J8" s="2" t="inlineStr"/>
+      <c r="K8" s="2" t="inlineStr"/>
+      <c r="L8" s="2" t="inlineStr"/>
       <c r="M8" s="2" t="inlineStr">
         <is>
           <t>An area social and economic condition described to have a high-income, whether at a country or within-country level.</t>
         </is>
       </c>
-      <c r="N8" s="2" t="n"/>
-      <c r="O8" s="2" t="n"/>
+      <c r="N8" s="2" t="inlineStr"/>
+      <c r="O8" s="2" t="inlineStr"/>
       <c r="P8" s="2" t="inlineStr">
         <is>
           <t>developed country</t>
         </is>
       </c>
-      <c r="Q8" s="2" t="n"/>
-      <c r="R8" s="2" t="n"/>
-      <c r="S8" s="2" t="n"/>
+      <c r="Q8" s="2" t="inlineStr"/>
+      <c r="R8" s="2" t="inlineStr"/>
+      <c r="S8" s="2" t="inlineStr"/>
       <c r="T8" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U8" s="2" t="n"/>
-      <c r="V8" s="2" t="n"/>
+      <c r="U8" s="2" t="inlineStr"/>
+      <c r="V8" s="2" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
@@ -908,33 +920,33 @@
           <t>attribute of location [BCIO:026003]</t>
         </is>
       </c>
-      <c r="D9" s="2" t="n"/>
-      <c r="E9" s="2" t="n"/>
-      <c r="F9" s="2" t="n"/>
-      <c r="G9" s="2" t="n"/>
-      <c r="H9" s="2" t="n"/>
-      <c r="I9" s="2" t="n"/>
-      <c r="J9" s="2" t="n"/>
-      <c r="K9" s="2" t="n"/>
-      <c r="L9" s="2" t="n"/>
+      <c r="D9" s="2" t="inlineStr"/>
+      <c r="E9" s="2" t="inlineStr"/>
+      <c r="F9" s="2" t="inlineStr"/>
+      <c r="G9" s="2" t="inlineStr"/>
+      <c r="H9" s="2" t="inlineStr"/>
+      <c r="I9" s="2" t="inlineStr"/>
+      <c r="J9" s="2" t="inlineStr"/>
+      <c r="K9" s="2" t="inlineStr"/>
+      <c r="L9" s="2" t="inlineStr"/>
       <c r="M9" s="2" t="inlineStr">
         <is>
           <t>An attribute of location describing the density of an area, in terms of people and resources within it.</t>
         </is>
       </c>
-      <c r="N9" s="2" t="n"/>
-      <c r="O9" s="2" t="n"/>
-      <c r="P9" s="2" t="n"/>
-      <c r="Q9" s="2" t="n"/>
-      <c r="R9" s="2" t="n"/>
-      <c r="S9" s="2" t="n"/>
+      <c r="N9" s="2" t="inlineStr"/>
+      <c r="O9" s="2" t="inlineStr"/>
+      <c r="P9" s="2" t="inlineStr"/>
+      <c r="Q9" s="2" t="inlineStr"/>
+      <c r="R9" s="2" t="inlineStr"/>
+      <c r="S9" s="2" t="inlineStr"/>
       <c r="T9" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U9" s="2" t="n"/>
-      <c r="V9" s="2" t="n"/>
+      <c r="U9" s="2" t="inlineStr"/>
+      <c r="V9" s="2" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -952,6 +964,15 @@
           <t>population and resource density [BCIO:026007]</t>
         </is>
       </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr">
         <is>
           <t>An area which is outside of a town, city, or urban area. Rural areas are primarily used for agriculture or pastoralism and may contain rural settlements</t>
@@ -967,11 +988,17 @@
           <t>Environment Ontology</t>
         </is>
       </c>
+      <c r="P10" t="inlineStr"/>
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr"/>
+      <c r="S10" t="inlineStr"/>
       <c r="T10" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
+      <c r="U10" t="inlineStr"/>
+      <c r="V10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
@@ -989,33 +1016,33 @@
           <t>population and resource density [BCIO:026007]</t>
         </is>
       </c>
-      <c r="D11" s="2" t="n"/>
-      <c r="E11" s="2" t="n"/>
-      <c r="F11" s="2" t="n"/>
-      <c r="G11" s="2" t="n"/>
-      <c r="H11" s="2" t="n"/>
-      <c r="I11" s="2" t="n"/>
-      <c r="J11" s="2" t="n"/>
-      <c r="K11" s="2" t="n"/>
-      <c r="L11" s="2" t="n"/>
+      <c r="D11" s="2" t="inlineStr"/>
+      <c r="E11" s="2" t="inlineStr"/>
+      <c r="F11" s="2" t="inlineStr"/>
+      <c r="G11" s="2" t="inlineStr"/>
+      <c r="H11" s="2" t="inlineStr"/>
+      <c r="I11" s="2" t="inlineStr"/>
+      <c r="J11" s="2" t="inlineStr"/>
+      <c r="K11" s="2" t="inlineStr"/>
+      <c r="L11" s="2" t="inlineStr"/>
       <c r="M11" s="2" t="inlineStr">
         <is>
           <t>An area on the edge of a large town or city where a proportion of those who work in the town or city live.</t>
         </is>
       </c>
-      <c r="N11" s="2" t="n"/>
-      <c r="O11" s="2" t="n"/>
-      <c r="P11" s="2" t="n"/>
-      <c r="Q11" s="2" t="n"/>
-      <c r="R11" s="2" t="n"/>
-      <c r="S11" s="2" t="n"/>
+      <c r="N11" s="2" t="inlineStr"/>
+      <c r="O11" s="2" t="inlineStr"/>
+      <c r="P11" s="2" t="inlineStr"/>
+      <c r="Q11" s="2" t="inlineStr"/>
+      <c r="R11" s="2" t="inlineStr"/>
+      <c r="S11" s="2" t="inlineStr"/>
       <c r="T11" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U11" s="2" t="n"/>
-      <c r="V11" s="2" t="n"/>
+      <c r="U11" s="2" t="inlineStr"/>
+      <c r="V11" s="2" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1033,6 +1060,15 @@
           <t>population and resource density [BCIO:026007]</t>
         </is>
       </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr">
         <is>
           <t>Incorporated populated place</t>
@@ -1048,11 +1084,17 @@
           <t>Environment Ontology</t>
         </is>
       </c>
+      <c r="P12" t="inlineStr"/>
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr"/>
+      <c r="S12" t="inlineStr"/>
       <c r="T12" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
+      <c r="U12" t="inlineStr"/>
+      <c r="V12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1070,6 +1112,15 @@
           <t>Behaviour change intervention physical setting [BCIO:026000]</t>
         </is>
       </c>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr">
         <is>
           <t>A three-dimensional immaterial entity that is (partially or wholly) bounded by a material entity or it is a three-dimensional immaterial part thereof.</t>
@@ -1085,11 +1136,17 @@
           <t>Basic Formal Ontology</t>
         </is>
       </c>
+      <c r="P13" t="inlineStr"/>
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr"/>
+      <c r="S13" t="inlineStr"/>
       <c r="T13" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
+      <c r="U13" t="inlineStr"/>
+      <c r="V13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1107,6 +1164,15 @@
           <t>site [BFO:0000029]</t>
         </is>
       </c>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr">
         <is>
           <t>An architectural structure that bears some function3</t>
@@ -1122,11 +1188,17 @@
           <t>Ontology of Medically Related Social Entities</t>
         </is>
       </c>
+      <c r="P14" t="inlineStr"/>
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr"/>
+      <c r="S14" t="inlineStr"/>
       <c r="T14" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
+      <c r="U14" t="inlineStr"/>
+      <c r="V14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1144,6 +1216,15 @@
           <t>facility [OMRSE:00000062]</t>
         </is>
       </c>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr">
         <is>
           <t>A facility that has at least one housing unit as part in which a person or persons live</t>
@@ -1159,11 +1240,17 @@
           <t>Ontology of Medically Related Social Entities; contacted ontology authors to add definition</t>
         </is>
       </c>
+      <c r="P15" t="inlineStr"/>
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="inlineStr"/>
+      <c r="S15" t="inlineStr"/>
       <c r="T15" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
+      <c r="U15" t="inlineStr"/>
+      <c r="V15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
@@ -1181,33 +1268,33 @@
           <t>residential facility [OMRSE:00000191]</t>
         </is>
       </c>
-      <c r="D16" s="2" t="n"/>
-      <c r="E16" s="2" t="n"/>
-      <c r="F16" s="2" t="n"/>
-      <c r="G16" s="2" t="n"/>
-      <c r="H16" s="2" t="n"/>
-      <c r="I16" s="2" t="n"/>
-      <c r="J16" s="2" t="n"/>
-      <c r="K16" s="2" t="n"/>
-      <c r="L16" s="2" t="n"/>
+      <c r="D16" s="2" t="inlineStr"/>
+      <c r="E16" s="2" t="inlineStr"/>
+      <c r="F16" s="2" t="inlineStr"/>
+      <c r="G16" s="2" t="inlineStr"/>
+      <c r="H16" s="2" t="inlineStr"/>
+      <c r="I16" s="2" t="inlineStr"/>
+      <c r="J16" s="2" t="inlineStr"/>
+      <c r="K16" s="2" t="inlineStr"/>
+      <c r="L16" s="2" t="inlineStr"/>
       <c r="M16" s="2" t="inlineStr">
         <is>
           <t>A facility where an individual is living alone or with one or more person. The individuals do not have to be related.</t>
         </is>
       </c>
-      <c r="N16" s="2" t="n"/>
-      <c r="O16" s="2" t="n"/>
-      <c r="P16" s="2" t="n"/>
-      <c r="Q16" s="2" t="n"/>
-      <c r="R16" s="2" t="n"/>
-      <c r="S16" s="2" t="n"/>
+      <c r="N16" s="2" t="inlineStr"/>
+      <c r="O16" s="2" t="inlineStr"/>
+      <c r="P16" s="2" t="inlineStr"/>
+      <c r="Q16" s="2" t="inlineStr"/>
+      <c r="R16" s="2" t="inlineStr"/>
+      <c r="S16" s="2" t="inlineStr"/>
       <c r="T16" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U16" s="2" t="n"/>
-      <c r="V16" s="2" t="n"/>
+      <c r="U16" s="2" t="inlineStr"/>
+      <c r="V16" s="2" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="2" t="inlineStr">
@@ -1225,37 +1312,37 @@
           <t>residential facility [OMRSE:00000191]</t>
         </is>
       </c>
-      <c r="D17" s="2" t="n"/>
-      <c r="E17" s="2" t="n"/>
-      <c r="F17" s="2" t="n"/>
-      <c r="G17" s="2" t="n"/>
-      <c r="H17" s="2" t="n"/>
-      <c r="I17" s="2" t="n"/>
-      <c r="J17" s="2" t="n"/>
-      <c r="K17" s="2" t="n"/>
-      <c r="L17" s="2" t="n"/>
+      <c r="D17" s="2" t="inlineStr"/>
+      <c r="E17" s="2" t="inlineStr"/>
+      <c r="F17" s="2" t="inlineStr"/>
+      <c r="G17" s="2" t="inlineStr"/>
+      <c r="H17" s="2" t="inlineStr"/>
+      <c r="I17" s="2" t="inlineStr"/>
+      <c r="J17" s="2" t="inlineStr"/>
+      <c r="K17" s="2" t="inlineStr"/>
+      <c r="L17" s="2" t="inlineStr"/>
       <c r="M17" s="2" t="inlineStr">
         <is>
           <t>A facility where an individual lives with many others that may be collected according to a social structure such as education or disability.</t>
         </is>
       </c>
-      <c r="N17" s="2" t="n"/>
-      <c r="O17" s="2" t="n"/>
+      <c r="N17" s="2" t="inlineStr"/>
+      <c r="O17" s="2" t="inlineStr"/>
       <c r="P17" s="2" t="inlineStr">
         <is>
           <t>bedsit</t>
         </is>
       </c>
-      <c r="Q17" s="2" t="n"/>
-      <c r="R17" s="2" t="n"/>
-      <c r="S17" s="2" t="n"/>
+      <c r="Q17" s="2" t="inlineStr"/>
+      <c r="R17" s="2" t="inlineStr"/>
+      <c r="S17" s="2" t="inlineStr"/>
       <c r="T17" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U17" s="2" t="n"/>
-      <c r="V17" s="2" t="n"/>
+      <c r="U17" s="2" t="inlineStr"/>
+      <c r="V17" s="2" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
@@ -1273,37 +1360,37 @@
           <t>multiple occupancy residence [BCIO:026010]</t>
         </is>
       </c>
-      <c r="D18" s="2" t="n"/>
-      <c r="E18" s="2" t="n"/>
-      <c r="F18" s="2" t="n"/>
-      <c r="G18" s="2" t="n"/>
-      <c r="H18" s="2" t="n"/>
-      <c r="I18" s="2" t="n"/>
-      <c r="J18" s="2" t="n"/>
-      <c r="K18" s="2" t="n"/>
-      <c r="L18" s="2" t="n"/>
+      <c r="D18" s="2" t="inlineStr"/>
+      <c r="E18" s="2" t="inlineStr"/>
+      <c r="F18" s="2" t="inlineStr"/>
+      <c r="G18" s="2" t="inlineStr"/>
+      <c r="H18" s="2" t="inlineStr"/>
+      <c r="I18" s="2" t="inlineStr"/>
+      <c r="J18" s="2" t="inlineStr"/>
+      <c r="K18" s="2" t="inlineStr"/>
+      <c r="L18" s="2" t="inlineStr"/>
       <c r="M18" s="2" t="inlineStr">
         <is>
           <t>A multiple occupancy residence where many students live.</t>
         </is>
       </c>
-      <c r="N18" s="2" t="n"/>
-      <c r="O18" s="2" t="n"/>
+      <c r="N18" s="2" t="inlineStr"/>
+      <c r="O18" s="2" t="inlineStr"/>
       <c r="P18" s="2" t="inlineStr">
         <is>
           <t>student hall</t>
         </is>
       </c>
-      <c r="Q18" s="2" t="n"/>
-      <c r="R18" s="2" t="n"/>
-      <c r="S18" s="2" t="n"/>
+      <c r="Q18" s="2" t="inlineStr"/>
+      <c r="R18" s="2" t="inlineStr"/>
+      <c r="S18" s="2" t="inlineStr"/>
       <c r="T18" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U18" s="2" t="n"/>
-      <c r="V18" s="2" t="n"/>
+      <c r="U18" s="2" t="inlineStr"/>
+      <c r="V18" s="2" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
@@ -1321,37 +1408,37 @@
           <t>multiple occupancy residence [BCIO:026010]</t>
         </is>
       </c>
-      <c r="D19" s="2" t="n"/>
-      <c r="E19" s="2" t="n"/>
-      <c r="F19" s="2" t="n"/>
-      <c r="G19" s="2" t="n"/>
-      <c r="H19" s="2" t="n"/>
-      <c r="I19" s="2" t="n"/>
-      <c r="J19" s="2" t="n"/>
-      <c r="K19" s="2" t="n"/>
-      <c r="L19" s="2" t="n"/>
+      <c r="D19" s="2" t="inlineStr"/>
+      <c r="E19" s="2" t="inlineStr"/>
+      <c r="F19" s="2" t="inlineStr"/>
+      <c r="G19" s="2" t="inlineStr"/>
+      <c r="H19" s="2" t="inlineStr"/>
+      <c r="I19" s="2" t="inlineStr"/>
+      <c r="J19" s="2" t="inlineStr"/>
+      <c r="K19" s="2" t="inlineStr"/>
+      <c r="L19" s="2" t="inlineStr"/>
       <c r="M19" s="2" t="inlineStr">
         <is>
           <t>A multiple occupancy residence where multiple vulnerable people live</t>
         </is>
       </c>
-      <c r="N19" s="2" t="n"/>
-      <c r="O19" s="2" t="n"/>
+      <c r="N19" s="2" t="inlineStr"/>
+      <c r="O19" s="2" t="inlineStr"/>
       <c r="P19" s="2" t="inlineStr">
         <is>
           <t>retirement home</t>
         </is>
       </c>
-      <c r="Q19" s="2" t="n"/>
-      <c r="R19" s="2" t="n"/>
-      <c r="S19" s="2" t="n"/>
+      <c r="Q19" s="2" t="inlineStr"/>
+      <c r="R19" s="2" t="inlineStr"/>
+      <c r="S19" s="2" t="inlineStr"/>
       <c r="T19" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U19" s="2" t="n"/>
-      <c r="V19" s="2" t="n"/>
+      <c r="U19" s="2" t="inlineStr"/>
+      <c r="V19" s="2" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
@@ -1369,37 +1456,37 @@
           <t>residential facility [OMRSE:00000191]</t>
         </is>
       </c>
-      <c r="D20" s="2" t="n"/>
-      <c r="E20" s="2" t="n"/>
-      <c r="F20" s="2" t="n"/>
-      <c r="G20" s="2" t="n"/>
-      <c r="H20" s="2" t="n"/>
-      <c r="I20" s="2" t="n"/>
-      <c r="J20" s="2" t="n"/>
-      <c r="K20" s="2" t="n"/>
-      <c r="L20" s="2" t="n"/>
+      <c r="D20" s="2" t="inlineStr"/>
+      <c r="E20" s="2" t="inlineStr"/>
+      <c r="F20" s="2" t="inlineStr"/>
+      <c r="G20" s="2" t="inlineStr"/>
+      <c r="H20" s="2" t="inlineStr"/>
+      <c r="I20" s="2" t="inlineStr"/>
+      <c r="J20" s="2" t="inlineStr"/>
+      <c r="K20" s="2" t="inlineStr"/>
+      <c r="L20" s="2" t="inlineStr"/>
       <c r="M20" s="2" t="inlineStr">
         <is>
           <t>A residential facility where an individual is living that is not stable and secure.</t>
         </is>
       </c>
-      <c r="N20" s="2" t="n"/>
-      <c r="O20" s="2" t="n"/>
+      <c r="N20" s="2" t="inlineStr"/>
+      <c r="O20" s="2" t="inlineStr"/>
       <c r="P20" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">an architectural structure for which an individual does not have a legal right to stay </t>
         </is>
       </c>
-      <c r="Q20" s="2" t="n"/>
-      <c r="R20" s="2" t="n"/>
-      <c r="S20" s="2" t="n"/>
+      <c r="Q20" s="2" t="inlineStr"/>
+      <c r="R20" s="2" t="inlineStr"/>
+      <c r="S20" s="2" t="inlineStr"/>
       <c r="T20" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U20" s="2" t="n"/>
-      <c r="V20" s="2" t="n"/>
+      <c r="U20" s="2" t="inlineStr"/>
+      <c r="V20" s="2" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="2" t="inlineStr">
@@ -1417,37 +1504,37 @@
           <t>residential facility [OMRSE:00000191]</t>
         </is>
       </c>
-      <c r="D21" s="2" t="n"/>
-      <c r="E21" s="2" t="n"/>
-      <c r="F21" s="2" t="n"/>
-      <c r="G21" s="2" t="n"/>
-      <c r="H21" s="2" t="n"/>
-      <c r="I21" s="2" t="n"/>
-      <c r="J21" s="2" t="n"/>
-      <c r="K21" s="2" t="n"/>
-      <c r="L21" s="2" t="n"/>
+      <c r="D21" s="2" t="inlineStr"/>
+      <c r="E21" s="2" t="inlineStr"/>
+      <c r="F21" s="2" t="inlineStr"/>
+      <c r="G21" s="2" t="inlineStr"/>
+      <c r="H21" s="2" t="inlineStr"/>
+      <c r="I21" s="2" t="inlineStr"/>
+      <c r="J21" s="2" t="inlineStr"/>
+      <c r="K21" s="2" t="inlineStr"/>
+      <c r="L21" s="2" t="inlineStr"/>
       <c r="M21" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">A residential facility where individuals are in a transitional state of housing and not staying for a prolonged period. </t>
         </is>
       </c>
-      <c r="N21" s="2" t="n"/>
-      <c r="O21" s="2" t="n"/>
+      <c r="N21" s="2" t="inlineStr"/>
+      <c r="O21" s="2" t="inlineStr"/>
       <c r="P21" s="2" t="inlineStr">
         <is>
           <t>Hostels; BandB; emergency accomnodation</t>
         </is>
       </c>
-      <c r="Q21" s="2" t="n"/>
-      <c r="R21" s="2" t="n"/>
-      <c r="S21" s="2" t="n"/>
+      <c r="Q21" s="2" t="inlineStr"/>
+      <c r="R21" s="2" t="inlineStr"/>
+      <c r="S21" s="2" t="inlineStr"/>
       <c r="T21" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U21" s="2" t="n"/>
-      <c r="V21" s="2" t="n"/>
+      <c r="U21" s="2" t="inlineStr"/>
+      <c r="V21" s="2" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1465,6 +1552,15 @@
           <t>facility [OMRSE:00000062]</t>
         </is>
       </c>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr">
         <is>
           <t>A facility that’s administered by a health care organisation for the purpose of providing health care to a patient population</t>
@@ -1480,11 +1576,17 @@
           <t>Ontology of Medically Related Social Entities</t>
         </is>
       </c>
+      <c r="P22" t="inlineStr"/>
+      <c r="Q22" t="inlineStr"/>
+      <c r="R22" t="inlineStr"/>
+      <c r="S22" t="inlineStr"/>
       <c r="T22" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
+      <c r="U22" t="inlineStr"/>
+      <c r="V22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1502,6 +1604,15 @@
           <t>healthcare facility [OMRSE:00000102]</t>
         </is>
       </c>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr">
         <is>
           <t>A facility that is run by a hospital organization, such as emergency departments, outpatient clinics and rehabilitation and is the bearer of a hospital function</t>
@@ -1517,11 +1628,17 @@
           <t>Ontology of Medically Related Social Entities</t>
         </is>
       </c>
+      <c r="P23" t="inlineStr"/>
+      <c r="Q23" t="inlineStr"/>
+      <c r="R23" t="inlineStr"/>
+      <c r="S23" t="inlineStr"/>
       <c r="T23" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
+      <c r="U23" t="inlineStr"/>
+      <c r="V23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1539,6 +1656,15 @@
           <t>hospital facility [OMRSE:00000063]</t>
         </is>
       </c>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr">
         <is>
           <t>A health care facility that bears a function to provide emergency healthcare services and the acute care of patients who present without prior appointment, having arrived either by their own means or by ambulance</t>
@@ -1554,11 +1680,17 @@
           <t>OMRSE_00000114</t>
         </is>
       </c>
+      <c r="P24" t="inlineStr"/>
+      <c r="Q24" t="inlineStr"/>
+      <c r="R24" t="inlineStr"/>
+      <c r="S24" t="inlineStr"/>
       <c r="T24" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
+      <c r="U24" t="inlineStr"/>
+      <c r="V24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="2" t="inlineStr">
@@ -1576,33 +1708,33 @@
           <t>hospital facility [OMRSE:00000063]</t>
         </is>
       </c>
-      <c r="D25" s="2" t="n"/>
-      <c r="E25" s="2" t="n"/>
-      <c r="F25" s="2" t="n"/>
-      <c r="G25" s="2" t="n"/>
-      <c r="H25" s="2" t="n"/>
-      <c r="I25" s="2" t="n"/>
-      <c r="J25" s="2" t="n"/>
-      <c r="K25" s="2" t="n"/>
-      <c r="L25" s="2" t="n"/>
+      <c r="D25" s="2" t="inlineStr"/>
+      <c r="E25" s="2" t="inlineStr"/>
+      <c r="F25" s="2" t="inlineStr"/>
+      <c r="G25" s="2" t="inlineStr"/>
+      <c r="H25" s="2" t="inlineStr"/>
+      <c r="I25" s="2" t="inlineStr"/>
+      <c r="J25" s="2" t="inlineStr"/>
+      <c r="K25" s="2" t="inlineStr"/>
+      <c r="L25" s="2" t="inlineStr"/>
       <c r="M25" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">A hospital facility to treat patients without them staying overnight, often after a hospital visit. </t>
         </is>
       </c>
-      <c r="N25" s="2" t="n"/>
-      <c r="O25" s="2" t="n"/>
-      <c r="P25" s="2" t="n"/>
-      <c r="Q25" s="2" t="n"/>
-      <c r="R25" s="2" t="n"/>
-      <c r="S25" s="2" t="n"/>
+      <c r="N25" s="2" t="inlineStr"/>
+      <c r="O25" s="2" t="inlineStr"/>
+      <c r="P25" s="2" t="inlineStr"/>
+      <c r="Q25" s="2" t="inlineStr"/>
+      <c r="R25" s="2" t="inlineStr"/>
+      <c r="S25" s="2" t="inlineStr"/>
       <c r="T25" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U25" s="2" t="n"/>
-      <c r="V25" s="2" t="n"/>
+      <c r="U25" s="2" t="inlineStr"/>
+      <c r="V25" s="2" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="2" t="inlineStr">
@@ -1620,37 +1752,37 @@
           <t>healthcare facility [OMRSE:00000102]</t>
         </is>
       </c>
-      <c r="D26" s="2" t="n"/>
-      <c r="E26" s="2" t="n"/>
-      <c r="F26" s="2" t="n"/>
-      <c r="G26" s="2" t="n"/>
-      <c r="H26" s="2" t="n"/>
-      <c r="I26" s="2" t="n"/>
-      <c r="J26" s="2" t="n"/>
-      <c r="K26" s="2" t="n"/>
-      <c r="L26" s="2" t="n"/>
+      <c r="D26" s="2" t="inlineStr"/>
+      <c r="E26" s="2" t="inlineStr"/>
+      <c r="F26" s="2" t="inlineStr"/>
+      <c r="G26" s="2" t="inlineStr"/>
+      <c r="H26" s="2" t="inlineStr"/>
+      <c r="I26" s="2" t="inlineStr"/>
+      <c r="J26" s="2" t="inlineStr"/>
+      <c r="K26" s="2" t="inlineStr"/>
+      <c r="L26" s="2" t="inlineStr"/>
       <c r="M26" s="2" t="inlineStr">
         <is>
           <t>A healthcare facility led by doctors.</t>
         </is>
       </c>
-      <c r="N26" s="2" t="n"/>
-      <c r="O26" s="2" t="n"/>
+      <c r="N26" s="2" t="inlineStr"/>
+      <c r="O26" s="2" t="inlineStr"/>
       <c r="P26" s="2" t="inlineStr">
         <is>
           <t>general practitioners surgery; doctor surgery</t>
         </is>
       </c>
-      <c r="Q26" s="2" t="n"/>
-      <c r="R26" s="2" t="n"/>
-      <c r="S26" s="2" t="n"/>
+      <c r="Q26" s="2" t="inlineStr"/>
+      <c r="R26" s="2" t="inlineStr"/>
+      <c r="S26" s="2" t="inlineStr"/>
       <c r="T26" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U26" s="2" t="n"/>
-      <c r="V26" s="2" t="n"/>
+      <c r="U26" s="2" t="inlineStr"/>
+      <c r="V26" s="2" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="2" t="inlineStr">
@@ -1668,33 +1800,33 @@
           <t>healthcare facility [OMRSE:00000102]</t>
         </is>
       </c>
-      <c r="D27" s="2" t="n"/>
-      <c r="E27" s="2" t="n"/>
-      <c r="F27" s="2" t="n"/>
-      <c r="G27" s="2" t="n"/>
-      <c r="H27" s="2" t="n"/>
-      <c r="I27" s="2" t="n"/>
-      <c r="J27" s="2" t="n"/>
-      <c r="K27" s="2" t="n"/>
-      <c r="L27" s="2" t="n"/>
+      <c r="D27" s="2" t="inlineStr"/>
+      <c r="E27" s="2" t="inlineStr"/>
+      <c r="F27" s="2" t="inlineStr"/>
+      <c r="G27" s="2" t="inlineStr"/>
+      <c r="H27" s="2" t="inlineStr"/>
+      <c r="I27" s="2" t="inlineStr"/>
+      <c r="J27" s="2" t="inlineStr"/>
+      <c r="K27" s="2" t="inlineStr"/>
+      <c r="L27" s="2" t="inlineStr"/>
       <c r="M27" s="2" t="inlineStr">
         <is>
           <t>A healthcare facility that is run by a care home organization and is the bearer of a care home function.</t>
         </is>
       </c>
-      <c r="N27" s="2" t="n"/>
-      <c r="O27" s="2" t="n"/>
-      <c r="P27" s="2" t="n"/>
-      <c r="Q27" s="2" t="n"/>
-      <c r="R27" s="2" t="n"/>
-      <c r="S27" s="2" t="n"/>
+      <c r="N27" s="2" t="inlineStr"/>
+      <c r="O27" s="2" t="inlineStr"/>
+      <c r="P27" s="2" t="inlineStr"/>
+      <c r="Q27" s="2" t="inlineStr"/>
+      <c r="R27" s="2" t="inlineStr"/>
+      <c r="S27" s="2" t="inlineStr"/>
       <c r="T27" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U27" s="2" t="n"/>
-      <c r="V27" s="2" t="n"/>
+      <c r="U27" s="2" t="inlineStr"/>
+      <c r="V27" s="2" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1712,6 +1844,15 @@
           <t>healthcare facility [OMRSE:00000102]</t>
         </is>
       </c>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="inlineStr">
         <is>
           <t>A health care facility that bears a function to provide healthcare to the sick or terminally ill</t>
@@ -1727,11 +1868,17 @@
           <t>Ontology of Medically Related Social Entities; contacted ontology authors to add definition</t>
         </is>
       </c>
+      <c r="P28" t="inlineStr"/>
+      <c r="Q28" t="inlineStr"/>
+      <c r="R28" t="inlineStr"/>
+      <c r="S28" t="inlineStr"/>
       <c r="T28" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
+      <c r="U28" t="inlineStr"/>
+      <c r="V28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1749,6 +1896,15 @@
           <t>healthcare facility [OMRSE:00000102]</t>
         </is>
       </c>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="inlineStr">
         <is>
           <t>A health care facility whose function is to store, prepare, dispense, and monitor the usage of pharmaceutical drugs among patients in a given area or encountered in a given health care provider organization</t>
@@ -1764,11 +1920,17 @@
           <t>The Prescription of Drugs Ontology</t>
         </is>
       </c>
+      <c r="P29" t="inlineStr"/>
+      <c r="Q29" t="inlineStr"/>
+      <c r="R29" t="inlineStr"/>
+      <c r="S29" t="inlineStr"/>
       <c r="T29" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
+      <c r="U29" t="inlineStr"/>
+      <c r="V29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1786,6 +1948,15 @@
           <t>healthcare facility [OMRSE:00000102]</t>
         </is>
       </c>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr">
         <is>
           <t>A facility to assist in physical or addiction recovery</t>
@@ -1801,11 +1972,17 @@
           <t>Ontology of Medically Related Social Entities; contacted ontology authors to add definition</t>
         </is>
       </c>
+      <c r="P30" t="inlineStr"/>
+      <c r="Q30" t="inlineStr"/>
+      <c r="R30" t="inlineStr"/>
+      <c r="S30" t="inlineStr"/>
       <c r="T30" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
+      <c r="U30" t="inlineStr"/>
+      <c r="V30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="2" t="inlineStr">
@@ -1823,33 +2000,33 @@
           <t>rehabilitation facility [OMRSE:00000106]</t>
         </is>
       </c>
-      <c r="D31" s="2" t="n"/>
-      <c r="E31" s="2" t="n"/>
-      <c r="F31" s="2" t="n"/>
-      <c r="G31" s="2" t="n"/>
-      <c r="H31" s="2" t="n"/>
-      <c r="I31" s="2" t="n"/>
-      <c r="J31" s="2" t="n"/>
-      <c r="K31" s="2" t="n"/>
-      <c r="L31" s="2" t="n"/>
+      <c r="D31" s="2" t="inlineStr"/>
+      <c r="E31" s="2" t="inlineStr"/>
+      <c r="F31" s="2" t="inlineStr"/>
+      <c r="G31" s="2" t="inlineStr"/>
+      <c r="H31" s="2" t="inlineStr"/>
+      <c r="I31" s="2" t="inlineStr"/>
+      <c r="J31" s="2" t="inlineStr"/>
+      <c r="K31" s="2" t="inlineStr"/>
+      <c r="L31" s="2" t="inlineStr"/>
       <c r="M31" s="2" t="inlineStr">
         <is>
           <t>A rehabilitation facility to assist the recovery of people with drug or alcohol addiction.</t>
         </is>
       </c>
-      <c r="N31" s="2" t="n"/>
-      <c r="O31" s="2" t="n"/>
-      <c r="P31" s="2" t="n"/>
-      <c r="Q31" s="2" t="n"/>
-      <c r="R31" s="2" t="n"/>
-      <c r="S31" s="2" t="n"/>
+      <c r="N31" s="2" t="inlineStr"/>
+      <c r="O31" s="2" t="inlineStr"/>
+      <c r="P31" s="2" t="inlineStr"/>
+      <c r="Q31" s="2" t="inlineStr"/>
+      <c r="R31" s="2" t="inlineStr"/>
+      <c r="S31" s="2" t="inlineStr"/>
       <c r="T31" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U31" s="2" t="n"/>
-      <c r="V31" s="2" t="n"/>
+      <c r="U31" s="2" t="inlineStr"/>
+      <c r="V31" s="2" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="2" t="inlineStr">
@@ -1867,15 +2044,15 @@
           <t>healthcare facility [OMRSE:00000102]</t>
         </is>
       </c>
-      <c r="D32" s="2" t="n"/>
-      <c r="E32" s="2" t="n"/>
-      <c r="F32" s="2" t="n"/>
-      <c r="G32" s="2" t="n"/>
-      <c r="H32" s="2" t="n"/>
-      <c r="I32" s="2" t="n"/>
-      <c r="J32" s="2" t="n"/>
-      <c r="K32" s="2" t="n"/>
-      <c r="L32" s="2" t="n"/>
+      <c r="D32" s="2" t="inlineStr"/>
+      <c r="E32" s="2" t="inlineStr"/>
+      <c r="F32" s="2" t="inlineStr"/>
+      <c r="G32" s="2" t="inlineStr"/>
+      <c r="H32" s="2" t="inlineStr"/>
+      <c r="I32" s="2" t="inlineStr"/>
+      <c r="J32" s="2" t="inlineStr"/>
+      <c r="K32" s="2" t="inlineStr"/>
+      <c r="L32" s="2" t="inlineStr"/>
       <c r="M32" s="2" t="inlineStr">
         <is>
           <t>A place designed and staffed to house and treat individuals that need assistance with mental dysfunctions</t>
@@ -1891,17 +2068,17 @@
           <t>NCI Thesaurus OBO Edition</t>
         </is>
       </c>
-      <c r="P32" s="2" t="n"/>
-      <c r="Q32" s="2" t="n"/>
-      <c r="R32" s="2" t="n"/>
-      <c r="S32" s="2" t="n"/>
+      <c r="P32" s="2" t="inlineStr"/>
+      <c r="Q32" s="2" t="inlineStr"/>
+      <c r="R32" s="2" t="inlineStr"/>
+      <c r="S32" s="2" t="inlineStr"/>
       <c r="T32" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U32" s="2" t="n"/>
-      <c r="V32" s="2" t="n"/>
+      <c r="U32" s="2" t="inlineStr"/>
+      <c r="V32" s="2" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="2" t="inlineStr">
@@ -1919,37 +2096,37 @@
           <t>healthcare facility [OMRSE:00000102]</t>
         </is>
       </c>
-      <c r="D33" s="2" t="n"/>
-      <c r="E33" s="2" t="n"/>
-      <c r="F33" s="2" t="n"/>
-      <c r="G33" s="2" t="n"/>
-      <c r="H33" s="2" t="n"/>
-      <c r="I33" s="2" t="n"/>
-      <c r="J33" s="2" t="n"/>
-      <c r="K33" s="2" t="n"/>
-      <c r="L33" s="2" t="n"/>
+      <c r="D33" s="2" t="inlineStr"/>
+      <c r="E33" s="2" t="inlineStr"/>
+      <c r="F33" s="2" t="inlineStr"/>
+      <c r="G33" s="2" t="inlineStr"/>
+      <c r="H33" s="2" t="inlineStr"/>
+      <c r="I33" s="2" t="inlineStr"/>
+      <c r="J33" s="2" t="inlineStr"/>
+      <c r="K33" s="2" t="inlineStr"/>
+      <c r="L33" s="2" t="inlineStr"/>
       <c r="M33" s="2" t="inlineStr">
         <is>
           <t>A clinic providing healthcare services to people in a certain area</t>
         </is>
       </c>
-      <c r="N33" s="2" t="n"/>
-      <c r="O33" s="2" t="n"/>
+      <c r="N33" s="2" t="inlineStr"/>
+      <c r="O33" s="2" t="inlineStr"/>
       <c r="P33" s="2" t="inlineStr">
         <is>
           <t>polyclinic</t>
         </is>
       </c>
-      <c r="Q33" s="2" t="n"/>
-      <c r="R33" s="2" t="n"/>
-      <c r="S33" s="2" t="n"/>
+      <c r="Q33" s="2" t="inlineStr"/>
+      <c r="R33" s="2" t="inlineStr"/>
+      <c r="S33" s="2" t="inlineStr"/>
       <c r="T33" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U33" s="2" t="n"/>
-      <c r="V33" s="2" t="n"/>
+      <c r="U33" s="2" t="inlineStr"/>
+      <c r="V33" s="2" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="2" t="inlineStr">
@@ -1967,33 +2144,33 @@
           <t>community healthcare facility [BCIO:026019]</t>
         </is>
       </c>
-      <c r="D34" s="2" t="n"/>
-      <c r="E34" s="2" t="n"/>
-      <c r="F34" s="2" t="n"/>
-      <c r="G34" s="2" t="n"/>
-      <c r="H34" s="2" t="n"/>
-      <c r="I34" s="2" t="n"/>
-      <c r="J34" s="2" t="n"/>
-      <c r="K34" s="2" t="n"/>
-      <c r="L34" s="2" t="n"/>
+      <c r="D34" s="2" t="inlineStr"/>
+      <c r="E34" s="2" t="inlineStr"/>
+      <c r="F34" s="2" t="inlineStr"/>
+      <c r="G34" s="2" t="inlineStr"/>
+      <c r="H34" s="2" t="inlineStr"/>
+      <c r="I34" s="2" t="inlineStr"/>
+      <c r="J34" s="2" t="inlineStr"/>
+      <c r="K34" s="2" t="inlineStr"/>
+      <c r="L34" s="2" t="inlineStr"/>
       <c r="M34" s="2" t="inlineStr">
         <is>
           <t>A healthcare facility to treat patients in the community without them staying overnight.</t>
         </is>
       </c>
-      <c r="N34" s="2" t="n"/>
-      <c r="O34" s="2" t="n"/>
-      <c r="P34" s="2" t="n"/>
-      <c r="Q34" s="2" t="n"/>
-      <c r="R34" s="2" t="n"/>
-      <c r="S34" s="2" t="n"/>
+      <c r="N34" s="2" t="inlineStr"/>
+      <c r="O34" s="2" t="inlineStr"/>
+      <c r="P34" s="2" t="inlineStr"/>
+      <c r="Q34" s="2" t="inlineStr"/>
+      <c r="R34" s="2" t="inlineStr"/>
+      <c r="S34" s="2" t="inlineStr"/>
       <c r="T34" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U34" s="2" t="n"/>
-      <c r="V34" s="2" t="n"/>
+      <c r="U34" s="2" t="inlineStr"/>
+      <c r="V34" s="2" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="2" t="inlineStr">
@@ -2011,33 +2188,33 @@
           <t>healthcare facility [OMRSE:00000102]</t>
         </is>
       </c>
-      <c r="D35" s="2" t="n"/>
-      <c r="E35" s="2" t="n"/>
-      <c r="F35" s="2" t="n"/>
-      <c r="G35" s="2" t="n"/>
-      <c r="H35" s="2" t="n"/>
-      <c r="I35" s="2" t="n"/>
-      <c r="J35" s="2" t="n"/>
-      <c r="K35" s="2" t="n"/>
-      <c r="L35" s="2" t="n"/>
+      <c r="D35" s="2" t="inlineStr"/>
+      <c r="E35" s="2" t="inlineStr"/>
+      <c r="F35" s="2" t="inlineStr"/>
+      <c r="G35" s="2" t="inlineStr"/>
+      <c r="H35" s="2" t="inlineStr"/>
+      <c r="I35" s="2" t="inlineStr"/>
+      <c r="J35" s="2" t="inlineStr"/>
+      <c r="K35" s="2" t="inlineStr"/>
+      <c r="L35" s="2" t="inlineStr"/>
       <c r="M35" s="2" t="inlineStr">
         <is>
           <t>A healthcare facility where dental healthcare is provided.</t>
         </is>
       </c>
-      <c r="N35" s="2" t="n"/>
-      <c r="O35" s="2" t="n"/>
-      <c r="P35" s="2" t="n"/>
-      <c r="Q35" s="2" t="n"/>
-      <c r="R35" s="2" t="n"/>
-      <c r="S35" s="2" t="n"/>
+      <c r="N35" s="2" t="inlineStr"/>
+      <c r="O35" s="2" t="inlineStr"/>
+      <c r="P35" s="2" t="inlineStr"/>
+      <c r="Q35" s="2" t="inlineStr"/>
+      <c r="R35" s="2" t="inlineStr"/>
+      <c r="S35" s="2" t="inlineStr"/>
       <c r="T35" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U35" s="2" t="n"/>
-      <c r="V35" s="2" t="n"/>
+      <c r="U35" s="2" t="inlineStr"/>
+      <c r="V35" s="2" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="2" t="inlineStr">
@@ -2055,33 +2232,33 @@
           <t>facility [OMRSE:00000062]</t>
         </is>
       </c>
-      <c r="D36" s="2" t="n"/>
-      <c r="E36" s="2" t="n"/>
-      <c r="F36" s="2" t="n"/>
-      <c r="G36" s="2" t="n"/>
-      <c r="H36" s="2" t="n"/>
-      <c r="I36" s="2" t="n"/>
-      <c r="J36" s="2" t="n"/>
-      <c r="K36" s="2" t="n"/>
-      <c r="L36" s="2" t="n"/>
+      <c r="D36" s="2" t="inlineStr"/>
+      <c r="E36" s="2" t="inlineStr"/>
+      <c r="F36" s="2" t="inlineStr"/>
+      <c r="G36" s="2" t="inlineStr"/>
+      <c r="H36" s="2" t="inlineStr"/>
+      <c r="I36" s="2" t="inlineStr"/>
+      <c r="J36" s="2" t="inlineStr"/>
+      <c r="K36" s="2" t="inlineStr"/>
+      <c r="L36" s="2" t="inlineStr"/>
       <c r="M36" s="2" t="inlineStr">
         <is>
           <t>A facility in which formal education is provided to a student population.</t>
         </is>
       </c>
-      <c r="N36" s="2" t="n"/>
-      <c r="O36" s="2" t="n"/>
-      <c r="P36" s="2" t="n"/>
-      <c r="Q36" s="2" t="n"/>
-      <c r="R36" s="2" t="n"/>
-      <c r="S36" s="2" t="n"/>
+      <c r="N36" s="2" t="inlineStr"/>
+      <c r="O36" s="2" t="inlineStr"/>
+      <c r="P36" s="2" t="inlineStr"/>
+      <c r="Q36" s="2" t="inlineStr"/>
+      <c r="R36" s="2" t="inlineStr"/>
+      <c r="S36" s="2" t="inlineStr"/>
       <c r="T36" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U36" s="2" t="n"/>
-      <c r="V36" s="2" t="n"/>
+      <c r="U36" s="2" t="inlineStr"/>
+      <c r="V36" s="2" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="2" t="inlineStr">
@@ -2099,37 +2276,37 @@
           <t>educational facility [BCIO:026022]</t>
         </is>
       </c>
-      <c r="D37" s="2" t="n"/>
-      <c r="E37" s="2" t="n"/>
-      <c r="F37" s="2" t="n"/>
-      <c r="G37" s="2" t="n"/>
-      <c r="H37" s="2" t="n"/>
-      <c r="I37" s="2" t="n"/>
-      <c r="J37" s="2" t="n"/>
-      <c r="K37" s="2" t="n"/>
-      <c r="L37" s="2" t="n"/>
+      <c r="D37" s="2" t="inlineStr"/>
+      <c r="E37" s="2" t="inlineStr"/>
+      <c r="F37" s="2" t="inlineStr"/>
+      <c r="G37" s="2" t="inlineStr"/>
+      <c r="H37" s="2" t="inlineStr"/>
+      <c r="I37" s="2" t="inlineStr"/>
+      <c r="J37" s="2" t="inlineStr"/>
+      <c r="K37" s="2" t="inlineStr"/>
+      <c r="L37" s="2" t="inlineStr"/>
       <c r="M37" s="2" t="inlineStr">
         <is>
           <t>An educational facility in which pre-school education is provided.</t>
         </is>
       </c>
-      <c r="N37" s="2" t="n"/>
-      <c r="O37" s="2" t="n"/>
+      <c r="N37" s="2" t="inlineStr"/>
+      <c r="O37" s="2" t="inlineStr"/>
       <c r="P37" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">nursery school </t>
         </is>
       </c>
-      <c r="Q37" s="2" t="n"/>
-      <c r="R37" s="2" t="n"/>
-      <c r="S37" s="2" t="n"/>
+      <c r="Q37" s="2" t="inlineStr"/>
+      <c r="R37" s="2" t="inlineStr"/>
+      <c r="S37" s="2" t="inlineStr"/>
       <c r="T37" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U37" s="2" t="n"/>
-      <c r="V37" s="2" t="n"/>
+      <c r="U37" s="2" t="inlineStr"/>
+      <c r="V37" s="2" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -2147,6 +2324,15 @@
           <t>educational facility [BCIO:026022]</t>
         </is>
       </c>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="inlineStr">
         <is>
           <t>A facility that is run by a school organization and is the bearer of a school function</t>
@@ -2162,11 +2348,17 @@
           <t>Ontology of Medically Related Social Entities</t>
         </is>
       </c>
+      <c r="P38" t="inlineStr"/>
+      <c r="Q38" t="inlineStr"/>
+      <c r="R38" t="inlineStr"/>
+      <c r="S38" t="inlineStr"/>
       <c r="T38" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
+      <c r="U38" t="inlineStr"/>
+      <c r="V38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="2" t="inlineStr">
@@ -2184,33 +2376,33 @@
           <t>school facility [OMRSE:00000064]</t>
         </is>
       </c>
-      <c r="D39" s="2" t="n"/>
-      <c r="E39" s="2" t="n"/>
-      <c r="F39" s="2" t="n"/>
-      <c r="G39" s="2" t="n"/>
-      <c r="H39" s="2" t="n"/>
-      <c r="I39" s="2" t="n"/>
-      <c r="J39" s="2" t="n"/>
-      <c r="K39" s="2" t="n"/>
-      <c r="L39" s="2" t="n"/>
+      <c r="D39" s="2" t="inlineStr"/>
+      <c r="E39" s="2" t="inlineStr"/>
+      <c r="F39" s="2" t="inlineStr"/>
+      <c r="G39" s="2" t="inlineStr"/>
+      <c r="H39" s="2" t="inlineStr"/>
+      <c r="I39" s="2" t="inlineStr"/>
+      <c r="J39" s="2" t="inlineStr"/>
+      <c r="K39" s="2" t="inlineStr"/>
+      <c r="L39" s="2" t="inlineStr"/>
       <c r="M39" s="2" t="inlineStr">
         <is>
           <t>A school facility for younger children, typically aged between five and eleven.</t>
         </is>
       </c>
-      <c r="N39" s="2" t="n"/>
-      <c r="O39" s="2" t="n"/>
-      <c r="P39" s="2" t="n"/>
-      <c r="Q39" s="2" t="n"/>
-      <c r="R39" s="2" t="n"/>
-      <c r="S39" s="2" t="n"/>
+      <c r="N39" s="2" t="inlineStr"/>
+      <c r="O39" s="2" t="inlineStr"/>
+      <c r="P39" s="2" t="inlineStr"/>
+      <c r="Q39" s="2" t="inlineStr"/>
+      <c r="R39" s="2" t="inlineStr"/>
+      <c r="S39" s="2" t="inlineStr"/>
       <c r="T39" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U39" s="2" t="n"/>
-      <c r="V39" s="2" t="n"/>
+      <c r="U39" s="2" t="inlineStr"/>
+      <c r="V39" s="2" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="2" t="inlineStr">
@@ -2228,33 +2420,33 @@
           <t>school facility [OMRSE:00000064]</t>
         </is>
       </c>
-      <c r="D40" s="2" t="n"/>
-      <c r="E40" s="2" t="n"/>
-      <c r="F40" s="2" t="n"/>
-      <c r="G40" s="2" t="n"/>
-      <c r="H40" s="2" t="n"/>
-      <c r="I40" s="2" t="n"/>
-      <c r="J40" s="2" t="n"/>
-      <c r="K40" s="2" t="n"/>
-      <c r="L40" s="2" t="n"/>
+      <c r="D40" s="2" t="inlineStr"/>
+      <c r="E40" s="2" t="inlineStr"/>
+      <c r="F40" s="2" t="inlineStr"/>
+      <c r="G40" s="2" t="inlineStr"/>
+      <c r="H40" s="2" t="inlineStr"/>
+      <c r="I40" s="2" t="inlineStr"/>
+      <c r="J40" s="2" t="inlineStr"/>
+      <c r="K40" s="2" t="inlineStr"/>
+      <c r="L40" s="2" t="inlineStr"/>
       <c r="M40" s="2" t="inlineStr">
         <is>
           <t>A school facility providing education between primary and secondary school.</t>
         </is>
       </c>
-      <c r="N40" s="2" t="n"/>
-      <c r="O40" s="2" t="n"/>
-      <c r="P40" s="2" t="n"/>
-      <c r="Q40" s="2" t="n"/>
-      <c r="R40" s="2" t="n"/>
-      <c r="S40" s="2" t="n"/>
+      <c r="N40" s="2" t="inlineStr"/>
+      <c r="O40" s="2" t="inlineStr"/>
+      <c r="P40" s="2" t="inlineStr"/>
+      <c r="Q40" s="2" t="inlineStr"/>
+      <c r="R40" s="2" t="inlineStr"/>
+      <c r="S40" s="2" t="inlineStr"/>
       <c r="T40" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U40" s="2" t="n"/>
-      <c r="V40" s="2" t="n"/>
+      <c r="U40" s="2" t="inlineStr"/>
+      <c r="V40" s="2" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="2" t="inlineStr">
@@ -2272,37 +2464,37 @@
           <t>school facility [OMRSE:00000064]</t>
         </is>
       </c>
-      <c r="D41" s="2" t="n"/>
-      <c r="E41" s="2" t="n"/>
-      <c r="F41" s="2" t="n"/>
-      <c r="G41" s="2" t="n"/>
-      <c r="H41" s="2" t="n"/>
-      <c r="I41" s="2" t="n"/>
-      <c r="J41" s="2" t="n"/>
-      <c r="K41" s="2" t="n"/>
-      <c r="L41" s="2" t="n"/>
+      <c r="D41" s="2" t="inlineStr"/>
+      <c r="E41" s="2" t="inlineStr"/>
+      <c r="F41" s="2" t="inlineStr"/>
+      <c r="G41" s="2" t="inlineStr"/>
+      <c r="H41" s="2" t="inlineStr"/>
+      <c r="I41" s="2" t="inlineStr"/>
+      <c r="J41" s="2" t="inlineStr"/>
+      <c r="K41" s="2" t="inlineStr"/>
+      <c r="L41" s="2" t="inlineStr"/>
       <c r="M41" s="2" t="inlineStr">
         <is>
           <t>A school facility for older children and teenagers, typically aged between eleven and eighteen.</t>
         </is>
       </c>
-      <c r="N41" s="2" t="n"/>
-      <c r="O41" s="2" t="n"/>
+      <c r="N41" s="2" t="inlineStr"/>
+      <c r="O41" s="2" t="inlineStr"/>
       <c r="P41" s="2" t="inlineStr">
         <is>
           <t>high school</t>
         </is>
       </c>
-      <c r="Q41" s="2" t="n"/>
-      <c r="R41" s="2" t="n"/>
-      <c r="S41" s="2" t="n"/>
+      <c r="Q41" s="2" t="inlineStr"/>
+      <c r="R41" s="2" t="inlineStr"/>
+      <c r="S41" s="2" t="inlineStr"/>
       <c r="T41" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U41" s="2" t="n"/>
-      <c r="V41" s="2" t="n"/>
+      <c r="U41" s="2" t="inlineStr"/>
+      <c r="V41" s="2" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="2" t="inlineStr">
@@ -2320,33 +2512,33 @@
           <t>educational facility [BCIO:026022]</t>
         </is>
       </c>
-      <c r="D42" s="2" t="n"/>
-      <c r="E42" s="2" t="n"/>
-      <c r="F42" s="2" t="n"/>
-      <c r="G42" s="2" t="n"/>
-      <c r="H42" s="2" t="n"/>
-      <c r="I42" s="2" t="n"/>
-      <c r="J42" s="2" t="n"/>
-      <c r="K42" s="2" t="n"/>
-      <c r="L42" s="2" t="n"/>
+      <c r="D42" s="2" t="inlineStr"/>
+      <c r="E42" s="2" t="inlineStr"/>
+      <c r="F42" s="2" t="inlineStr"/>
+      <c r="G42" s="2" t="inlineStr"/>
+      <c r="H42" s="2" t="inlineStr"/>
+      <c r="I42" s="2" t="inlineStr"/>
+      <c r="J42" s="2" t="inlineStr"/>
+      <c r="K42" s="2" t="inlineStr"/>
+      <c r="L42" s="2" t="inlineStr"/>
       <c r="M42" s="2" t="inlineStr">
         <is>
           <t>An educational facility providing practically based, occupationally-specific teaching.</t>
         </is>
       </c>
-      <c r="N42" s="2" t="n"/>
-      <c r="O42" s="2" t="n"/>
-      <c r="P42" s="2" t="n"/>
-      <c r="Q42" s="2" t="n"/>
-      <c r="R42" s="2" t="n"/>
-      <c r="S42" s="2" t="n"/>
+      <c r="N42" s="2" t="inlineStr"/>
+      <c r="O42" s="2" t="inlineStr"/>
+      <c r="P42" s="2" t="inlineStr"/>
+      <c r="Q42" s="2" t="inlineStr"/>
+      <c r="R42" s="2" t="inlineStr"/>
+      <c r="S42" s="2" t="inlineStr"/>
       <c r="T42" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U42" s="2" t="n"/>
-      <c r="V42" s="2" t="n"/>
+      <c r="U42" s="2" t="inlineStr"/>
+      <c r="V42" s="2" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="2" t="inlineStr">
@@ -2364,33 +2556,33 @@
           <t>educational facility [BCIO:026022]</t>
         </is>
       </c>
-      <c r="D43" s="2" t="n"/>
-      <c r="E43" s="2" t="n"/>
-      <c r="F43" s="2" t="n"/>
-      <c r="G43" s="2" t="n"/>
-      <c r="H43" s="2" t="n"/>
-      <c r="I43" s="2" t="n"/>
-      <c r="J43" s="2" t="n"/>
-      <c r="K43" s="2" t="n"/>
-      <c r="L43" s="2" t="n"/>
+      <c r="D43" s="2" t="inlineStr"/>
+      <c r="E43" s="2" t="inlineStr"/>
+      <c r="F43" s="2" t="inlineStr"/>
+      <c r="G43" s="2" t="inlineStr"/>
+      <c r="H43" s="2" t="inlineStr"/>
+      <c r="I43" s="2" t="inlineStr"/>
+      <c r="J43" s="2" t="inlineStr"/>
+      <c r="K43" s="2" t="inlineStr"/>
+      <c r="L43" s="2" t="inlineStr"/>
       <c r="M43" s="2" t="inlineStr">
         <is>
           <t>An educational facility in which students study for degrees and academic research is done.</t>
         </is>
       </c>
-      <c r="N43" s="2" t="n"/>
-      <c r="O43" s="2" t="n"/>
-      <c r="P43" s="2" t="n"/>
-      <c r="Q43" s="2" t="n"/>
-      <c r="R43" s="2" t="n"/>
-      <c r="S43" s="2" t="n"/>
+      <c r="N43" s="2" t="inlineStr"/>
+      <c r="O43" s="2" t="inlineStr"/>
+      <c r="P43" s="2" t="inlineStr"/>
+      <c r="Q43" s="2" t="inlineStr"/>
+      <c r="R43" s="2" t="inlineStr"/>
+      <c r="S43" s="2" t="inlineStr"/>
       <c r="T43" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U43" s="2" t="n"/>
-      <c r="V43" s="2" t="n"/>
+      <c r="U43" s="2" t="inlineStr"/>
+      <c r="V43" s="2" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="2" t="inlineStr">
@@ -2408,37 +2600,37 @@
           <t>facility [OMRSE:00000062]</t>
         </is>
       </c>
-      <c r="D44" s="2" t="n"/>
-      <c r="E44" s="2" t="n"/>
-      <c r="F44" s="2" t="n"/>
-      <c r="G44" s="2" t="n"/>
-      <c r="H44" s="2" t="n"/>
-      <c r="I44" s="2" t="n"/>
-      <c r="J44" s="2" t="n"/>
-      <c r="K44" s="2" t="n"/>
-      <c r="L44" s="2" t="n"/>
+      <c r="D44" s="2" t="inlineStr"/>
+      <c r="E44" s="2" t="inlineStr"/>
+      <c r="F44" s="2" t="inlineStr"/>
+      <c r="G44" s="2" t="inlineStr"/>
+      <c r="H44" s="2" t="inlineStr"/>
+      <c r="I44" s="2" t="inlineStr"/>
+      <c r="J44" s="2" t="inlineStr"/>
+      <c r="K44" s="2" t="inlineStr"/>
+      <c r="L44" s="2" t="inlineStr"/>
       <c r="M44" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">A facility used by a group of people living in the same place or having a particular characteristic in common. </t>
         </is>
       </c>
-      <c r="N44" s="2" t="n"/>
-      <c r="O44" s="2" t="n"/>
+      <c r="N44" s="2" t="inlineStr"/>
+      <c r="O44" s="2" t="inlineStr"/>
       <c r="P44" s="2" t="inlineStr">
         <is>
           <t>food bank; recycling centre</t>
         </is>
       </c>
-      <c r="Q44" s="2" t="n"/>
-      <c r="R44" s="2" t="n"/>
-      <c r="S44" s="2" t="n"/>
+      <c r="Q44" s="2" t="inlineStr"/>
+      <c r="R44" s="2" t="inlineStr"/>
+      <c r="S44" s="2" t="inlineStr"/>
       <c r="T44" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U44" s="2" t="n"/>
-      <c r="V44" s="2" t="n"/>
+      <c r="U44" s="2" t="inlineStr"/>
+      <c r="V44" s="2" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="2" t="inlineStr">
@@ -2456,37 +2648,37 @@
           <t>community facility [BCIO:026029]</t>
         </is>
       </c>
-      <c r="D45" s="2" t="n"/>
-      <c r="E45" s="2" t="n"/>
-      <c r="F45" s="2" t="n"/>
-      <c r="G45" s="2" t="n"/>
-      <c r="H45" s="2" t="n"/>
-      <c r="I45" s="2" t="n"/>
-      <c r="J45" s="2" t="n"/>
-      <c r="K45" s="2" t="n"/>
-      <c r="L45" s="2" t="n"/>
+      <c r="D45" s="2" t="inlineStr"/>
+      <c r="E45" s="2" t="inlineStr"/>
+      <c r="F45" s="2" t="inlineStr"/>
+      <c r="G45" s="2" t="inlineStr"/>
+      <c r="H45" s="2" t="inlineStr"/>
+      <c r="I45" s="2" t="inlineStr"/>
+      <c r="J45" s="2" t="inlineStr"/>
+      <c r="K45" s="2" t="inlineStr"/>
+      <c r="L45" s="2" t="inlineStr"/>
       <c r="M45" s="2" t="inlineStr">
         <is>
           <t>A community facility used for exercising.</t>
         </is>
       </c>
-      <c r="N45" s="2" t="n"/>
-      <c r="O45" s="2" t="n"/>
+      <c r="N45" s="2" t="inlineStr"/>
+      <c r="O45" s="2" t="inlineStr"/>
       <c r="P45" s="2" t="inlineStr">
         <is>
           <t>gym; stadium; tennis court; swimming pool</t>
         </is>
       </c>
-      <c r="Q45" s="2" t="n"/>
-      <c r="R45" s="2" t="n"/>
-      <c r="S45" s="2" t="n"/>
+      <c r="Q45" s="2" t="inlineStr"/>
+      <c r="R45" s="2" t="inlineStr"/>
+      <c r="S45" s="2" t="inlineStr"/>
       <c r="T45" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U45" s="2" t="n"/>
-      <c r="V45" s="2" t="n"/>
+      <c r="U45" s="2" t="inlineStr"/>
+      <c r="V45" s="2" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="2" t="inlineStr">
@@ -2504,37 +2696,37 @@
           <t>community facility [BCIO:026029]</t>
         </is>
       </c>
-      <c r="D46" s="2" t="n"/>
-      <c r="E46" s="2" t="n"/>
-      <c r="F46" s="2" t="n"/>
-      <c r="G46" s="2" t="n"/>
-      <c r="H46" s="2" t="n"/>
-      <c r="I46" s="2" t="n"/>
-      <c r="J46" s="2" t="n"/>
-      <c r="K46" s="2" t="n"/>
-      <c r="L46" s="2" t="n"/>
+      <c r="D46" s="2" t="inlineStr"/>
+      <c r="E46" s="2" t="inlineStr"/>
+      <c r="F46" s="2" t="inlineStr"/>
+      <c r="G46" s="2" t="inlineStr"/>
+      <c r="H46" s="2" t="inlineStr"/>
+      <c r="I46" s="2" t="inlineStr"/>
+      <c r="J46" s="2" t="inlineStr"/>
+      <c r="K46" s="2" t="inlineStr"/>
+      <c r="L46" s="2" t="inlineStr"/>
       <c r="M46" s="2" t="inlineStr">
         <is>
           <t>A community facility used for socialising by those living in a given area.</t>
         </is>
       </c>
-      <c r="N46" s="2" t="n"/>
-      <c r="O46" s="2" t="n"/>
+      <c r="N46" s="2" t="inlineStr"/>
+      <c r="O46" s="2" t="inlineStr"/>
       <c r="P46" s="2" t="inlineStr">
         <is>
           <t>YMCA; working mens club</t>
         </is>
       </c>
-      <c r="Q46" s="2" t="n"/>
-      <c r="R46" s="2" t="n"/>
-      <c r="S46" s="2" t="n"/>
+      <c r="Q46" s="2" t="inlineStr"/>
+      <c r="R46" s="2" t="inlineStr"/>
+      <c r="S46" s="2" t="inlineStr"/>
       <c r="T46" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U46" s="2" t="n"/>
-      <c r="V46" s="2" t="n"/>
+      <c r="U46" s="2" t="inlineStr"/>
+      <c r="V46" s="2" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="2" t="inlineStr">
@@ -2552,33 +2744,33 @@
           <t>community facility [BCIO:026029]</t>
         </is>
       </c>
-      <c r="D47" s="2" t="n"/>
-      <c r="E47" s="2" t="n"/>
-      <c r="F47" s="2" t="n"/>
-      <c r="G47" s="2" t="n"/>
-      <c r="H47" s="2" t="n"/>
-      <c r="I47" s="2" t="n"/>
-      <c r="J47" s="2" t="n"/>
-      <c r="K47" s="2" t="n"/>
-      <c r="L47" s="2" t="n"/>
+      <c r="D47" s="2" t="inlineStr"/>
+      <c r="E47" s="2" t="inlineStr"/>
+      <c r="F47" s="2" t="inlineStr"/>
+      <c r="G47" s="2" t="inlineStr"/>
+      <c r="H47" s="2" t="inlineStr"/>
+      <c r="I47" s="2" t="inlineStr"/>
+      <c r="J47" s="2" t="inlineStr"/>
+      <c r="K47" s="2" t="inlineStr"/>
+      <c r="L47" s="2" t="inlineStr"/>
       <c r="M47" s="2" t="inlineStr">
         <is>
           <t>A community facility containing a collection of books and learning resources for loan.</t>
         </is>
       </c>
-      <c r="N47" s="2" t="n"/>
-      <c r="O47" s="2" t="n"/>
-      <c r="P47" s="2" t="n"/>
-      <c r="Q47" s="2" t="n"/>
-      <c r="R47" s="2" t="n"/>
-      <c r="S47" s="2" t="n"/>
+      <c r="N47" s="2" t="inlineStr"/>
+      <c r="O47" s="2" t="inlineStr"/>
+      <c r="P47" s="2" t="inlineStr"/>
+      <c r="Q47" s="2" t="inlineStr"/>
+      <c r="R47" s="2" t="inlineStr"/>
+      <c r="S47" s="2" t="inlineStr"/>
       <c r="T47" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U47" s="2" t="n"/>
-      <c r="V47" s="2" t="n"/>
+      <c r="U47" s="2" t="inlineStr"/>
+      <c r="V47" s="2" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="2" t="inlineStr">
@@ -2596,37 +2788,37 @@
           <t>community facility [BCIO:026029]</t>
         </is>
       </c>
-      <c r="D48" s="2" t="n"/>
-      <c r="E48" s="2" t="n"/>
-      <c r="F48" s="2" t="n"/>
-      <c r="G48" s="2" t="n"/>
-      <c r="H48" s="2" t="n"/>
-      <c r="I48" s="2" t="n"/>
-      <c r="J48" s="2" t="n"/>
-      <c r="K48" s="2" t="n"/>
-      <c r="L48" s="2" t="n"/>
+      <c r="D48" s="2" t="inlineStr"/>
+      <c r="E48" s="2" t="inlineStr"/>
+      <c r="F48" s="2" t="inlineStr"/>
+      <c r="G48" s="2" t="inlineStr"/>
+      <c r="H48" s="2" t="inlineStr"/>
+      <c r="I48" s="2" t="inlineStr"/>
+      <c r="J48" s="2" t="inlineStr"/>
+      <c r="K48" s="2" t="inlineStr"/>
+      <c r="L48" s="2" t="inlineStr"/>
       <c r="M48" s="2" t="inlineStr">
         <is>
           <t>A community facility where individuals or a group of people come to perform acts of devotion and veneration.</t>
         </is>
       </c>
-      <c r="N48" s="2" t="n"/>
-      <c r="O48" s="2" t="n"/>
+      <c r="N48" s="2" t="inlineStr"/>
+      <c r="O48" s="2" t="inlineStr"/>
       <c r="P48" s="2" t="inlineStr">
         <is>
           <t>mosque; church; temple</t>
         </is>
       </c>
-      <c r="Q48" s="2" t="n"/>
-      <c r="R48" s="2" t="n"/>
-      <c r="S48" s="2" t="n"/>
+      <c r="Q48" s="2" t="inlineStr"/>
+      <c r="R48" s="2" t="inlineStr"/>
+      <c r="S48" s="2" t="inlineStr"/>
       <c r="T48" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U48" s="2" t="n"/>
-      <c r="V48" s="2" t="n"/>
+      <c r="U48" s="2" t="inlineStr"/>
+      <c r="V48" s="2" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="2" t="inlineStr">
@@ -2644,37 +2836,37 @@
           <t>community facility [BCIO:026029]</t>
         </is>
       </c>
-      <c r="D49" s="2" t="n"/>
-      <c r="E49" s="2" t="n"/>
-      <c r="F49" s="2" t="n"/>
-      <c r="G49" s="2" t="n"/>
-      <c r="H49" s="2" t="n"/>
-      <c r="I49" s="2" t="n"/>
-      <c r="J49" s="2" t="n"/>
-      <c r="K49" s="2" t="n"/>
-      <c r="L49" s="2" t="n"/>
+      <c r="D49" s="2" t="inlineStr"/>
+      <c r="E49" s="2" t="inlineStr"/>
+      <c r="F49" s="2" t="inlineStr"/>
+      <c r="G49" s="2" t="inlineStr"/>
+      <c r="H49" s="2" t="inlineStr"/>
+      <c r="I49" s="2" t="inlineStr"/>
+      <c r="J49" s="2" t="inlineStr"/>
+      <c r="K49" s="2" t="inlineStr"/>
+      <c r="L49" s="2" t="inlineStr"/>
       <c r="M49" s="2" t="inlineStr">
         <is>
           <t>A community facility used to serve food.</t>
         </is>
       </c>
-      <c r="N49" s="2" t="n"/>
-      <c r="O49" s="2" t="n"/>
+      <c r="N49" s="2" t="inlineStr"/>
+      <c r="O49" s="2" t="inlineStr"/>
       <c r="P49" s="2" t="inlineStr">
         <is>
           <t>diner; restaurant; pub; bar</t>
         </is>
       </c>
-      <c r="Q49" s="2" t="n"/>
-      <c r="R49" s="2" t="n"/>
-      <c r="S49" s="2" t="n"/>
+      <c r="Q49" s="2" t="inlineStr"/>
+      <c r="R49" s="2" t="inlineStr"/>
+      <c r="S49" s="2" t="inlineStr"/>
       <c r="T49" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U49" s="2" t="n"/>
-      <c r="V49" s="2" t="n"/>
+      <c r="U49" s="2" t="inlineStr"/>
+      <c r="V49" s="2" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="2" t="inlineStr">
@@ -2692,37 +2884,37 @@
           <t>community facility [BCIO:026029]</t>
         </is>
       </c>
-      <c r="D50" s="2" t="n"/>
-      <c r="E50" s="2" t="n"/>
-      <c r="F50" s="2" t="n"/>
-      <c r="G50" s="2" t="n"/>
-      <c r="H50" s="2" t="n"/>
-      <c r="I50" s="2" t="n"/>
-      <c r="J50" s="2" t="n"/>
-      <c r="K50" s="2" t="n"/>
-      <c r="L50" s="2" t="n"/>
+      <c r="D50" s="2" t="inlineStr"/>
+      <c r="E50" s="2" t="inlineStr"/>
+      <c r="F50" s="2" t="inlineStr"/>
+      <c r="G50" s="2" t="inlineStr"/>
+      <c r="H50" s="2" t="inlineStr"/>
+      <c r="I50" s="2" t="inlineStr"/>
+      <c r="J50" s="2" t="inlineStr"/>
+      <c r="K50" s="2" t="inlineStr"/>
+      <c r="L50" s="2" t="inlineStr"/>
       <c r="M50" s="2" t="inlineStr">
         <is>
           <t>A community facility designed to entertain or amuse.</t>
         </is>
       </c>
-      <c r="N50" s="2" t="n"/>
-      <c r="O50" s="2" t="n"/>
+      <c r="N50" s="2" t="inlineStr"/>
+      <c r="O50" s="2" t="inlineStr"/>
       <c r="P50" s="2" t="inlineStr">
         <is>
           <t>cinema; theatre; disco</t>
         </is>
       </c>
-      <c r="Q50" s="2" t="n"/>
-      <c r="R50" s="2" t="n"/>
-      <c r="S50" s="2" t="n"/>
+      <c r="Q50" s="2" t="inlineStr"/>
+      <c r="R50" s="2" t="inlineStr"/>
+      <c r="S50" s="2" t="inlineStr"/>
       <c r="T50" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U50" s="2" t="n"/>
-      <c r="V50" s="2" t="n"/>
+      <c r="U50" s="2" t="inlineStr"/>
+      <c r="V50" s="2" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="2" t="inlineStr">
@@ -2740,37 +2932,37 @@
           <t>facility [OMRSE:00000062]</t>
         </is>
       </c>
-      <c r="D51" s="2" t="n"/>
-      <c r="E51" s="2" t="n"/>
-      <c r="F51" s="2" t="n"/>
-      <c r="G51" s="2" t="n"/>
-      <c r="H51" s="2" t="n"/>
-      <c r="I51" s="2" t="n"/>
-      <c r="J51" s="2" t="n"/>
-      <c r="K51" s="2" t="n"/>
-      <c r="L51" s="2" t="n"/>
+      <c r="D51" s="2" t="inlineStr"/>
+      <c r="E51" s="2" t="inlineStr"/>
+      <c r="F51" s="2" t="inlineStr"/>
+      <c r="G51" s="2" t="inlineStr"/>
+      <c r="H51" s="2" t="inlineStr"/>
+      <c r="I51" s="2" t="inlineStr"/>
+      <c r="J51" s="2" t="inlineStr"/>
+      <c r="K51" s="2" t="inlineStr"/>
+      <c r="L51" s="2" t="inlineStr"/>
       <c r="M51" s="2" t="inlineStr">
         <is>
           <t>A facility used as an outlet for shopping.</t>
         </is>
       </c>
-      <c r="N51" s="2" t="n"/>
-      <c r="O51" s="2" t="n"/>
+      <c r="N51" s="2" t="inlineStr"/>
+      <c r="O51" s="2" t="inlineStr"/>
       <c r="P51" s="2" t="inlineStr">
         <is>
           <t>supermarket; market; shopping centre</t>
         </is>
       </c>
-      <c r="Q51" s="2" t="n"/>
-      <c r="R51" s="2" t="n"/>
-      <c r="S51" s="2" t="n"/>
+      <c r="Q51" s="2" t="inlineStr"/>
+      <c r="R51" s="2" t="inlineStr"/>
+      <c r="S51" s="2" t="inlineStr"/>
       <c r="T51" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U51" s="2" t="n"/>
-      <c r="V51" s="2" t="n"/>
+      <c r="U51" s="2" t="inlineStr"/>
+      <c r="V51" s="2" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -2788,6 +2980,15 @@
           <t>facility [OMRSE:00000062]</t>
         </is>
       </c>
+      <c r="D52" t="inlineStr"/>
+      <c r="E52" t="inlineStr"/>
+      <c r="F52" t="inlineStr"/>
+      <c r="G52" t="inlineStr"/>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr">
         <is>
           <t>A facility, permanent or temporary, on land, in air, space or water, where scientific research or measurements can be undertaken</t>
@@ -2808,11 +3009,16 @@
           <t>research lab</t>
         </is>
       </c>
+      <c r="Q52" t="inlineStr"/>
+      <c r="R52" t="inlineStr"/>
+      <c r="S52" t="inlineStr"/>
       <c r="T52" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
+      <c r="U52" t="inlineStr"/>
+      <c r="V52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="2" t="inlineStr">
@@ -2830,33 +3036,33 @@
           <t>facility [OMRSE:00000062]</t>
         </is>
       </c>
-      <c r="D53" s="2" t="n"/>
-      <c r="E53" s="2" t="n"/>
-      <c r="F53" s="2" t="n"/>
-      <c r="G53" s="2" t="n"/>
-      <c r="H53" s="2" t="n"/>
-      <c r="I53" s="2" t="n"/>
-      <c r="J53" s="2" t="n"/>
-      <c r="K53" s="2" t="n"/>
-      <c r="L53" s="2" t="n"/>
+      <c r="D53" s="2" t="inlineStr"/>
+      <c r="E53" s="2" t="inlineStr"/>
+      <c r="F53" s="2" t="inlineStr"/>
+      <c r="G53" s="2" t="inlineStr"/>
+      <c r="H53" s="2" t="inlineStr"/>
+      <c r="I53" s="2" t="inlineStr"/>
+      <c r="J53" s="2" t="inlineStr"/>
+      <c r="K53" s="2" t="inlineStr"/>
+      <c r="L53" s="2" t="inlineStr"/>
       <c r="M53" s="2" t="inlineStr">
         <is>
           <t>A facility of a room, set of rooms, or building used as a place for commercial, professional, or bureaucratic work.</t>
         </is>
       </c>
-      <c r="N53" s="2" t="n"/>
-      <c r="O53" s="2" t="n"/>
-      <c r="P53" s="2" t="n"/>
-      <c r="Q53" s="2" t="n"/>
-      <c r="R53" s="2" t="n"/>
-      <c r="S53" s="2" t="n"/>
+      <c r="N53" s="2" t="inlineStr"/>
+      <c r="O53" s="2" t="inlineStr"/>
+      <c r="P53" s="2" t="inlineStr"/>
+      <c r="Q53" s="2" t="inlineStr"/>
+      <c r="R53" s="2" t="inlineStr"/>
+      <c r="S53" s="2" t="inlineStr"/>
       <c r="T53" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U53" s="2" t="n"/>
-      <c r="V53" s="2" t="n"/>
+      <c r="U53" s="2" t="inlineStr"/>
+      <c r="V53" s="2" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="2" t="inlineStr">
@@ -2874,37 +3080,37 @@
           <t>facility [OMRSE:00000062]</t>
         </is>
       </c>
-      <c r="D54" s="2" t="n"/>
-      <c r="E54" s="2" t="n"/>
-      <c r="F54" s="2" t="n"/>
-      <c r="G54" s="2" t="n"/>
-      <c r="H54" s="2" t="n"/>
-      <c r="I54" s="2" t="n"/>
-      <c r="J54" s="2" t="n"/>
-      <c r="K54" s="2" t="n"/>
-      <c r="L54" s="2" t="n"/>
+      <c r="D54" s="2" t="inlineStr"/>
+      <c r="E54" s="2" t="inlineStr"/>
+      <c r="F54" s="2" t="inlineStr"/>
+      <c r="G54" s="2" t="inlineStr"/>
+      <c r="H54" s="2" t="inlineStr"/>
+      <c r="I54" s="2" t="inlineStr"/>
+      <c r="J54" s="2" t="inlineStr"/>
+      <c r="K54" s="2" t="inlineStr"/>
+      <c r="L54" s="2" t="inlineStr"/>
       <c r="M54" s="2" t="inlineStr">
         <is>
           <t>A facility where individuals are being reprimanded, detained or imprisoned.</t>
         </is>
       </c>
-      <c r="N54" s="2" t="n"/>
-      <c r="O54" s="2" t="n"/>
+      <c r="N54" s="2" t="inlineStr"/>
+      <c r="O54" s="2" t="inlineStr"/>
       <c r="P54" s="2" t="inlineStr">
         <is>
           <t>prison</t>
         </is>
       </c>
-      <c r="Q54" s="2" t="n"/>
-      <c r="R54" s="2" t="n"/>
-      <c r="S54" s="2" t="n"/>
+      <c r="Q54" s="2" t="inlineStr"/>
+      <c r="R54" s="2" t="inlineStr"/>
+      <c r="S54" s="2" t="inlineStr"/>
       <c r="T54" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U54" s="2" t="n"/>
-      <c r="V54" s="2" t="n"/>
+      <c r="U54" s="2" t="inlineStr"/>
+      <c r="V54" s="2" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="2" t="inlineStr">
@@ -2922,33 +3128,33 @@
           <t>facility [OMRSE:00000062]</t>
         </is>
       </c>
-      <c r="D55" s="2" t="n"/>
-      <c r="E55" s="2" t="n"/>
-      <c r="F55" s="2" t="n"/>
-      <c r="G55" s="2" t="n"/>
-      <c r="H55" s="2" t="n"/>
-      <c r="I55" s="2" t="n"/>
-      <c r="J55" s="2" t="n"/>
-      <c r="K55" s="2" t="n"/>
-      <c r="L55" s="2" t="n"/>
+      <c r="D55" s="2" t="inlineStr"/>
+      <c r="E55" s="2" t="inlineStr"/>
+      <c r="F55" s="2" t="inlineStr"/>
+      <c r="G55" s="2" t="inlineStr"/>
+      <c r="H55" s="2" t="inlineStr"/>
+      <c r="I55" s="2" t="inlineStr"/>
+      <c r="J55" s="2" t="inlineStr"/>
+      <c r="K55" s="2" t="inlineStr"/>
+      <c r="L55" s="2" t="inlineStr"/>
       <c r="M55" s="2" t="inlineStr">
         <is>
           <t>A facility of a building or group of buildings where goods are manufactured or assembled chiefly by machine</t>
         </is>
       </c>
-      <c r="N55" s="2" t="n"/>
-      <c r="O55" s="2" t="n"/>
-      <c r="P55" s="2" t="n"/>
-      <c r="Q55" s="2" t="n"/>
-      <c r="R55" s="2" t="n"/>
-      <c r="S55" s="2" t="n"/>
+      <c r="N55" s="2" t="inlineStr"/>
+      <c r="O55" s="2" t="inlineStr"/>
+      <c r="P55" s="2" t="inlineStr"/>
+      <c r="Q55" s="2" t="inlineStr"/>
+      <c r="R55" s="2" t="inlineStr"/>
+      <c r="S55" s="2" t="inlineStr"/>
       <c r="T55" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U55" s="2" t="n"/>
-      <c r="V55" s="2" t="n"/>
+      <c r="U55" s="2" t="inlineStr"/>
+      <c r="V55" s="2" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="2" t="inlineStr">
@@ -2966,37 +3172,37 @@
           <t>facility [OMRSE:00000062]</t>
         </is>
       </c>
-      <c r="D56" s="2" t="n"/>
-      <c r="E56" s="2" t="n"/>
-      <c r="F56" s="2" t="n"/>
-      <c r="G56" s="2" t="n"/>
-      <c r="H56" s="2" t="n"/>
-      <c r="I56" s="2" t="n"/>
-      <c r="J56" s="2" t="n"/>
-      <c r="K56" s="2" t="n"/>
-      <c r="L56" s="2" t="n"/>
+      <c r="D56" s="2" t="inlineStr"/>
+      <c r="E56" s="2" t="inlineStr"/>
+      <c r="F56" s="2" t="inlineStr"/>
+      <c r="G56" s="2" t="inlineStr"/>
+      <c r="H56" s="2" t="inlineStr"/>
+      <c r="I56" s="2" t="inlineStr"/>
+      <c r="J56" s="2" t="inlineStr"/>
+      <c r="K56" s="2" t="inlineStr"/>
+      <c r="L56" s="2" t="inlineStr"/>
       <c r="M56" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">A facility relating to or characteristic of soldiers or armed forces </t>
         </is>
       </c>
-      <c r="N56" s="2" t="n"/>
-      <c r="O56" s="2" t="n"/>
+      <c r="N56" s="2" t="inlineStr"/>
+      <c r="O56" s="2" t="inlineStr"/>
       <c r="P56" s="2" t="inlineStr">
         <is>
           <t>army; navy; air force</t>
         </is>
       </c>
-      <c r="Q56" s="2" t="n"/>
-      <c r="R56" s="2" t="n"/>
-      <c r="S56" s="2" t="n"/>
+      <c r="Q56" s="2" t="inlineStr"/>
+      <c r="R56" s="2" t="inlineStr"/>
+      <c r="S56" s="2" t="inlineStr"/>
       <c r="T56" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U56" s="2" t="n"/>
-      <c r="V56" s="2" t="n"/>
+      <c r="U56" s="2" t="inlineStr"/>
+      <c r="V56" s="2" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="2" t="inlineStr">
@@ -3014,15 +3220,15 @@
           <t>site [BFO:0000029]</t>
         </is>
       </c>
-      <c r="D57" s="2" t="n"/>
-      <c r="E57" s="2" t="n"/>
-      <c r="F57" s="2" t="n"/>
-      <c r="G57" s="2" t="n"/>
-      <c r="H57" s="2" t="n"/>
-      <c r="I57" s="2" t="n"/>
-      <c r="J57" s="2" t="n"/>
-      <c r="K57" s="2" t="n"/>
-      <c r="L57" s="2" t="n"/>
+      <c r="D57" s="2" t="inlineStr"/>
+      <c r="E57" s="2" t="inlineStr"/>
+      <c r="F57" s="2" t="inlineStr"/>
+      <c r="G57" s="2" t="inlineStr"/>
+      <c r="H57" s="2" t="inlineStr"/>
+      <c r="I57" s="2" t="inlineStr"/>
+      <c r="J57" s="2" t="inlineStr"/>
+      <c r="K57" s="2" t="inlineStr"/>
+      <c r="L57" s="2" t="inlineStr"/>
       <c r="M57" s="2" t="inlineStr">
         <is>
           <t>Methods of traveling from one place to another.</t>
@@ -3038,17 +3244,17 @@
           <t>NCI Thesaurus OBO Edition</t>
         </is>
       </c>
-      <c r="P57" s="2" t="n"/>
-      <c r="Q57" s="2" t="n"/>
-      <c r="R57" s="2" t="n"/>
-      <c r="S57" s="2" t="n"/>
+      <c r="P57" s="2" t="inlineStr"/>
+      <c r="Q57" s="2" t="inlineStr"/>
+      <c r="R57" s="2" t="inlineStr"/>
+      <c r="S57" s="2" t="inlineStr"/>
       <c r="T57" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U57" s="2" t="n"/>
-      <c r="V57" s="2" t="n"/>
+      <c r="U57" s="2" t="inlineStr"/>
+      <c r="V57" s="2" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="2" t="inlineStr">
@@ -3066,15 +3272,15 @@
           <t>transportation [BCIO:026041]</t>
         </is>
       </c>
-      <c r="D58" s="2" t="n"/>
-      <c r="E58" s="2" t="n"/>
-      <c r="F58" s="2" t="n"/>
-      <c r="G58" s="2" t="n"/>
-      <c r="H58" s="2" t="n"/>
-      <c r="I58" s="2" t="n"/>
-      <c r="J58" s="2" t="n"/>
-      <c r="K58" s="2" t="n"/>
-      <c r="L58" s="2" t="n"/>
+      <c r="D58" s="2" t="inlineStr"/>
+      <c r="E58" s="2" t="inlineStr"/>
+      <c r="F58" s="2" t="inlineStr"/>
+      <c r="G58" s="2" t="inlineStr"/>
+      <c r="H58" s="2" t="inlineStr"/>
+      <c r="I58" s="2" t="inlineStr"/>
+      <c r="J58" s="2" t="inlineStr"/>
+      <c r="K58" s="2" t="inlineStr"/>
+      <c r="L58" s="2" t="inlineStr"/>
       <c r="M58" s="2" t="inlineStr">
         <is>
           <t>Forms of transportation that run on fixed routes and are available to the public, usually for a set fare</t>
@@ -3095,16 +3301,16 @@
           <t>bus; train; plane</t>
         </is>
       </c>
-      <c r="Q58" s="2" t="n"/>
-      <c r="R58" s="2" t="n"/>
-      <c r="S58" s="2" t="n"/>
+      <c r="Q58" s="2" t="inlineStr"/>
+      <c r="R58" s="2" t="inlineStr"/>
+      <c r="S58" s="2" t="inlineStr"/>
       <c r="T58" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U58" s="2" t="n"/>
-      <c r="V58" s="2" t="n"/>
+      <c r="U58" s="2" t="inlineStr"/>
+      <c r="V58" s="2" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="2" t="inlineStr">
@@ -3122,37 +3328,37 @@
           <t>transportation [BCIO:026041]</t>
         </is>
       </c>
-      <c r="D59" s="2" t="n"/>
-      <c r="E59" s="2" t="n"/>
-      <c r="F59" s="2" t="n"/>
-      <c r="G59" s="2" t="n"/>
-      <c r="H59" s="2" t="n"/>
-      <c r="I59" s="2" t="n"/>
-      <c r="J59" s="2" t="n"/>
-      <c r="K59" s="2" t="n"/>
-      <c r="L59" s="2" t="n"/>
+      <c r="D59" s="2" t="inlineStr"/>
+      <c r="E59" s="2" t="inlineStr"/>
+      <c r="F59" s="2" t="inlineStr"/>
+      <c r="G59" s="2" t="inlineStr"/>
+      <c r="H59" s="2" t="inlineStr"/>
+      <c r="I59" s="2" t="inlineStr"/>
+      <c r="J59" s="2" t="inlineStr"/>
+      <c r="K59" s="2" t="inlineStr"/>
+      <c r="L59" s="2" t="inlineStr"/>
       <c r="M59" s="2" t="inlineStr">
         <is>
           <t>A form of transportation owned by an individual for individual or group use.</t>
         </is>
       </c>
-      <c r="N59" s="2" t="n"/>
-      <c r="O59" s="2" t="n"/>
+      <c r="N59" s="2" t="inlineStr"/>
+      <c r="O59" s="2" t="inlineStr"/>
       <c r="P59" s="2" t="inlineStr">
         <is>
           <t>car; bicycle; motorbike</t>
         </is>
       </c>
-      <c r="Q59" s="2" t="n"/>
-      <c r="R59" s="2" t="n"/>
-      <c r="S59" s="2" t="n"/>
+      <c r="Q59" s="2" t="inlineStr"/>
+      <c r="R59" s="2" t="inlineStr"/>
+      <c r="S59" s="2" t="inlineStr"/>
       <c r="T59" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U59" s="2" t="n"/>
-      <c r="V59" s="2" t="n"/>
+      <c r="U59" s="2" t="inlineStr"/>
+      <c r="V59" s="2" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="2" t="inlineStr">
@@ -3170,37 +3376,37 @@
           <t>transportation [BCIO:026041]</t>
         </is>
       </c>
-      <c r="D60" s="2" t="n"/>
-      <c r="E60" s="2" t="n"/>
-      <c r="F60" s="2" t="n"/>
-      <c r="G60" s="2" t="n"/>
-      <c r="H60" s="2" t="n"/>
-      <c r="I60" s="2" t="n"/>
-      <c r="J60" s="2" t="n"/>
-      <c r="K60" s="2" t="n"/>
-      <c r="L60" s="2" t="n"/>
+      <c r="D60" s="2" t="inlineStr"/>
+      <c r="E60" s="2" t="inlineStr"/>
+      <c r="F60" s="2" t="inlineStr"/>
+      <c r="G60" s="2" t="inlineStr"/>
+      <c r="H60" s="2" t="inlineStr"/>
+      <c r="I60" s="2" t="inlineStr"/>
+      <c r="J60" s="2" t="inlineStr"/>
+      <c r="K60" s="2" t="inlineStr"/>
+      <c r="L60" s="2" t="inlineStr"/>
       <c r="M60" s="2" t="inlineStr">
         <is>
           <t>A form of transportation delivering interventions in transient locations.</t>
         </is>
       </c>
-      <c r="N60" s="2" t="n"/>
-      <c r="O60" s="2" t="n"/>
+      <c r="N60" s="2" t="inlineStr"/>
+      <c r="O60" s="2" t="inlineStr"/>
       <c r="P60" s="2" t="inlineStr">
         <is>
           <t>mobile van</t>
         </is>
       </c>
-      <c r="Q60" s="2" t="n"/>
-      <c r="R60" s="2" t="n"/>
-      <c r="S60" s="2" t="n"/>
+      <c r="Q60" s="2" t="inlineStr"/>
+      <c r="R60" s="2" t="inlineStr"/>
+      <c r="S60" s="2" t="inlineStr"/>
       <c r="T60" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U60" s="2" t="n"/>
-      <c r="V60" s="2" t="n"/>
+      <c r="U60" s="2" t="inlineStr"/>
+      <c r="V60" s="2" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="2" t="inlineStr">
@@ -3218,33 +3424,33 @@
           <t>transportation [BCIO:026041]</t>
         </is>
       </c>
-      <c r="D61" s="2" t="n"/>
-      <c r="E61" s="2" t="n"/>
-      <c r="F61" s="2" t="n"/>
-      <c r="G61" s="2" t="n"/>
-      <c r="H61" s="2" t="n"/>
-      <c r="I61" s="2" t="n"/>
-      <c r="J61" s="2" t="n"/>
-      <c r="K61" s="2" t="n"/>
-      <c r="L61" s="2" t="n"/>
+      <c r="D61" s="2" t="inlineStr"/>
+      <c r="E61" s="2" t="inlineStr"/>
+      <c r="F61" s="2" t="inlineStr"/>
+      <c r="G61" s="2" t="inlineStr"/>
+      <c r="H61" s="2" t="inlineStr"/>
+      <c r="I61" s="2" t="inlineStr"/>
+      <c r="J61" s="2" t="inlineStr"/>
+      <c r="K61" s="2" t="inlineStr"/>
+      <c r="L61" s="2" t="inlineStr"/>
       <c r="M61" s="2" t="inlineStr">
         <is>
           <t>A form of transporation which can transport patients for health treatment, and in some instances will also provide out-of-hospital healthcare to the patient.</t>
         </is>
       </c>
-      <c r="N61" s="2" t="n"/>
-      <c r="O61" s="2" t="n"/>
-      <c r="P61" s="2" t="n"/>
-      <c r="Q61" s="2" t="n"/>
-      <c r="R61" s="2" t="n"/>
-      <c r="S61" s="2" t="n"/>
+      <c r="N61" s="2" t="inlineStr"/>
+      <c r="O61" s="2" t="inlineStr"/>
+      <c r="P61" s="2" t="inlineStr"/>
+      <c r="Q61" s="2" t="inlineStr"/>
+      <c r="R61" s="2" t="inlineStr"/>
+      <c r="S61" s="2" t="inlineStr"/>
       <c r="T61" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U61" s="2" t="n"/>
-      <c r="V61" s="2" t="n"/>
+      <c r="U61" s="2" t="inlineStr"/>
+      <c r="V61" s="2" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="2" t="inlineStr">
@@ -3262,33 +3468,33 @@
           <t>site [BFO:0000029]</t>
         </is>
       </c>
-      <c r="D62" s="2" t="n"/>
-      <c r="E62" s="2" t="n"/>
-      <c r="F62" s="2" t="n"/>
-      <c r="G62" s="2" t="n"/>
-      <c r="H62" s="2" t="n"/>
-      <c r="I62" s="2" t="n"/>
-      <c r="J62" s="2" t="n"/>
-      <c r="K62" s="2" t="n"/>
-      <c r="L62" s="2" t="n"/>
+      <c r="D62" s="2" t="inlineStr"/>
+      <c r="E62" s="2" t="inlineStr"/>
+      <c r="F62" s="2" t="inlineStr"/>
+      <c r="G62" s="2" t="inlineStr"/>
+      <c r="H62" s="2" t="inlineStr"/>
+      <c r="I62" s="2" t="inlineStr"/>
+      <c r="J62" s="2" t="inlineStr"/>
+      <c r="K62" s="2" t="inlineStr"/>
+      <c r="L62" s="2" t="inlineStr"/>
       <c r="M62" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">A site which is an outdoor location outside of a building. </t>
         </is>
       </c>
-      <c r="N62" s="2" t="n"/>
-      <c r="O62" s="2" t="n"/>
-      <c r="P62" s="2" t="n"/>
-      <c r="Q62" s="2" t="n"/>
-      <c r="R62" s="2" t="n"/>
-      <c r="S62" s="2" t="n"/>
+      <c r="N62" s="2" t="inlineStr"/>
+      <c r="O62" s="2" t="inlineStr"/>
+      <c r="P62" s="2" t="inlineStr"/>
+      <c r="Q62" s="2" t="inlineStr"/>
+      <c r="R62" s="2" t="inlineStr"/>
+      <c r="S62" s="2" t="inlineStr"/>
       <c r="T62" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U62" s="2" t="n"/>
-      <c r="V62" s="2" t="n"/>
+      <c r="U62" s="2" t="inlineStr"/>
+      <c r="V62" s="2" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -3306,6 +3512,15 @@
           <t>outdoor environment [BCIO:026046]</t>
         </is>
       </c>
+      <c r="D63" t="inlineStr"/>
+      <c r="E63" t="inlineStr"/>
+      <c r="F63" t="inlineStr"/>
+      <c r="G63" t="inlineStr"/>
+      <c r="H63" t="inlineStr"/>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="inlineStr">
         <is>
           <t>A bounded area of land, or water, usually in its natural or semi-natural (landscaped) state and set aside for some purpose, usually to do with recreation or conservation</t>
@@ -3321,11 +3536,17 @@
           <t>Environment Ontology</t>
         </is>
       </c>
+      <c r="P63" t="inlineStr"/>
+      <c r="Q63" t="inlineStr"/>
+      <c r="R63" t="inlineStr"/>
+      <c r="S63" t="inlineStr"/>
       <c r="T63" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
+      <c r="U63" t="inlineStr"/>
+      <c r="V63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -3343,6 +3564,15 @@
           <t>outdoor environment [BCIO:026046]</t>
         </is>
       </c>
+      <c r="D64" t="inlineStr"/>
+      <c r="E64" t="inlineStr"/>
+      <c r="F64" t="inlineStr"/>
+      <c r="G64" t="inlineStr"/>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="inlineStr">
         <is>
           <t>An area with a high density of trees. A small forest may be called a wood</t>
@@ -3358,11 +3588,17 @@
           <t>Environment Ontology</t>
         </is>
       </c>
+      <c r="P64" t="inlineStr"/>
+      <c r="Q64" t="inlineStr"/>
+      <c r="R64" t="inlineStr"/>
+      <c r="S64" t="inlineStr"/>
       <c r="T64" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
+      <c r="U64" t="inlineStr"/>
+      <c r="V64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -3380,6 +3616,15 @@
           <t>outdoor environment [BCIO:026046]</t>
         </is>
       </c>
+      <c r="D65" t="inlineStr"/>
+      <c r="E65" t="inlineStr"/>
+      <c r="F65" t="inlineStr"/>
+      <c r="G65" t="inlineStr"/>
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="inlineStr">
         <is>
           <t>A landform consisting of loose rock particles such as sand, gravel, shingle, pebbles, cobble, or even shell fragments along the shoreline of a body of wate</t>
@@ -3395,11 +3640,17 @@
           <t>Environment Ontology</t>
         </is>
       </c>
+      <c r="P65" t="inlineStr"/>
+      <c r="Q65" t="inlineStr"/>
+      <c r="R65" t="inlineStr"/>
+      <c r="S65" t="inlineStr"/>
       <c r="T65" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
+      <c r="U65" t="inlineStr"/>
+      <c r="V65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="2" t="inlineStr">
@@ -3417,33 +3668,33 @@
           <t>outdoor environment [BCIO:026046]</t>
         </is>
       </c>
-      <c r="D66" s="2" t="n"/>
-      <c r="E66" s="2" t="n"/>
-      <c r="F66" s="2" t="n"/>
-      <c r="G66" s="2" t="n"/>
-      <c r="H66" s="2" t="n"/>
-      <c r="I66" s="2" t="n"/>
-      <c r="J66" s="2" t="n"/>
-      <c r="K66" s="2" t="n"/>
-      <c r="L66" s="2" t="n"/>
+      <c r="D66" s="2" t="inlineStr"/>
+      <c r="E66" s="2" t="inlineStr"/>
+      <c r="F66" s="2" t="inlineStr"/>
+      <c r="G66" s="2" t="inlineStr"/>
+      <c r="H66" s="2" t="inlineStr"/>
+      <c r="I66" s="2" t="inlineStr"/>
+      <c r="J66" s="2" t="inlineStr"/>
+      <c r="K66" s="2" t="inlineStr"/>
+      <c r="L66" s="2" t="inlineStr"/>
       <c r="M66" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">An outdoor environment set in an expanse of water. </t>
         </is>
       </c>
-      <c r="N66" s="2" t="n"/>
-      <c r="O66" s="2" t="n"/>
-      <c r="P66" s="2" t="n"/>
-      <c r="Q66" s="2" t="n"/>
-      <c r="R66" s="2" t="n"/>
-      <c r="S66" s="2" t="n"/>
+      <c r="N66" s="2" t="inlineStr"/>
+      <c r="O66" s="2" t="inlineStr"/>
+      <c r="P66" s="2" t="inlineStr"/>
+      <c r="Q66" s="2" t="inlineStr"/>
+      <c r="R66" s="2" t="inlineStr"/>
+      <c r="S66" s="2" t="inlineStr"/>
       <c r="T66" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U66" s="2" t="n"/>
-      <c r="V66" s="2" t="n"/>
+      <c r="U66" s="2" t="inlineStr"/>
+      <c r="V66" s="2" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -3461,6 +3712,15 @@
           <t>outdoor environment [BCIO:026046]</t>
         </is>
       </c>
+      <c r="D67" t="inlineStr"/>
+      <c r="E67" t="inlineStr"/>
+      <c r="F67" t="inlineStr"/>
+      <c r="G67" t="inlineStr"/>
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="inlineStr">
         <is>
           <t>An area in which grasses (Graminae) are a significant component of the vegetation</t>
@@ -3476,11 +3736,17 @@
           <t>Environment Ontology</t>
         </is>
       </c>
+      <c r="P67" t="inlineStr"/>
+      <c r="Q67" t="inlineStr"/>
+      <c r="R67" t="inlineStr"/>
+      <c r="S67" t="inlineStr"/>
       <c r="T67" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
+      <c r="U67" t="inlineStr"/>
+      <c r="V67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -3498,6 +3764,15 @@
           <t>outdoor environment [BCIO:026046]</t>
         </is>
       </c>
+      <c r="D68" t="inlineStr"/>
+      <c r="E68" t="inlineStr"/>
+      <c r="F68" t="inlineStr"/>
+      <c r="G68" t="inlineStr"/>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="inlineStr">
         <is>
           <t>An open way for the passage of vehicles, persons, or animals on land</t>
@@ -3513,11 +3788,17 @@
           <t>Environment Ontology</t>
         </is>
       </c>
+      <c r="P68" t="inlineStr"/>
+      <c r="Q68" t="inlineStr"/>
+      <c r="R68" t="inlineStr"/>
+      <c r="S68" t="inlineStr"/>
       <c r="T68" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
+      <c r="U68" t="inlineStr"/>
+      <c r="V68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="2" t="inlineStr">
@@ -3535,33 +3816,33 @@
           <t>outdoor environment [BCIO:026046]</t>
         </is>
       </c>
-      <c r="D69" s="2" t="n"/>
-      <c r="E69" s="2" t="n"/>
-      <c r="F69" s="2" t="n"/>
-      <c r="G69" s="2" t="n"/>
-      <c r="H69" s="2" t="n"/>
-      <c r="I69" s="2" t="n"/>
-      <c r="J69" s="2" t="n"/>
-      <c r="K69" s="2" t="n"/>
-      <c r="L69" s="2" t="n"/>
+      <c r="D69" s="2" t="inlineStr"/>
+      <c r="E69" s="2" t="inlineStr"/>
+      <c r="F69" s="2" t="inlineStr"/>
+      <c r="G69" s="2" t="inlineStr"/>
+      <c r="H69" s="2" t="inlineStr"/>
+      <c r="I69" s="2" t="inlineStr"/>
+      <c r="J69" s="2" t="inlineStr"/>
+      <c r="K69" s="2" t="inlineStr"/>
+      <c r="L69" s="2" t="inlineStr"/>
       <c r="M69" s="2" t="inlineStr">
         <is>
           <t>An outdoor environment for the passage of persons or cyclists on land</t>
         </is>
       </c>
-      <c r="N69" s="2" t="n"/>
-      <c r="O69" s="2" t="n"/>
-      <c r="P69" s="2" t="n"/>
-      <c r="Q69" s="2" t="n"/>
-      <c r="R69" s="2" t="n"/>
-      <c r="S69" s="2" t="n"/>
+      <c r="N69" s="2" t="inlineStr"/>
+      <c r="O69" s="2" t="inlineStr"/>
+      <c r="P69" s="2" t="inlineStr"/>
+      <c r="Q69" s="2" t="inlineStr"/>
+      <c r="R69" s="2" t="inlineStr"/>
+      <c r="S69" s="2" t="inlineStr"/>
       <c r="T69" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U69" s="2" t="n"/>
-      <c r="V69" s="2" t="n"/>
+      <c r="U69" s="2" t="inlineStr"/>
+      <c r="V69" s="2" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="2" t="inlineStr">
@@ -3579,33 +3860,33 @@
           <t>path or pavement [BCIO:026048]</t>
         </is>
       </c>
-      <c r="D70" s="2" t="n"/>
-      <c r="E70" s="2" t="n"/>
-      <c r="F70" s="2" t="n"/>
-      <c r="G70" s="2" t="n"/>
-      <c r="H70" s="2" t="n"/>
-      <c r="I70" s="2" t="n"/>
-      <c r="J70" s="2" t="n"/>
-      <c r="K70" s="2" t="n"/>
-      <c r="L70" s="2" t="n"/>
+      <c r="D70" s="2" t="inlineStr"/>
+      <c r="E70" s="2" t="inlineStr"/>
+      <c r="F70" s="2" t="inlineStr"/>
+      <c r="G70" s="2" t="inlineStr"/>
+      <c r="H70" s="2" t="inlineStr"/>
+      <c r="I70" s="2" t="inlineStr"/>
+      <c r="J70" s="2" t="inlineStr"/>
+      <c r="K70" s="2" t="inlineStr"/>
+      <c r="L70" s="2" t="inlineStr"/>
       <c r="M70" s="2" t="inlineStr">
         <is>
           <t>A path or pavement for the passage of persons only on land.</t>
         </is>
       </c>
-      <c r="N70" s="2" t="n"/>
-      <c r="O70" s="2" t="n"/>
-      <c r="P70" s="2" t="n"/>
-      <c r="Q70" s="2" t="n"/>
-      <c r="R70" s="2" t="n"/>
-      <c r="S70" s="2" t="n"/>
+      <c r="N70" s="2" t="inlineStr"/>
+      <c r="O70" s="2" t="inlineStr"/>
+      <c r="P70" s="2" t="inlineStr"/>
+      <c r="Q70" s="2" t="inlineStr"/>
+      <c r="R70" s="2" t="inlineStr"/>
+      <c r="S70" s="2" t="inlineStr"/>
       <c r="T70" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U70" s="2" t="n"/>
-      <c r="V70" s="2" t="n"/>
+      <c r="U70" s="2" t="inlineStr"/>
+      <c r="V70" s="2" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="2" t="inlineStr">
@@ -3623,33 +3904,33 @@
           <t>path or pavement [BCIO:026048]</t>
         </is>
       </c>
-      <c r="D71" s="2" t="n"/>
-      <c r="E71" s="2" t="n"/>
-      <c r="F71" s="2" t="n"/>
-      <c r="G71" s="2" t="n"/>
-      <c r="H71" s="2" t="n"/>
-      <c r="I71" s="2" t="n"/>
-      <c r="J71" s="2" t="n"/>
-      <c r="K71" s="2" t="n"/>
-      <c r="L71" s="2" t="n"/>
+      <c r="D71" s="2" t="inlineStr"/>
+      <c r="E71" s="2" t="inlineStr"/>
+      <c r="F71" s="2" t="inlineStr"/>
+      <c r="G71" s="2" t="inlineStr"/>
+      <c r="H71" s="2" t="inlineStr"/>
+      <c r="I71" s="2" t="inlineStr"/>
+      <c r="J71" s="2" t="inlineStr"/>
+      <c r="K71" s="2" t="inlineStr"/>
+      <c r="L71" s="2" t="inlineStr"/>
       <c r="M71" s="2" t="inlineStr">
         <is>
           <t>A path or pavement for the passage of people using bicycles only on land.</t>
         </is>
       </c>
-      <c r="N71" s="2" t="n"/>
-      <c r="O71" s="2" t="n"/>
-      <c r="P71" s="2" t="n"/>
-      <c r="Q71" s="2" t="n"/>
-      <c r="R71" s="2" t="n"/>
-      <c r="S71" s="2" t="n"/>
+      <c r="N71" s="2" t="inlineStr"/>
+      <c r="O71" s="2" t="inlineStr"/>
+      <c r="P71" s="2" t="inlineStr"/>
+      <c r="Q71" s="2" t="inlineStr"/>
+      <c r="R71" s="2" t="inlineStr"/>
+      <c r="S71" s="2" t="inlineStr"/>
       <c r="T71" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U71" s="2" t="n"/>
-      <c r="V71" s="2" t="n"/>
+      <c r="U71" s="2" t="inlineStr"/>
+      <c r="V71" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Setting/inputs/Setting.xlsx
+++ b/Setting/inputs/Setting.xlsx
@@ -562,7 +562,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>test2</t>
+          <t xml:space="preserve"> test1</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -614,10 +614,14 @@
       </c>
       <c r="D3" s="2" t="inlineStr">
         <is>
-          <t>test4</t>
-        </is>
-      </c>
-      <c r="E3" s="2" t="n"/>
+          <t>test5</t>
+        </is>
+      </c>
+      <c r="E3" s="2" t="inlineStr">
+        <is>
+          <t>test6</t>
+        </is>
+      </c>
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>

--- a/Setting/inputs/Setting.xlsx
+++ b/Setting/inputs/Setting.xlsx
@@ -570,6 +570,17 @@
           <t>test3</t>
         </is>
       </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>testandtestandtestand</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr">
         <is>
           <t>A reference to a place on the Earth, by its name or by its geographical location</t>
@@ -585,6 +596,9 @@
           <t>Gazeteer Ontology</t>
         </is>
       </c>
+      <c r="P2" t="inlineStr"/>
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr"/>
       <c r="S2" t="inlineStr">
         <is>
           <t>to</t>
@@ -595,6 +609,8 @@
           <t>External</t>
         </is>
       </c>
+      <c r="U2" t="inlineStr"/>
+      <c r="V2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
@@ -622,27 +638,27 @@
           <t>test6</t>
         </is>
       </c>
-      <c r="F3" s="2" t="n"/>
-      <c r="G3" s="2" t="n"/>
-      <c r="H3" s="2" t="n"/>
-      <c r="I3" s="2" t="n"/>
-      <c r="J3" s="2" t="n"/>
-      <c r="K3" s="2" t="n"/>
-      <c r="L3" s="2" t="n"/>
+      <c r="F3" s="2" t="inlineStr"/>
+      <c r="G3" s="2" t="inlineStr"/>
+      <c r="H3" s="2" t="inlineStr"/>
+      <c r="I3" s="2" t="inlineStr"/>
+      <c r="J3" s="2" t="inlineStr"/>
+      <c r="K3" s="2" t="inlineStr"/>
+      <c r="L3" s="2" t="inlineStr"/>
       <c r="M3" s="2" t="inlineStr">
         <is>
           <t>A geographical location of a country where the intervention takes place.</t>
         </is>
       </c>
-      <c r="N3" s="2" t="n"/>
-      <c r="O3" s="2" t="n"/>
+      <c r="N3" s="2" t="inlineStr"/>
+      <c r="O3" s="2" t="inlineStr"/>
       <c r="P3" s="2" t="inlineStr">
         <is>
           <t>United Kingdom; Spain</t>
         </is>
       </c>
-      <c r="Q3" s="2" t="n"/>
-      <c r="R3" s="2" t="n"/>
+      <c r="Q3" s="2" t="inlineStr"/>
+      <c r="R3" s="2" t="inlineStr"/>
       <c r="S3" s="2" t="inlineStr">
         <is>
           <t>to</t>
@@ -653,8 +669,8 @@
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U3" s="2" t="n"/>
-      <c r="V3" s="2" t="n"/>
+      <c r="U3" s="2" t="inlineStr"/>
+      <c r="V3" s="2" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
@@ -672,37 +688,37 @@
           <t>geographic location [GAZ:00000448]</t>
         </is>
       </c>
-      <c r="D4" s="2" t="n"/>
-      <c r="E4" s="2" t="n"/>
-      <c r="F4" s="2" t="n"/>
-      <c r="G4" s="2" t="n"/>
-      <c r="H4" s="2" t="n"/>
-      <c r="I4" s="2" t="n"/>
-      <c r="J4" s="2" t="n"/>
-      <c r="K4" s="2" t="n"/>
-      <c r="L4" s="2" t="n"/>
+      <c r="D4" s="2" t="inlineStr"/>
+      <c r="E4" s="2" t="inlineStr"/>
+      <c r="F4" s="2" t="inlineStr"/>
+      <c r="G4" s="2" t="inlineStr"/>
+      <c r="H4" s="2" t="inlineStr"/>
+      <c r="I4" s="2" t="inlineStr"/>
+      <c r="J4" s="2" t="inlineStr"/>
+      <c r="K4" s="2" t="inlineStr"/>
+      <c r="L4" s="2" t="inlineStr"/>
       <c r="M4" s="2" t="inlineStr">
         <is>
           <t>A geographical location within a country where the intervention takes place.</t>
         </is>
       </c>
-      <c r="N4" s="2" t="n"/>
-      <c r="O4" s="2" t="n"/>
+      <c r="N4" s="2" t="inlineStr"/>
+      <c r="O4" s="2" t="inlineStr"/>
       <c r="P4" s="2" t="inlineStr">
         <is>
           <t>Region; Town; City; State; New York; Rotterdam</t>
         </is>
       </c>
-      <c r="Q4" s="2" t="n"/>
-      <c r="R4" s="2" t="n"/>
-      <c r="S4" s="2" t="n"/>
+      <c r="Q4" s="2" t="inlineStr"/>
+      <c r="R4" s="2" t="inlineStr"/>
+      <c r="S4" s="2" t="inlineStr"/>
       <c r="T4" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U4" s="2" t="n"/>
-      <c r="V4" s="2" t="n"/>
+      <c r="U4" s="2" t="inlineStr"/>
+      <c r="V4" s="2" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
@@ -725,32 +741,32 @@
           <t>Behaviour change intervention physical setting [BCIO:026000]</t>
         </is>
       </c>
-      <c r="E5" s="2" t="n"/>
-      <c r="F5" s="2" t="n"/>
-      <c r="G5" s="2" t="n"/>
-      <c r="H5" s="2" t="n"/>
-      <c r="I5" s="2" t="n"/>
-      <c r="J5" s="2" t="n"/>
-      <c r="K5" s="2" t="n"/>
-      <c r="L5" s="2" t="n"/>
+      <c r="E5" s="2" t="inlineStr"/>
+      <c r="F5" s="2" t="inlineStr"/>
+      <c r="G5" s="2" t="inlineStr"/>
+      <c r="H5" s="2" t="inlineStr"/>
+      <c r="I5" s="2" t="inlineStr"/>
+      <c r="J5" s="2" t="inlineStr"/>
+      <c r="K5" s="2" t="inlineStr"/>
+      <c r="L5" s="2" t="inlineStr"/>
       <c r="M5" s="2" t="inlineStr">
         <is>
           <t>Features of a given location, such as social and economic characteristics.</t>
         </is>
       </c>
-      <c r="N5" s="2" t="n"/>
-      <c r="O5" s="2" t="n"/>
-      <c r="P5" s="2" t="n"/>
-      <c r="Q5" s="2" t="n"/>
-      <c r="R5" s="2" t="n"/>
-      <c r="S5" s="2" t="n"/>
+      <c r="N5" s="2" t="inlineStr"/>
+      <c r="O5" s="2" t="inlineStr"/>
+      <c r="P5" s="2" t="inlineStr"/>
+      <c r="Q5" s="2" t="inlineStr"/>
+      <c r="R5" s="2" t="inlineStr"/>
+      <c r="S5" s="2" t="inlineStr"/>
       <c r="T5" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U5" s="2" t="n"/>
-      <c r="V5" s="2" t="n"/>
+      <c r="U5" s="2" t="inlineStr"/>
+      <c r="V5" s="2" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
@@ -768,37 +784,37 @@
           <t>attribute of location [BCIO:026003]</t>
         </is>
       </c>
-      <c r="D6" s="2" t="n"/>
-      <c r="E6" s="2" t="n"/>
-      <c r="F6" s="2" t="n"/>
-      <c r="G6" s="2" t="n"/>
-      <c r="H6" s="2" t="n"/>
-      <c r="I6" s="2" t="n"/>
-      <c r="J6" s="2" t="n"/>
-      <c r="K6" s="2" t="n"/>
-      <c r="L6" s="2" t="n"/>
+      <c r="D6" s="2" t="inlineStr"/>
+      <c r="E6" s="2" t="inlineStr"/>
+      <c r="F6" s="2" t="inlineStr"/>
+      <c r="G6" s="2" t="inlineStr"/>
+      <c r="H6" s="2" t="inlineStr"/>
+      <c r="I6" s="2" t="inlineStr"/>
+      <c r="J6" s="2" t="inlineStr"/>
+      <c r="K6" s="2" t="inlineStr"/>
+      <c r="L6" s="2" t="inlineStr"/>
       <c r="M6" s="2" t="inlineStr">
         <is>
           <t>An attribute of location describing the overall socioeconomic state of a location.</t>
         </is>
       </c>
-      <c r="N6" s="2" t="n"/>
-      <c r="O6" s="2" t="n"/>
+      <c r="N6" s="2" t="inlineStr"/>
+      <c r="O6" s="2" t="inlineStr"/>
       <c r="P6" s="2" t="inlineStr">
         <is>
           <t>disadvantaged area; crime rates; World Bank Classifications</t>
         </is>
       </c>
-      <c r="Q6" s="2" t="n"/>
-      <c r="R6" s="2" t="n"/>
-      <c r="S6" s="2" t="n"/>
+      <c r="Q6" s="2" t="inlineStr"/>
+      <c r="R6" s="2" t="inlineStr"/>
+      <c r="S6" s="2" t="inlineStr"/>
       <c r="T6" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U6" s="2" t="n"/>
-      <c r="V6" s="2" t="n"/>
+      <c r="U6" s="2" t="inlineStr"/>
+      <c r="V6" s="2" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
@@ -816,37 +832,37 @@
           <t>area social and economic condition [BCIO:026004]</t>
         </is>
       </c>
-      <c r="D7" s="2" t="n"/>
-      <c r="E7" s="2" t="n"/>
-      <c r="F7" s="2" t="n"/>
-      <c r="G7" s="2" t="n"/>
-      <c r="H7" s="2" t="n"/>
-      <c r="I7" s="2" t="n"/>
-      <c r="J7" s="2" t="n"/>
-      <c r="K7" s="2" t="n"/>
-      <c r="L7" s="2" t="n"/>
+      <c r="D7" s="2" t="inlineStr"/>
+      <c r="E7" s="2" t="inlineStr"/>
+      <c r="F7" s="2" t="inlineStr"/>
+      <c r="G7" s="2" t="inlineStr"/>
+      <c r="H7" s="2" t="inlineStr"/>
+      <c r="I7" s="2" t="inlineStr"/>
+      <c r="J7" s="2" t="inlineStr"/>
+      <c r="K7" s="2" t="inlineStr"/>
+      <c r="L7" s="2" t="inlineStr"/>
       <c r="M7" s="2" t="inlineStr">
         <is>
           <t>An area social and economic condition described to have a low-income, whether at a country or within-country level.</t>
         </is>
       </c>
-      <c r="N7" s="2" t="n"/>
-      <c r="O7" s="2" t="n"/>
+      <c r="N7" s="2" t="inlineStr"/>
+      <c r="O7" s="2" t="inlineStr"/>
       <c r="P7" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">developing country </t>
         </is>
       </c>
-      <c r="Q7" s="2" t="n"/>
-      <c r="R7" s="2" t="n"/>
-      <c r="S7" s="2" t="n"/>
+      <c r="Q7" s="2" t="inlineStr"/>
+      <c r="R7" s="2" t="inlineStr"/>
+      <c r="S7" s="2" t="inlineStr"/>
       <c r="T7" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U7" s="2" t="n"/>
-      <c r="V7" s="2" t="n"/>
+      <c r="U7" s="2" t="inlineStr"/>
+      <c r="V7" s="2" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
@@ -864,37 +880,37 @@
           <t>area social and economic condition [BCIO:026004]</t>
         </is>
       </c>
-      <c r="D8" s="2" t="n"/>
-      <c r="E8" s="2" t="n"/>
-      <c r="F8" s="2" t="n"/>
-      <c r="G8" s="2" t="n"/>
-      <c r="H8" s="2" t="n"/>
-      <c r="I8" s="2" t="n"/>
-      <c r="J8" s="2" t="n"/>
-      <c r="K8" s="2" t="n"/>
-      <c r="L8" s="2" t="n"/>
+      <c r="D8" s="2" t="inlineStr"/>
+      <c r="E8" s="2" t="inlineStr"/>
+      <c r="F8" s="2" t="inlineStr"/>
+      <c r="G8" s="2" t="inlineStr"/>
+      <c r="H8" s="2" t="inlineStr"/>
+      <c r="I8" s="2" t="inlineStr"/>
+      <c r="J8" s="2" t="inlineStr"/>
+      <c r="K8" s="2" t="inlineStr"/>
+      <c r="L8" s="2" t="inlineStr"/>
       <c r="M8" s="2" t="inlineStr">
         <is>
           <t>An area social and economic condition described to have a high-income, whether at a country or within-country level.</t>
         </is>
       </c>
-      <c r="N8" s="2" t="n"/>
-      <c r="O8" s="2" t="n"/>
+      <c r="N8" s="2" t="inlineStr"/>
+      <c r="O8" s="2" t="inlineStr"/>
       <c r="P8" s="2" t="inlineStr">
         <is>
           <t>developed country</t>
         </is>
       </c>
-      <c r="Q8" s="2" t="n"/>
-      <c r="R8" s="2" t="n"/>
-      <c r="S8" s="2" t="n"/>
+      <c r="Q8" s="2" t="inlineStr"/>
+      <c r="R8" s="2" t="inlineStr"/>
+      <c r="S8" s="2" t="inlineStr"/>
       <c r="T8" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U8" s="2" t="n"/>
-      <c r="V8" s="2" t="n"/>
+      <c r="U8" s="2" t="inlineStr"/>
+      <c r="V8" s="2" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
@@ -912,33 +928,33 @@
           <t>attribute of location [BCIO:026003]</t>
         </is>
       </c>
-      <c r="D9" s="2" t="n"/>
-      <c r="E9" s="2" t="n"/>
-      <c r="F9" s="2" t="n"/>
-      <c r="G9" s="2" t="n"/>
-      <c r="H9" s="2" t="n"/>
-      <c r="I9" s="2" t="n"/>
-      <c r="J9" s="2" t="n"/>
-      <c r="K9" s="2" t="n"/>
-      <c r="L9" s="2" t="n"/>
+      <c r="D9" s="2" t="inlineStr"/>
+      <c r="E9" s="2" t="inlineStr"/>
+      <c r="F9" s="2" t="inlineStr"/>
+      <c r="G9" s="2" t="inlineStr"/>
+      <c r="H9" s="2" t="inlineStr"/>
+      <c r="I9" s="2" t="inlineStr"/>
+      <c r="J9" s="2" t="inlineStr"/>
+      <c r="K9" s="2" t="inlineStr"/>
+      <c r="L9" s="2" t="inlineStr"/>
       <c r="M9" s="2" t="inlineStr">
         <is>
           <t>An attribute of location describing the density of an area, in terms of people and resources within it.</t>
         </is>
       </c>
-      <c r="N9" s="2" t="n"/>
-      <c r="O9" s="2" t="n"/>
-      <c r="P9" s="2" t="n"/>
-      <c r="Q9" s="2" t="n"/>
-      <c r="R9" s="2" t="n"/>
-      <c r="S9" s="2" t="n"/>
+      <c r="N9" s="2" t="inlineStr"/>
+      <c r="O9" s="2" t="inlineStr"/>
+      <c r="P9" s="2" t="inlineStr"/>
+      <c r="Q9" s="2" t="inlineStr"/>
+      <c r="R9" s="2" t="inlineStr"/>
+      <c r="S9" s="2" t="inlineStr"/>
       <c r="T9" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U9" s="2" t="n"/>
-      <c r="V9" s="2" t="n"/>
+      <c r="U9" s="2" t="inlineStr"/>
+      <c r="V9" s="2" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -956,6 +972,15 @@
           <t>population and resource density [BCIO:026007]</t>
         </is>
       </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr">
         <is>
           <t>An area which is outside of a town, city, or urban area. Rural areas are primarily used for agriculture or pastoralism and may contain rural settlements</t>
@@ -971,11 +996,17 @@
           <t>Environment Ontology</t>
         </is>
       </c>
+      <c r="P10" t="inlineStr"/>
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr"/>
+      <c r="S10" t="inlineStr"/>
       <c r="T10" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
+      <c r="U10" t="inlineStr"/>
+      <c r="V10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
@@ -993,33 +1024,33 @@
           <t>population and resource density [BCIO:026007]</t>
         </is>
       </c>
-      <c r="D11" s="2" t="n"/>
-      <c r="E11" s="2" t="n"/>
-      <c r="F11" s="2" t="n"/>
-      <c r="G11" s="2" t="n"/>
-      <c r="H11" s="2" t="n"/>
-      <c r="I11" s="2" t="n"/>
-      <c r="J11" s="2" t="n"/>
-      <c r="K11" s="2" t="n"/>
-      <c r="L11" s="2" t="n"/>
+      <c r="D11" s="2" t="inlineStr"/>
+      <c r="E11" s="2" t="inlineStr"/>
+      <c r="F11" s="2" t="inlineStr"/>
+      <c r="G11" s="2" t="inlineStr"/>
+      <c r="H11" s="2" t="inlineStr"/>
+      <c r="I11" s="2" t="inlineStr"/>
+      <c r="J11" s="2" t="inlineStr"/>
+      <c r="K11" s="2" t="inlineStr"/>
+      <c r="L11" s="2" t="inlineStr"/>
       <c r="M11" s="2" t="inlineStr">
         <is>
           <t>An area on the edge of a large town or city where a proportion of those who work in the town or city live.</t>
         </is>
       </c>
-      <c r="N11" s="2" t="n"/>
-      <c r="O11" s="2" t="n"/>
-      <c r="P11" s="2" t="n"/>
-      <c r="Q11" s="2" t="n"/>
-      <c r="R11" s="2" t="n"/>
-      <c r="S11" s="2" t="n"/>
+      <c r="N11" s="2" t="inlineStr"/>
+      <c r="O11" s="2" t="inlineStr"/>
+      <c r="P11" s="2" t="inlineStr"/>
+      <c r="Q11" s="2" t="inlineStr"/>
+      <c r="R11" s="2" t="inlineStr"/>
+      <c r="S11" s="2" t="inlineStr"/>
       <c r="T11" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U11" s="2" t="n"/>
-      <c r="V11" s="2" t="n"/>
+      <c r="U11" s="2" t="inlineStr"/>
+      <c r="V11" s="2" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1037,6 +1068,15 @@
           <t>population and resource density [BCIO:026007]</t>
         </is>
       </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr">
         <is>
           <t>Incorporated populated place</t>
@@ -1052,11 +1092,17 @@
           <t>Environment Ontology</t>
         </is>
       </c>
+      <c r="P12" t="inlineStr"/>
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr"/>
+      <c r="S12" t="inlineStr"/>
       <c r="T12" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
+      <c r="U12" t="inlineStr"/>
+      <c r="V12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1074,6 +1120,15 @@
           <t>Behaviour change intervention physical setting [BCIO:026000]</t>
         </is>
       </c>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr">
         <is>
           <t>A three-dimensional immaterial entity that is (partially or wholly) bounded by a material entity or it is a three-dimensional immaterial part thereof.</t>
@@ -1089,11 +1144,17 @@
           <t>Basic Formal Ontology</t>
         </is>
       </c>
+      <c r="P13" t="inlineStr"/>
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr"/>
+      <c r="S13" t="inlineStr"/>
       <c r="T13" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
+      <c r="U13" t="inlineStr"/>
+      <c r="V13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1111,6 +1172,15 @@
           <t>site [BFO:0000029]</t>
         </is>
       </c>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr">
         <is>
           <t>An architectural structure that bears some function3</t>
@@ -1126,11 +1196,17 @@
           <t>Ontology of Medically Related Social Entities</t>
         </is>
       </c>
+      <c r="P14" t="inlineStr"/>
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr"/>
+      <c r="S14" t="inlineStr"/>
       <c r="T14" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
+      <c r="U14" t="inlineStr"/>
+      <c r="V14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1148,6 +1224,15 @@
           <t>facility [OMRSE:00000062]</t>
         </is>
       </c>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr">
         <is>
           <t>A facility that has at least one housing unit as part in which a person or persons live</t>
@@ -1163,11 +1248,17 @@
           <t>Ontology of Medically Related Social Entities; contacted ontology authors to add definition</t>
         </is>
       </c>
+      <c r="P15" t="inlineStr"/>
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="inlineStr"/>
+      <c r="S15" t="inlineStr"/>
       <c r="T15" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
+      <c r="U15" t="inlineStr"/>
+      <c r="V15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
@@ -1185,33 +1276,33 @@
           <t>residential facility [OMRSE:00000191]</t>
         </is>
       </c>
-      <c r="D16" s="2" t="n"/>
-      <c r="E16" s="2" t="n"/>
-      <c r="F16" s="2" t="n"/>
-      <c r="G16" s="2" t="n"/>
-      <c r="H16" s="2" t="n"/>
-      <c r="I16" s="2" t="n"/>
-      <c r="J16" s="2" t="n"/>
-      <c r="K16" s="2" t="n"/>
-      <c r="L16" s="2" t="n"/>
+      <c r="D16" s="2" t="inlineStr"/>
+      <c r="E16" s="2" t="inlineStr"/>
+      <c r="F16" s="2" t="inlineStr"/>
+      <c r="G16" s="2" t="inlineStr"/>
+      <c r="H16" s="2" t="inlineStr"/>
+      <c r="I16" s="2" t="inlineStr"/>
+      <c r="J16" s="2" t="inlineStr"/>
+      <c r="K16" s="2" t="inlineStr"/>
+      <c r="L16" s="2" t="inlineStr"/>
       <c r="M16" s="2" t="inlineStr">
         <is>
           <t>A facility where an individual is living alone or with one or more person. The individuals do not have to be related.</t>
         </is>
       </c>
-      <c r="N16" s="2" t="n"/>
-      <c r="O16" s="2" t="n"/>
-      <c r="P16" s="2" t="n"/>
-      <c r="Q16" s="2" t="n"/>
-      <c r="R16" s="2" t="n"/>
-      <c r="S16" s="2" t="n"/>
+      <c r="N16" s="2" t="inlineStr"/>
+      <c r="O16" s="2" t="inlineStr"/>
+      <c r="P16" s="2" t="inlineStr"/>
+      <c r="Q16" s="2" t="inlineStr"/>
+      <c r="R16" s="2" t="inlineStr"/>
+      <c r="S16" s="2" t="inlineStr"/>
       <c r="T16" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U16" s="2" t="n"/>
-      <c r="V16" s="2" t="n"/>
+      <c r="U16" s="2" t="inlineStr"/>
+      <c r="V16" s="2" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="2" t="inlineStr">
@@ -1229,37 +1320,37 @@
           <t>residential facility [OMRSE:00000191]</t>
         </is>
       </c>
-      <c r="D17" s="2" t="n"/>
-      <c r="E17" s="2" t="n"/>
-      <c r="F17" s="2" t="n"/>
-      <c r="G17" s="2" t="n"/>
-      <c r="H17" s="2" t="n"/>
-      <c r="I17" s="2" t="n"/>
-      <c r="J17" s="2" t="n"/>
-      <c r="K17" s="2" t="n"/>
-      <c r="L17" s="2" t="n"/>
+      <c r="D17" s="2" t="inlineStr"/>
+      <c r="E17" s="2" t="inlineStr"/>
+      <c r="F17" s="2" t="inlineStr"/>
+      <c r="G17" s="2" t="inlineStr"/>
+      <c r="H17" s="2" t="inlineStr"/>
+      <c r="I17" s="2" t="inlineStr"/>
+      <c r="J17" s="2" t="inlineStr"/>
+      <c r="K17" s="2" t="inlineStr"/>
+      <c r="L17" s="2" t="inlineStr"/>
       <c r="M17" s="2" t="inlineStr">
         <is>
           <t>A facility where an individual lives with many others that may be collected according to a social structure such as education or disability.</t>
         </is>
       </c>
-      <c r="N17" s="2" t="n"/>
-      <c r="O17" s="2" t="n"/>
+      <c r="N17" s="2" t="inlineStr"/>
+      <c r="O17" s="2" t="inlineStr"/>
       <c r="P17" s="2" t="inlineStr">
         <is>
           <t>bedsit</t>
         </is>
       </c>
-      <c r="Q17" s="2" t="n"/>
-      <c r="R17" s="2" t="n"/>
-      <c r="S17" s="2" t="n"/>
+      <c r="Q17" s="2" t="inlineStr"/>
+      <c r="R17" s="2" t="inlineStr"/>
+      <c r="S17" s="2" t="inlineStr"/>
       <c r="T17" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U17" s="2" t="n"/>
-      <c r="V17" s="2" t="n"/>
+      <c r="U17" s="2" t="inlineStr"/>
+      <c r="V17" s="2" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
@@ -1277,37 +1368,37 @@
           <t>multiple occupancy residence [BCIO:026010]</t>
         </is>
       </c>
-      <c r="D18" s="2" t="n"/>
-      <c r="E18" s="2" t="n"/>
-      <c r="F18" s="2" t="n"/>
-      <c r="G18" s="2" t="n"/>
-      <c r="H18" s="2" t="n"/>
-      <c r="I18" s="2" t="n"/>
-      <c r="J18" s="2" t="n"/>
-      <c r="K18" s="2" t="n"/>
-      <c r="L18" s="2" t="n"/>
+      <c r="D18" s="2" t="inlineStr"/>
+      <c r="E18" s="2" t="inlineStr"/>
+      <c r="F18" s="2" t="inlineStr"/>
+      <c r="G18" s="2" t="inlineStr"/>
+      <c r="H18" s="2" t="inlineStr"/>
+      <c r="I18" s="2" t="inlineStr"/>
+      <c r="J18" s="2" t="inlineStr"/>
+      <c r="K18" s="2" t="inlineStr"/>
+      <c r="L18" s="2" t="inlineStr"/>
       <c r="M18" s="2" t="inlineStr">
         <is>
           <t>A multiple occupancy residence where many students live.</t>
         </is>
       </c>
-      <c r="N18" s="2" t="n"/>
-      <c r="O18" s="2" t="n"/>
+      <c r="N18" s="2" t="inlineStr"/>
+      <c r="O18" s="2" t="inlineStr"/>
       <c r="P18" s="2" t="inlineStr">
         <is>
           <t>student hall</t>
         </is>
       </c>
-      <c r="Q18" s="2" t="n"/>
-      <c r="R18" s="2" t="n"/>
-      <c r="S18" s="2" t="n"/>
+      <c r="Q18" s="2" t="inlineStr"/>
+      <c r="R18" s="2" t="inlineStr"/>
+      <c r="S18" s="2" t="inlineStr"/>
       <c r="T18" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U18" s="2" t="n"/>
-      <c r="V18" s="2" t="n"/>
+      <c r="U18" s="2" t="inlineStr"/>
+      <c r="V18" s="2" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
@@ -1325,37 +1416,37 @@
           <t>multiple occupancy residence [BCIO:026010]</t>
         </is>
       </c>
-      <c r="D19" s="2" t="n"/>
-      <c r="E19" s="2" t="n"/>
-      <c r="F19" s="2" t="n"/>
-      <c r="G19" s="2" t="n"/>
-      <c r="H19" s="2" t="n"/>
-      <c r="I19" s="2" t="n"/>
-      <c r="J19" s="2" t="n"/>
-      <c r="K19" s="2" t="n"/>
-      <c r="L19" s="2" t="n"/>
+      <c r="D19" s="2" t="inlineStr"/>
+      <c r="E19" s="2" t="inlineStr"/>
+      <c r="F19" s="2" t="inlineStr"/>
+      <c r="G19" s="2" t="inlineStr"/>
+      <c r="H19" s="2" t="inlineStr"/>
+      <c r="I19" s="2" t="inlineStr"/>
+      <c r="J19" s="2" t="inlineStr"/>
+      <c r="K19" s="2" t="inlineStr"/>
+      <c r="L19" s="2" t="inlineStr"/>
       <c r="M19" s="2" t="inlineStr">
         <is>
           <t>A multiple occupancy residence where multiple vulnerable people live</t>
         </is>
       </c>
-      <c r="N19" s="2" t="n"/>
-      <c r="O19" s="2" t="n"/>
+      <c r="N19" s="2" t="inlineStr"/>
+      <c r="O19" s="2" t="inlineStr"/>
       <c r="P19" s="2" t="inlineStr">
         <is>
           <t>retirement home</t>
         </is>
       </c>
-      <c r="Q19" s="2" t="n"/>
-      <c r="R19" s="2" t="n"/>
-      <c r="S19" s="2" t="n"/>
+      <c r="Q19" s="2" t="inlineStr"/>
+      <c r="R19" s="2" t="inlineStr"/>
+      <c r="S19" s="2" t="inlineStr"/>
       <c r="T19" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U19" s="2" t="n"/>
-      <c r="V19" s="2" t="n"/>
+      <c r="U19" s="2" t="inlineStr"/>
+      <c r="V19" s="2" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
@@ -1373,37 +1464,37 @@
           <t>residential facility [OMRSE:00000191]</t>
         </is>
       </c>
-      <c r="D20" s="2" t="n"/>
-      <c r="E20" s="2" t="n"/>
-      <c r="F20" s="2" t="n"/>
-      <c r="G20" s="2" t="n"/>
-      <c r="H20" s="2" t="n"/>
-      <c r="I20" s="2" t="n"/>
-      <c r="J20" s="2" t="n"/>
-      <c r="K20" s="2" t="n"/>
-      <c r="L20" s="2" t="n"/>
+      <c r="D20" s="2" t="inlineStr"/>
+      <c r="E20" s="2" t="inlineStr"/>
+      <c r="F20" s="2" t="inlineStr"/>
+      <c r="G20" s="2" t="inlineStr"/>
+      <c r="H20" s="2" t="inlineStr"/>
+      <c r="I20" s="2" t="inlineStr"/>
+      <c r="J20" s="2" t="inlineStr"/>
+      <c r="K20" s="2" t="inlineStr"/>
+      <c r="L20" s="2" t="inlineStr"/>
       <c r="M20" s="2" t="inlineStr">
         <is>
           <t>A residential facility where an individual is living that is not stable and secure.</t>
         </is>
       </c>
-      <c r="N20" s="2" t="n"/>
-      <c r="O20" s="2" t="n"/>
+      <c r="N20" s="2" t="inlineStr"/>
+      <c r="O20" s="2" t="inlineStr"/>
       <c r="P20" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">an architectural structure for which an individual does not have a legal right to stay </t>
         </is>
       </c>
-      <c r="Q20" s="2" t="n"/>
-      <c r="R20" s="2" t="n"/>
-      <c r="S20" s="2" t="n"/>
+      <c r="Q20" s="2" t="inlineStr"/>
+      <c r="R20" s="2" t="inlineStr"/>
+      <c r="S20" s="2" t="inlineStr"/>
       <c r="T20" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U20" s="2" t="n"/>
-      <c r="V20" s="2" t="n"/>
+      <c r="U20" s="2" t="inlineStr"/>
+      <c r="V20" s="2" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="2" t="inlineStr">
@@ -1421,37 +1512,37 @@
           <t>residential facility [OMRSE:00000191]</t>
         </is>
       </c>
-      <c r="D21" s="2" t="n"/>
-      <c r="E21" s="2" t="n"/>
-      <c r="F21" s="2" t="n"/>
-      <c r="G21" s="2" t="n"/>
-      <c r="H21" s="2" t="n"/>
-      <c r="I21" s="2" t="n"/>
-      <c r="J21" s="2" t="n"/>
-      <c r="K21" s="2" t="n"/>
-      <c r="L21" s="2" t="n"/>
+      <c r="D21" s="2" t="inlineStr"/>
+      <c r="E21" s="2" t="inlineStr"/>
+      <c r="F21" s="2" t="inlineStr"/>
+      <c r="G21" s="2" t="inlineStr"/>
+      <c r="H21" s="2" t="inlineStr"/>
+      <c r="I21" s="2" t="inlineStr"/>
+      <c r="J21" s="2" t="inlineStr"/>
+      <c r="K21" s="2" t="inlineStr"/>
+      <c r="L21" s="2" t="inlineStr"/>
       <c r="M21" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">A residential facility where individuals are in a transitional state of housing and not staying for a prolonged period. </t>
         </is>
       </c>
-      <c r="N21" s="2" t="n"/>
-      <c r="O21" s="2" t="n"/>
+      <c r="N21" s="2" t="inlineStr"/>
+      <c r="O21" s="2" t="inlineStr"/>
       <c r="P21" s="2" t="inlineStr">
         <is>
           <t>Hostels; BandB; emergency accomnodation</t>
         </is>
       </c>
-      <c r="Q21" s="2" t="n"/>
-      <c r="R21" s="2" t="n"/>
-      <c r="S21" s="2" t="n"/>
+      <c r="Q21" s="2" t="inlineStr"/>
+      <c r="R21" s="2" t="inlineStr"/>
+      <c r="S21" s="2" t="inlineStr"/>
       <c r="T21" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U21" s="2" t="n"/>
-      <c r="V21" s="2" t="n"/>
+      <c r="U21" s="2" t="inlineStr"/>
+      <c r="V21" s="2" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1469,6 +1560,15 @@
           <t>facility [OMRSE:00000062]</t>
         </is>
       </c>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr">
         <is>
           <t>A facility that’s administered by a health care organisation for the purpose of providing health care to a patient population</t>
@@ -1484,11 +1584,17 @@
           <t>Ontology of Medically Related Social Entities</t>
         </is>
       </c>
+      <c r="P22" t="inlineStr"/>
+      <c r="Q22" t="inlineStr"/>
+      <c r="R22" t="inlineStr"/>
+      <c r="S22" t="inlineStr"/>
       <c r="T22" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
+      <c r="U22" t="inlineStr"/>
+      <c r="V22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1506,6 +1612,15 @@
           <t>healthcare facility [OMRSE:00000102]</t>
         </is>
       </c>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr">
         <is>
           <t>A facility that is run by a hospital organization, such as emergency departments, outpatient clinics and rehabilitation and is the bearer of a hospital function</t>
@@ -1521,11 +1636,17 @@
           <t>Ontology of Medically Related Social Entities</t>
         </is>
       </c>
+      <c r="P23" t="inlineStr"/>
+      <c r="Q23" t="inlineStr"/>
+      <c r="R23" t="inlineStr"/>
+      <c r="S23" t="inlineStr"/>
       <c r="T23" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
+      <c r="U23" t="inlineStr"/>
+      <c r="V23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1543,6 +1664,15 @@
           <t>hospital facility [OMRSE:00000063]</t>
         </is>
       </c>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr">
         <is>
           <t>A health care facility that bears a function to provide emergency healthcare services and the acute care of patients who present without prior appointment, having arrived either by their own means or by ambulance</t>
@@ -1558,11 +1688,17 @@
           <t>OMRSE_00000114</t>
         </is>
       </c>
+      <c r="P24" t="inlineStr"/>
+      <c r="Q24" t="inlineStr"/>
+      <c r="R24" t="inlineStr"/>
+      <c r="S24" t="inlineStr"/>
       <c r="T24" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
+      <c r="U24" t="inlineStr"/>
+      <c r="V24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="2" t="inlineStr">
@@ -1580,33 +1716,33 @@
           <t>hospital facility [OMRSE:00000063]</t>
         </is>
       </c>
-      <c r="D25" s="2" t="n"/>
-      <c r="E25" s="2" t="n"/>
-      <c r="F25" s="2" t="n"/>
-      <c r="G25" s="2" t="n"/>
-      <c r="H25" s="2" t="n"/>
-      <c r="I25" s="2" t="n"/>
-      <c r="J25" s="2" t="n"/>
-      <c r="K25" s="2" t="n"/>
-      <c r="L25" s="2" t="n"/>
+      <c r="D25" s="2" t="inlineStr"/>
+      <c r="E25" s="2" t="inlineStr"/>
+      <c r="F25" s="2" t="inlineStr"/>
+      <c r="G25" s="2" t="inlineStr"/>
+      <c r="H25" s="2" t="inlineStr"/>
+      <c r="I25" s="2" t="inlineStr"/>
+      <c r="J25" s="2" t="inlineStr"/>
+      <c r="K25" s="2" t="inlineStr"/>
+      <c r="L25" s="2" t="inlineStr"/>
       <c r="M25" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">A hospital facility to treat patients without them staying overnight, often after a hospital visit. </t>
         </is>
       </c>
-      <c r="N25" s="2" t="n"/>
-      <c r="O25" s="2" t="n"/>
-      <c r="P25" s="2" t="n"/>
-      <c r="Q25" s="2" t="n"/>
-      <c r="R25" s="2" t="n"/>
-      <c r="S25" s="2" t="n"/>
+      <c r="N25" s="2" t="inlineStr"/>
+      <c r="O25" s="2" t="inlineStr"/>
+      <c r="P25" s="2" t="inlineStr"/>
+      <c r="Q25" s="2" t="inlineStr"/>
+      <c r="R25" s="2" t="inlineStr"/>
+      <c r="S25" s="2" t="inlineStr"/>
       <c r="T25" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U25" s="2" t="n"/>
-      <c r="V25" s="2" t="n"/>
+      <c r="U25" s="2" t="inlineStr"/>
+      <c r="V25" s="2" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="2" t="inlineStr">
@@ -1624,37 +1760,37 @@
           <t>healthcare facility [OMRSE:00000102]</t>
         </is>
       </c>
-      <c r="D26" s="2" t="n"/>
-      <c r="E26" s="2" t="n"/>
-      <c r="F26" s="2" t="n"/>
-      <c r="G26" s="2" t="n"/>
-      <c r="H26" s="2" t="n"/>
-      <c r="I26" s="2" t="n"/>
-      <c r="J26" s="2" t="n"/>
-      <c r="K26" s="2" t="n"/>
-      <c r="L26" s="2" t="n"/>
+      <c r="D26" s="2" t="inlineStr"/>
+      <c r="E26" s="2" t="inlineStr"/>
+      <c r="F26" s="2" t="inlineStr"/>
+      <c r="G26" s="2" t="inlineStr"/>
+      <c r="H26" s="2" t="inlineStr"/>
+      <c r="I26" s="2" t="inlineStr"/>
+      <c r="J26" s="2" t="inlineStr"/>
+      <c r="K26" s="2" t="inlineStr"/>
+      <c r="L26" s="2" t="inlineStr"/>
       <c r="M26" s="2" t="inlineStr">
         <is>
           <t>A healthcare facility led by doctors.</t>
         </is>
       </c>
-      <c r="N26" s="2" t="n"/>
-      <c r="O26" s="2" t="n"/>
+      <c r="N26" s="2" t="inlineStr"/>
+      <c r="O26" s="2" t="inlineStr"/>
       <c r="P26" s="2" t="inlineStr">
         <is>
           <t>general practitioners surgery; doctor surgery</t>
         </is>
       </c>
-      <c r="Q26" s="2" t="n"/>
-      <c r="R26" s="2" t="n"/>
-      <c r="S26" s="2" t="n"/>
+      <c r="Q26" s="2" t="inlineStr"/>
+      <c r="R26" s="2" t="inlineStr"/>
+      <c r="S26" s="2" t="inlineStr"/>
       <c r="T26" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U26" s="2" t="n"/>
-      <c r="V26" s="2" t="n"/>
+      <c r="U26" s="2" t="inlineStr"/>
+      <c r="V26" s="2" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="2" t="inlineStr">
@@ -1672,33 +1808,33 @@
           <t>healthcare facility [OMRSE:00000102]</t>
         </is>
       </c>
-      <c r="D27" s="2" t="n"/>
-      <c r="E27" s="2" t="n"/>
-      <c r="F27" s="2" t="n"/>
-      <c r="G27" s="2" t="n"/>
-      <c r="H27" s="2" t="n"/>
-      <c r="I27" s="2" t="n"/>
-      <c r="J27" s="2" t="n"/>
-      <c r="K27" s="2" t="n"/>
-      <c r="L27" s="2" t="n"/>
+      <c r="D27" s="2" t="inlineStr"/>
+      <c r="E27" s="2" t="inlineStr"/>
+      <c r="F27" s="2" t="inlineStr"/>
+      <c r="G27" s="2" t="inlineStr"/>
+      <c r="H27" s="2" t="inlineStr"/>
+      <c r="I27" s="2" t="inlineStr"/>
+      <c r="J27" s="2" t="inlineStr"/>
+      <c r="K27" s="2" t="inlineStr"/>
+      <c r="L27" s="2" t="inlineStr"/>
       <c r="M27" s="2" t="inlineStr">
         <is>
           <t>A healthcare facility that is run by a care home organization and is the bearer of a care home function.</t>
         </is>
       </c>
-      <c r="N27" s="2" t="n"/>
-      <c r="O27" s="2" t="n"/>
-      <c r="P27" s="2" t="n"/>
-      <c r="Q27" s="2" t="n"/>
-      <c r="R27" s="2" t="n"/>
-      <c r="S27" s="2" t="n"/>
+      <c r="N27" s="2" t="inlineStr"/>
+      <c r="O27" s="2" t="inlineStr"/>
+      <c r="P27" s="2" t="inlineStr"/>
+      <c r="Q27" s="2" t="inlineStr"/>
+      <c r="R27" s="2" t="inlineStr"/>
+      <c r="S27" s="2" t="inlineStr"/>
       <c r="T27" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U27" s="2" t="n"/>
-      <c r="V27" s="2" t="n"/>
+      <c r="U27" s="2" t="inlineStr"/>
+      <c r="V27" s="2" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1716,6 +1852,15 @@
           <t>healthcare facility [OMRSE:00000102]</t>
         </is>
       </c>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="inlineStr">
         <is>
           <t>A health care facility that bears a function to provide healthcare to the sick or terminally ill</t>
@@ -1731,11 +1876,17 @@
           <t>Ontology of Medically Related Social Entities; contacted ontology authors to add definition</t>
         </is>
       </c>
+      <c r="P28" t="inlineStr"/>
+      <c r="Q28" t="inlineStr"/>
+      <c r="R28" t="inlineStr"/>
+      <c r="S28" t="inlineStr"/>
       <c r="T28" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
+      <c r="U28" t="inlineStr"/>
+      <c r="V28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1753,6 +1904,15 @@
           <t>healthcare facility [OMRSE:00000102]</t>
         </is>
       </c>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="inlineStr">
         <is>
           <t>A health care facility whose function is to store, prepare, dispense, and monitor the usage of pharmaceutical drugs among patients in a given area or encountered in a given health care provider organization</t>
@@ -1768,11 +1928,17 @@
           <t>The Prescription of Drugs Ontology</t>
         </is>
       </c>
+      <c r="P29" t="inlineStr"/>
+      <c r="Q29" t="inlineStr"/>
+      <c r="R29" t="inlineStr"/>
+      <c r="S29" t="inlineStr"/>
       <c r="T29" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
+      <c r="U29" t="inlineStr"/>
+      <c r="V29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1790,6 +1956,15 @@
           <t>healthcare facility [OMRSE:00000102]</t>
         </is>
       </c>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr">
         <is>
           <t>A facility to assist in physical or addiction recovery</t>
@@ -1805,11 +1980,17 @@
           <t>Ontology of Medically Related Social Entities; contacted ontology authors to add definition</t>
         </is>
       </c>
+      <c r="P30" t="inlineStr"/>
+      <c r="Q30" t="inlineStr"/>
+      <c r="R30" t="inlineStr"/>
+      <c r="S30" t="inlineStr"/>
       <c r="T30" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
+      <c r="U30" t="inlineStr"/>
+      <c r="V30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="2" t="inlineStr">
@@ -1827,33 +2008,33 @@
           <t>rehabilitation facility [OMRSE:00000106]</t>
         </is>
       </c>
-      <c r="D31" s="2" t="n"/>
-      <c r="E31" s="2" t="n"/>
-      <c r="F31" s="2" t="n"/>
-      <c r="G31" s="2" t="n"/>
-      <c r="H31" s="2" t="n"/>
-      <c r="I31" s="2" t="n"/>
-      <c r="J31" s="2" t="n"/>
-      <c r="K31" s="2" t="n"/>
-      <c r="L31" s="2" t="n"/>
+      <c r="D31" s="2" t="inlineStr"/>
+      <c r="E31" s="2" t="inlineStr"/>
+      <c r="F31" s="2" t="inlineStr"/>
+      <c r="G31" s="2" t="inlineStr"/>
+      <c r="H31" s="2" t="inlineStr"/>
+      <c r="I31" s="2" t="inlineStr"/>
+      <c r="J31" s="2" t="inlineStr"/>
+      <c r="K31" s="2" t="inlineStr"/>
+      <c r="L31" s="2" t="inlineStr"/>
       <c r="M31" s="2" t="inlineStr">
         <is>
           <t>A rehabilitation facility to assist the recovery of people with drug or alcohol addiction.</t>
         </is>
       </c>
-      <c r="N31" s="2" t="n"/>
-      <c r="O31" s="2" t="n"/>
-      <c r="P31" s="2" t="n"/>
-      <c r="Q31" s="2" t="n"/>
-      <c r="R31" s="2" t="n"/>
-      <c r="S31" s="2" t="n"/>
+      <c r="N31" s="2" t="inlineStr"/>
+      <c r="O31" s="2" t="inlineStr"/>
+      <c r="P31" s="2" t="inlineStr"/>
+      <c r="Q31" s="2" t="inlineStr"/>
+      <c r="R31" s="2" t="inlineStr"/>
+      <c r="S31" s="2" t="inlineStr"/>
       <c r="T31" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U31" s="2" t="n"/>
-      <c r="V31" s="2" t="n"/>
+      <c r="U31" s="2" t="inlineStr"/>
+      <c r="V31" s="2" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="2" t="inlineStr">
@@ -1871,15 +2052,15 @@
           <t>healthcare facility [OMRSE:00000102]</t>
         </is>
       </c>
-      <c r="D32" s="2" t="n"/>
-      <c r="E32" s="2" t="n"/>
-      <c r="F32" s="2" t="n"/>
-      <c r="G32" s="2" t="n"/>
-      <c r="H32" s="2" t="n"/>
-      <c r="I32" s="2" t="n"/>
-      <c r="J32" s="2" t="n"/>
-      <c r="K32" s="2" t="n"/>
-      <c r="L32" s="2" t="n"/>
+      <c r="D32" s="2" t="inlineStr"/>
+      <c r="E32" s="2" t="inlineStr"/>
+      <c r="F32" s="2" t="inlineStr"/>
+      <c r="G32" s="2" t="inlineStr"/>
+      <c r="H32" s="2" t="inlineStr"/>
+      <c r="I32" s="2" t="inlineStr"/>
+      <c r="J32" s="2" t="inlineStr"/>
+      <c r="K32" s="2" t="inlineStr"/>
+      <c r="L32" s="2" t="inlineStr"/>
       <c r="M32" s="2" t="inlineStr">
         <is>
           <t>A place designed and staffed to house and treat individuals that need assistance with mental dysfunctions</t>
@@ -1895,17 +2076,17 @@
           <t>NCI Thesaurus OBO Edition</t>
         </is>
       </c>
-      <c r="P32" s="2" t="n"/>
-      <c r="Q32" s="2" t="n"/>
-      <c r="R32" s="2" t="n"/>
-      <c r="S32" s="2" t="n"/>
+      <c r="P32" s="2" t="inlineStr"/>
+      <c r="Q32" s="2" t="inlineStr"/>
+      <c r="R32" s="2" t="inlineStr"/>
+      <c r="S32" s="2" t="inlineStr"/>
       <c r="T32" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U32" s="2" t="n"/>
-      <c r="V32" s="2" t="n"/>
+      <c r="U32" s="2" t="inlineStr"/>
+      <c r="V32" s="2" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="2" t="inlineStr">
@@ -1923,37 +2104,37 @@
           <t>healthcare facility [OMRSE:00000102]</t>
         </is>
       </c>
-      <c r="D33" s="2" t="n"/>
-      <c r="E33" s="2" t="n"/>
-      <c r="F33" s="2" t="n"/>
-      <c r="G33" s="2" t="n"/>
-      <c r="H33" s="2" t="n"/>
-      <c r="I33" s="2" t="n"/>
-      <c r="J33" s="2" t="n"/>
-      <c r="K33" s="2" t="n"/>
-      <c r="L33" s="2" t="n"/>
+      <c r="D33" s="2" t="inlineStr"/>
+      <c r="E33" s="2" t="inlineStr"/>
+      <c r="F33" s="2" t="inlineStr"/>
+      <c r="G33" s="2" t="inlineStr"/>
+      <c r="H33" s="2" t="inlineStr"/>
+      <c r="I33" s="2" t="inlineStr"/>
+      <c r="J33" s="2" t="inlineStr"/>
+      <c r="K33" s="2" t="inlineStr"/>
+      <c r="L33" s="2" t="inlineStr"/>
       <c r="M33" s="2" t="inlineStr">
         <is>
           <t>A clinic providing healthcare services to people in a certain area</t>
         </is>
       </c>
-      <c r="N33" s="2" t="n"/>
-      <c r="O33" s="2" t="n"/>
+      <c r="N33" s="2" t="inlineStr"/>
+      <c r="O33" s="2" t="inlineStr"/>
       <c r="P33" s="2" t="inlineStr">
         <is>
           <t>polyclinic</t>
         </is>
       </c>
-      <c r="Q33" s="2" t="n"/>
-      <c r="R33" s="2" t="n"/>
-      <c r="S33" s="2" t="n"/>
+      <c r="Q33" s="2" t="inlineStr"/>
+      <c r="R33" s="2" t="inlineStr"/>
+      <c r="S33" s="2" t="inlineStr"/>
       <c r="T33" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U33" s="2" t="n"/>
-      <c r="V33" s="2" t="n"/>
+      <c r="U33" s="2" t="inlineStr"/>
+      <c r="V33" s="2" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="2" t="inlineStr">
@@ -1971,33 +2152,33 @@
           <t>community healthcare facility [BCIO:026019]</t>
         </is>
       </c>
-      <c r="D34" s="2" t="n"/>
-      <c r="E34" s="2" t="n"/>
-      <c r="F34" s="2" t="n"/>
-      <c r="G34" s="2" t="n"/>
-      <c r="H34" s="2" t="n"/>
-      <c r="I34" s="2" t="n"/>
-      <c r="J34" s="2" t="n"/>
-      <c r="K34" s="2" t="n"/>
-      <c r="L34" s="2" t="n"/>
+      <c r="D34" s="2" t="inlineStr"/>
+      <c r="E34" s="2" t="inlineStr"/>
+      <c r="F34" s="2" t="inlineStr"/>
+      <c r="G34" s="2" t="inlineStr"/>
+      <c r="H34" s="2" t="inlineStr"/>
+      <c r="I34" s="2" t="inlineStr"/>
+      <c r="J34" s="2" t="inlineStr"/>
+      <c r="K34" s="2" t="inlineStr"/>
+      <c r="L34" s="2" t="inlineStr"/>
       <c r="M34" s="2" t="inlineStr">
         <is>
           <t>A healthcare facility to treat patients in the community without them staying overnight.</t>
         </is>
       </c>
-      <c r="N34" s="2" t="n"/>
-      <c r="O34" s="2" t="n"/>
-      <c r="P34" s="2" t="n"/>
-      <c r="Q34" s="2" t="n"/>
-      <c r="R34" s="2" t="n"/>
-      <c r="S34" s="2" t="n"/>
+      <c r="N34" s="2" t="inlineStr"/>
+      <c r="O34" s="2" t="inlineStr"/>
+      <c r="P34" s="2" t="inlineStr"/>
+      <c r="Q34" s="2" t="inlineStr"/>
+      <c r="R34" s="2" t="inlineStr"/>
+      <c r="S34" s="2" t="inlineStr"/>
       <c r="T34" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U34" s="2" t="n"/>
-      <c r="V34" s="2" t="n"/>
+      <c r="U34" s="2" t="inlineStr"/>
+      <c r="V34" s="2" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="2" t="inlineStr">
@@ -2015,33 +2196,33 @@
           <t>healthcare facility [OMRSE:00000102]</t>
         </is>
       </c>
-      <c r="D35" s="2" t="n"/>
-      <c r="E35" s="2" t="n"/>
-      <c r="F35" s="2" t="n"/>
-      <c r="G35" s="2" t="n"/>
-      <c r="H35" s="2" t="n"/>
-      <c r="I35" s="2" t="n"/>
-      <c r="J35" s="2" t="n"/>
-      <c r="K35" s="2" t="n"/>
-      <c r="L35" s="2" t="n"/>
+      <c r="D35" s="2" t="inlineStr"/>
+      <c r="E35" s="2" t="inlineStr"/>
+      <c r="F35" s="2" t="inlineStr"/>
+      <c r="G35" s="2" t="inlineStr"/>
+      <c r="H35" s="2" t="inlineStr"/>
+      <c r="I35" s="2" t="inlineStr"/>
+      <c r="J35" s="2" t="inlineStr"/>
+      <c r="K35" s="2" t="inlineStr"/>
+      <c r="L35" s="2" t="inlineStr"/>
       <c r="M35" s="2" t="inlineStr">
         <is>
           <t>A healthcare facility where dental healthcare is provided.</t>
         </is>
       </c>
-      <c r="N35" s="2" t="n"/>
-      <c r="O35" s="2" t="n"/>
-      <c r="P35" s="2" t="n"/>
-      <c r="Q35" s="2" t="n"/>
-      <c r="R35" s="2" t="n"/>
-      <c r="S35" s="2" t="n"/>
+      <c r="N35" s="2" t="inlineStr"/>
+      <c r="O35" s="2" t="inlineStr"/>
+      <c r="P35" s="2" t="inlineStr"/>
+      <c r="Q35" s="2" t="inlineStr"/>
+      <c r="R35" s="2" t="inlineStr"/>
+      <c r="S35" s="2" t="inlineStr"/>
       <c r="T35" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U35" s="2" t="n"/>
-      <c r="V35" s="2" t="n"/>
+      <c r="U35" s="2" t="inlineStr"/>
+      <c r="V35" s="2" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="2" t="inlineStr">
@@ -2059,33 +2240,33 @@
           <t>facility [OMRSE:00000062]</t>
         </is>
       </c>
-      <c r="D36" s="2" t="n"/>
-      <c r="E36" s="2" t="n"/>
-      <c r="F36" s="2" t="n"/>
-      <c r="G36" s="2" t="n"/>
-      <c r="H36" s="2" t="n"/>
-      <c r="I36" s="2" t="n"/>
-      <c r="J36" s="2" t="n"/>
-      <c r="K36" s="2" t="n"/>
-      <c r="L36" s="2" t="n"/>
+      <c r="D36" s="2" t="inlineStr"/>
+      <c r="E36" s="2" t="inlineStr"/>
+      <c r="F36" s="2" t="inlineStr"/>
+      <c r="G36" s="2" t="inlineStr"/>
+      <c r="H36" s="2" t="inlineStr"/>
+      <c r="I36" s="2" t="inlineStr"/>
+      <c r="J36" s="2" t="inlineStr"/>
+      <c r="K36" s="2" t="inlineStr"/>
+      <c r="L36" s="2" t="inlineStr"/>
       <c r="M36" s="2" t="inlineStr">
         <is>
           <t>A facility in which formal education is provided to a student population.</t>
         </is>
       </c>
-      <c r="N36" s="2" t="n"/>
-      <c r="O36" s="2" t="n"/>
-      <c r="P36" s="2" t="n"/>
-      <c r="Q36" s="2" t="n"/>
-      <c r="R36" s="2" t="n"/>
-      <c r="S36" s="2" t="n"/>
+      <c r="N36" s="2" t="inlineStr"/>
+      <c r="O36" s="2" t="inlineStr"/>
+      <c r="P36" s="2" t="inlineStr"/>
+      <c r="Q36" s="2" t="inlineStr"/>
+      <c r="R36" s="2" t="inlineStr"/>
+      <c r="S36" s="2" t="inlineStr"/>
       <c r="T36" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U36" s="2" t="n"/>
-      <c r="V36" s="2" t="n"/>
+      <c r="U36" s="2" t="inlineStr"/>
+      <c r="V36" s="2" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="2" t="inlineStr">
@@ -2103,37 +2284,37 @@
           <t>educational facility [BCIO:026022]</t>
         </is>
       </c>
-      <c r="D37" s="2" t="n"/>
-      <c r="E37" s="2" t="n"/>
-      <c r="F37" s="2" t="n"/>
-      <c r="G37" s="2" t="n"/>
-      <c r="H37" s="2" t="n"/>
-      <c r="I37" s="2" t="n"/>
-      <c r="J37" s="2" t="n"/>
-      <c r="K37" s="2" t="n"/>
-      <c r="L37" s="2" t="n"/>
+      <c r="D37" s="2" t="inlineStr"/>
+      <c r="E37" s="2" t="inlineStr"/>
+      <c r="F37" s="2" t="inlineStr"/>
+      <c r="G37" s="2" t="inlineStr"/>
+      <c r="H37" s="2" t="inlineStr"/>
+      <c r="I37" s="2" t="inlineStr"/>
+      <c r="J37" s="2" t="inlineStr"/>
+      <c r="K37" s="2" t="inlineStr"/>
+      <c r="L37" s="2" t="inlineStr"/>
       <c r="M37" s="2" t="inlineStr">
         <is>
           <t>An educational facility in which pre-school education is provided.</t>
         </is>
       </c>
-      <c r="N37" s="2" t="n"/>
-      <c r="O37" s="2" t="n"/>
+      <c r="N37" s="2" t="inlineStr"/>
+      <c r="O37" s="2" t="inlineStr"/>
       <c r="P37" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">nursery school </t>
         </is>
       </c>
-      <c r="Q37" s="2" t="n"/>
-      <c r="R37" s="2" t="n"/>
-      <c r="S37" s="2" t="n"/>
+      <c r="Q37" s="2" t="inlineStr"/>
+      <c r="R37" s="2" t="inlineStr"/>
+      <c r="S37" s="2" t="inlineStr"/>
       <c r="T37" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U37" s="2" t="n"/>
-      <c r="V37" s="2" t="n"/>
+      <c r="U37" s="2" t="inlineStr"/>
+      <c r="V37" s="2" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -2151,6 +2332,15 @@
           <t>educational facility [BCIO:026022]</t>
         </is>
       </c>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="inlineStr">
         <is>
           <t>A facility that is run by a school organization and is the bearer of a school function</t>
@@ -2166,11 +2356,17 @@
           <t>Ontology of Medically Related Social Entities</t>
         </is>
       </c>
+      <c r="P38" t="inlineStr"/>
+      <c r="Q38" t="inlineStr"/>
+      <c r="R38" t="inlineStr"/>
+      <c r="S38" t="inlineStr"/>
       <c r="T38" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
+      <c r="U38" t="inlineStr"/>
+      <c r="V38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="2" t="inlineStr">
@@ -2188,33 +2384,33 @@
           <t>school facility [OMRSE:00000064]</t>
         </is>
       </c>
-      <c r="D39" s="2" t="n"/>
-      <c r="E39" s="2" t="n"/>
-      <c r="F39" s="2" t="n"/>
-      <c r="G39" s="2" t="n"/>
-      <c r="H39" s="2" t="n"/>
-      <c r="I39" s="2" t="n"/>
-      <c r="J39" s="2" t="n"/>
-      <c r="K39" s="2" t="n"/>
-      <c r="L39" s="2" t="n"/>
+      <c r="D39" s="2" t="inlineStr"/>
+      <c r="E39" s="2" t="inlineStr"/>
+      <c r="F39" s="2" t="inlineStr"/>
+      <c r="G39" s="2" t="inlineStr"/>
+      <c r="H39" s="2" t="inlineStr"/>
+      <c r="I39" s="2" t="inlineStr"/>
+      <c r="J39" s="2" t="inlineStr"/>
+      <c r="K39" s="2" t="inlineStr"/>
+      <c r="L39" s="2" t="inlineStr"/>
       <c r="M39" s="2" t="inlineStr">
         <is>
           <t>A school facility for younger children, typically aged between five and eleven.</t>
         </is>
       </c>
-      <c r="N39" s="2" t="n"/>
-      <c r="O39" s="2" t="n"/>
-      <c r="P39" s="2" t="n"/>
-      <c r="Q39" s="2" t="n"/>
-      <c r="R39" s="2" t="n"/>
-      <c r="S39" s="2" t="n"/>
+      <c r="N39" s="2" t="inlineStr"/>
+      <c r="O39" s="2" t="inlineStr"/>
+      <c r="P39" s="2" t="inlineStr"/>
+      <c r="Q39" s="2" t="inlineStr"/>
+      <c r="R39" s="2" t="inlineStr"/>
+      <c r="S39" s="2" t="inlineStr"/>
       <c r="T39" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U39" s="2" t="n"/>
-      <c r="V39" s="2" t="n"/>
+      <c r="U39" s="2" t="inlineStr"/>
+      <c r="V39" s="2" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="2" t="inlineStr">
@@ -2232,33 +2428,33 @@
           <t>school facility [OMRSE:00000064]</t>
         </is>
       </c>
-      <c r="D40" s="2" t="n"/>
-      <c r="E40" s="2" t="n"/>
-      <c r="F40" s="2" t="n"/>
-      <c r="G40" s="2" t="n"/>
-      <c r="H40" s="2" t="n"/>
-      <c r="I40" s="2" t="n"/>
-      <c r="J40" s="2" t="n"/>
-      <c r="K40" s="2" t="n"/>
-      <c r="L40" s="2" t="n"/>
+      <c r="D40" s="2" t="inlineStr"/>
+      <c r="E40" s="2" t="inlineStr"/>
+      <c r="F40" s="2" t="inlineStr"/>
+      <c r="G40" s="2" t="inlineStr"/>
+      <c r="H40" s="2" t="inlineStr"/>
+      <c r="I40" s="2" t="inlineStr"/>
+      <c r="J40" s="2" t="inlineStr"/>
+      <c r="K40" s="2" t="inlineStr"/>
+      <c r="L40" s="2" t="inlineStr"/>
       <c r="M40" s="2" t="inlineStr">
         <is>
           <t>A school facility providing education between primary and secondary school.</t>
         </is>
       </c>
-      <c r="N40" s="2" t="n"/>
-      <c r="O40" s="2" t="n"/>
-      <c r="P40" s="2" t="n"/>
-      <c r="Q40" s="2" t="n"/>
-      <c r="R40" s="2" t="n"/>
-      <c r="S40" s="2" t="n"/>
+      <c r="N40" s="2" t="inlineStr"/>
+      <c r="O40" s="2" t="inlineStr"/>
+      <c r="P40" s="2" t="inlineStr"/>
+      <c r="Q40" s="2" t="inlineStr"/>
+      <c r="R40" s="2" t="inlineStr"/>
+      <c r="S40" s="2" t="inlineStr"/>
       <c r="T40" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U40" s="2" t="n"/>
-      <c r="V40" s="2" t="n"/>
+      <c r="U40" s="2" t="inlineStr"/>
+      <c r="V40" s="2" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="2" t="inlineStr">
@@ -2276,37 +2472,37 @@
           <t>school facility [OMRSE:00000064]</t>
         </is>
       </c>
-      <c r="D41" s="2" t="n"/>
-      <c r="E41" s="2" t="n"/>
-      <c r="F41" s="2" t="n"/>
-      <c r="G41" s="2" t="n"/>
-      <c r="H41" s="2" t="n"/>
-      <c r="I41" s="2" t="n"/>
-      <c r="J41" s="2" t="n"/>
-      <c r="K41" s="2" t="n"/>
-      <c r="L41" s="2" t="n"/>
+      <c r="D41" s="2" t="inlineStr"/>
+      <c r="E41" s="2" t="inlineStr"/>
+      <c r="F41" s="2" t="inlineStr"/>
+      <c r="G41" s="2" t="inlineStr"/>
+      <c r="H41" s="2" t="inlineStr"/>
+      <c r="I41" s="2" t="inlineStr"/>
+      <c r="J41" s="2" t="inlineStr"/>
+      <c r="K41" s="2" t="inlineStr"/>
+      <c r="L41" s="2" t="inlineStr"/>
       <c r="M41" s="2" t="inlineStr">
         <is>
           <t>A school facility for older children and teenagers, typically aged between eleven and eighteen.</t>
         </is>
       </c>
-      <c r="N41" s="2" t="n"/>
-      <c r="O41" s="2" t="n"/>
+      <c r="N41" s="2" t="inlineStr"/>
+      <c r="O41" s="2" t="inlineStr"/>
       <c r="P41" s="2" t="inlineStr">
         <is>
           <t>high school</t>
         </is>
       </c>
-      <c r="Q41" s="2" t="n"/>
-      <c r="R41" s="2" t="n"/>
-      <c r="S41" s="2" t="n"/>
+      <c r="Q41" s="2" t="inlineStr"/>
+      <c r="R41" s="2" t="inlineStr"/>
+      <c r="S41" s="2" t="inlineStr"/>
       <c r="T41" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U41" s="2" t="n"/>
-      <c r="V41" s="2" t="n"/>
+      <c r="U41" s="2" t="inlineStr"/>
+      <c r="V41" s="2" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="2" t="inlineStr">
@@ -2324,33 +2520,33 @@
           <t>educational facility [BCIO:026022]</t>
         </is>
       </c>
-      <c r="D42" s="2" t="n"/>
-      <c r="E42" s="2" t="n"/>
-      <c r="F42" s="2" t="n"/>
-      <c r="G42" s="2" t="n"/>
-      <c r="H42" s="2" t="n"/>
-      <c r="I42" s="2" t="n"/>
-      <c r="J42" s="2" t="n"/>
-      <c r="K42" s="2" t="n"/>
-      <c r="L42" s="2" t="n"/>
+      <c r="D42" s="2" t="inlineStr"/>
+      <c r="E42" s="2" t="inlineStr"/>
+      <c r="F42" s="2" t="inlineStr"/>
+      <c r="G42" s="2" t="inlineStr"/>
+      <c r="H42" s="2" t="inlineStr"/>
+      <c r="I42" s="2" t="inlineStr"/>
+      <c r="J42" s="2" t="inlineStr"/>
+      <c r="K42" s="2" t="inlineStr"/>
+      <c r="L42" s="2" t="inlineStr"/>
       <c r="M42" s="2" t="inlineStr">
         <is>
           <t>An educational facility providing practically based, occupationally-specific teaching.</t>
         </is>
       </c>
-      <c r="N42" s="2" t="n"/>
-      <c r="O42" s="2" t="n"/>
-      <c r="P42" s="2" t="n"/>
-      <c r="Q42" s="2" t="n"/>
-      <c r="R42" s="2" t="n"/>
-      <c r="S42" s="2" t="n"/>
+      <c r="N42" s="2" t="inlineStr"/>
+      <c r="O42" s="2" t="inlineStr"/>
+      <c r="P42" s="2" t="inlineStr"/>
+      <c r="Q42" s="2" t="inlineStr"/>
+      <c r="R42" s="2" t="inlineStr"/>
+      <c r="S42" s="2" t="inlineStr"/>
       <c r="T42" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U42" s="2" t="n"/>
-      <c r="V42" s="2" t="n"/>
+      <c r="U42" s="2" t="inlineStr"/>
+      <c r="V42" s="2" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="2" t="inlineStr">
@@ -2368,33 +2564,33 @@
           <t>educational facility [BCIO:026022]</t>
         </is>
       </c>
-      <c r="D43" s="2" t="n"/>
-      <c r="E43" s="2" t="n"/>
-      <c r="F43" s="2" t="n"/>
-      <c r="G43" s="2" t="n"/>
-      <c r="H43" s="2" t="n"/>
-      <c r="I43" s="2" t="n"/>
-      <c r="J43" s="2" t="n"/>
-      <c r="K43" s="2" t="n"/>
-      <c r="L43" s="2" t="n"/>
+      <c r="D43" s="2" t="inlineStr"/>
+      <c r="E43" s="2" t="inlineStr"/>
+      <c r="F43" s="2" t="inlineStr"/>
+      <c r="G43" s="2" t="inlineStr"/>
+      <c r="H43" s="2" t="inlineStr"/>
+      <c r="I43" s="2" t="inlineStr"/>
+      <c r="J43" s="2" t="inlineStr"/>
+      <c r="K43" s="2" t="inlineStr"/>
+      <c r="L43" s="2" t="inlineStr"/>
       <c r="M43" s="2" t="inlineStr">
         <is>
           <t>An educational facility in which students study for degrees and academic research is done.</t>
         </is>
       </c>
-      <c r="N43" s="2" t="n"/>
-      <c r="O43" s="2" t="n"/>
-      <c r="P43" s="2" t="n"/>
-      <c r="Q43" s="2" t="n"/>
-      <c r="R43" s="2" t="n"/>
-      <c r="S43" s="2" t="n"/>
+      <c r="N43" s="2" t="inlineStr"/>
+      <c r="O43" s="2" t="inlineStr"/>
+      <c r="P43" s="2" t="inlineStr"/>
+      <c r="Q43" s="2" t="inlineStr"/>
+      <c r="R43" s="2" t="inlineStr"/>
+      <c r="S43" s="2" t="inlineStr"/>
       <c r="T43" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U43" s="2" t="n"/>
-      <c r="V43" s="2" t="n"/>
+      <c r="U43" s="2" t="inlineStr"/>
+      <c r="V43" s="2" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="2" t="inlineStr">
@@ -2412,37 +2608,37 @@
           <t>facility [OMRSE:00000062]</t>
         </is>
       </c>
-      <c r="D44" s="2" t="n"/>
-      <c r="E44" s="2" t="n"/>
-      <c r="F44" s="2" t="n"/>
-      <c r="G44" s="2" t="n"/>
-      <c r="H44" s="2" t="n"/>
-      <c r="I44" s="2" t="n"/>
-      <c r="J44" s="2" t="n"/>
-      <c r="K44" s="2" t="n"/>
-      <c r="L44" s="2" t="n"/>
+      <c r="D44" s="2" t="inlineStr"/>
+      <c r="E44" s="2" t="inlineStr"/>
+      <c r="F44" s="2" t="inlineStr"/>
+      <c r="G44" s="2" t="inlineStr"/>
+      <c r="H44" s="2" t="inlineStr"/>
+      <c r="I44" s="2" t="inlineStr"/>
+      <c r="J44" s="2" t="inlineStr"/>
+      <c r="K44" s="2" t="inlineStr"/>
+      <c r="L44" s="2" t="inlineStr"/>
       <c r="M44" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">A facility used by a group of people living in the same place or having a particular characteristic in common. </t>
         </is>
       </c>
-      <c r="N44" s="2" t="n"/>
-      <c r="O44" s="2" t="n"/>
+      <c r="N44" s="2" t="inlineStr"/>
+      <c r="O44" s="2" t="inlineStr"/>
       <c r="P44" s="2" t="inlineStr">
         <is>
           <t>food bank; recycling centre</t>
         </is>
       </c>
-      <c r="Q44" s="2" t="n"/>
-      <c r="R44" s="2" t="n"/>
-      <c r="S44" s="2" t="n"/>
+      <c r="Q44" s="2" t="inlineStr"/>
+      <c r="R44" s="2" t="inlineStr"/>
+      <c r="S44" s="2" t="inlineStr"/>
       <c r="T44" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U44" s="2" t="n"/>
-      <c r="V44" s="2" t="n"/>
+      <c r="U44" s="2" t="inlineStr"/>
+      <c r="V44" s="2" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="2" t="inlineStr">
@@ -2460,37 +2656,37 @@
           <t>community facility [BCIO:026029]</t>
         </is>
       </c>
-      <c r="D45" s="2" t="n"/>
-      <c r="E45" s="2" t="n"/>
-      <c r="F45" s="2" t="n"/>
-      <c r="G45" s="2" t="n"/>
-      <c r="H45" s="2" t="n"/>
-      <c r="I45" s="2" t="n"/>
-      <c r="J45" s="2" t="n"/>
-      <c r="K45" s="2" t="n"/>
-      <c r="L45" s="2" t="n"/>
+      <c r="D45" s="2" t="inlineStr"/>
+      <c r="E45" s="2" t="inlineStr"/>
+      <c r="F45" s="2" t="inlineStr"/>
+      <c r="G45" s="2" t="inlineStr"/>
+      <c r="H45" s="2" t="inlineStr"/>
+      <c r="I45" s="2" t="inlineStr"/>
+      <c r="J45" s="2" t="inlineStr"/>
+      <c r="K45" s="2" t="inlineStr"/>
+      <c r="L45" s="2" t="inlineStr"/>
       <c r="M45" s="2" t="inlineStr">
         <is>
           <t>A community facility used for exercising.</t>
         </is>
       </c>
-      <c r="N45" s="2" t="n"/>
-      <c r="O45" s="2" t="n"/>
+      <c r="N45" s="2" t="inlineStr"/>
+      <c r="O45" s="2" t="inlineStr"/>
       <c r="P45" s="2" t="inlineStr">
         <is>
           <t>gym; stadium; tennis court; swimming pool</t>
         </is>
       </c>
-      <c r="Q45" s="2" t="n"/>
-      <c r="R45" s="2" t="n"/>
-      <c r="S45" s="2" t="n"/>
+      <c r="Q45" s="2" t="inlineStr"/>
+      <c r="R45" s="2" t="inlineStr"/>
+      <c r="S45" s="2" t="inlineStr"/>
       <c r="T45" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U45" s="2" t="n"/>
-      <c r="V45" s="2" t="n"/>
+      <c r="U45" s="2" t="inlineStr"/>
+      <c r="V45" s="2" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="2" t="inlineStr">
@@ -2508,37 +2704,37 @@
           <t>community facility [BCIO:026029]</t>
         </is>
       </c>
-      <c r="D46" s="2" t="n"/>
-      <c r="E46" s="2" t="n"/>
-      <c r="F46" s="2" t="n"/>
-      <c r="G46" s="2" t="n"/>
-      <c r="H46" s="2" t="n"/>
-      <c r="I46" s="2" t="n"/>
-      <c r="J46" s="2" t="n"/>
-      <c r="K46" s="2" t="n"/>
-      <c r="L46" s="2" t="n"/>
+      <c r="D46" s="2" t="inlineStr"/>
+      <c r="E46" s="2" t="inlineStr"/>
+      <c r="F46" s="2" t="inlineStr"/>
+      <c r="G46" s="2" t="inlineStr"/>
+      <c r="H46" s="2" t="inlineStr"/>
+      <c r="I46" s="2" t="inlineStr"/>
+      <c r="J46" s="2" t="inlineStr"/>
+      <c r="K46" s="2" t="inlineStr"/>
+      <c r="L46" s="2" t="inlineStr"/>
       <c r="M46" s="2" t="inlineStr">
         <is>
           <t>A community facility used for socialising by those living in a given area.</t>
         </is>
       </c>
-      <c r="N46" s="2" t="n"/>
-      <c r="O46" s="2" t="n"/>
+      <c r="N46" s="2" t="inlineStr"/>
+      <c r="O46" s="2" t="inlineStr"/>
       <c r="P46" s="2" t="inlineStr">
         <is>
           <t>YMCA; working mens club</t>
         </is>
       </c>
-      <c r="Q46" s="2" t="n"/>
-      <c r="R46" s="2" t="n"/>
-      <c r="S46" s="2" t="n"/>
+      <c r="Q46" s="2" t="inlineStr"/>
+      <c r="R46" s="2" t="inlineStr"/>
+      <c r="S46" s="2" t="inlineStr"/>
       <c r="T46" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U46" s="2" t="n"/>
-      <c r="V46" s="2" t="n"/>
+      <c r="U46" s="2" t="inlineStr"/>
+      <c r="V46" s="2" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="2" t="inlineStr">
@@ -2556,33 +2752,33 @@
           <t>community facility [BCIO:026029]</t>
         </is>
       </c>
-      <c r="D47" s="2" t="n"/>
-      <c r="E47" s="2" t="n"/>
-      <c r="F47" s="2" t="n"/>
-      <c r="G47" s="2" t="n"/>
-      <c r="H47" s="2" t="n"/>
-      <c r="I47" s="2" t="n"/>
-      <c r="J47" s="2" t="n"/>
-      <c r="K47" s="2" t="n"/>
-      <c r="L47" s="2" t="n"/>
+      <c r="D47" s="2" t="inlineStr"/>
+      <c r="E47" s="2" t="inlineStr"/>
+      <c r="F47" s="2" t="inlineStr"/>
+      <c r="G47" s="2" t="inlineStr"/>
+      <c r="H47" s="2" t="inlineStr"/>
+      <c r="I47" s="2" t="inlineStr"/>
+      <c r="J47" s="2" t="inlineStr"/>
+      <c r="K47" s="2" t="inlineStr"/>
+      <c r="L47" s="2" t="inlineStr"/>
       <c r="M47" s="2" t="inlineStr">
         <is>
           <t>A community facility containing a collection of books and learning resources for loan.</t>
         </is>
       </c>
-      <c r="N47" s="2" t="n"/>
-      <c r="O47" s="2" t="n"/>
-      <c r="P47" s="2" t="n"/>
-      <c r="Q47" s="2" t="n"/>
-      <c r="R47" s="2" t="n"/>
-      <c r="S47" s="2" t="n"/>
+      <c r="N47" s="2" t="inlineStr"/>
+      <c r="O47" s="2" t="inlineStr"/>
+      <c r="P47" s="2" t="inlineStr"/>
+      <c r="Q47" s="2" t="inlineStr"/>
+      <c r="R47" s="2" t="inlineStr"/>
+      <c r="S47" s="2" t="inlineStr"/>
       <c r="T47" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U47" s="2" t="n"/>
-      <c r="V47" s="2" t="n"/>
+      <c r="U47" s="2" t="inlineStr"/>
+      <c r="V47" s="2" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="2" t="inlineStr">
@@ -2600,37 +2796,37 @@
           <t>community facility [BCIO:026029]</t>
         </is>
       </c>
-      <c r="D48" s="2" t="n"/>
-      <c r="E48" s="2" t="n"/>
-      <c r="F48" s="2" t="n"/>
-      <c r="G48" s="2" t="n"/>
-      <c r="H48" s="2" t="n"/>
-      <c r="I48" s="2" t="n"/>
-      <c r="J48" s="2" t="n"/>
-      <c r="K48" s="2" t="n"/>
-      <c r="L48" s="2" t="n"/>
+      <c r="D48" s="2" t="inlineStr"/>
+      <c r="E48" s="2" t="inlineStr"/>
+      <c r="F48" s="2" t="inlineStr"/>
+      <c r="G48" s="2" t="inlineStr"/>
+      <c r="H48" s="2" t="inlineStr"/>
+      <c r="I48" s="2" t="inlineStr"/>
+      <c r="J48" s="2" t="inlineStr"/>
+      <c r="K48" s="2" t="inlineStr"/>
+      <c r="L48" s="2" t="inlineStr"/>
       <c r="M48" s="2" t="inlineStr">
         <is>
           <t>A community facility where individuals or a group of people come to perform acts of devotion and veneration.</t>
         </is>
       </c>
-      <c r="N48" s="2" t="n"/>
-      <c r="O48" s="2" t="n"/>
+      <c r="N48" s="2" t="inlineStr"/>
+      <c r="O48" s="2" t="inlineStr"/>
       <c r="P48" s="2" t="inlineStr">
         <is>
           <t>mosque; church; temple</t>
         </is>
       </c>
-      <c r="Q48" s="2" t="n"/>
-      <c r="R48" s="2" t="n"/>
-      <c r="S48" s="2" t="n"/>
+      <c r="Q48" s="2" t="inlineStr"/>
+      <c r="R48" s="2" t="inlineStr"/>
+      <c r="S48" s="2" t="inlineStr"/>
       <c r="T48" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U48" s="2" t="n"/>
-      <c r="V48" s="2" t="n"/>
+      <c r="U48" s="2" t="inlineStr"/>
+      <c r="V48" s="2" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="2" t="inlineStr">
@@ -2648,37 +2844,37 @@
           <t>community facility [BCIO:026029]</t>
         </is>
       </c>
-      <c r="D49" s="2" t="n"/>
-      <c r="E49" s="2" t="n"/>
-      <c r="F49" s="2" t="n"/>
-      <c r="G49" s="2" t="n"/>
-      <c r="H49" s="2" t="n"/>
-      <c r="I49" s="2" t="n"/>
-      <c r="J49" s="2" t="n"/>
-      <c r="K49" s="2" t="n"/>
-      <c r="L49" s="2" t="n"/>
+      <c r="D49" s="2" t="inlineStr"/>
+      <c r="E49" s="2" t="inlineStr"/>
+      <c r="F49" s="2" t="inlineStr"/>
+      <c r="G49" s="2" t="inlineStr"/>
+      <c r="H49" s="2" t="inlineStr"/>
+      <c r="I49" s="2" t="inlineStr"/>
+      <c r="J49" s="2" t="inlineStr"/>
+      <c r="K49" s="2" t="inlineStr"/>
+      <c r="L49" s="2" t="inlineStr"/>
       <c r="M49" s="2" t="inlineStr">
         <is>
           <t>A community facility used to serve food.</t>
         </is>
       </c>
-      <c r="N49" s="2" t="n"/>
-      <c r="O49" s="2" t="n"/>
+      <c r="N49" s="2" t="inlineStr"/>
+      <c r="O49" s="2" t="inlineStr"/>
       <c r="P49" s="2" t="inlineStr">
         <is>
           <t>diner; restaurant; pub; bar</t>
         </is>
       </c>
-      <c r="Q49" s="2" t="n"/>
-      <c r="R49" s="2" t="n"/>
-      <c r="S49" s="2" t="n"/>
+      <c r="Q49" s="2" t="inlineStr"/>
+      <c r="R49" s="2" t="inlineStr"/>
+      <c r="S49" s="2" t="inlineStr"/>
       <c r="T49" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U49" s="2" t="n"/>
-      <c r="V49" s="2" t="n"/>
+      <c r="U49" s="2" t="inlineStr"/>
+      <c r="V49" s="2" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="2" t="inlineStr">
@@ -2696,37 +2892,37 @@
           <t>community facility [BCIO:026029]</t>
         </is>
       </c>
-      <c r="D50" s="2" t="n"/>
-      <c r="E50" s="2" t="n"/>
-      <c r="F50" s="2" t="n"/>
-      <c r="G50" s="2" t="n"/>
-      <c r="H50" s="2" t="n"/>
-      <c r="I50" s="2" t="n"/>
-      <c r="J50" s="2" t="n"/>
-      <c r="K50" s="2" t="n"/>
-      <c r="L50" s="2" t="n"/>
+      <c r="D50" s="2" t="inlineStr"/>
+      <c r="E50" s="2" t="inlineStr"/>
+      <c r="F50" s="2" t="inlineStr"/>
+      <c r="G50" s="2" t="inlineStr"/>
+      <c r="H50" s="2" t="inlineStr"/>
+      <c r="I50" s="2" t="inlineStr"/>
+      <c r="J50" s="2" t="inlineStr"/>
+      <c r="K50" s="2" t="inlineStr"/>
+      <c r="L50" s="2" t="inlineStr"/>
       <c r="M50" s="2" t="inlineStr">
         <is>
           <t>A community facility designed to entertain or amuse.</t>
         </is>
       </c>
-      <c r="N50" s="2" t="n"/>
-      <c r="O50" s="2" t="n"/>
+      <c r="N50" s="2" t="inlineStr"/>
+      <c r="O50" s="2" t="inlineStr"/>
       <c r="P50" s="2" t="inlineStr">
         <is>
           <t>cinema; theatre; disco</t>
         </is>
       </c>
-      <c r="Q50" s="2" t="n"/>
-      <c r="R50" s="2" t="n"/>
-      <c r="S50" s="2" t="n"/>
+      <c r="Q50" s="2" t="inlineStr"/>
+      <c r="R50" s="2" t="inlineStr"/>
+      <c r="S50" s="2" t="inlineStr"/>
       <c r="T50" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U50" s="2" t="n"/>
-      <c r="V50" s="2" t="n"/>
+      <c r="U50" s="2" t="inlineStr"/>
+      <c r="V50" s="2" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="2" t="inlineStr">
@@ -2744,37 +2940,37 @@
           <t>facility [OMRSE:00000062]</t>
         </is>
       </c>
-      <c r="D51" s="2" t="n"/>
-      <c r="E51" s="2" t="n"/>
-      <c r="F51" s="2" t="n"/>
-      <c r="G51" s="2" t="n"/>
-      <c r="H51" s="2" t="n"/>
-      <c r="I51" s="2" t="n"/>
-      <c r="J51" s="2" t="n"/>
-      <c r="K51" s="2" t="n"/>
-      <c r="L51" s="2" t="n"/>
+      <c r="D51" s="2" t="inlineStr"/>
+      <c r="E51" s="2" t="inlineStr"/>
+      <c r="F51" s="2" t="inlineStr"/>
+      <c r="G51" s="2" t="inlineStr"/>
+      <c r="H51" s="2" t="inlineStr"/>
+      <c r="I51" s="2" t="inlineStr"/>
+      <c r="J51" s="2" t="inlineStr"/>
+      <c r="K51" s="2" t="inlineStr"/>
+      <c r="L51" s="2" t="inlineStr"/>
       <c r="M51" s="2" t="inlineStr">
         <is>
           <t>A facility used as an outlet for shopping.</t>
         </is>
       </c>
-      <c r="N51" s="2" t="n"/>
-      <c r="O51" s="2" t="n"/>
+      <c r="N51" s="2" t="inlineStr"/>
+      <c r="O51" s="2" t="inlineStr"/>
       <c r="P51" s="2" t="inlineStr">
         <is>
           <t>supermarket; market; shopping centre</t>
         </is>
       </c>
-      <c r="Q51" s="2" t="n"/>
-      <c r="R51" s="2" t="n"/>
-      <c r="S51" s="2" t="n"/>
+      <c r="Q51" s="2" t="inlineStr"/>
+      <c r="R51" s="2" t="inlineStr"/>
+      <c r="S51" s="2" t="inlineStr"/>
       <c r="T51" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U51" s="2" t="n"/>
-      <c r="V51" s="2" t="n"/>
+      <c r="U51" s="2" t="inlineStr"/>
+      <c r="V51" s="2" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -2792,6 +2988,15 @@
           <t>facility [OMRSE:00000062]</t>
         </is>
       </c>
+      <c r="D52" t="inlineStr"/>
+      <c r="E52" t="inlineStr"/>
+      <c r="F52" t="inlineStr"/>
+      <c r="G52" t="inlineStr"/>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr">
         <is>
           <t>A facility, permanent or temporary, on land, in air, space or water, where scientific research or measurements can be undertaken</t>
@@ -2812,11 +3017,16 @@
           <t>research lab</t>
         </is>
       </c>
+      <c r="Q52" t="inlineStr"/>
+      <c r="R52" t="inlineStr"/>
+      <c r="S52" t="inlineStr"/>
       <c r="T52" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
+      <c r="U52" t="inlineStr"/>
+      <c r="V52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="2" t="inlineStr">
@@ -2834,33 +3044,33 @@
           <t>facility [OMRSE:00000062]</t>
         </is>
       </c>
-      <c r="D53" s="2" t="n"/>
-      <c r="E53" s="2" t="n"/>
-      <c r="F53" s="2" t="n"/>
-      <c r="G53" s="2" t="n"/>
-      <c r="H53" s="2" t="n"/>
-      <c r="I53" s="2" t="n"/>
-      <c r="J53" s="2" t="n"/>
-      <c r="K53" s="2" t="n"/>
-      <c r="L53" s="2" t="n"/>
+      <c r="D53" s="2" t="inlineStr"/>
+      <c r="E53" s="2" t="inlineStr"/>
+      <c r="F53" s="2" t="inlineStr"/>
+      <c r="G53" s="2" t="inlineStr"/>
+      <c r="H53" s="2" t="inlineStr"/>
+      <c r="I53" s="2" t="inlineStr"/>
+      <c r="J53" s="2" t="inlineStr"/>
+      <c r="K53" s="2" t="inlineStr"/>
+      <c r="L53" s="2" t="inlineStr"/>
       <c r="M53" s="2" t="inlineStr">
         <is>
           <t>A facility of a room, set of rooms, or building used as a place for commercial, professional, or bureaucratic work.</t>
         </is>
       </c>
-      <c r="N53" s="2" t="n"/>
-      <c r="O53" s="2" t="n"/>
-      <c r="P53" s="2" t="n"/>
-      <c r="Q53" s="2" t="n"/>
-      <c r="R53" s="2" t="n"/>
-      <c r="S53" s="2" t="n"/>
+      <c r="N53" s="2" t="inlineStr"/>
+      <c r="O53" s="2" t="inlineStr"/>
+      <c r="P53" s="2" t="inlineStr"/>
+      <c r="Q53" s="2" t="inlineStr"/>
+      <c r="R53" s="2" t="inlineStr"/>
+      <c r="S53" s="2" t="inlineStr"/>
       <c r="T53" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U53" s="2" t="n"/>
-      <c r="V53" s="2" t="n"/>
+      <c r="U53" s="2" t="inlineStr"/>
+      <c r="V53" s="2" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="2" t="inlineStr">
@@ -2878,37 +3088,37 @@
           <t>facility [OMRSE:00000062]</t>
         </is>
       </c>
-      <c r="D54" s="2" t="n"/>
-      <c r="E54" s="2" t="n"/>
-      <c r="F54" s="2" t="n"/>
-      <c r="G54" s="2" t="n"/>
-      <c r="H54" s="2" t="n"/>
-      <c r="I54" s="2" t="n"/>
-      <c r="J54" s="2" t="n"/>
-      <c r="K54" s="2" t="n"/>
-      <c r="L54" s="2" t="n"/>
+      <c r="D54" s="2" t="inlineStr"/>
+      <c r="E54" s="2" t="inlineStr"/>
+      <c r="F54" s="2" t="inlineStr"/>
+      <c r="G54" s="2" t="inlineStr"/>
+      <c r="H54" s="2" t="inlineStr"/>
+      <c r="I54" s="2" t="inlineStr"/>
+      <c r="J54" s="2" t="inlineStr"/>
+      <c r="K54" s="2" t="inlineStr"/>
+      <c r="L54" s="2" t="inlineStr"/>
       <c r="M54" s="2" t="inlineStr">
         <is>
           <t>A facility where individuals are being reprimanded, detained or imprisoned.</t>
         </is>
       </c>
-      <c r="N54" s="2" t="n"/>
-      <c r="O54" s="2" t="n"/>
+      <c r="N54" s="2" t="inlineStr"/>
+      <c r="O54" s="2" t="inlineStr"/>
       <c r="P54" s="2" t="inlineStr">
         <is>
           <t>prison</t>
         </is>
       </c>
-      <c r="Q54" s="2" t="n"/>
-      <c r="R54" s="2" t="n"/>
-      <c r="S54" s="2" t="n"/>
+      <c r="Q54" s="2" t="inlineStr"/>
+      <c r="R54" s="2" t="inlineStr"/>
+      <c r="S54" s="2" t="inlineStr"/>
       <c r="T54" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U54" s="2" t="n"/>
-      <c r="V54" s="2" t="n"/>
+      <c r="U54" s="2" t="inlineStr"/>
+      <c r="V54" s="2" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="2" t="inlineStr">
@@ -2926,33 +3136,33 @@
           <t>facility [OMRSE:00000062]</t>
         </is>
       </c>
-      <c r="D55" s="2" t="n"/>
-      <c r="E55" s="2" t="n"/>
-      <c r="F55" s="2" t="n"/>
-      <c r="G55" s="2" t="n"/>
-      <c r="H55" s="2" t="n"/>
-      <c r="I55" s="2" t="n"/>
-      <c r="J55" s="2" t="n"/>
-      <c r="K55" s="2" t="n"/>
-      <c r="L55" s="2" t="n"/>
+      <c r="D55" s="2" t="inlineStr"/>
+      <c r="E55" s="2" t="inlineStr"/>
+      <c r="F55" s="2" t="inlineStr"/>
+      <c r="G55" s="2" t="inlineStr"/>
+      <c r="H55" s="2" t="inlineStr"/>
+      <c r="I55" s="2" t="inlineStr"/>
+      <c r="J55" s="2" t="inlineStr"/>
+      <c r="K55" s="2" t="inlineStr"/>
+      <c r="L55" s="2" t="inlineStr"/>
       <c r="M55" s="2" t="inlineStr">
         <is>
           <t>A facility of a building or group of buildings where goods are manufactured or assembled chiefly by machine</t>
         </is>
       </c>
-      <c r="N55" s="2" t="n"/>
-      <c r="O55" s="2" t="n"/>
-      <c r="P55" s="2" t="n"/>
-      <c r="Q55" s="2" t="n"/>
-      <c r="R55" s="2" t="n"/>
-      <c r="S55" s="2" t="n"/>
+      <c r="N55" s="2" t="inlineStr"/>
+      <c r="O55" s="2" t="inlineStr"/>
+      <c r="P55" s="2" t="inlineStr"/>
+      <c r="Q55" s="2" t="inlineStr"/>
+      <c r="R55" s="2" t="inlineStr"/>
+      <c r="S55" s="2" t="inlineStr"/>
       <c r="T55" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U55" s="2" t="n"/>
-      <c r="V55" s="2" t="n"/>
+      <c r="U55" s="2" t="inlineStr"/>
+      <c r="V55" s="2" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="2" t="inlineStr">
@@ -2970,37 +3180,37 @@
           <t>facility [OMRSE:00000062]</t>
         </is>
       </c>
-      <c r="D56" s="2" t="n"/>
-      <c r="E56" s="2" t="n"/>
-      <c r="F56" s="2" t="n"/>
-      <c r="G56" s="2" t="n"/>
-      <c r="H56" s="2" t="n"/>
-      <c r="I56" s="2" t="n"/>
-      <c r="J56" s="2" t="n"/>
-      <c r="K56" s="2" t="n"/>
-      <c r="L56" s="2" t="n"/>
+      <c r="D56" s="2" t="inlineStr"/>
+      <c r="E56" s="2" t="inlineStr"/>
+      <c r="F56" s="2" t="inlineStr"/>
+      <c r="G56" s="2" t="inlineStr"/>
+      <c r="H56" s="2" t="inlineStr"/>
+      <c r="I56" s="2" t="inlineStr"/>
+      <c r="J56" s="2" t="inlineStr"/>
+      <c r="K56" s="2" t="inlineStr"/>
+      <c r="L56" s="2" t="inlineStr"/>
       <c r="M56" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">A facility relating to or characteristic of soldiers or armed forces </t>
         </is>
       </c>
-      <c r="N56" s="2" t="n"/>
-      <c r="O56" s="2" t="n"/>
+      <c r="N56" s="2" t="inlineStr"/>
+      <c r="O56" s="2" t="inlineStr"/>
       <c r="P56" s="2" t="inlineStr">
         <is>
           <t>army; navy; air force</t>
         </is>
       </c>
-      <c r="Q56" s="2" t="n"/>
-      <c r="R56" s="2" t="n"/>
-      <c r="S56" s="2" t="n"/>
+      <c r="Q56" s="2" t="inlineStr"/>
+      <c r="R56" s="2" t="inlineStr"/>
+      <c r="S56" s="2" t="inlineStr"/>
       <c r="T56" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U56" s="2" t="n"/>
-      <c r="V56" s="2" t="n"/>
+      <c r="U56" s="2" t="inlineStr"/>
+      <c r="V56" s="2" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="2" t="inlineStr">
@@ -3018,15 +3228,15 @@
           <t>site [BFO:0000029]</t>
         </is>
       </c>
-      <c r="D57" s="2" t="n"/>
-      <c r="E57" s="2" t="n"/>
-      <c r="F57" s="2" t="n"/>
-      <c r="G57" s="2" t="n"/>
-      <c r="H57" s="2" t="n"/>
-      <c r="I57" s="2" t="n"/>
-      <c r="J57" s="2" t="n"/>
-      <c r="K57" s="2" t="n"/>
-      <c r="L57" s="2" t="n"/>
+      <c r="D57" s="2" t="inlineStr"/>
+      <c r="E57" s="2" t="inlineStr"/>
+      <c r="F57" s="2" t="inlineStr"/>
+      <c r="G57" s="2" t="inlineStr"/>
+      <c r="H57" s="2" t="inlineStr"/>
+      <c r="I57" s="2" t="inlineStr"/>
+      <c r="J57" s="2" t="inlineStr"/>
+      <c r="K57" s="2" t="inlineStr"/>
+      <c r="L57" s="2" t="inlineStr"/>
       <c r="M57" s="2" t="inlineStr">
         <is>
           <t>Methods of traveling from one place to another.</t>
@@ -3042,17 +3252,17 @@
           <t>NCI Thesaurus OBO Edition</t>
         </is>
       </c>
-      <c r="P57" s="2" t="n"/>
-      <c r="Q57" s="2" t="n"/>
-      <c r="R57" s="2" t="n"/>
-      <c r="S57" s="2" t="n"/>
+      <c r="P57" s="2" t="inlineStr"/>
+      <c r="Q57" s="2" t="inlineStr"/>
+      <c r="R57" s="2" t="inlineStr"/>
+      <c r="S57" s="2" t="inlineStr"/>
       <c r="T57" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U57" s="2" t="n"/>
-      <c r="V57" s="2" t="n"/>
+      <c r="U57" s="2" t="inlineStr"/>
+      <c r="V57" s="2" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="2" t="inlineStr">
@@ -3070,15 +3280,15 @@
           <t>transportation [BCIO:026041]</t>
         </is>
       </c>
-      <c r="D58" s="2" t="n"/>
-      <c r="E58" s="2" t="n"/>
-      <c r="F58" s="2" t="n"/>
-      <c r="G58" s="2" t="n"/>
-      <c r="H58" s="2" t="n"/>
-      <c r="I58" s="2" t="n"/>
-      <c r="J58" s="2" t="n"/>
-      <c r="K58" s="2" t="n"/>
-      <c r="L58" s="2" t="n"/>
+      <c r="D58" s="2" t="inlineStr"/>
+      <c r="E58" s="2" t="inlineStr"/>
+      <c r="F58" s="2" t="inlineStr"/>
+      <c r="G58" s="2" t="inlineStr"/>
+      <c r="H58" s="2" t="inlineStr"/>
+      <c r="I58" s="2" t="inlineStr"/>
+      <c r="J58" s="2" t="inlineStr"/>
+      <c r="K58" s="2" t="inlineStr"/>
+      <c r="L58" s="2" t="inlineStr"/>
       <c r="M58" s="2" t="inlineStr">
         <is>
           <t>Forms of transportation that run on fixed routes and are available to the public, usually for a set fare</t>
@@ -3099,16 +3309,16 @@
           <t>bus; train; plane</t>
         </is>
       </c>
-      <c r="Q58" s="2" t="n"/>
-      <c r="R58" s="2" t="n"/>
-      <c r="S58" s="2" t="n"/>
+      <c r="Q58" s="2" t="inlineStr"/>
+      <c r="R58" s="2" t="inlineStr"/>
+      <c r="S58" s="2" t="inlineStr"/>
       <c r="T58" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U58" s="2" t="n"/>
-      <c r="V58" s="2" t="n"/>
+      <c r="U58" s="2" t="inlineStr"/>
+      <c r="V58" s="2" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="2" t="inlineStr">
@@ -3126,37 +3336,37 @@
           <t>transportation [BCIO:026041]</t>
         </is>
       </c>
-      <c r="D59" s="2" t="n"/>
-      <c r="E59" s="2" t="n"/>
-      <c r="F59" s="2" t="n"/>
-      <c r="G59" s="2" t="n"/>
-      <c r="H59" s="2" t="n"/>
-      <c r="I59" s="2" t="n"/>
-      <c r="J59" s="2" t="n"/>
-      <c r="K59" s="2" t="n"/>
-      <c r="L59" s="2" t="n"/>
+      <c r="D59" s="2" t="inlineStr"/>
+      <c r="E59" s="2" t="inlineStr"/>
+      <c r="F59" s="2" t="inlineStr"/>
+      <c r="G59" s="2" t="inlineStr"/>
+      <c r="H59" s="2" t="inlineStr"/>
+      <c r="I59" s="2" t="inlineStr"/>
+      <c r="J59" s="2" t="inlineStr"/>
+      <c r="K59" s="2" t="inlineStr"/>
+      <c r="L59" s="2" t="inlineStr"/>
       <c r="M59" s="2" t="inlineStr">
         <is>
           <t>A form of transportation owned by an individual for individual or group use.</t>
         </is>
       </c>
-      <c r="N59" s="2" t="n"/>
-      <c r="O59" s="2" t="n"/>
+      <c r="N59" s="2" t="inlineStr"/>
+      <c r="O59" s="2" t="inlineStr"/>
       <c r="P59" s="2" t="inlineStr">
         <is>
           <t>car; bicycle; motorbike</t>
         </is>
       </c>
-      <c r="Q59" s="2" t="n"/>
-      <c r="R59" s="2" t="n"/>
-      <c r="S59" s="2" t="n"/>
+      <c r="Q59" s="2" t="inlineStr"/>
+      <c r="R59" s="2" t="inlineStr"/>
+      <c r="S59" s="2" t="inlineStr"/>
       <c r="T59" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U59" s="2" t="n"/>
-      <c r="V59" s="2" t="n"/>
+      <c r="U59" s="2" t="inlineStr"/>
+      <c r="V59" s="2" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="2" t="inlineStr">
@@ -3174,37 +3384,37 @@
           <t>transportation [BCIO:026041]</t>
         </is>
       </c>
-      <c r="D60" s="2" t="n"/>
-      <c r="E60" s="2" t="n"/>
-      <c r="F60" s="2" t="n"/>
-      <c r="G60" s="2" t="n"/>
-      <c r="H60" s="2" t="n"/>
-      <c r="I60" s="2" t="n"/>
-      <c r="J60" s="2" t="n"/>
-      <c r="K60" s="2" t="n"/>
-      <c r="L60" s="2" t="n"/>
+      <c r="D60" s="2" t="inlineStr"/>
+      <c r="E60" s="2" t="inlineStr"/>
+      <c r="F60" s="2" t="inlineStr"/>
+      <c r="G60" s="2" t="inlineStr"/>
+      <c r="H60" s="2" t="inlineStr"/>
+      <c r="I60" s="2" t="inlineStr"/>
+      <c r="J60" s="2" t="inlineStr"/>
+      <c r="K60" s="2" t="inlineStr"/>
+      <c r="L60" s="2" t="inlineStr"/>
       <c r="M60" s="2" t="inlineStr">
         <is>
           <t>A form of transportation delivering interventions in transient locations.</t>
         </is>
       </c>
-      <c r="N60" s="2" t="n"/>
-      <c r="O60" s="2" t="n"/>
+      <c r="N60" s="2" t="inlineStr"/>
+      <c r="O60" s="2" t="inlineStr"/>
       <c r="P60" s="2" t="inlineStr">
         <is>
           <t>mobile van</t>
         </is>
       </c>
-      <c r="Q60" s="2" t="n"/>
-      <c r="R60" s="2" t="n"/>
-      <c r="S60" s="2" t="n"/>
+      <c r="Q60" s="2" t="inlineStr"/>
+      <c r="R60" s="2" t="inlineStr"/>
+      <c r="S60" s="2" t="inlineStr"/>
       <c r="T60" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U60" s="2" t="n"/>
-      <c r="V60" s="2" t="n"/>
+      <c r="U60" s="2" t="inlineStr"/>
+      <c r="V60" s="2" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="2" t="inlineStr">
@@ -3222,33 +3432,33 @@
           <t>transportation [BCIO:026041]</t>
         </is>
       </c>
-      <c r="D61" s="2" t="n"/>
-      <c r="E61" s="2" t="n"/>
-      <c r="F61" s="2" t="n"/>
-      <c r="G61" s="2" t="n"/>
-      <c r="H61" s="2" t="n"/>
-      <c r="I61" s="2" t="n"/>
-      <c r="J61" s="2" t="n"/>
-      <c r="K61" s="2" t="n"/>
-      <c r="L61" s="2" t="n"/>
+      <c r="D61" s="2" t="inlineStr"/>
+      <c r="E61" s="2" t="inlineStr"/>
+      <c r="F61" s="2" t="inlineStr"/>
+      <c r="G61" s="2" t="inlineStr"/>
+      <c r="H61" s="2" t="inlineStr"/>
+      <c r="I61" s="2" t="inlineStr"/>
+      <c r="J61" s="2" t="inlineStr"/>
+      <c r="K61" s="2" t="inlineStr"/>
+      <c r="L61" s="2" t="inlineStr"/>
       <c r="M61" s="2" t="inlineStr">
         <is>
           <t>A form of transporation which can transport patients for health treatment, and in some instances will also provide out-of-hospital healthcare to the patient.</t>
         </is>
       </c>
-      <c r="N61" s="2" t="n"/>
-      <c r="O61" s="2" t="n"/>
-      <c r="P61" s="2" t="n"/>
-      <c r="Q61" s="2" t="n"/>
-      <c r="R61" s="2" t="n"/>
-      <c r="S61" s="2" t="n"/>
+      <c r="N61" s="2" t="inlineStr"/>
+      <c r="O61" s="2" t="inlineStr"/>
+      <c r="P61" s="2" t="inlineStr"/>
+      <c r="Q61" s="2" t="inlineStr"/>
+      <c r="R61" s="2" t="inlineStr"/>
+      <c r="S61" s="2" t="inlineStr"/>
       <c r="T61" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U61" s="2" t="n"/>
-      <c r="V61" s="2" t="n"/>
+      <c r="U61" s="2" t="inlineStr"/>
+      <c r="V61" s="2" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="2" t="inlineStr">
@@ -3266,33 +3476,33 @@
           <t>site [BFO:0000029]</t>
         </is>
       </c>
-      <c r="D62" s="2" t="n"/>
-      <c r="E62" s="2" t="n"/>
-      <c r="F62" s="2" t="n"/>
-      <c r="G62" s="2" t="n"/>
-      <c r="H62" s="2" t="n"/>
-      <c r="I62" s="2" t="n"/>
-      <c r="J62" s="2" t="n"/>
-      <c r="K62" s="2" t="n"/>
-      <c r="L62" s="2" t="n"/>
+      <c r="D62" s="2" t="inlineStr"/>
+      <c r="E62" s="2" t="inlineStr"/>
+      <c r="F62" s="2" t="inlineStr"/>
+      <c r="G62" s="2" t="inlineStr"/>
+      <c r="H62" s="2" t="inlineStr"/>
+      <c r="I62" s="2" t="inlineStr"/>
+      <c r="J62" s="2" t="inlineStr"/>
+      <c r="K62" s="2" t="inlineStr"/>
+      <c r="L62" s="2" t="inlineStr"/>
       <c r="M62" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">A site which is an outdoor location outside of a building. </t>
         </is>
       </c>
-      <c r="N62" s="2" t="n"/>
-      <c r="O62" s="2" t="n"/>
-      <c r="P62" s="2" t="n"/>
-      <c r="Q62" s="2" t="n"/>
-      <c r="R62" s="2" t="n"/>
-      <c r="S62" s="2" t="n"/>
+      <c r="N62" s="2" t="inlineStr"/>
+      <c r="O62" s="2" t="inlineStr"/>
+      <c r="P62" s="2" t="inlineStr"/>
+      <c r="Q62" s="2" t="inlineStr"/>
+      <c r="R62" s="2" t="inlineStr"/>
+      <c r="S62" s="2" t="inlineStr"/>
       <c r="T62" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U62" s="2" t="n"/>
-      <c r="V62" s="2" t="n"/>
+      <c r="U62" s="2" t="inlineStr"/>
+      <c r="V62" s="2" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -3310,6 +3520,15 @@
           <t>outdoor environment [BCIO:026046]</t>
         </is>
       </c>
+      <c r="D63" t="inlineStr"/>
+      <c r="E63" t="inlineStr"/>
+      <c r="F63" t="inlineStr"/>
+      <c r="G63" t="inlineStr"/>
+      <c r="H63" t="inlineStr"/>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="inlineStr">
         <is>
           <t>A bounded area of land, or water, usually in its natural or semi-natural (landscaped) state and set aside for some purpose, usually to do with recreation or conservation</t>
@@ -3325,11 +3544,17 @@
           <t>Environment Ontology</t>
         </is>
       </c>
+      <c r="P63" t="inlineStr"/>
+      <c r="Q63" t="inlineStr"/>
+      <c r="R63" t="inlineStr"/>
+      <c r="S63" t="inlineStr"/>
       <c r="T63" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
+      <c r="U63" t="inlineStr"/>
+      <c r="V63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -3347,6 +3572,15 @@
           <t>outdoor environment [BCIO:026046]</t>
         </is>
       </c>
+      <c r="D64" t="inlineStr"/>
+      <c r="E64" t="inlineStr"/>
+      <c r="F64" t="inlineStr"/>
+      <c r="G64" t="inlineStr"/>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="inlineStr">
         <is>
           <t>An area with a high density of trees. A small forest may be called a wood</t>
@@ -3362,11 +3596,17 @@
           <t>Environment Ontology</t>
         </is>
       </c>
+      <c r="P64" t="inlineStr"/>
+      <c r="Q64" t="inlineStr"/>
+      <c r="R64" t="inlineStr"/>
+      <c r="S64" t="inlineStr"/>
       <c r="T64" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
+      <c r="U64" t="inlineStr"/>
+      <c r="V64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -3384,6 +3624,15 @@
           <t>outdoor environment [BCIO:026046]</t>
         </is>
       </c>
+      <c r="D65" t="inlineStr"/>
+      <c r="E65" t="inlineStr"/>
+      <c r="F65" t="inlineStr"/>
+      <c r="G65" t="inlineStr"/>
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="inlineStr">
         <is>
           <t>A landform consisting of loose rock particles such as sand, gravel, shingle, pebbles, cobble, or even shell fragments along the shoreline of a body of wate</t>
@@ -3399,11 +3648,17 @@
           <t>Environment Ontology</t>
         </is>
       </c>
+      <c r="P65" t="inlineStr"/>
+      <c r="Q65" t="inlineStr"/>
+      <c r="R65" t="inlineStr"/>
+      <c r="S65" t="inlineStr"/>
       <c r="T65" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
+      <c r="U65" t="inlineStr"/>
+      <c r="V65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="2" t="inlineStr">
@@ -3421,33 +3676,33 @@
           <t>outdoor environment [BCIO:026046]</t>
         </is>
       </c>
-      <c r="D66" s="2" t="n"/>
-      <c r="E66" s="2" t="n"/>
-      <c r="F66" s="2" t="n"/>
-      <c r="G66" s="2" t="n"/>
-      <c r="H66" s="2" t="n"/>
-      <c r="I66" s="2" t="n"/>
-      <c r="J66" s="2" t="n"/>
-      <c r="K66" s="2" t="n"/>
-      <c r="L66" s="2" t="n"/>
+      <c r="D66" s="2" t="inlineStr"/>
+      <c r="E66" s="2" t="inlineStr"/>
+      <c r="F66" s="2" t="inlineStr"/>
+      <c r="G66" s="2" t="inlineStr"/>
+      <c r="H66" s="2" t="inlineStr"/>
+      <c r="I66" s="2" t="inlineStr"/>
+      <c r="J66" s="2" t="inlineStr"/>
+      <c r="K66" s="2" t="inlineStr"/>
+      <c r="L66" s="2" t="inlineStr"/>
       <c r="M66" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">An outdoor environment set in an expanse of water. </t>
         </is>
       </c>
-      <c r="N66" s="2" t="n"/>
-      <c r="O66" s="2" t="n"/>
-      <c r="P66" s="2" t="n"/>
-      <c r="Q66" s="2" t="n"/>
-      <c r="R66" s="2" t="n"/>
-      <c r="S66" s="2" t="n"/>
+      <c r="N66" s="2" t="inlineStr"/>
+      <c r="O66" s="2" t="inlineStr"/>
+      <c r="P66" s="2" t="inlineStr"/>
+      <c r="Q66" s="2" t="inlineStr"/>
+      <c r="R66" s="2" t="inlineStr"/>
+      <c r="S66" s="2" t="inlineStr"/>
       <c r="T66" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U66" s="2" t="n"/>
-      <c r="V66" s="2" t="n"/>
+      <c r="U66" s="2" t="inlineStr"/>
+      <c r="V66" s="2" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -3465,6 +3720,15 @@
           <t>outdoor environment [BCIO:026046]</t>
         </is>
       </c>
+      <c r="D67" t="inlineStr"/>
+      <c r="E67" t="inlineStr"/>
+      <c r="F67" t="inlineStr"/>
+      <c r="G67" t="inlineStr"/>
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="inlineStr">
         <is>
           <t>An area in which grasses (Graminae) are a significant component of the vegetation</t>
@@ -3480,11 +3744,17 @@
           <t>Environment Ontology</t>
         </is>
       </c>
+      <c r="P67" t="inlineStr"/>
+      <c r="Q67" t="inlineStr"/>
+      <c r="R67" t="inlineStr"/>
+      <c r="S67" t="inlineStr"/>
       <c r="T67" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
+      <c r="U67" t="inlineStr"/>
+      <c r="V67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -3502,6 +3772,15 @@
           <t>outdoor environment [BCIO:026046]</t>
         </is>
       </c>
+      <c r="D68" t="inlineStr"/>
+      <c r="E68" t="inlineStr"/>
+      <c r="F68" t="inlineStr"/>
+      <c r="G68" t="inlineStr"/>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="inlineStr">
         <is>
           <t>An open way for the passage of vehicles, persons, or animals on land</t>
@@ -3517,11 +3796,17 @@
           <t>Environment Ontology</t>
         </is>
       </c>
+      <c r="P68" t="inlineStr"/>
+      <c r="Q68" t="inlineStr"/>
+      <c r="R68" t="inlineStr"/>
+      <c r="S68" t="inlineStr"/>
       <c r="T68" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
+      <c r="U68" t="inlineStr"/>
+      <c r="V68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="2" t="inlineStr">
@@ -3539,33 +3824,33 @@
           <t>outdoor environment [BCIO:026046]</t>
         </is>
       </c>
-      <c r="D69" s="2" t="n"/>
-      <c r="E69" s="2" t="n"/>
-      <c r="F69" s="2" t="n"/>
-      <c r="G69" s="2" t="n"/>
-      <c r="H69" s="2" t="n"/>
-      <c r="I69" s="2" t="n"/>
-      <c r="J69" s="2" t="n"/>
-      <c r="K69" s="2" t="n"/>
-      <c r="L69" s="2" t="n"/>
+      <c r="D69" s="2" t="inlineStr"/>
+      <c r="E69" s="2" t="inlineStr"/>
+      <c r="F69" s="2" t="inlineStr"/>
+      <c r="G69" s="2" t="inlineStr"/>
+      <c r="H69" s="2" t="inlineStr"/>
+      <c r="I69" s="2" t="inlineStr"/>
+      <c r="J69" s="2" t="inlineStr"/>
+      <c r="K69" s="2" t="inlineStr"/>
+      <c r="L69" s="2" t="inlineStr"/>
       <c r="M69" s="2" t="inlineStr">
         <is>
           <t>An outdoor environment for the passage of persons or cyclists on land</t>
         </is>
       </c>
-      <c r="N69" s="2" t="n"/>
-      <c r="O69" s="2" t="n"/>
-      <c r="P69" s="2" t="n"/>
-      <c r="Q69" s="2" t="n"/>
-      <c r="R69" s="2" t="n"/>
-      <c r="S69" s="2" t="n"/>
+      <c r="N69" s="2" t="inlineStr"/>
+      <c r="O69" s="2" t="inlineStr"/>
+      <c r="P69" s="2" t="inlineStr"/>
+      <c r="Q69" s="2" t="inlineStr"/>
+      <c r="R69" s="2" t="inlineStr"/>
+      <c r="S69" s="2" t="inlineStr"/>
       <c r="T69" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U69" s="2" t="n"/>
-      <c r="V69" s="2" t="n"/>
+      <c r="U69" s="2" t="inlineStr"/>
+      <c r="V69" s="2" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="2" t="inlineStr">
@@ -3583,33 +3868,33 @@
           <t>path or pavement [BCIO:026048]</t>
         </is>
       </c>
-      <c r="D70" s="2" t="n"/>
-      <c r="E70" s="2" t="n"/>
-      <c r="F70" s="2" t="n"/>
-      <c r="G70" s="2" t="n"/>
-      <c r="H70" s="2" t="n"/>
-      <c r="I70" s="2" t="n"/>
-      <c r="J70" s="2" t="n"/>
-      <c r="K70" s="2" t="n"/>
-      <c r="L70" s="2" t="n"/>
+      <c r="D70" s="2" t="inlineStr"/>
+      <c r="E70" s="2" t="inlineStr"/>
+      <c r="F70" s="2" t="inlineStr"/>
+      <c r="G70" s="2" t="inlineStr"/>
+      <c r="H70" s="2" t="inlineStr"/>
+      <c r="I70" s="2" t="inlineStr"/>
+      <c r="J70" s="2" t="inlineStr"/>
+      <c r="K70" s="2" t="inlineStr"/>
+      <c r="L70" s="2" t="inlineStr"/>
       <c r="M70" s="2" t="inlineStr">
         <is>
           <t>A path or pavement for the passage of persons only on land.</t>
         </is>
       </c>
-      <c r="N70" s="2" t="n"/>
-      <c r="O70" s="2" t="n"/>
-      <c r="P70" s="2" t="n"/>
-      <c r="Q70" s="2" t="n"/>
-      <c r="R70" s="2" t="n"/>
-      <c r="S70" s="2" t="n"/>
+      <c r="N70" s="2" t="inlineStr"/>
+      <c r="O70" s="2" t="inlineStr"/>
+      <c r="P70" s="2" t="inlineStr"/>
+      <c r="Q70" s="2" t="inlineStr"/>
+      <c r="R70" s="2" t="inlineStr"/>
+      <c r="S70" s="2" t="inlineStr"/>
       <c r="T70" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U70" s="2" t="n"/>
-      <c r="V70" s="2" t="n"/>
+      <c r="U70" s="2" t="inlineStr"/>
+      <c r="V70" s="2" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="2" t="inlineStr">
@@ -3627,33 +3912,33 @@
           <t>path or pavement [BCIO:026048]</t>
         </is>
       </c>
-      <c r="D71" s="2" t="n"/>
-      <c r="E71" s="2" t="n"/>
-      <c r="F71" s="2" t="n"/>
-      <c r="G71" s="2" t="n"/>
-      <c r="H71" s="2" t="n"/>
-      <c r="I71" s="2" t="n"/>
-      <c r="J71" s="2" t="n"/>
-      <c r="K71" s="2" t="n"/>
-      <c r="L71" s="2" t="n"/>
+      <c r="D71" s="2" t="inlineStr"/>
+      <c r="E71" s="2" t="inlineStr"/>
+      <c r="F71" s="2" t="inlineStr"/>
+      <c r="G71" s="2" t="inlineStr"/>
+      <c r="H71" s="2" t="inlineStr"/>
+      <c r="I71" s="2" t="inlineStr"/>
+      <c r="J71" s="2" t="inlineStr"/>
+      <c r="K71" s="2" t="inlineStr"/>
+      <c r="L71" s="2" t="inlineStr"/>
       <c r="M71" s="2" t="inlineStr">
         <is>
           <t>A path or pavement for the passage of people using bicycles only on land.</t>
         </is>
       </c>
-      <c r="N71" s="2" t="n"/>
-      <c r="O71" s="2" t="n"/>
-      <c r="P71" s="2" t="n"/>
-      <c r="Q71" s="2" t="n"/>
-      <c r="R71" s="2" t="n"/>
-      <c r="S71" s="2" t="n"/>
+      <c r="N71" s="2" t="inlineStr"/>
+      <c r="O71" s="2" t="inlineStr"/>
+      <c r="P71" s="2" t="inlineStr"/>
+      <c r="Q71" s="2" t="inlineStr"/>
+      <c r="R71" s="2" t="inlineStr"/>
+      <c r="S71" s="2" t="inlineStr"/>
       <c r="T71" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U71" s="2" t="n"/>
-      <c r="V71" s="2" t="n"/>
+      <c r="U71" s="2" t="inlineStr"/>
+      <c r="V71" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Setting/inputs/Setting.xlsx
+++ b/Setting/inputs/Setting.xlsx
@@ -562,7 +562,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> test1</t>
+          <t xml:space="preserve"> testandandandandandand</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -570,11 +570,7 @@
           <t>test3</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>testandtestandtestand</t>
-        </is>
-      </c>
+      <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
@@ -630,12 +626,12 @@
       </c>
       <c r="D3" s="2" t="inlineStr">
         <is>
-          <t>test5</t>
+          <t>test^^^andandandand--</t>
         </is>
       </c>
       <c r="E3" s="2" t="inlineStr">
         <is>
-          <t>test6</t>
+          <t>testandandandand</t>
         </is>
       </c>
       <c r="F3" s="2" t="inlineStr"/>

--- a/Setting/inputs/Setting.xlsx
+++ b/Setting/inputs/Setting.xlsx
@@ -562,7 +562,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> test1</t>
+          <t xml:space="preserve"> testandandandandandand</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -575,12 +575,6 @@
           <t>testandtestandtestand</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr">
         <is>
           <t>A reference to a place on the Earth, by its name or by its geographical location</t>
@@ -596,9 +590,6 @@
           <t>Gazeteer Ontology</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
       <c r="S2" t="inlineStr">
         <is>
           <t>to</t>
@@ -609,8 +600,6 @@
           <t>External</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr"/>
-      <c r="V2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
@@ -630,35 +619,35 @@
       </c>
       <c r="D3" s="2" t="inlineStr">
         <is>
-          <t>test5</t>
+          <t>test^^^andandandand--</t>
         </is>
       </c>
       <c r="E3" s="2" t="inlineStr">
         <is>
-          <t>test6</t>
-        </is>
-      </c>
-      <c r="F3" s="2" t="inlineStr"/>
-      <c r="G3" s="2" t="inlineStr"/>
-      <c r="H3" s="2" t="inlineStr"/>
-      <c r="I3" s="2" t="inlineStr"/>
-      <c r="J3" s="2" t="inlineStr"/>
-      <c r="K3" s="2" t="inlineStr"/>
-      <c r="L3" s="2" t="inlineStr"/>
+          <t>testandandandand</t>
+        </is>
+      </c>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="inlineStr">
         <is>
           <t>A geographical location of a country where the intervention takes place.</t>
         </is>
       </c>
-      <c r="N3" s="2" t="inlineStr"/>
-      <c r="O3" s="2" t="inlineStr"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
       <c r="P3" s="2" t="inlineStr">
         <is>
           <t>United Kingdom; Spain</t>
         </is>
       </c>
-      <c r="Q3" s="2" t="inlineStr"/>
-      <c r="R3" s="2" t="inlineStr"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
       <c r="S3" s="2" t="inlineStr">
         <is>
           <t>to</t>
@@ -669,8 +658,8 @@
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U3" s="2" t="inlineStr"/>
-      <c r="V3" s="2" t="inlineStr"/>
+      <c r="U3" s="2" t="n"/>
+      <c r="V3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
@@ -688,37 +677,37 @@
           <t>geographic location [GAZ:00000448]</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr"/>
-      <c r="E4" s="2" t="inlineStr"/>
-      <c r="F4" s="2" t="inlineStr"/>
-      <c r="G4" s="2" t="inlineStr"/>
-      <c r="H4" s="2" t="inlineStr"/>
-      <c r="I4" s="2" t="inlineStr"/>
-      <c r="J4" s="2" t="inlineStr"/>
-      <c r="K4" s="2" t="inlineStr"/>
-      <c r="L4" s="2" t="inlineStr"/>
+      <c r="D4" s="2" t="n"/>
+      <c r="E4" s="2" t="n"/>
+      <c r="F4" s="2" t="n"/>
+      <c r="G4" s="2" t="n"/>
+      <c r="H4" s="2" t="n"/>
+      <c r="I4" s="2" t="n"/>
+      <c r="J4" s="2" t="n"/>
+      <c r="K4" s="2" t="n"/>
+      <c r="L4" s="2" t="n"/>
       <c r="M4" s="2" t="inlineStr">
         <is>
           <t>A geographical location within a country where the intervention takes place.</t>
         </is>
       </c>
-      <c r="N4" s="2" t="inlineStr"/>
-      <c r="O4" s="2" t="inlineStr"/>
+      <c r="N4" s="2" t="n"/>
+      <c r="O4" s="2" t="n"/>
       <c r="P4" s="2" t="inlineStr">
         <is>
           <t>Region; Town; City; State; New York; Rotterdam</t>
         </is>
       </c>
-      <c r="Q4" s="2" t="inlineStr"/>
-      <c r="R4" s="2" t="inlineStr"/>
-      <c r="S4" s="2" t="inlineStr"/>
+      <c r="Q4" s="2" t="n"/>
+      <c r="R4" s="2" t="n"/>
+      <c r="S4" s="2" t="n"/>
       <c r="T4" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U4" s="2" t="inlineStr"/>
-      <c r="V4" s="2" t="inlineStr"/>
+      <c r="U4" s="2" t="n"/>
+      <c r="V4" s="2" t="n"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
@@ -741,32 +730,32 @@
           <t>Behaviour change intervention physical setting [BCIO:026000]</t>
         </is>
       </c>
-      <c r="E5" s="2" t="inlineStr"/>
-      <c r="F5" s="2" t="inlineStr"/>
-      <c r="G5" s="2" t="inlineStr"/>
-      <c r="H5" s="2" t="inlineStr"/>
-      <c r="I5" s="2" t="inlineStr"/>
-      <c r="J5" s="2" t="inlineStr"/>
-      <c r="K5" s="2" t="inlineStr"/>
-      <c r="L5" s="2" t="inlineStr"/>
+      <c r="E5" s="2" t="n"/>
+      <c r="F5" s="2" t="n"/>
+      <c r="G5" s="2" t="n"/>
+      <c r="H5" s="2" t="n"/>
+      <c r="I5" s="2" t="n"/>
+      <c r="J5" s="2" t="n"/>
+      <c r="K5" s="2" t="n"/>
+      <c r="L5" s="2" t="n"/>
       <c r="M5" s="2" t="inlineStr">
         <is>
           <t>Features of a given location, such as social and economic characteristics.</t>
         </is>
       </c>
-      <c r="N5" s="2" t="inlineStr"/>
-      <c r="O5" s="2" t="inlineStr"/>
-      <c r="P5" s="2" t="inlineStr"/>
-      <c r="Q5" s="2" t="inlineStr"/>
-      <c r="R5" s="2" t="inlineStr"/>
-      <c r="S5" s="2" t="inlineStr"/>
+      <c r="N5" s="2" t="n"/>
+      <c r="O5" s="2" t="n"/>
+      <c r="P5" s="2" t="n"/>
+      <c r="Q5" s="2" t="n"/>
+      <c r="R5" s="2" t="n"/>
+      <c r="S5" s="2" t="n"/>
       <c r="T5" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U5" s="2" t="inlineStr"/>
-      <c r="V5" s="2" t="inlineStr"/>
+      <c r="U5" s="2" t="n"/>
+      <c r="V5" s="2" t="n"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
@@ -784,37 +773,37 @@
           <t>attribute of location [BCIO:026003]</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr"/>
-      <c r="E6" s="2" t="inlineStr"/>
-      <c r="F6" s="2" t="inlineStr"/>
-      <c r="G6" s="2" t="inlineStr"/>
-      <c r="H6" s="2" t="inlineStr"/>
-      <c r="I6" s="2" t="inlineStr"/>
-      <c r="J6" s="2" t="inlineStr"/>
-      <c r="K6" s="2" t="inlineStr"/>
-      <c r="L6" s="2" t="inlineStr"/>
+      <c r="D6" s="2" t="n"/>
+      <c r="E6" s="2" t="n"/>
+      <c r="F6" s="2" t="n"/>
+      <c r="G6" s="2" t="n"/>
+      <c r="H6" s="2" t="n"/>
+      <c r="I6" s="2" t="n"/>
+      <c r="J6" s="2" t="n"/>
+      <c r="K6" s="2" t="n"/>
+      <c r="L6" s="2" t="n"/>
       <c r="M6" s="2" t="inlineStr">
         <is>
           <t>An attribute of location describing the overall socioeconomic state of a location.</t>
         </is>
       </c>
-      <c r="N6" s="2" t="inlineStr"/>
-      <c r="O6" s="2" t="inlineStr"/>
+      <c r="N6" s="2" t="n"/>
+      <c r="O6" s="2" t="n"/>
       <c r="P6" s="2" t="inlineStr">
         <is>
           <t>disadvantaged area; crime rates; World Bank Classifications</t>
         </is>
       </c>
-      <c r="Q6" s="2" t="inlineStr"/>
-      <c r="R6" s="2" t="inlineStr"/>
-      <c r="S6" s="2" t="inlineStr"/>
+      <c r="Q6" s="2" t="n"/>
+      <c r="R6" s="2" t="n"/>
+      <c r="S6" s="2" t="n"/>
       <c r="T6" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U6" s="2" t="inlineStr"/>
-      <c r="V6" s="2" t="inlineStr"/>
+      <c r="U6" s="2" t="n"/>
+      <c r="V6" s="2" t="n"/>
     </row>
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
@@ -832,37 +821,37 @@
           <t>area social and economic condition [BCIO:026004]</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr"/>
-      <c r="E7" s="2" t="inlineStr"/>
-      <c r="F7" s="2" t="inlineStr"/>
-      <c r="G7" s="2" t="inlineStr"/>
-      <c r="H7" s="2" t="inlineStr"/>
-      <c r="I7" s="2" t="inlineStr"/>
-      <c r="J7" s="2" t="inlineStr"/>
-      <c r="K7" s="2" t="inlineStr"/>
-      <c r="L7" s="2" t="inlineStr"/>
+      <c r="D7" s="2" t="n"/>
+      <c r="E7" s="2" t="n"/>
+      <c r="F7" s="2" t="n"/>
+      <c r="G7" s="2" t="n"/>
+      <c r="H7" s="2" t="n"/>
+      <c r="I7" s="2" t="n"/>
+      <c r="J7" s="2" t="n"/>
+      <c r="K7" s="2" t="n"/>
+      <c r="L7" s="2" t="n"/>
       <c r="M7" s="2" t="inlineStr">
         <is>
           <t>An area social and economic condition described to have a low-income, whether at a country or within-country level.</t>
         </is>
       </c>
-      <c r="N7" s="2" t="inlineStr"/>
-      <c r="O7" s="2" t="inlineStr"/>
+      <c r="N7" s="2" t="n"/>
+      <c r="O7" s="2" t="n"/>
       <c r="P7" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">developing country </t>
         </is>
       </c>
-      <c r="Q7" s="2" t="inlineStr"/>
-      <c r="R7" s="2" t="inlineStr"/>
-      <c r="S7" s="2" t="inlineStr"/>
+      <c r="Q7" s="2" t="n"/>
+      <c r="R7" s="2" t="n"/>
+      <c r="S7" s="2" t="n"/>
       <c r="T7" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U7" s="2" t="inlineStr"/>
-      <c r="V7" s="2" t="inlineStr"/>
+      <c r="U7" s="2" t="n"/>
+      <c r="V7" s="2" t="n"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
@@ -880,37 +869,37 @@
           <t>area social and economic condition [BCIO:026004]</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr"/>
-      <c r="E8" s="2" t="inlineStr"/>
-      <c r="F8" s="2" t="inlineStr"/>
-      <c r="G8" s="2" t="inlineStr"/>
-      <c r="H8" s="2" t="inlineStr"/>
-      <c r="I8" s="2" t="inlineStr"/>
-      <c r="J8" s="2" t="inlineStr"/>
-      <c r="K8" s="2" t="inlineStr"/>
-      <c r="L8" s="2" t="inlineStr"/>
+      <c r="D8" s="2" t="n"/>
+      <c r="E8" s="2" t="n"/>
+      <c r="F8" s="2" t="n"/>
+      <c r="G8" s="2" t="n"/>
+      <c r="H8" s="2" t="n"/>
+      <c r="I8" s="2" t="n"/>
+      <c r="J8" s="2" t="n"/>
+      <c r="K8" s="2" t="n"/>
+      <c r="L8" s="2" t="n"/>
       <c r="M8" s="2" t="inlineStr">
         <is>
           <t>An area social and economic condition described to have a high-income, whether at a country or within-country level.</t>
         </is>
       </c>
-      <c r="N8" s="2" t="inlineStr"/>
-      <c r="O8" s="2" t="inlineStr"/>
+      <c r="N8" s="2" t="n"/>
+      <c r="O8" s="2" t="n"/>
       <c r="P8" s="2" t="inlineStr">
         <is>
           <t>developed country</t>
         </is>
       </c>
-      <c r="Q8" s="2" t="inlineStr"/>
-      <c r="R8" s="2" t="inlineStr"/>
-      <c r="S8" s="2" t="inlineStr"/>
+      <c r="Q8" s="2" t="n"/>
+      <c r="R8" s="2" t="n"/>
+      <c r="S8" s="2" t="n"/>
       <c r="T8" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U8" s="2" t="inlineStr"/>
-      <c r="V8" s="2" t="inlineStr"/>
+      <c r="U8" s="2" t="n"/>
+      <c r="V8" s="2" t="n"/>
     </row>
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
@@ -928,33 +917,33 @@
           <t>attribute of location [BCIO:026003]</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr"/>
-      <c r="E9" s="2" t="inlineStr"/>
-      <c r="F9" s="2" t="inlineStr"/>
-      <c r="G9" s="2" t="inlineStr"/>
-      <c r="H9" s="2" t="inlineStr"/>
-      <c r="I9" s="2" t="inlineStr"/>
-      <c r="J9" s="2" t="inlineStr"/>
-      <c r="K9" s="2" t="inlineStr"/>
-      <c r="L9" s="2" t="inlineStr"/>
+      <c r="D9" s="2" t="n"/>
+      <c r="E9" s="2" t="n"/>
+      <c r="F9" s="2" t="n"/>
+      <c r="G9" s="2" t="n"/>
+      <c r="H9" s="2" t="n"/>
+      <c r="I9" s="2" t="n"/>
+      <c r="J9" s="2" t="n"/>
+      <c r="K9" s="2" t="n"/>
+      <c r="L9" s="2" t="n"/>
       <c r="M9" s="2" t="inlineStr">
         <is>
           <t>An attribute of location describing the density of an area, in terms of people and resources within it.</t>
         </is>
       </c>
-      <c r="N9" s="2" t="inlineStr"/>
-      <c r="O9" s="2" t="inlineStr"/>
-      <c r="P9" s="2" t="inlineStr"/>
-      <c r="Q9" s="2" t="inlineStr"/>
-      <c r="R9" s="2" t="inlineStr"/>
-      <c r="S9" s="2" t="inlineStr"/>
+      <c r="N9" s="2" t="n"/>
+      <c r="O9" s="2" t="n"/>
+      <c r="P9" s="2" t="n"/>
+      <c r="Q9" s="2" t="n"/>
+      <c r="R9" s="2" t="n"/>
+      <c r="S9" s="2" t="n"/>
       <c r="T9" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U9" s="2" t="inlineStr"/>
-      <c r="V9" s="2" t="inlineStr"/>
+      <c r="U9" s="2" t="n"/>
+      <c r="V9" s="2" t="n"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -972,15 +961,6 @@
           <t>population and resource density [BCIO:026007]</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr">
         <is>
           <t>An area which is outside of a town, city, or urban area. Rural areas are primarily used for agriculture or pastoralism and may contain rural settlements</t>
@@ -996,17 +976,11 @@
           <t>Environment Ontology</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="inlineStr"/>
       <c r="T10" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="U10" t="inlineStr"/>
-      <c r="V10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
@@ -1024,33 +998,33 @@
           <t>population and resource density [BCIO:026007]</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr"/>
-      <c r="E11" s="2" t="inlineStr"/>
-      <c r="F11" s="2" t="inlineStr"/>
-      <c r="G11" s="2" t="inlineStr"/>
-      <c r="H11" s="2" t="inlineStr"/>
-      <c r="I11" s="2" t="inlineStr"/>
-      <c r="J11" s="2" t="inlineStr"/>
-      <c r="K11" s="2" t="inlineStr"/>
-      <c r="L11" s="2" t="inlineStr"/>
+      <c r="D11" s="2" t="n"/>
+      <c r="E11" s="2" t="n"/>
+      <c r="F11" s="2" t="n"/>
+      <c r="G11" s="2" t="n"/>
+      <c r="H11" s="2" t="n"/>
+      <c r="I11" s="2" t="n"/>
+      <c r="J11" s="2" t="n"/>
+      <c r="K11" s="2" t="n"/>
+      <c r="L11" s="2" t="n"/>
       <c r="M11" s="2" t="inlineStr">
         <is>
           <t>An area on the edge of a large town or city where a proportion of those who work in the town or city live.</t>
         </is>
       </c>
-      <c r="N11" s="2" t="inlineStr"/>
-      <c r="O11" s="2" t="inlineStr"/>
-      <c r="P11" s="2" t="inlineStr"/>
-      <c r="Q11" s="2" t="inlineStr"/>
-      <c r="R11" s="2" t="inlineStr"/>
-      <c r="S11" s="2" t="inlineStr"/>
+      <c r="N11" s="2" t="n"/>
+      <c r="O11" s="2" t="n"/>
+      <c r="P11" s="2" t="n"/>
+      <c r="Q11" s="2" t="n"/>
+      <c r="R11" s="2" t="n"/>
+      <c r="S11" s="2" t="n"/>
       <c r="T11" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U11" s="2" t="inlineStr"/>
-      <c r="V11" s="2" t="inlineStr"/>
+      <c r="U11" s="2" t="n"/>
+      <c r="V11" s="2" t="n"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1068,15 +1042,6 @@
           <t>population and resource density [BCIO:026007]</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr">
         <is>
           <t>Incorporated populated place</t>
@@ -1092,17 +1057,11 @@
           <t>Environment Ontology</t>
         </is>
       </c>
-      <c r="P12" t="inlineStr"/>
-      <c r="Q12" t="inlineStr"/>
-      <c r="R12" t="inlineStr"/>
-      <c r="S12" t="inlineStr"/>
       <c r="T12" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="U12" t="inlineStr"/>
-      <c r="V12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1120,15 +1079,6 @@
           <t>Behaviour change intervention physical setting [BCIO:026000]</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr">
         <is>
           <t>A three-dimensional immaterial entity that is (partially or wholly) bounded by a material entity or it is a three-dimensional immaterial part thereof.</t>
@@ -1144,17 +1094,11 @@
           <t>Basic Formal Ontology</t>
         </is>
       </c>
-      <c r="P13" t="inlineStr"/>
-      <c r="Q13" t="inlineStr"/>
-      <c r="R13" t="inlineStr"/>
-      <c r="S13" t="inlineStr"/>
       <c r="T13" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="U13" t="inlineStr"/>
-      <c r="V13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1172,15 +1116,6 @@
           <t>site [BFO:0000029]</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr">
         <is>
           <t>An architectural structure that bears some function3</t>
@@ -1196,17 +1131,11 @@
           <t>Ontology of Medically Related Social Entities</t>
         </is>
       </c>
-      <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr"/>
-      <c r="S14" t="inlineStr"/>
       <c r="T14" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="U14" t="inlineStr"/>
-      <c r="V14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1224,15 +1153,6 @@
           <t>facility [OMRSE:00000062]</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr">
         <is>
           <t>A facility that has at least one housing unit as part in which a person or persons live</t>
@@ -1248,17 +1168,11 @@
           <t>Ontology of Medically Related Social Entities; contacted ontology authors to add definition</t>
         </is>
       </c>
-      <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr"/>
-      <c r="S15" t="inlineStr"/>
       <c r="T15" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="U15" t="inlineStr"/>
-      <c r="V15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
@@ -1276,33 +1190,33 @@
           <t>residential facility [OMRSE:00000191]</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr"/>
-      <c r="E16" s="2" t="inlineStr"/>
-      <c r="F16" s="2" t="inlineStr"/>
-      <c r="G16" s="2" t="inlineStr"/>
-      <c r="H16" s="2" t="inlineStr"/>
-      <c r="I16" s="2" t="inlineStr"/>
-      <c r="J16" s="2" t="inlineStr"/>
-      <c r="K16" s="2" t="inlineStr"/>
-      <c r="L16" s="2" t="inlineStr"/>
+      <c r="D16" s="2" t="n"/>
+      <c r="E16" s="2" t="n"/>
+      <c r="F16" s="2" t="n"/>
+      <c r="G16" s="2" t="n"/>
+      <c r="H16" s="2" t="n"/>
+      <c r="I16" s="2" t="n"/>
+      <c r="J16" s="2" t="n"/>
+      <c r="K16" s="2" t="n"/>
+      <c r="L16" s="2" t="n"/>
       <c r="M16" s="2" t="inlineStr">
         <is>
           <t>A facility where an individual is living alone or with one or more person. The individuals do not have to be related.</t>
         </is>
       </c>
-      <c r="N16" s="2" t="inlineStr"/>
-      <c r="O16" s="2" t="inlineStr"/>
-      <c r="P16" s="2" t="inlineStr"/>
-      <c r="Q16" s="2" t="inlineStr"/>
-      <c r="R16" s="2" t="inlineStr"/>
-      <c r="S16" s="2" t="inlineStr"/>
+      <c r="N16" s="2" t="n"/>
+      <c r="O16" s="2" t="n"/>
+      <c r="P16" s="2" t="n"/>
+      <c r="Q16" s="2" t="n"/>
+      <c r="R16" s="2" t="n"/>
+      <c r="S16" s="2" t="n"/>
       <c r="T16" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U16" s="2" t="inlineStr"/>
-      <c r="V16" s="2" t="inlineStr"/>
+      <c r="U16" s="2" t="n"/>
+      <c r="V16" s="2" t="n"/>
     </row>
     <row r="17">
       <c r="A17" s="2" t="inlineStr">
@@ -1320,37 +1234,37 @@
           <t>residential facility [OMRSE:00000191]</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr"/>
-      <c r="E17" s="2" t="inlineStr"/>
-      <c r="F17" s="2" t="inlineStr"/>
-      <c r="G17" s="2" t="inlineStr"/>
-      <c r="H17" s="2" t="inlineStr"/>
-      <c r="I17" s="2" t="inlineStr"/>
-      <c r="J17" s="2" t="inlineStr"/>
-      <c r="K17" s="2" t="inlineStr"/>
-      <c r="L17" s="2" t="inlineStr"/>
+      <c r="D17" s="2" t="n"/>
+      <c r="E17" s="2" t="n"/>
+      <c r="F17" s="2" t="n"/>
+      <c r="G17" s="2" t="n"/>
+      <c r="H17" s="2" t="n"/>
+      <c r="I17" s="2" t="n"/>
+      <c r="J17" s="2" t="n"/>
+      <c r="K17" s="2" t="n"/>
+      <c r="L17" s="2" t="n"/>
       <c r="M17" s="2" t="inlineStr">
         <is>
           <t>A facility where an individual lives with many others that may be collected according to a social structure such as education or disability.</t>
         </is>
       </c>
-      <c r="N17" s="2" t="inlineStr"/>
-      <c r="O17" s="2" t="inlineStr"/>
+      <c r="N17" s="2" t="n"/>
+      <c r="O17" s="2" t="n"/>
       <c r="P17" s="2" t="inlineStr">
         <is>
           <t>bedsit</t>
         </is>
       </c>
-      <c r="Q17" s="2" t="inlineStr"/>
-      <c r="R17" s="2" t="inlineStr"/>
-      <c r="S17" s="2" t="inlineStr"/>
+      <c r="Q17" s="2" t="n"/>
+      <c r="R17" s="2" t="n"/>
+      <c r="S17" s="2" t="n"/>
       <c r="T17" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U17" s="2" t="inlineStr"/>
-      <c r="V17" s="2" t="inlineStr"/>
+      <c r="U17" s="2" t="n"/>
+      <c r="V17" s="2" t="n"/>
     </row>
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
@@ -1368,37 +1282,37 @@
           <t>multiple occupancy residence [BCIO:026010]</t>
         </is>
       </c>
-      <c r="D18" s="2" t="inlineStr"/>
-      <c r="E18" s="2" t="inlineStr"/>
-      <c r="F18" s="2" t="inlineStr"/>
-      <c r="G18" s="2" t="inlineStr"/>
-      <c r="H18" s="2" t="inlineStr"/>
-      <c r="I18" s="2" t="inlineStr"/>
-      <c r="J18" s="2" t="inlineStr"/>
-      <c r="K18" s="2" t="inlineStr"/>
-      <c r="L18" s="2" t="inlineStr"/>
+      <c r="D18" s="2" t="n"/>
+      <c r="E18" s="2" t="n"/>
+      <c r="F18" s="2" t="n"/>
+      <c r="G18" s="2" t="n"/>
+      <c r="H18" s="2" t="n"/>
+      <c r="I18" s="2" t="n"/>
+      <c r="J18" s="2" t="n"/>
+      <c r="K18" s="2" t="n"/>
+      <c r="L18" s="2" t="n"/>
       <c r="M18" s="2" t="inlineStr">
         <is>
           <t>A multiple occupancy residence where many students live.</t>
         </is>
       </c>
-      <c r="N18" s="2" t="inlineStr"/>
-      <c r="O18" s="2" t="inlineStr"/>
+      <c r="N18" s="2" t="n"/>
+      <c r="O18" s="2" t="n"/>
       <c r="P18" s="2" t="inlineStr">
         <is>
           <t>student hall</t>
         </is>
       </c>
-      <c r="Q18" s="2" t="inlineStr"/>
-      <c r="R18" s="2" t="inlineStr"/>
-      <c r="S18" s="2" t="inlineStr"/>
+      <c r="Q18" s="2" t="n"/>
+      <c r="R18" s="2" t="n"/>
+      <c r="S18" s="2" t="n"/>
       <c r="T18" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U18" s="2" t="inlineStr"/>
-      <c r="V18" s="2" t="inlineStr"/>
+      <c r="U18" s="2" t="n"/>
+      <c r="V18" s="2" t="n"/>
     </row>
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
@@ -1416,37 +1330,37 @@
           <t>multiple occupancy residence [BCIO:026010]</t>
         </is>
       </c>
-      <c r="D19" s="2" t="inlineStr"/>
-      <c r="E19" s="2" t="inlineStr"/>
-      <c r="F19" s="2" t="inlineStr"/>
-      <c r="G19" s="2" t="inlineStr"/>
-      <c r="H19" s="2" t="inlineStr"/>
-      <c r="I19" s="2" t="inlineStr"/>
-      <c r="J19" s="2" t="inlineStr"/>
-      <c r="K19" s="2" t="inlineStr"/>
-      <c r="L19" s="2" t="inlineStr"/>
+      <c r="D19" s="2" t="n"/>
+      <c r="E19" s="2" t="n"/>
+      <c r="F19" s="2" t="n"/>
+      <c r="G19" s="2" t="n"/>
+      <c r="H19" s="2" t="n"/>
+      <c r="I19" s="2" t="n"/>
+      <c r="J19" s="2" t="n"/>
+      <c r="K19" s="2" t="n"/>
+      <c r="L19" s="2" t="n"/>
       <c r="M19" s="2" t="inlineStr">
         <is>
           <t>A multiple occupancy residence where multiple vulnerable people live</t>
         </is>
       </c>
-      <c r="N19" s="2" t="inlineStr"/>
-      <c r="O19" s="2" t="inlineStr"/>
+      <c r="N19" s="2" t="n"/>
+      <c r="O19" s="2" t="n"/>
       <c r="P19" s="2" t="inlineStr">
         <is>
           <t>retirement home</t>
         </is>
       </c>
-      <c r="Q19" s="2" t="inlineStr"/>
-      <c r="R19" s="2" t="inlineStr"/>
-      <c r="S19" s="2" t="inlineStr"/>
+      <c r="Q19" s="2" t="n"/>
+      <c r="R19" s="2" t="n"/>
+      <c r="S19" s="2" t="n"/>
       <c r="T19" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U19" s="2" t="inlineStr"/>
-      <c r="V19" s="2" t="inlineStr"/>
+      <c r="U19" s="2" t="n"/>
+      <c r="V19" s="2" t="n"/>
     </row>
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
@@ -1464,37 +1378,37 @@
           <t>residential facility [OMRSE:00000191]</t>
         </is>
       </c>
-      <c r="D20" s="2" t="inlineStr"/>
-      <c r="E20" s="2" t="inlineStr"/>
-      <c r="F20" s="2" t="inlineStr"/>
-      <c r="G20" s="2" t="inlineStr"/>
-      <c r="H20" s="2" t="inlineStr"/>
-      <c r="I20" s="2" t="inlineStr"/>
-      <c r="J20" s="2" t="inlineStr"/>
-      <c r="K20" s="2" t="inlineStr"/>
-      <c r="L20" s="2" t="inlineStr"/>
+      <c r="D20" s="2" t="n"/>
+      <c r="E20" s="2" t="n"/>
+      <c r="F20" s="2" t="n"/>
+      <c r="G20" s="2" t="n"/>
+      <c r="H20" s="2" t="n"/>
+      <c r="I20" s="2" t="n"/>
+      <c r="J20" s="2" t="n"/>
+      <c r="K20" s="2" t="n"/>
+      <c r="L20" s="2" t="n"/>
       <c r="M20" s="2" t="inlineStr">
         <is>
           <t>A residential facility where an individual is living that is not stable and secure.</t>
         </is>
       </c>
-      <c r="N20" s="2" t="inlineStr"/>
-      <c r="O20" s="2" t="inlineStr"/>
+      <c r="N20" s="2" t="n"/>
+      <c r="O20" s="2" t="n"/>
       <c r="P20" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">an architectural structure for which an individual does not have a legal right to stay </t>
         </is>
       </c>
-      <c r="Q20" s="2" t="inlineStr"/>
-      <c r="R20" s="2" t="inlineStr"/>
-      <c r="S20" s="2" t="inlineStr"/>
+      <c r="Q20" s="2" t="n"/>
+      <c r="R20" s="2" t="n"/>
+      <c r="S20" s="2" t="n"/>
       <c r="T20" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U20" s="2" t="inlineStr"/>
-      <c r="V20" s="2" t="inlineStr"/>
+      <c r="U20" s="2" t="n"/>
+      <c r="V20" s="2" t="n"/>
     </row>
     <row r="21">
       <c r="A21" s="2" t="inlineStr">
@@ -1512,37 +1426,37 @@
           <t>residential facility [OMRSE:00000191]</t>
         </is>
       </c>
-      <c r="D21" s="2" t="inlineStr"/>
-      <c r="E21" s="2" t="inlineStr"/>
-      <c r="F21" s="2" t="inlineStr"/>
-      <c r="G21" s="2" t="inlineStr"/>
-      <c r="H21" s="2" t="inlineStr"/>
-      <c r="I21" s="2" t="inlineStr"/>
-      <c r="J21" s="2" t="inlineStr"/>
-      <c r="K21" s="2" t="inlineStr"/>
-      <c r="L21" s="2" t="inlineStr"/>
+      <c r="D21" s="2" t="n"/>
+      <c r="E21" s="2" t="n"/>
+      <c r="F21" s="2" t="n"/>
+      <c r="G21" s="2" t="n"/>
+      <c r="H21" s="2" t="n"/>
+      <c r="I21" s="2" t="n"/>
+      <c r="J21" s="2" t="n"/>
+      <c r="K21" s="2" t="n"/>
+      <c r="L21" s="2" t="n"/>
       <c r="M21" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">A residential facility where individuals are in a transitional state of housing and not staying for a prolonged period. </t>
         </is>
       </c>
-      <c r="N21" s="2" t="inlineStr"/>
-      <c r="O21" s="2" t="inlineStr"/>
+      <c r="N21" s="2" t="n"/>
+      <c r="O21" s="2" t="n"/>
       <c r="P21" s="2" t="inlineStr">
         <is>
           <t>Hostels; BandB; emergency accomnodation</t>
         </is>
       </c>
-      <c r="Q21" s="2" t="inlineStr"/>
-      <c r="R21" s="2" t="inlineStr"/>
-      <c r="S21" s="2" t="inlineStr"/>
+      <c r="Q21" s="2" t="n"/>
+      <c r="R21" s="2" t="n"/>
+      <c r="S21" s="2" t="n"/>
       <c r="T21" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U21" s="2" t="inlineStr"/>
-      <c r="V21" s="2" t="inlineStr"/>
+      <c r="U21" s="2" t="n"/>
+      <c r="V21" s="2" t="n"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1560,15 +1474,6 @@
           <t>facility [OMRSE:00000062]</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr"/>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr">
         <is>
           <t>A facility that’s administered by a health care organisation for the purpose of providing health care to a patient population</t>
@@ -1584,17 +1489,11 @@
           <t>Ontology of Medically Related Social Entities</t>
         </is>
       </c>
-      <c r="P22" t="inlineStr"/>
-      <c r="Q22" t="inlineStr"/>
-      <c r="R22" t="inlineStr"/>
-      <c r="S22" t="inlineStr"/>
       <c r="T22" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="U22" t="inlineStr"/>
-      <c r="V22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1612,15 +1511,6 @@
           <t>healthcare facility [OMRSE:00000102]</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr"/>
-      <c r="G23" t="inlineStr"/>
-      <c r="H23" t="inlineStr"/>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr">
         <is>
           <t>A facility that is run by a hospital organization, such as emergency departments, outpatient clinics and rehabilitation and is the bearer of a hospital function</t>
@@ -1636,17 +1526,11 @@
           <t>Ontology of Medically Related Social Entities</t>
         </is>
       </c>
-      <c r="P23" t="inlineStr"/>
-      <c r="Q23" t="inlineStr"/>
-      <c r="R23" t="inlineStr"/>
-      <c r="S23" t="inlineStr"/>
       <c r="T23" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="U23" t="inlineStr"/>
-      <c r="V23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1664,15 +1548,6 @@
           <t>hospital facility [OMRSE:00000063]</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr"/>
-      <c r="G24" t="inlineStr"/>
-      <c r="H24" t="inlineStr"/>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr">
         <is>
           <t>A health care facility that bears a function to provide emergency healthcare services and the acute care of patients who present without prior appointment, having arrived either by their own means or by ambulance</t>
@@ -1688,17 +1563,11 @@
           <t>OMRSE_00000114</t>
         </is>
       </c>
-      <c r="P24" t="inlineStr"/>
-      <c r="Q24" t="inlineStr"/>
-      <c r="R24" t="inlineStr"/>
-      <c r="S24" t="inlineStr"/>
       <c r="T24" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="U24" t="inlineStr"/>
-      <c r="V24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="2" t="inlineStr">
@@ -1716,33 +1585,33 @@
           <t>hospital facility [OMRSE:00000063]</t>
         </is>
       </c>
-      <c r="D25" s="2" t="inlineStr"/>
-      <c r="E25" s="2" t="inlineStr"/>
-      <c r="F25" s="2" t="inlineStr"/>
-      <c r="G25" s="2" t="inlineStr"/>
-      <c r="H25" s="2" t="inlineStr"/>
-      <c r="I25" s="2" t="inlineStr"/>
-      <c r="J25" s="2" t="inlineStr"/>
-      <c r="K25" s="2" t="inlineStr"/>
-      <c r="L25" s="2" t="inlineStr"/>
+      <c r="D25" s="2" t="n"/>
+      <c r="E25" s="2" t="n"/>
+      <c r="F25" s="2" t="n"/>
+      <c r="G25" s="2" t="n"/>
+      <c r="H25" s="2" t="n"/>
+      <c r="I25" s="2" t="n"/>
+      <c r="J25" s="2" t="n"/>
+      <c r="K25" s="2" t="n"/>
+      <c r="L25" s="2" t="n"/>
       <c r="M25" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">A hospital facility to treat patients without them staying overnight, often after a hospital visit. </t>
         </is>
       </c>
-      <c r="N25" s="2" t="inlineStr"/>
-      <c r="O25" s="2" t="inlineStr"/>
-      <c r="P25" s="2" t="inlineStr"/>
-      <c r="Q25" s="2" t="inlineStr"/>
-      <c r="R25" s="2" t="inlineStr"/>
-      <c r="S25" s="2" t="inlineStr"/>
+      <c r="N25" s="2" t="n"/>
+      <c r="O25" s="2" t="n"/>
+      <c r="P25" s="2" t="n"/>
+      <c r="Q25" s="2" t="n"/>
+      <c r="R25" s="2" t="n"/>
+      <c r="S25" s="2" t="n"/>
       <c r="T25" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U25" s="2" t="inlineStr"/>
-      <c r="V25" s="2" t="inlineStr"/>
+      <c r="U25" s="2" t="n"/>
+      <c r="V25" s="2" t="n"/>
     </row>
     <row r="26">
       <c r="A26" s="2" t="inlineStr">
@@ -1760,37 +1629,37 @@
           <t>healthcare facility [OMRSE:00000102]</t>
         </is>
       </c>
-      <c r="D26" s="2" t="inlineStr"/>
-      <c r="E26" s="2" t="inlineStr"/>
-      <c r="F26" s="2" t="inlineStr"/>
-      <c r="G26" s="2" t="inlineStr"/>
-      <c r="H26" s="2" t="inlineStr"/>
-      <c r="I26" s="2" t="inlineStr"/>
-      <c r="J26" s="2" t="inlineStr"/>
-      <c r="K26" s="2" t="inlineStr"/>
-      <c r="L26" s="2" t="inlineStr"/>
+      <c r="D26" s="2" t="n"/>
+      <c r="E26" s="2" t="n"/>
+      <c r="F26" s="2" t="n"/>
+      <c r="G26" s="2" t="n"/>
+      <c r="H26" s="2" t="n"/>
+      <c r="I26" s="2" t="n"/>
+      <c r="J26" s="2" t="n"/>
+      <c r="K26" s="2" t="n"/>
+      <c r="L26" s="2" t="n"/>
       <c r="M26" s="2" t="inlineStr">
         <is>
           <t>A healthcare facility led by doctors.</t>
         </is>
       </c>
-      <c r="N26" s="2" t="inlineStr"/>
-      <c r="O26" s="2" t="inlineStr"/>
+      <c r="N26" s="2" t="n"/>
+      <c r="O26" s="2" t="n"/>
       <c r="P26" s="2" t="inlineStr">
         <is>
           <t>general practitioners surgery; doctor surgery</t>
         </is>
       </c>
-      <c r="Q26" s="2" t="inlineStr"/>
-      <c r="R26" s="2" t="inlineStr"/>
-      <c r="S26" s="2" t="inlineStr"/>
+      <c r="Q26" s="2" t="n"/>
+      <c r="R26" s="2" t="n"/>
+      <c r="S26" s="2" t="n"/>
       <c r="T26" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U26" s="2" t="inlineStr"/>
-      <c r="V26" s="2" t="inlineStr"/>
+      <c r="U26" s="2" t="n"/>
+      <c r="V26" s="2" t="n"/>
     </row>
     <row r="27">
       <c r="A27" s="2" t="inlineStr">
@@ -1808,33 +1677,33 @@
           <t>healthcare facility [OMRSE:00000102]</t>
         </is>
       </c>
-      <c r="D27" s="2" t="inlineStr"/>
-      <c r="E27" s="2" t="inlineStr"/>
-      <c r="F27" s="2" t="inlineStr"/>
-      <c r="G27" s="2" t="inlineStr"/>
-      <c r="H27" s="2" t="inlineStr"/>
-      <c r="I27" s="2" t="inlineStr"/>
-      <c r="J27" s="2" t="inlineStr"/>
-      <c r="K27" s="2" t="inlineStr"/>
-      <c r="L27" s="2" t="inlineStr"/>
+      <c r="D27" s="2" t="n"/>
+      <c r="E27" s="2" t="n"/>
+      <c r="F27" s="2" t="n"/>
+      <c r="G27" s="2" t="n"/>
+      <c r="H27" s="2" t="n"/>
+      <c r="I27" s="2" t="n"/>
+      <c r="J27" s="2" t="n"/>
+      <c r="K27" s="2" t="n"/>
+      <c r="L27" s="2" t="n"/>
       <c r="M27" s="2" t="inlineStr">
         <is>
           <t>A healthcare facility that is run by a care home organization and is the bearer of a care home function.</t>
         </is>
       </c>
-      <c r="N27" s="2" t="inlineStr"/>
-      <c r="O27" s="2" t="inlineStr"/>
-      <c r="P27" s="2" t="inlineStr"/>
-      <c r="Q27" s="2" t="inlineStr"/>
-      <c r="R27" s="2" t="inlineStr"/>
-      <c r="S27" s="2" t="inlineStr"/>
+      <c r="N27" s="2" t="n"/>
+      <c r="O27" s="2" t="n"/>
+      <c r="P27" s="2" t="n"/>
+      <c r="Q27" s="2" t="n"/>
+      <c r="R27" s="2" t="n"/>
+      <c r="S27" s="2" t="n"/>
       <c r="T27" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U27" s="2" t="inlineStr"/>
-      <c r="V27" s="2" t="inlineStr"/>
+      <c r="U27" s="2" t="n"/>
+      <c r="V27" s="2" t="n"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1852,15 +1721,6 @@
           <t>healthcare facility [OMRSE:00000102]</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr"/>
-      <c r="G28" t="inlineStr"/>
-      <c r="H28" t="inlineStr"/>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
       <c r="M28" t="inlineStr">
         <is>
           <t>A health care facility that bears a function to provide healthcare to the sick or terminally ill</t>
@@ -1876,17 +1736,11 @@
           <t>Ontology of Medically Related Social Entities; contacted ontology authors to add definition</t>
         </is>
       </c>
-      <c r="P28" t="inlineStr"/>
-      <c r="Q28" t="inlineStr"/>
-      <c r="R28" t="inlineStr"/>
-      <c r="S28" t="inlineStr"/>
       <c r="T28" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="U28" t="inlineStr"/>
-      <c r="V28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1904,15 +1758,6 @@
           <t>healthcare facility [OMRSE:00000102]</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr"/>
-      <c r="E29" t="inlineStr"/>
-      <c r="F29" t="inlineStr"/>
-      <c r="G29" t="inlineStr"/>
-      <c r="H29" t="inlineStr"/>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
       <c r="M29" t="inlineStr">
         <is>
           <t>A health care facility whose function is to store, prepare, dispense, and monitor the usage of pharmaceutical drugs among patients in a given area or encountered in a given health care provider organization</t>
@@ -1928,17 +1773,11 @@
           <t>The Prescription of Drugs Ontology</t>
         </is>
       </c>
-      <c r="P29" t="inlineStr"/>
-      <c r="Q29" t="inlineStr"/>
-      <c r="R29" t="inlineStr"/>
-      <c r="S29" t="inlineStr"/>
       <c r="T29" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="U29" t="inlineStr"/>
-      <c r="V29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1956,15 +1795,6 @@
           <t>healthcare facility [OMRSE:00000102]</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr"/>
-      <c r="G30" t="inlineStr"/>
-      <c r="H30" t="inlineStr"/>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr">
         <is>
           <t>A facility to assist in physical or addiction recovery</t>
@@ -1980,17 +1810,11 @@
           <t>Ontology of Medically Related Social Entities; contacted ontology authors to add definition</t>
         </is>
       </c>
-      <c r="P30" t="inlineStr"/>
-      <c r="Q30" t="inlineStr"/>
-      <c r="R30" t="inlineStr"/>
-      <c r="S30" t="inlineStr"/>
       <c r="T30" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="U30" t="inlineStr"/>
-      <c r="V30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="2" t="inlineStr">
@@ -2008,33 +1832,33 @@
           <t>rehabilitation facility [OMRSE:00000106]</t>
         </is>
       </c>
-      <c r="D31" s="2" t="inlineStr"/>
-      <c r="E31" s="2" t="inlineStr"/>
-      <c r="F31" s="2" t="inlineStr"/>
-      <c r="G31" s="2" t="inlineStr"/>
-      <c r="H31" s="2" t="inlineStr"/>
-      <c r="I31" s="2" t="inlineStr"/>
-      <c r="J31" s="2" t="inlineStr"/>
-      <c r="K31" s="2" t="inlineStr"/>
-      <c r="L31" s="2" t="inlineStr"/>
+      <c r="D31" s="2" t="n"/>
+      <c r="E31" s="2" t="n"/>
+      <c r="F31" s="2" t="n"/>
+      <c r="G31" s="2" t="n"/>
+      <c r="H31" s="2" t="n"/>
+      <c r="I31" s="2" t="n"/>
+      <c r="J31" s="2" t="n"/>
+      <c r="K31" s="2" t="n"/>
+      <c r="L31" s="2" t="n"/>
       <c r="M31" s="2" t="inlineStr">
         <is>
           <t>A rehabilitation facility to assist the recovery of people with drug or alcohol addiction.</t>
         </is>
       </c>
-      <c r="N31" s="2" t="inlineStr"/>
-      <c r="O31" s="2" t="inlineStr"/>
-      <c r="P31" s="2" t="inlineStr"/>
-      <c r="Q31" s="2" t="inlineStr"/>
-      <c r="R31" s="2" t="inlineStr"/>
-      <c r="S31" s="2" t="inlineStr"/>
+      <c r="N31" s="2" t="n"/>
+      <c r="O31" s="2" t="n"/>
+      <c r="P31" s="2" t="n"/>
+      <c r="Q31" s="2" t="n"/>
+      <c r="R31" s="2" t="n"/>
+      <c r="S31" s="2" t="n"/>
       <c r="T31" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U31" s="2" t="inlineStr"/>
-      <c r="V31" s="2" t="inlineStr"/>
+      <c r="U31" s="2" t="n"/>
+      <c r="V31" s="2" t="n"/>
     </row>
     <row r="32">
       <c r="A32" s="2" t="inlineStr">
@@ -2052,15 +1876,15 @@
           <t>healthcare facility [OMRSE:00000102]</t>
         </is>
       </c>
-      <c r="D32" s="2" t="inlineStr"/>
-      <c r="E32" s="2" t="inlineStr"/>
-      <c r="F32" s="2" t="inlineStr"/>
-      <c r="G32" s="2" t="inlineStr"/>
-      <c r="H32" s="2" t="inlineStr"/>
-      <c r="I32" s="2" t="inlineStr"/>
-      <c r="J32" s="2" t="inlineStr"/>
-      <c r="K32" s="2" t="inlineStr"/>
-      <c r="L32" s="2" t="inlineStr"/>
+      <c r="D32" s="2" t="n"/>
+      <c r="E32" s="2" t="n"/>
+      <c r="F32" s="2" t="n"/>
+      <c r="G32" s="2" t="n"/>
+      <c r="H32" s="2" t="n"/>
+      <c r="I32" s="2" t="n"/>
+      <c r="J32" s="2" t="n"/>
+      <c r="K32" s="2" t="n"/>
+      <c r="L32" s="2" t="n"/>
       <c r="M32" s="2" t="inlineStr">
         <is>
           <t>A place designed and staffed to house and treat individuals that need assistance with mental dysfunctions</t>
@@ -2076,17 +1900,17 @@
           <t>NCI Thesaurus OBO Edition</t>
         </is>
       </c>
-      <c r="P32" s="2" t="inlineStr"/>
-      <c r="Q32" s="2" t="inlineStr"/>
-      <c r="R32" s="2" t="inlineStr"/>
-      <c r="S32" s="2" t="inlineStr"/>
+      <c r="P32" s="2" t="n"/>
+      <c r="Q32" s="2" t="n"/>
+      <c r="R32" s="2" t="n"/>
+      <c r="S32" s="2" t="n"/>
       <c r="T32" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U32" s="2" t="inlineStr"/>
-      <c r="V32" s="2" t="inlineStr"/>
+      <c r="U32" s="2" t="n"/>
+      <c r="V32" s="2" t="n"/>
     </row>
     <row r="33">
       <c r="A33" s="2" t="inlineStr">
@@ -2104,37 +1928,37 @@
           <t>healthcare facility [OMRSE:00000102]</t>
         </is>
       </c>
-      <c r="D33" s="2" t="inlineStr"/>
-      <c r="E33" s="2" t="inlineStr"/>
-      <c r="F33" s="2" t="inlineStr"/>
-      <c r="G33" s="2" t="inlineStr"/>
-      <c r="H33" s="2" t="inlineStr"/>
-      <c r="I33" s="2" t="inlineStr"/>
-      <c r="J33" s="2" t="inlineStr"/>
-      <c r="K33" s="2" t="inlineStr"/>
-      <c r="L33" s="2" t="inlineStr"/>
+      <c r="D33" s="2" t="n"/>
+      <c r="E33" s="2" t="n"/>
+      <c r="F33" s="2" t="n"/>
+      <c r="G33" s="2" t="n"/>
+      <c r="H33" s="2" t="n"/>
+      <c r="I33" s="2" t="n"/>
+      <c r="J33" s="2" t="n"/>
+      <c r="K33" s="2" t="n"/>
+      <c r="L33" s="2" t="n"/>
       <c r="M33" s="2" t="inlineStr">
         <is>
           <t>A clinic providing healthcare services to people in a certain area</t>
         </is>
       </c>
-      <c r="N33" s="2" t="inlineStr"/>
-      <c r="O33" s="2" t="inlineStr"/>
+      <c r="N33" s="2" t="n"/>
+      <c r="O33" s="2" t="n"/>
       <c r="P33" s="2" t="inlineStr">
         <is>
           <t>polyclinic</t>
         </is>
       </c>
-      <c r="Q33" s="2" t="inlineStr"/>
-      <c r="R33" s="2" t="inlineStr"/>
-      <c r="S33" s="2" t="inlineStr"/>
+      <c r="Q33" s="2" t="n"/>
+      <c r="R33" s="2" t="n"/>
+      <c r="S33" s="2" t="n"/>
       <c r="T33" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U33" s="2" t="inlineStr"/>
-      <c r="V33" s="2" t="inlineStr"/>
+      <c r="U33" s="2" t="n"/>
+      <c r="V33" s="2" t="n"/>
     </row>
     <row r="34">
       <c r="A34" s="2" t="inlineStr">
@@ -2152,33 +1976,33 @@
           <t>community healthcare facility [BCIO:026019]</t>
         </is>
       </c>
-      <c r="D34" s="2" t="inlineStr"/>
-      <c r="E34" s="2" t="inlineStr"/>
-      <c r="F34" s="2" t="inlineStr"/>
-      <c r="G34" s="2" t="inlineStr"/>
-      <c r="H34" s="2" t="inlineStr"/>
-      <c r="I34" s="2" t="inlineStr"/>
-      <c r="J34" s="2" t="inlineStr"/>
-      <c r="K34" s="2" t="inlineStr"/>
-      <c r="L34" s="2" t="inlineStr"/>
+      <c r="D34" s="2" t="n"/>
+      <c r="E34" s="2" t="n"/>
+      <c r="F34" s="2" t="n"/>
+      <c r="G34" s="2" t="n"/>
+      <c r="H34" s="2" t="n"/>
+      <c r="I34" s="2" t="n"/>
+      <c r="J34" s="2" t="n"/>
+      <c r="K34" s="2" t="n"/>
+      <c r="L34" s="2" t="n"/>
       <c r="M34" s="2" t="inlineStr">
         <is>
           <t>A healthcare facility to treat patients in the community without them staying overnight.</t>
         </is>
       </c>
-      <c r="N34" s="2" t="inlineStr"/>
-      <c r="O34" s="2" t="inlineStr"/>
-      <c r="P34" s="2" t="inlineStr"/>
-      <c r="Q34" s="2" t="inlineStr"/>
-      <c r="R34" s="2" t="inlineStr"/>
-      <c r="S34" s="2" t="inlineStr"/>
+      <c r="N34" s="2" t="n"/>
+      <c r="O34" s="2" t="n"/>
+      <c r="P34" s="2" t="n"/>
+      <c r="Q34" s="2" t="n"/>
+      <c r="R34" s="2" t="n"/>
+      <c r="S34" s="2" t="n"/>
       <c r="T34" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U34" s="2" t="inlineStr"/>
-      <c r="V34" s="2" t="inlineStr"/>
+      <c r="U34" s="2" t="n"/>
+      <c r="V34" s="2" t="n"/>
     </row>
     <row r="35">
       <c r="A35" s="2" t="inlineStr">
@@ -2196,33 +2020,33 @@
           <t>healthcare facility [OMRSE:00000102]</t>
         </is>
       </c>
-      <c r="D35" s="2" t="inlineStr"/>
-      <c r="E35" s="2" t="inlineStr"/>
-      <c r="F35" s="2" t="inlineStr"/>
-      <c r="G35" s="2" t="inlineStr"/>
-      <c r="H35" s="2" t="inlineStr"/>
-      <c r="I35" s="2" t="inlineStr"/>
-      <c r="J35" s="2" t="inlineStr"/>
-      <c r="K35" s="2" t="inlineStr"/>
-      <c r="L35" s="2" t="inlineStr"/>
+      <c r="D35" s="2" t="n"/>
+      <c r="E35" s="2" t="n"/>
+      <c r="F35" s="2" t="n"/>
+      <c r="G35" s="2" t="n"/>
+      <c r="H35" s="2" t="n"/>
+      <c r="I35" s="2" t="n"/>
+      <c r="J35" s="2" t="n"/>
+      <c r="K35" s="2" t="n"/>
+      <c r="L35" s="2" t="n"/>
       <c r="M35" s="2" t="inlineStr">
         <is>
           <t>A healthcare facility where dental healthcare is provided.</t>
         </is>
       </c>
-      <c r="N35" s="2" t="inlineStr"/>
-      <c r="O35" s="2" t="inlineStr"/>
-      <c r="P35" s="2" t="inlineStr"/>
-      <c r="Q35" s="2" t="inlineStr"/>
-      <c r="R35" s="2" t="inlineStr"/>
-      <c r="S35" s="2" t="inlineStr"/>
+      <c r="N35" s="2" t="n"/>
+      <c r="O35" s="2" t="n"/>
+      <c r="P35" s="2" t="n"/>
+      <c r="Q35" s="2" t="n"/>
+      <c r="R35" s="2" t="n"/>
+      <c r="S35" s="2" t="n"/>
       <c r="T35" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U35" s="2" t="inlineStr"/>
-      <c r="V35" s="2" t="inlineStr"/>
+      <c r="U35" s="2" t="n"/>
+      <c r="V35" s="2" t="n"/>
     </row>
     <row r="36">
       <c r="A36" s="2" t="inlineStr">
@@ -2240,33 +2064,33 @@
           <t>facility [OMRSE:00000062]</t>
         </is>
       </c>
-      <c r="D36" s="2" t="inlineStr"/>
-      <c r="E36" s="2" t="inlineStr"/>
-      <c r="F36" s="2" t="inlineStr"/>
-      <c r="G36" s="2" t="inlineStr"/>
-      <c r="H36" s="2" t="inlineStr"/>
-      <c r="I36" s="2" t="inlineStr"/>
-      <c r="J36" s="2" t="inlineStr"/>
-      <c r="K36" s="2" t="inlineStr"/>
-      <c r="L36" s="2" t="inlineStr"/>
+      <c r="D36" s="2" t="n"/>
+      <c r="E36" s="2" t="n"/>
+      <c r="F36" s="2" t="n"/>
+      <c r="G36" s="2" t="n"/>
+      <c r="H36" s="2" t="n"/>
+      <c r="I36" s="2" t="n"/>
+      <c r="J36" s="2" t="n"/>
+      <c r="K36" s="2" t="n"/>
+      <c r="L36" s="2" t="n"/>
       <c r="M36" s="2" t="inlineStr">
         <is>
           <t>A facility in which formal education is provided to a student population.</t>
         </is>
       </c>
-      <c r="N36" s="2" t="inlineStr"/>
-      <c r="O36" s="2" t="inlineStr"/>
-      <c r="P36" s="2" t="inlineStr"/>
-      <c r="Q36" s="2" t="inlineStr"/>
-      <c r="R36" s="2" t="inlineStr"/>
-      <c r="S36" s="2" t="inlineStr"/>
+      <c r="N36" s="2" t="n"/>
+      <c r="O36" s="2" t="n"/>
+      <c r="P36" s="2" t="n"/>
+      <c r="Q36" s="2" t="n"/>
+      <c r="R36" s="2" t="n"/>
+      <c r="S36" s="2" t="n"/>
       <c r="T36" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U36" s="2" t="inlineStr"/>
-      <c r="V36" s="2" t="inlineStr"/>
+      <c r="U36" s="2" t="n"/>
+      <c r="V36" s="2" t="n"/>
     </row>
     <row r="37">
       <c r="A37" s="2" t="inlineStr">
@@ -2284,37 +2108,37 @@
           <t>educational facility [BCIO:026022]</t>
         </is>
       </c>
-      <c r="D37" s="2" t="inlineStr"/>
-      <c r="E37" s="2" t="inlineStr"/>
-      <c r="F37" s="2" t="inlineStr"/>
-      <c r="G37" s="2" t="inlineStr"/>
-      <c r="H37" s="2" t="inlineStr"/>
-      <c r="I37" s="2" t="inlineStr"/>
-      <c r="J37" s="2" t="inlineStr"/>
-      <c r="K37" s="2" t="inlineStr"/>
-      <c r="L37" s="2" t="inlineStr"/>
+      <c r="D37" s="2" t="n"/>
+      <c r="E37" s="2" t="n"/>
+      <c r="F37" s="2" t="n"/>
+      <c r="G37" s="2" t="n"/>
+      <c r="H37" s="2" t="n"/>
+      <c r="I37" s="2" t="n"/>
+      <c r="J37" s="2" t="n"/>
+      <c r="K37" s="2" t="n"/>
+      <c r="L37" s="2" t="n"/>
       <c r="M37" s="2" t="inlineStr">
         <is>
           <t>An educational facility in which pre-school education is provided.</t>
         </is>
       </c>
-      <c r="N37" s="2" t="inlineStr"/>
-      <c r="O37" s="2" t="inlineStr"/>
+      <c r="N37" s="2" t="n"/>
+      <c r="O37" s="2" t="n"/>
       <c r="P37" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">nursery school </t>
         </is>
       </c>
-      <c r="Q37" s="2" t="inlineStr"/>
-      <c r="R37" s="2" t="inlineStr"/>
-      <c r="S37" s="2" t="inlineStr"/>
+      <c r="Q37" s="2" t="n"/>
+      <c r="R37" s="2" t="n"/>
+      <c r="S37" s="2" t="n"/>
       <c r="T37" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U37" s="2" t="inlineStr"/>
-      <c r="V37" s="2" t="inlineStr"/>
+      <c r="U37" s="2" t="n"/>
+      <c r="V37" s="2" t="n"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -2332,15 +2156,6 @@
           <t>educational facility [BCIO:026022]</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr"/>
-      <c r="E38" t="inlineStr"/>
-      <c r="F38" t="inlineStr"/>
-      <c r="G38" t="inlineStr"/>
-      <c r="H38" t="inlineStr"/>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
       <c r="M38" t="inlineStr">
         <is>
           <t>A facility that is run by a school organization and is the bearer of a school function</t>
@@ -2356,17 +2171,11 @@
           <t>Ontology of Medically Related Social Entities</t>
         </is>
       </c>
-      <c r="P38" t="inlineStr"/>
-      <c r="Q38" t="inlineStr"/>
-      <c r="R38" t="inlineStr"/>
-      <c r="S38" t="inlineStr"/>
       <c r="T38" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="U38" t="inlineStr"/>
-      <c r="V38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="2" t="inlineStr">
@@ -2384,33 +2193,33 @@
           <t>school facility [OMRSE:00000064]</t>
         </is>
       </c>
-      <c r="D39" s="2" t="inlineStr"/>
-      <c r="E39" s="2" t="inlineStr"/>
-      <c r="F39" s="2" t="inlineStr"/>
-      <c r="G39" s="2" t="inlineStr"/>
-      <c r="H39" s="2" t="inlineStr"/>
-      <c r="I39" s="2" t="inlineStr"/>
-      <c r="J39" s="2" t="inlineStr"/>
-      <c r="K39" s="2" t="inlineStr"/>
-      <c r="L39" s="2" t="inlineStr"/>
+      <c r="D39" s="2" t="n"/>
+      <c r="E39" s="2" t="n"/>
+      <c r="F39" s="2" t="n"/>
+      <c r="G39" s="2" t="n"/>
+      <c r="H39" s="2" t="n"/>
+      <c r="I39" s="2" t="n"/>
+      <c r="J39" s="2" t="n"/>
+      <c r="K39" s="2" t="n"/>
+      <c r="L39" s="2" t="n"/>
       <c r="M39" s="2" t="inlineStr">
         <is>
           <t>A school facility for younger children, typically aged between five and eleven.</t>
         </is>
       </c>
-      <c r="N39" s="2" t="inlineStr"/>
-      <c r="O39" s="2" t="inlineStr"/>
-      <c r="P39" s="2" t="inlineStr"/>
-      <c r="Q39" s="2" t="inlineStr"/>
-      <c r="R39" s="2" t="inlineStr"/>
-      <c r="S39" s="2" t="inlineStr"/>
+      <c r="N39" s="2" t="n"/>
+      <c r="O39" s="2" t="n"/>
+      <c r="P39" s="2" t="n"/>
+      <c r="Q39" s="2" t="n"/>
+      <c r="R39" s="2" t="n"/>
+      <c r="S39" s="2" t="n"/>
       <c r="T39" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U39" s="2" t="inlineStr"/>
-      <c r="V39" s="2" t="inlineStr"/>
+      <c r="U39" s="2" t="n"/>
+      <c r="V39" s="2" t="n"/>
     </row>
     <row r="40">
       <c r="A40" s="2" t="inlineStr">
@@ -2428,33 +2237,33 @@
           <t>school facility [OMRSE:00000064]</t>
         </is>
       </c>
-      <c r="D40" s="2" t="inlineStr"/>
-      <c r="E40" s="2" t="inlineStr"/>
-      <c r="F40" s="2" t="inlineStr"/>
-      <c r="G40" s="2" t="inlineStr"/>
-      <c r="H40" s="2" t="inlineStr"/>
-      <c r="I40" s="2" t="inlineStr"/>
-      <c r="J40" s="2" t="inlineStr"/>
-      <c r="K40" s="2" t="inlineStr"/>
-      <c r="L40" s="2" t="inlineStr"/>
+      <c r="D40" s="2" t="n"/>
+      <c r="E40" s="2" t="n"/>
+      <c r="F40" s="2" t="n"/>
+      <c r="G40" s="2" t="n"/>
+      <c r="H40" s="2" t="n"/>
+      <c r="I40" s="2" t="n"/>
+      <c r="J40" s="2" t="n"/>
+      <c r="K40" s="2" t="n"/>
+      <c r="L40" s="2" t="n"/>
       <c r="M40" s="2" t="inlineStr">
         <is>
           <t>A school facility providing education between primary and secondary school.</t>
         </is>
       </c>
-      <c r="N40" s="2" t="inlineStr"/>
-      <c r="O40" s="2" t="inlineStr"/>
-      <c r="P40" s="2" t="inlineStr"/>
-      <c r="Q40" s="2" t="inlineStr"/>
-      <c r="R40" s="2" t="inlineStr"/>
-      <c r="S40" s="2" t="inlineStr"/>
+      <c r="N40" s="2" t="n"/>
+      <c r="O40" s="2" t="n"/>
+      <c r="P40" s="2" t="n"/>
+      <c r="Q40" s="2" t="n"/>
+      <c r="R40" s="2" t="n"/>
+      <c r="S40" s="2" t="n"/>
       <c r="T40" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U40" s="2" t="inlineStr"/>
-      <c r="V40" s="2" t="inlineStr"/>
+      <c r="U40" s="2" t="n"/>
+      <c r="V40" s="2" t="n"/>
     </row>
     <row r="41">
       <c r="A41" s="2" t="inlineStr">
@@ -2472,37 +2281,37 @@
           <t>school facility [OMRSE:00000064]</t>
         </is>
       </c>
-      <c r="D41" s="2" t="inlineStr"/>
-      <c r="E41" s="2" t="inlineStr"/>
-      <c r="F41" s="2" t="inlineStr"/>
-      <c r="G41" s="2" t="inlineStr"/>
-      <c r="H41" s="2" t="inlineStr"/>
-      <c r="I41" s="2" t="inlineStr"/>
-      <c r="J41" s="2" t="inlineStr"/>
-      <c r="K41" s="2" t="inlineStr"/>
-      <c r="L41" s="2" t="inlineStr"/>
+      <c r="D41" s="2" t="n"/>
+      <c r="E41" s="2" t="n"/>
+      <c r="F41" s="2" t="n"/>
+      <c r="G41" s="2" t="n"/>
+      <c r="H41" s="2" t="n"/>
+      <c r="I41" s="2" t="n"/>
+      <c r="J41" s="2" t="n"/>
+      <c r="K41" s="2" t="n"/>
+      <c r="L41" s="2" t="n"/>
       <c r="M41" s="2" t="inlineStr">
         <is>
           <t>A school facility for older children and teenagers, typically aged between eleven and eighteen.</t>
         </is>
       </c>
-      <c r="N41" s="2" t="inlineStr"/>
-      <c r="O41" s="2" t="inlineStr"/>
+      <c r="N41" s="2" t="n"/>
+      <c r="O41" s="2" t="n"/>
       <c r="P41" s="2" t="inlineStr">
         <is>
           <t>high school</t>
         </is>
       </c>
-      <c r="Q41" s="2" t="inlineStr"/>
-      <c r="R41" s="2" t="inlineStr"/>
-      <c r="S41" s="2" t="inlineStr"/>
+      <c r="Q41" s="2" t="n"/>
+      <c r="R41" s="2" t="n"/>
+      <c r="S41" s="2" t="n"/>
       <c r="T41" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U41" s="2" t="inlineStr"/>
-      <c r="V41" s="2" t="inlineStr"/>
+      <c r="U41" s="2" t="n"/>
+      <c r="V41" s="2" t="n"/>
     </row>
     <row r="42">
       <c r="A42" s="2" t="inlineStr">
@@ -2520,33 +2329,33 @@
           <t>educational facility [BCIO:026022]</t>
         </is>
       </c>
-      <c r="D42" s="2" t="inlineStr"/>
-      <c r="E42" s="2" t="inlineStr"/>
-      <c r="F42" s="2" t="inlineStr"/>
-      <c r="G42" s="2" t="inlineStr"/>
-      <c r="H42" s="2" t="inlineStr"/>
-      <c r="I42" s="2" t="inlineStr"/>
-      <c r="J42" s="2" t="inlineStr"/>
-      <c r="K42" s="2" t="inlineStr"/>
-      <c r="L42" s="2" t="inlineStr"/>
+      <c r="D42" s="2" t="n"/>
+      <c r="E42" s="2" t="n"/>
+      <c r="F42" s="2" t="n"/>
+      <c r="G42" s="2" t="n"/>
+      <c r="H42" s="2" t="n"/>
+      <c r="I42" s="2" t="n"/>
+      <c r="J42" s="2" t="n"/>
+      <c r="K42" s="2" t="n"/>
+      <c r="L42" s="2" t="n"/>
       <c r="M42" s="2" t="inlineStr">
         <is>
           <t>An educational facility providing practically based, occupationally-specific teaching.</t>
         </is>
       </c>
-      <c r="N42" s="2" t="inlineStr"/>
-      <c r="O42" s="2" t="inlineStr"/>
-      <c r="P42" s="2" t="inlineStr"/>
-      <c r="Q42" s="2" t="inlineStr"/>
-      <c r="R42" s="2" t="inlineStr"/>
-      <c r="S42" s="2" t="inlineStr"/>
+      <c r="N42" s="2" t="n"/>
+      <c r="O42" s="2" t="n"/>
+      <c r="P42" s="2" t="n"/>
+      <c r="Q42" s="2" t="n"/>
+      <c r="R42" s="2" t="n"/>
+      <c r="S42" s="2" t="n"/>
       <c r="T42" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U42" s="2" t="inlineStr"/>
-      <c r="V42" s="2" t="inlineStr"/>
+      <c r="U42" s="2" t="n"/>
+      <c r="V42" s="2" t="n"/>
     </row>
     <row r="43">
       <c r="A43" s="2" t="inlineStr">
@@ -2564,33 +2373,33 @@
           <t>educational facility [BCIO:026022]</t>
         </is>
       </c>
-      <c r="D43" s="2" t="inlineStr"/>
-      <c r="E43" s="2" t="inlineStr"/>
-      <c r="F43" s="2" t="inlineStr"/>
-      <c r="G43" s="2" t="inlineStr"/>
-      <c r="H43" s="2" t="inlineStr"/>
-      <c r="I43" s="2" t="inlineStr"/>
-      <c r="J43" s="2" t="inlineStr"/>
-      <c r="K43" s="2" t="inlineStr"/>
-      <c r="L43" s="2" t="inlineStr"/>
+      <c r="D43" s="2" t="n"/>
+      <c r="E43" s="2" t="n"/>
+      <c r="F43" s="2" t="n"/>
+      <c r="G43" s="2" t="n"/>
+      <c r="H43" s="2" t="n"/>
+      <c r="I43" s="2" t="n"/>
+      <c r="J43" s="2" t="n"/>
+      <c r="K43" s="2" t="n"/>
+      <c r="L43" s="2" t="n"/>
       <c r="M43" s="2" t="inlineStr">
         <is>
           <t>An educational facility in which students study for degrees and academic research is done.</t>
         </is>
       </c>
-      <c r="N43" s="2" t="inlineStr"/>
-      <c r="O43" s="2" t="inlineStr"/>
-      <c r="P43" s="2" t="inlineStr"/>
-      <c r="Q43" s="2" t="inlineStr"/>
-      <c r="R43" s="2" t="inlineStr"/>
-      <c r="S43" s="2" t="inlineStr"/>
+      <c r="N43" s="2" t="n"/>
+      <c r="O43" s="2" t="n"/>
+      <c r="P43" s="2" t="n"/>
+      <c r="Q43" s="2" t="n"/>
+      <c r="R43" s="2" t="n"/>
+      <c r="S43" s="2" t="n"/>
       <c r="T43" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U43" s="2" t="inlineStr"/>
-      <c r="V43" s="2" t="inlineStr"/>
+      <c r="U43" s="2" t="n"/>
+      <c r="V43" s="2" t="n"/>
     </row>
     <row r="44">
       <c r="A44" s="2" t="inlineStr">
@@ -2608,37 +2417,37 @@
           <t>facility [OMRSE:00000062]</t>
         </is>
       </c>
-      <c r="D44" s="2" t="inlineStr"/>
-      <c r="E44" s="2" t="inlineStr"/>
-      <c r="F44" s="2" t="inlineStr"/>
-      <c r="G44" s="2" t="inlineStr"/>
-      <c r="H44" s="2" t="inlineStr"/>
-      <c r="I44" s="2" t="inlineStr"/>
-      <c r="J44" s="2" t="inlineStr"/>
-      <c r="K44" s="2" t="inlineStr"/>
-      <c r="L44" s="2" t="inlineStr"/>
+      <c r="D44" s="2" t="n"/>
+      <c r="E44" s="2" t="n"/>
+      <c r="F44" s="2" t="n"/>
+      <c r="G44" s="2" t="n"/>
+      <c r="H44" s="2" t="n"/>
+      <c r="I44" s="2" t="n"/>
+      <c r="J44" s="2" t="n"/>
+      <c r="K44" s="2" t="n"/>
+      <c r="L44" s="2" t="n"/>
       <c r="M44" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">A facility used by a group of people living in the same place or having a particular characteristic in common. </t>
         </is>
       </c>
-      <c r="N44" s="2" t="inlineStr"/>
-      <c r="O44" s="2" t="inlineStr"/>
+      <c r="N44" s="2" t="n"/>
+      <c r="O44" s="2" t="n"/>
       <c r="P44" s="2" t="inlineStr">
         <is>
           <t>food bank; recycling centre</t>
         </is>
       </c>
-      <c r="Q44" s="2" t="inlineStr"/>
-      <c r="R44" s="2" t="inlineStr"/>
-      <c r="S44" s="2" t="inlineStr"/>
+      <c r="Q44" s="2" t="n"/>
+      <c r="R44" s="2" t="n"/>
+      <c r="S44" s="2" t="n"/>
       <c r="T44" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U44" s="2" t="inlineStr"/>
-      <c r="V44" s="2" t="inlineStr"/>
+      <c r="U44" s="2" t="n"/>
+      <c r="V44" s="2" t="n"/>
     </row>
     <row r="45">
       <c r="A45" s="2" t="inlineStr">
@@ -2656,37 +2465,37 @@
           <t>community facility [BCIO:026029]</t>
         </is>
       </c>
-      <c r="D45" s="2" t="inlineStr"/>
-      <c r="E45" s="2" t="inlineStr"/>
-      <c r="F45" s="2" t="inlineStr"/>
-      <c r="G45" s="2" t="inlineStr"/>
-      <c r="H45" s="2" t="inlineStr"/>
-      <c r="I45" s="2" t="inlineStr"/>
-      <c r="J45" s="2" t="inlineStr"/>
-      <c r="K45" s="2" t="inlineStr"/>
-      <c r="L45" s="2" t="inlineStr"/>
+      <c r="D45" s="2" t="n"/>
+      <c r="E45" s="2" t="n"/>
+      <c r="F45" s="2" t="n"/>
+      <c r="G45" s="2" t="n"/>
+      <c r="H45" s="2" t="n"/>
+      <c r="I45" s="2" t="n"/>
+      <c r="J45" s="2" t="n"/>
+      <c r="K45" s="2" t="n"/>
+      <c r="L45" s="2" t="n"/>
       <c r="M45" s="2" t="inlineStr">
         <is>
           <t>A community facility used for exercising.</t>
         </is>
       </c>
-      <c r="N45" s="2" t="inlineStr"/>
-      <c r="O45" s="2" t="inlineStr"/>
+      <c r="N45" s="2" t="n"/>
+      <c r="O45" s="2" t="n"/>
       <c r="P45" s="2" t="inlineStr">
         <is>
           <t>gym; stadium; tennis court; swimming pool</t>
         </is>
       </c>
-      <c r="Q45" s="2" t="inlineStr"/>
-      <c r="R45" s="2" t="inlineStr"/>
-      <c r="S45" s="2" t="inlineStr"/>
+      <c r="Q45" s="2" t="n"/>
+      <c r="R45" s="2" t="n"/>
+      <c r="S45" s="2" t="n"/>
       <c r="T45" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U45" s="2" t="inlineStr"/>
-      <c r="V45" s="2" t="inlineStr"/>
+      <c r="U45" s="2" t="n"/>
+      <c r="V45" s="2" t="n"/>
     </row>
     <row r="46">
       <c r="A46" s="2" t="inlineStr">
@@ -2704,37 +2513,37 @@
           <t>community facility [BCIO:026029]</t>
         </is>
       </c>
-      <c r="D46" s="2" t="inlineStr"/>
-      <c r="E46" s="2" t="inlineStr"/>
-      <c r="F46" s="2" t="inlineStr"/>
-      <c r="G46" s="2" t="inlineStr"/>
-      <c r="H46" s="2" t="inlineStr"/>
-      <c r="I46" s="2" t="inlineStr"/>
-      <c r="J46" s="2" t="inlineStr"/>
-      <c r="K46" s="2" t="inlineStr"/>
-      <c r="L46" s="2" t="inlineStr"/>
+      <c r="D46" s="2" t="n"/>
+      <c r="E46" s="2" t="n"/>
+      <c r="F46" s="2" t="n"/>
+      <c r="G46" s="2" t="n"/>
+      <c r="H46" s="2" t="n"/>
+      <c r="I46" s="2" t="n"/>
+      <c r="J46" s="2" t="n"/>
+      <c r="K46" s="2" t="n"/>
+      <c r="L46" s="2" t="n"/>
       <c r="M46" s="2" t="inlineStr">
         <is>
           <t>A community facility used for socialising by those living in a given area.</t>
         </is>
       </c>
-      <c r="N46" s="2" t="inlineStr"/>
-      <c r="O46" s="2" t="inlineStr"/>
+      <c r="N46" s="2" t="n"/>
+      <c r="O46" s="2" t="n"/>
       <c r="P46" s="2" t="inlineStr">
         <is>
           <t>YMCA; working mens club</t>
         </is>
       </c>
-      <c r="Q46" s="2" t="inlineStr"/>
-      <c r="R46" s="2" t="inlineStr"/>
-      <c r="S46" s="2" t="inlineStr"/>
+      <c r="Q46" s="2" t="n"/>
+      <c r="R46" s="2" t="n"/>
+      <c r="S46" s="2" t="n"/>
       <c r="T46" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U46" s="2" t="inlineStr"/>
-      <c r="V46" s="2" t="inlineStr"/>
+      <c r="U46" s="2" t="n"/>
+      <c r="V46" s="2" t="n"/>
     </row>
     <row r="47">
       <c r="A47" s="2" t="inlineStr">
@@ -2752,33 +2561,33 @@
           <t>community facility [BCIO:026029]</t>
         </is>
       </c>
-      <c r="D47" s="2" t="inlineStr"/>
-      <c r="E47" s="2" t="inlineStr"/>
-      <c r="F47" s="2" t="inlineStr"/>
-      <c r="G47" s="2" t="inlineStr"/>
-      <c r="H47" s="2" t="inlineStr"/>
-      <c r="I47" s="2" t="inlineStr"/>
-      <c r="J47" s="2" t="inlineStr"/>
-      <c r="K47" s="2" t="inlineStr"/>
-      <c r="L47" s="2" t="inlineStr"/>
+      <c r="D47" s="2" t="n"/>
+      <c r="E47" s="2" t="n"/>
+      <c r="F47" s="2" t="n"/>
+      <c r="G47" s="2" t="n"/>
+      <c r="H47" s="2" t="n"/>
+      <c r="I47" s="2" t="n"/>
+      <c r="J47" s="2" t="n"/>
+      <c r="K47" s="2" t="n"/>
+      <c r="L47" s="2" t="n"/>
       <c r="M47" s="2" t="inlineStr">
         <is>
           <t>A community facility containing a collection of books and learning resources for loan.</t>
         </is>
       </c>
-      <c r="N47" s="2" t="inlineStr"/>
-      <c r="O47" s="2" t="inlineStr"/>
-      <c r="P47" s="2" t="inlineStr"/>
-      <c r="Q47" s="2" t="inlineStr"/>
-      <c r="R47" s="2" t="inlineStr"/>
-      <c r="S47" s="2" t="inlineStr"/>
+      <c r="N47" s="2" t="n"/>
+      <c r="O47" s="2" t="n"/>
+      <c r="P47" s="2" t="n"/>
+      <c r="Q47" s="2" t="n"/>
+      <c r="R47" s="2" t="n"/>
+      <c r="S47" s="2" t="n"/>
       <c r="T47" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U47" s="2" t="inlineStr"/>
-      <c r="V47" s="2" t="inlineStr"/>
+      <c r="U47" s="2" t="n"/>
+      <c r="V47" s="2" t="n"/>
     </row>
     <row r="48">
       <c r="A48" s="2" t="inlineStr">
@@ -2796,37 +2605,37 @@
           <t>community facility [BCIO:026029]</t>
         </is>
       </c>
-      <c r="D48" s="2" t="inlineStr"/>
-      <c r="E48" s="2" t="inlineStr"/>
-      <c r="F48" s="2" t="inlineStr"/>
-      <c r="G48" s="2" t="inlineStr"/>
-      <c r="H48" s="2" t="inlineStr"/>
-      <c r="I48" s="2" t="inlineStr"/>
-      <c r="J48" s="2" t="inlineStr"/>
-      <c r="K48" s="2" t="inlineStr"/>
-      <c r="L48" s="2" t="inlineStr"/>
+      <c r="D48" s="2" t="n"/>
+      <c r="E48" s="2" t="n"/>
+      <c r="F48" s="2" t="n"/>
+      <c r="G48" s="2" t="n"/>
+      <c r="H48" s="2" t="n"/>
+      <c r="I48" s="2" t="n"/>
+      <c r="J48" s="2" t="n"/>
+      <c r="K48" s="2" t="n"/>
+      <c r="L48" s="2" t="n"/>
       <c r="M48" s="2" t="inlineStr">
         <is>
           <t>A community facility where individuals or a group of people come to perform acts of devotion and veneration.</t>
         </is>
       </c>
-      <c r="N48" s="2" t="inlineStr"/>
-      <c r="O48" s="2" t="inlineStr"/>
+      <c r="N48" s="2" t="n"/>
+      <c r="O48" s="2" t="n"/>
       <c r="P48" s="2" t="inlineStr">
         <is>
           <t>mosque; church; temple</t>
         </is>
       </c>
-      <c r="Q48" s="2" t="inlineStr"/>
-      <c r="R48" s="2" t="inlineStr"/>
-      <c r="S48" s="2" t="inlineStr"/>
+      <c r="Q48" s="2" t="n"/>
+      <c r="R48" s="2" t="n"/>
+      <c r="S48" s="2" t="n"/>
       <c r="T48" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U48" s="2" t="inlineStr"/>
-      <c r="V48" s="2" t="inlineStr"/>
+      <c r="U48" s="2" t="n"/>
+      <c r="V48" s="2" t="n"/>
     </row>
     <row r="49">
       <c r="A49" s="2" t="inlineStr">
@@ -2844,37 +2653,37 @@
           <t>community facility [BCIO:026029]</t>
         </is>
       </c>
-      <c r="D49" s="2" t="inlineStr"/>
-      <c r="E49" s="2" t="inlineStr"/>
-      <c r="F49" s="2" t="inlineStr"/>
-      <c r="G49" s="2" t="inlineStr"/>
-      <c r="H49" s="2" t="inlineStr"/>
-      <c r="I49" s="2" t="inlineStr"/>
-      <c r="J49" s="2" t="inlineStr"/>
-      <c r="K49" s="2" t="inlineStr"/>
-      <c r="L49" s="2" t="inlineStr"/>
+      <c r="D49" s="2" t="n"/>
+      <c r="E49" s="2" t="n"/>
+      <c r="F49" s="2" t="n"/>
+      <c r="G49" s="2" t="n"/>
+      <c r="H49" s="2" t="n"/>
+      <c r="I49" s="2" t="n"/>
+      <c r="J49" s="2" t="n"/>
+      <c r="K49" s="2" t="n"/>
+      <c r="L49" s="2" t="n"/>
       <c r="M49" s="2" t="inlineStr">
         <is>
           <t>A community facility used to serve food.</t>
         </is>
       </c>
-      <c r="N49" s="2" t="inlineStr"/>
-      <c r="O49" s="2" t="inlineStr"/>
+      <c r="N49" s="2" t="n"/>
+      <c r="O49" s="2" t="n"/>
       <c r="P49" s="2" t="inlineStr">
         <is>
           <t>diner; restaurant; pub; bar</t>
         </is>
       </c>
-      <c r="Q49" s="2" t="inlineStr"/>
-      <c r="R49" s="2" t="inlineStr"/>
-      <c r="S49" s="2" t="inlineStr"/>
+      <c r="Q49" s="2" t="n"/>
+      <c r="R49" s="2" t="n"/>
+      <c r="S49" s="2" t="n"/>
       <c r="T49" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U49" s="2" t="inlineStr"/>
-      <c r="V49" s="2" t="inlineStr"/>
+      <c r="U49" s="2" t="n"/>
+      <c r="V49" s="2" t="n"/>
     </row>
     <row r="50">
       <c r="A50" s="2" t="inlineStr">
@@ -2892,37 +2701,37 @@
           <t>community facility [BCIO:026029]</t>
         </is>
       </c>
-      <c r="D50" s="2" t="inlineStr"/>
-      <c r="E50" s="2" t="inlineStr"/>
-      <c r="F50" s="2" t="inlineStr"/>
-      <c r="G50" s="2" t="inlineStr"/>
-      <c r="H50" s="2" t="inlineStr"/>
-      <c r="I50" s="2" t="inlineStr"/>
-      <c r="J50" s="2" t="inlineStr"/>
-      <c r="K50" s="2" t="inlineStr"/>
-      <c r="L50" s="2" t="inlineStr"/>
+      <c r="D50" s="2" t="n"/>
+      <c r="E50" s="2" t="n"/>
+      <c r="F50" s="2" t="n"/>
+      <c r="G50" s="2" t="n"/>
+      <c r="H50" s="2" t="n"/>
+      <c r="I50" s="2" t="n"/>
+      <c r="J50" s="2" t="n"/>
+      <c r="K50" s="2" t="n"/>
+      <c r="L50" s="2" t="n"/>
       <c r="M50" s="2" t="inlineStr">
         <is>
           <t>A community facility designed to entertain or amuse.</t>
         </is>
       </c>
-      <c r="N50" s="2" t="inlineStr"/>
-      <c r="O50" s="2" t="inlineStr"/>
+      <c r="N50" s="2" t="n"/>
+      <c r="O50" s="2" t="n"/>
       <c r="P50" s="2" t="inlineStr">
         <is>
           <t>cinema; theatre; disco</t>
         </is>
       </c>
-      <c r="Q50" s="2" t="inlineStr"/>
-      <c r="R50" s="2" t="inlineStr"/>
-      <c r="S50" s="2" t="inlineStr"/>
+      <c r="Q50" s="2" t="n"/>
+      <c r="R50" s="2" t="n"/>
+      <c r="S50" s="2" t="n"/>
       <c r="T50" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U50" s="2" t="inlineStr"/>
-      <c r="V50" s="2" t="inlineStr"/>
+      <c r="U50" s="2" t="n"/>
+      <c r="V50" s="2" t="n"/>
     </row>
     <row r="51">
       <c r="A51" s="2" t="inlineStr">
@@ -2940,37 +2749,37 @@
           <t>facility [OMRSE:00000062]</t>
         </is>
       </c>
-      <c r="D51" s="2" t="inlineStr"/>
-      <c r="E51" s="2" t="inlineStr"/>
-      <c r="F51" s="2" t="inlineStr"/>
-      <c r="G51" s="2" t="inlineStr"/>
-      <c r="H51" s="2" t="inlineStr"/>
-      <c r="I51" s="2" t="inlineStr"/>
-      <c r="J51" s="2" t="inlineStr"/>
-      <c r="K51" s="2" t="inlineStr"/>
-      <c r="L51" s="2" t="inlineStr"/>
+      <c r="D51" s="2" t="n"/>
+      <c r="E51" s="2" t="n"/>
+      <c r="F51" s="2" t="n"/>
+      <c r="G51" s="2" t="n"/>
+      <c r="H51" s="2" t="n"/>
+      <c r="I51" s="2" t="n"/>
+      <c r="J51" s="2" t="n"/>
+      <c r="K51" s="2" t="n"/>
+      <c r="L51" s="2" t="n"/>
       <c r="M51" s="2" t="inlineStr">
         <is>
           <t>A facility used as an outlet for shopping.</t>
         </is>
       </c>
-      <c r="N51" s="2" t="inlineStr"/>
-      <c r="O51" s="2" t="inlineStr"/>
+      <c r="N51" s="2" t="n"/>
+      <c r="O51" s="2" t="n"/>
       <c r="P51" s="2" t="inlineStr">
         <is>
           <t>supermarket; market; shopping centre</t>
         </is>
       </c>
-      <c r="Q51" s="2" t="inlineStr"/>
-      <c r="R51" s="2" t="inlineStr"/>
-      <c r="S51" s="2" t="inlineStr"/>
+      <c r="Q51" s="2" t="n"/>
+      <c r="R51" s="2" t="n"/>
+      <c r="S51" s="2" t="n"/>
       <c r="T51" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U51" s="2" t="inlineStr"/>
-      <c r="V51" s="2" t="inlineStr"/>
+      <c r="U51" s="2" t="n"/>
+      <c r="V51" s="2" t="n"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -2988,15 +2797,6 @@
           <t>facility [OMRSE:00000062]</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr"/>
-      <c r="E52" t="inlineStr"/>
-      <c r="F52" t="inlineStr"/>
-      <c r="G52" t="inlineStr"/>
-      <c r="H52" t="inlineStr"/>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr">
         <is>
           <t>A facility, permanent or temporary, on land, in air, space or water, where scientific research or measurements can be undertaken</t>
@@ -3017,16 +2817,11 @@
           <t>research lab</t>
         </is>
       </c>
-      <c r="Q52" t="inlineStr"/>
-      <c r="R52" t="inlineStr"/>
-      <c r="S52" t="inlineStr"/>
       <c r="T52" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="U52" t="inlineStr"/>
-      <c r="V52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="2" t="inlineStr">
@@ -3044,33 +2839,33 @@
           <t>facility [OMRSE:00000062]</t>
         </is>
       </c>
-      <c r="D53" s="2" t="inlineStr"/>
-      <c r="E53" s="2" t="inlineStr"/>
-      <c r="F53" s="2" t="inlineStr"/>
-      <c r="G53" s="2" t="inlineStr"/>
-      <c r="H53" s="2" t="inlineStr"/>
-      <c r="I53" s="2" t="inlineStr"/>
-      <c r="J53" s="2" t="inlineStr"/>
-      <c r="K53" s="2" t="inlineStr"/>
-      <c r="L53" s="2" t="inlineStr"/>
+      <c r="D53" s="2" t="n"/>
+      <c r="E53" s="2" t="n"/>
+      <c r="F53" s="2" t="n"/>
+      <c r="G53" s="2" t="n"/>
+      <c r="H53" s="2" t="n"/>
+      <c r="I53" s="2" t="n"/>
+      <c r="J53" s="2" t="n"/>
+      <c r="K53" s="2" t="n"/>
+      <c r="L53" s="2" t="n"/>
       <c r="M53" s="2" t="inlineStr">
         <is>
           <t>A facility of a room, set of rooms, or building used as a place for commercial, professional, or bureaucratic work.</t>
         </is>
       </c>
-      <c r="N53" s="2" t="inlineStr"/>
-      <c r="O53" s="2" t="inlineStr"/>
-      <c r="P53" s="2" t="inlineStr"/>
-      <c r="Q53" s="2" t="inlineStr"/>
-      <c r="R53" s="2" t="inlineStr"/>
-      <c r="S53" s="2" t="inlineStr"/>
+      <c r="N53" s="2" t="n"/>
+      <c r="O53" s="2" t="n"/>
+      <c r="P53" s="2" t="n"/>
+      <c r="Q53" s="2" t="n"/>
+      <c r="R53" s="2" t="n"/>
+      <c r="S53" s="2" t="n"/>
       <c r="T53" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U53" s="2" t="inlineStr"/>
-      <c r="V53" s="2" t="inlineStr"/>
+      <c r="U53" s="2" t="n"/>
+      <c r="V53" s="2" t="n"/>
     </row>
     <row r="54">
       <c r="A54" s="2" t="inlineStr">
@@ -3088,37 +2883,37 @@
           <t>facility [OMRSE:00000062]</t>
         </is>
       </c>
-      <c r="D54" s="2" t="inlineStr"/>
-      <c r="E54" s="2" t="inlineStr"/>
-      <c r="F54" s="2" t="inlineStr"/>
-      <c r="G54" s="2" t="inlineStr"/>
-      <c r="H54" s="2" t="inlineStr"/>
-      <c r="I54" s="2" t="inlineStr"/>
-      <c r="J54" s="2" t="inlineStr"/>
-      <c r="K54" s="2" t="inlineStr"/>
-      <c r="L54" s="2" t="inlineStr"/>
+      <c r="D54" s="2" t="n"/>
+      <c r="E54" s="2" t="n"/>
+      <c r="F54" s="2" t="n"/>
+      <c r="G54" s="2" t="n"/>
+      <c r="H54" s="2" t="n"/>
+      <c r="I54" s="2" t="n"/>
+      <c r="J54" s="2" t="n"/>
+      <c r="K54" s="2" t="n"/>
+      <c r="L54" s="2" t="n"/>
       <c r="M54" s="2" t="inlineStr">
         <is>
           <t>A facility where individuals are being reprimanded, detained or imprisoned.</t>
         </is>
       </c>
-      <c r="N54" s="2" t="inlineStr"/>
-      <c r="O54" s="2" t="inlineStr"/>
+      <c r="N54" s="2" t="n"/>
+      <c r="O54" s="2" t="n"/>
       <c r="P54" s="2" t="inlineStr">
         <is>
           <t>prison</t>
         </is>
       </c>
-      <c r="Q54" s="2" t="inlineStr"/>
-      <c r="R54" s="2" t="inlineStr"/>
-      <c r="S54" s="2" t="inlineStr"/>
+      <c r="Q54" s="2" t="n"/>
+      <c r="R54" s="2" t="n"/>
+      <c r="S54" s="2" t="n"/>
       <c r="T54" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U54" s="2" t="inlineStr"/>
-      <c r="V54" s="2" t="inlineStr"/>
+      <c r="U54" s="2" t="n"/>
+      <c r="V54" s="2" t="n"/>
     </row>
     <row r="55">
       <c r="A55" s="2" t="inlineStr">
@@ -3136,33 +2931,33 @@
           <t>facility [OMRSE:00000062]</t>
         </is>
       </c>
-      <c r="D55" s="2" t="inlineStr"/>
-      <c r="E55" s="2" t="inlineStr"/>
-      <c r="F55" s="2" t="inlineStr"/>
-      <c r="G55" s="2" t="inlineStr"/>
-      <c r="H55" s="2" t="inlineStr"/>
-      <c r="I55" s="2" t="inlineStr"/>
-      <c r="J55" s="2" t="inlineStr"/>
-      <c r="K55" s="2" t="inlineStr"/>
-      <c r="L55" s="2" t="inlineStr"/>
+      <c r="D55" s="2" t="n"/>
+      <c r="E55" s="2" t="n"/>
+      <c r="F55" s="2" t="n"/>
+      <c r="G55" s="2" t="n"/>
+      <c r="H55" s="2" t="n"/>
+      <c r="I55" s="2" t="n"/>
+      <c r="J55" s="2" t="n"/>
+      <c r="K55" s="2" t="n"/>
+      <c r="L55" s="2" t="n"/>
       <c r="M55" s="2" t="inlineStr">
         <is>
           <t>A facility of a building or group of buildings where goods are manufactured or assembled chiefly by machine</t>
         </is>
       </c>
-      <c r="N55" s="2" t="inlineStr"/>
-      <c r="O55" s="2" t="inlineStr"/>
-      <c r="P55" s="2" t="inlineStr"/>
-      <c r="Q55" s="2" t="inlineStr"/>
-      <c r="R55" s="2" t="inlineStr"/>
-      <c r="S55" s="2" t="inlineStr"/>
+      <c r="N55" s="2" t="n"/>
+      <c r="O55" s="2" t="n"/>
+      <c r="P55" s="2" t="n"/>
+      <c r="Q55" s="2" t="n"/>
+      <c r="R55" s="2" t="n"/>
+      <c r="S55" s="2" t="n"/>
       <c r="T55" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U55" s="2" t="inlineStr"/>
-      <c r="V55" s="2" t="inlineStr"/>
+      <c r="U55" s="2" t="n"/>
+      <c r="V55" s="2" t="n"/>
     </row>
     <row r="56">
       <c r="A56" s="2" t="inlineStr">
@@ -3180,37 +2975,37 @@
           <t>facility [OMRSE:00000062]</t>
         </is>
       </c>
-      <c r="D56" s="2" t="inlineStr"/>
-      <c r="E56" s="2" t="inlineStr"/>
-      <c r="F56" s="2" t="inlineStr"/>
-      <c r="G56" s="2" t="inlineStr"/>
-      <c r="H56" s="2" t="inlineStr"/>
-      <c r="I56" s="2" t="inlineStr"/>
-      <c r="J56" s="2" t="inlineStr"/>
-      <c r="K56" s="2" t="inlineStr"/>
-      <c r="L56" s="2" t="inlineStr"/>
+      <c r="D56" s="2" t="n"/>
+      <c r="E56" s="2" t="n"/>
+      <c r="F56" s="2" t="n"/>
+      <c r="G56" s="2" t="n"/>
+      <c r="H56" s="2" t="n"/>
+      <c r="I56" s="2" t="n"/>
+      <c r="J56" s="2" t="n"/>
+      <c r="K56" s="2" t="n"/>
+      <c r="L56" s="2" t="n"/>
       <c r="M56" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">A facility relating to or characteristic of soldiers or armed forces </t>
         </is>
       </c>
-      <c r="N56" s="2" t="inlineStr"/>
-      <c r="O56" s="2" t="inlineStr"/>
+      <c r="N56" s="2" t="n"/>
+      <c r="O56" s="2" t="n"/>
       <c r="P56" s="2" t="inlineStr">
         <is>
           <t>army; navy; air force</t>
         </is>
       </c>
-      <c r="Q56" s="2" t="inlineStr"/>
-      <c r="R56" s="2" t="inlineStr"/>
-      <c r="S56" s="2" t="inlineStr"/>
+      <c r="Q56" s="2" t="n"/>
+      <c r="R56" s="2" t="n"/>
+      <c r="S56" s="2" t="n"/>
       <c r="T56" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U56" s="2" t="inlineStr"/>
-      <c r="V56" s="2" t="inlineStr"/>
+      <c r="U56" s="2" t="n"/>
+      <c r="V56" s="2" t="n"/>
     </row>
     <row r="57">
       <c r="A57" s="2" t="inlineStr">
@@ -3228,15 +3023,15 @@
           <t>site [BFO:0000029]</t>
         </is>
       </c>
-      <c r="D57" s="2" t="inlineStr"/>
-      <c r="E57" s="2" t="inlineStr"/>
-      <c r="F57" s="2" t="inlineStr"/>
-      <c r="G57" s="2" t="inlineStr"/>
-      <c r="H57" s="2" t="inlineStr"/>
-      <c r="I57" s="2" t="inlineStr"/>
-      <c r="J57" s="2" t="inlineStr"/>
-      <c r="K57" s="2" t="inlineStr"/>
-      <c r="L57" s="2" t="inlineStr"/>
+      <c r="D57" s="2" t="n"/>
+      <c r="E57" s="2" t="n"/>
+      <c r="F57" s="2" t="n"/>
+      <c r="G57" s="2" t="n"/>
+      <c r="H57" s="2" t="n"/>
+      <c r="I57" s="2" t="n"/>
+      <c r="J57" s="2" t="n"/>
+      <c r="K57" s="2" t="n"/>
+      <c r="L57" s="2" t="n"/>
       <c r="M57" s="2" t="inlineStr">
         <is>
           <t>Methods of traveling from one place to another.</t>
@@ -3252,17 +3047,17 @@
           <t>NCI Thesaurus OBO Edition</t>
         </is>
       </c>
-      <c r="P57" s="2" t="inlineStr"/>
-      <c r="Q57" s="2" t="inlineStr"/>
-      <c r="R57" s="2" t="inlineStr"/>
-      <c r="S57" s="2" t="inlineStr"/>
+      <c r="P57" s="2" t="n"/>
+      <c r="Q57" s="2" t="n"/>
+      <c r="R57" s="2" t="n"/>
+      <c r="S57" s="2" t="n"/>
       <c r="T57" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U57" s="2" t="inlineStr"/>
-      <c r="V57" s="2" t="inlineStr"/>
+      <c r="U57" s="2" t="n"/>
+      <c r="V57" s="2" t="n"/>
     </row>
     <row r="58">
       <c r="A58" s="2" t="inlineStr">
@@ -3280,15 +3075,15 @@
           <t>transportation [BCIO:026041]</t>
         </is>
       </c>
-      <c r="D58" s="2" t="inlineStr"/>
-      <c r="E58" s="2" t="inlineStr"/>
-      <c r="F58" s="2" t="inlineStr"/>
-      <c r="G58" s="2" t="inlineStr"/>
-      <c r="H58" s="2" t="inlineStr"/>
-      <c r="I58" s="2" t="inlineStr"/>
-      <c r="J58" s="2" t="inlineStr"/>
-      <c r="K58" s="2" t="inlineStr"/>
-      <c r="L58" s="2" t="inlineStr"/>
+      <c r="D58" s="2" t="n"/>
+      <c r="E58" s="2" t="n"/>
+      <c r="F58" s="2" t="n"/>
+      <c r="G58" s="2" t="n"/>
+      <c r="H58" s="2" t="n"/>
+      <c r="I58" s="2" t="n"/>
+      <c r="J58" s="2" t="n"/>
+      <c r="K58" s="2" t="n"/>
+      <c r="L58" s="2" t="n"/>
       <c r="M58" s="2" t="inlineStr">
         <is>
           <t>Forms of transportation that run on fixed routes and are available to the public, usually for a set fare</t>
@@ -3309,16 +3104,16 @@
           <t>bus; train; plane</t>
         </is>
       </c>
-      <c r="Q58" s="2" t="inlineStr"/>
-      <c r="R58" s="2" t="inlineStr"/>
-      <c r="S58" s="2" t="inlineStr"/>
+      <c r="Q58" s="2" t="n"/>
+      <c r="R58" s="2" t="n"/>
+      <c r="S58" s="2" t="n"/>
       <c r="T58" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U58" s="2" t="inlineStr"/>
-      <c r="V58" s="2" t="inlineStr"/>
+      <c r="U58" s="2" t="n"/>
+      <c r="V58" s="2" t="n"/>
     </row>
     <row r="59">
       <c r="A59" s="2" t="inlineStr">
@@ -3336,37 +3131,37 @@
           <t>transportation [BCIO:026041]</t>
         </is>
       </c>
-      <c r="D59" s="2" t="inlineStr"/>
-      <c r="E59" s="2" t="inlineStr"/>
-      <c r="F59" s="2" t="inlineStr"/>
-      <c r="G59" s="2" t="inlineStr"/>
-      <c r="H59" s="2" t="inlineStr"/>
-      <c r="I59" s="2" t="inlineStr"/>
-      <c r="J59" s="2" t="inlineStr"/>
-      <c r="K59" s="2" t="inlineStr"/>
-      <c r="L59" s="2" t="inlineStr"/>
+      <c r="D59" s="2" t="n"/>
+      <c r="E59" s="2" t="n"/>
+      <c r="F59" s="2" t="n"/>
+      <c r="G59" s="2" t="n"/>
+      <c r="H59" s="2" t="n"/>
+      <c r="I59" s="2" t="n"/>
+      <c r="J59" s="2" t="n"/>
+      <c r="K59" s="2" t="n"/>
+      <c r="L59" s="2" t="n"/>
       <c r="M59" s="2" t="inlineStr">
         <is>
           <t>A form of transportation owned by an individual for individual or group use.</t>
         </is>
       </c>
-      <c r="N59" s="2" t="inlineStr"/>
-      <c r="O59" s="2" t="inlineStr"/>
+      <c r="N59" s="2" t="n"/>
+      <c r="O59" s="2" t="n"/>
       <c r="P59" s="2" t="inlineStr">
         <is>
           <t>car; bicycle; motorbike</t>
         </is>
       </c>
-      <c r="Q59" s="2" t="inlineStr"/>
-      <c r="R59" s="2" t="inlineStr"/>
-      <c r="S59" s="2" t="inlineStr"/>
+      <c r="Q59" s="2" t="n"/>
+      <c r="R59" s="2" t="n"/>
+      <c r="S59" s="2" t="n"/>
       <c r="T59" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U59" s="2" t="inlineStr"/>
-      <c r="V59" s="2" t="inlineStr"/>
+      <c r="U59" s="2" t="n"/>
+      <c r="V59" s="2" t="n"/>
     </row>
     <row r="60">
       <c r="A60" s="2" t="inlineStr">
@@ -3384,37 +3179,37 @@
           <t>transportation [BCIO:026041]</t>
         </is>
       </c>
-      <c r="D60" s="2" t="inlineStr"/>
-      <c r="E60" s="2" t="inlineStr"/>
-      <c r="F60" s="2" t="inlineStr"/>
-      <c r="G60" s="2" t="inlineStr"/>
-      <c r="H60" s="2" t="inlineStr"/>
-      <c r="I60" s="2" t="inlineStr"/>
-      <c r="J60" s="2" t="inlineStr"/>
-      <c r="K60" s="2" t="inlineStr"/>
-      <c r="L60" s="2" t="inlineStr"/>
+      <c r="D60" s="2" t="n"/>
+      <c r="E60" s="2" t="n"/>
+      <c r="F60" s="2" t="n"/>
+      <c r="G60" s="2" t="n"/>
+      <c r="H60" s="2" t="n"/>
+      <c r="I60" s="2" t="n"/>
+      <c r="J60" s="2" t="n"/>
+      <c r="K60" s="2" t="n"/>
+      <c r="L60" s="2" t="n"/>
       <c r="M60" s="2" t="inlineStr">
         <is>
           <t>A form of transportation delivering interventions in transient locations.</t>
         </is>
       </c>
-      <c r="N60" s="2" t="inlineStr"/>
-      <c r="O60" s="2" t="inlineStr"/>
+      <c r="N60" s="2" t="n"/>
+      <c r="O60" s="2" t="n"/>
       <c r="P60" s="2" t="inlineStr">
         <is>
           <t>mobile van</t>
         </is>
       </c>
-      <c r="Q60" s="2" t="inlineStr"/>
-      <c r="R60" s="2" t="inlineStr"/>
-      <c r="S60" s="2" t="inlineStr"/>
+      <c r="Q60" s="2" t="n"/>
+      <c r="R60" s="2" t="n"/>
+      <c r="S60" s="2" t="n"/>
       <c r="T60" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U60" s="2" t="inlineStr"/>
-      <c r="V60" s="2" t="inlineStr"/>
+      <c r="U60" s="2" t="n"/>
+      <c r="V60" s="2" t="n"/>
     </row>
     <row r="61">
       <c r="A61" s="2" t="inlineStr">
@@ -3432,33 +3227,33 @@
           <t>transportation [BCIO:026041]</t>
         </is>
       </c>
-      <c r="D61" s="2" t="inlineStr"/>
-      <c r="E61" s="2" t="inlineStr"/>
-      <c r="F61" s="2" t="inlineStr"/>
-      <c r="G61" s="2" t="inlineStr"/>
-      <c r="H61" s="2" t="inlineStr"/>
-      <c r="I61" s="2" t="inlineStr"/>
-      <c r="J61" s="2" t="inlineStr"/>
-      <c r="K61" s="2" t="inlineStr"/>
-      <c r="L61" s="2" t="inlineStr"/>
+      <c r="D61" s="2" t="n"/>
+      <c r="E61" s="2" t="n"/>
+      <c r="F61" s="2" t="n"/>
+      <c r="G61" s="2" t="n"/>
+      <c r="H61" s="2" t="n"/>
+      <c r="I61" s="2" t="n"/>
+      <c r="J61" s="2" t="n"/>
+      <c r="K61" s="2" t="n"/>
+      <c r="L61" s="2" t="n"/>
       <c r="M61" s="2" t="inlineStr">
         <is>
           <t>A form of transporation which can transport patients for health treatment, and in some instances will also provide out-of-hospital healthcare to the patient.</t>
         </is>
       </c>
-      <c r="N61" s="2" t="inlineStr"/>
-      <c r="O61" s="2" t="inlineStr"/>
-      <c r="P61" s="2" t="inlineStr"/>
-      <c r="Q61" s="2" t="inlineStr"/>
-      <c r="R61" s="2" t="inlineStr"/>
-      <c r="S61" s="2" t="inlineStr"/>
+      <c r="N61" s="2" t="n"/>
+      <c r="O61" s="2" t="n"/>
+      <c r="P61" s="2" t="n"/>
+      <c r="Q61" s="2" t="n"/>
+      <c r="R61" s="2" t="n"/>
+      <c r="S61" s="2" t="n"/>
       <c r="T61" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U61" s="2" t="inlineStr"/>
-      <c r="V61" s="2" t="inlineStr"/>
+      <c r="U61" s="2" t="n"/>
+      <c r="V61" s="2" t="n"/>
     </row>
     <row r="62">
       <c r="A62" s="2" t="inlineStr">
@@ -3476,33 +3271,33 @@
           <t>site [BFO:0000029]</t>
         </is>
       </c>
-      <c r="D62" s="2" t="inlineStr"/>
-      <c r="E62" s="2" t="inlineStr"/>
-      <c r="F62" s="2" t="inlineStr"/>
-      <c r="G62" s="2" t="inlineStr"/>
-      <c r="H62" s="2" t="inlineStr"/>
-      <c r="I62" s="2" t="inlineStr"/>
-      <c r="J62" s="2" t="inlineStr"/>
-      <c r="K62" s="2" t="inlineStr"/>
-      <c r="L62" s="2" t="inlineStr"/>
+      <c r="D62" s="2" t="n"/>
+      <c r="E62" s="2" t="n"/>
+      <c r="F62" s="2" t="n"/>
+      <c r="G62" s="2" t="n"/>
+      <c r="H62" s="2" t="n"/>
+      <c r="I62" s="2" t="n"/>
+      <c r="J62" s="2" t="n"/>
+      <c r="K62" s="2" t="n"/>
+      <c r="L62" s="2" t="n"/>
       <c r="M62" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">A site which is an outdoor location outside of a building. </t>
         </is>
       </c>
-      <c r="N62" s="2" t="inlineStr"/>
-      <c r="O62" s="2" t="inlineStr"/>
-      <c r="P62" s="2" t="inlineStr"/>
-      <c r="Q62" s="2" t="inlineStr"/>
-      <c r="R62" s="2" t="inlineStr"/>
-      <c r="S62" s="2" t="inlineStr"/>
+      <c r="N62" s="2" t="n"/>
+      <c r="O62" s="2" t="n"/>
+      <c r="P62" s="2" t="n"/>
+      <c r="Q62" s="2" t="n"/>
+      <c r="R62" s="2" t="n"/>
+      <c r="S62" s="2" t="n"/>
       <c r="T62" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U62" s="2" t="inlineStr"/>
-      <c r="V62" s="2" t="inlineStr"/>
+      <c r="U62" s="2" t="n"/>
+      <c r="V62" s="2" t="n"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -3520,15 +3315,6 @@
           <t>outdoor environment [BCIO:026046]</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr"/>
-      <c r="E63" t="inlineStr"/>
-      <c r="F63" t="inlineStr"/>
-      <c r="G63" t="inlineStr"/>
-      <c r="H63" t="inlineStr"/>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
       <c r="M63" t="inlineStr">
         <is>
           <t>A bounded area of land, or water, usually in its natural or semi-natural (landscaped) state and set aside for some purpose, usually to do with recreation or conservation</t>
@@ -3544,17 +3330,11 @@
           <t>Environment Ontology</t>
         </is>
       </c>
-      <c r="P63" t="inlineStr"/>
-      <c r="Q63" t="inlineStr"/>
-      <c r="R63" t="inlineStr"/>
-      <c r="S63" t="inlineStr"/>
       <c r="T63" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="U63" t="inlineStr"/>
-      <c r="V63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -3572,15 +3352,6 @@
           <t>outdoor environment [BCIO:026046]</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr"/>
-      <c r="E64" t="inlineStr"/>
-      <c r="F64" t="inlineStr"/>
-      <c r="G64" t="inlineStr"/>
-      <c r="H64" t="inlineStr"/>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
       <c r="M64" t="inlineStr">
         <is>
           <t>An area with a high density of trees. A small forest may be called a wood</t>
@@ -3596,17 +3367,11 @@
           <t>Environment Ontology</t>
         </is>
       </c>
-      <c r="P64" t="inlineStr"/>
-      <c r="Q64" t="inlineStr"/>
-      <c r="R64" t="inlineStr"/>
-      <c r="S64" t="inlineStr"/>
       <c r="T64" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="U64" t="inlineStr"/>
-      <c r="V64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -3624,15 +3389,6 @@
           <t>outdoor environment [BCIO:026046]</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr"/>
-      <c r="E65" t="inlineStr"/>
-      <c r="F65" t="inlineStr"/>
-      <c r="G65" t="inlineStr"/>
-      <c r="H65" t="inlineStr"/>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
       <c r="M65" t="inlineStr">
         <is>
           <t>A landform consisting of loose rock particles such as sand, gravel, shingle, pebbles, cobble, or even shell fragments along the shoreline of a body of wate</t>
@@ -3648,17 +3404,11 @@
           <t>Environment Ontology</t>
         </is>
       </c>
-      <c r="P65" t="inlineStr"/>
-      <c r="Q65" t="inlineStr"/>
-      <c r="R65" t="inlineStr"/>
-      <c r="S65" t="inlineStr"/>
       <c r="T65" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="U65" t="inlineStr"/>
-      <c r="V65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="2" t="inlineStr">
@@ -3676,33 +3426,33 @@
           <t>outdoor environment [BCIO:026046]</t>
         </is>
       </c>
-      <c r="D66" s="2" t="inlineStr"/>
-      <c r="E66" s="2" t="inlineStr"/>
-      <c r="F66" s="2" t="inlineStr"/>
-      <c r="G66" s="2" t="inlineStr"/>
-      <c r="H66" s="2" t="inlineStr"/>
-      <c r="I66" s="2" t="inlineStr"/>
-      <c r="J66" s="2" t="inlineStr"/>
-      <c r="K66" s="2" t="inlineStr"/>
-      <c r="L66" s="2" t="inlineStr"/>
+      <c r="D66" s="2" t="n"/>
+      <c r="E66" s="2" t="n"/>
+      <c r="F66" s="2" t="n"/>
+      <c r="G66" s="2" t="n"/>
+      <c r="H66" s="2" t="n"/>
+      <c r="I66" s="2" t="n"/>
+      <c r="J66" s="2" t="n"/>
+      <c r="K66" s="2" t="n"/>
+      <c r="L66" s="2" t="n"/>
       <c r="M66" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">An outdoor environment set in an expanse of water. </t>
         </is>
       </c>
-      <c r="N66" s="2" t="inlineStr"/>
-      <c r="O66" s="2" t="inlineStr"/>
-      <c r="P66" s="2" t="inlineStr"/>
-      <c r="Q66" s="2" t="inlineStr"/>
-      <c r="R66" s="2" t="inlineStr"/>
-      <c r="S66" s="2" t="inlineStr"/>
+      <c r="N66" s="2" t="n"/>
+      <c r="O66" s="2" t="n"/>
+      <c r="P66" s="2" t="n"/>
+      <c r="Q66" s="2" t="n"/>
+      <c r="R66" s="2" t="n"/>
+      <c r="S66" s="2" t="n"/>
       <c r="T66" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U66" s="2" t="inlineStr"/>
-      <c r="V66" s="2" t="inlineStr"/>
+      <c r="U66" s="2" t="n"/>
+      <c r="V66" s="2" t="n"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -3720,15 +3470,6 @@
           <t>outdoor environment [BCIO:026046]</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr"/>
-      <c r="E67" t="inlineStr"/>
-      <c r="F67" t="inlineStr"/>
-      <c r="G67" t="inlineStr"/>
-      <c r="H67" t="inlineStr"/>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
       <c r="M67" t="inlineStr">
         <is>
           <t>An area in which grasses (Graminae) are a significant component of the vegetation</t>
@@ -3744,17 +3485,11 @@
           <t>Environment Ontology</t>
         </is>
       </c>
-      <c r="P67" t="inlineStr"/>
-      <c r="Q67" t="inlineStr"/>
-      <c r="R67" t="inlineStr"/>
-      <c r="S67" t="inlineStr"/>
       <c r="T67" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="U67" t="inlineStr"/>
-      <c r="V67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -3772,15 +3507,6 @@
           <t>outdoor environment [BCIO:026046]</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr"/>
-      <c r="E68" t="inlineStr"/>
-      <c r="F68" t="inlineStr"/>
-      <c r="G68" t="inlineStr"/>
-      <c r="H68" t="inlineStr"/>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
       <c r="M68" t="inlineStr">
         <is>
           <t>An open way for the passage of vehicles, persons, or animals on land</t>
@@ -3796,17 +3522,11 @@
           <t>Environment Ontology</t>
         </is>
       </c>
-      <c r="P68" t="inlineStr"/>
-      <c r="Q68" t="inlineStr"/>
-      <c r="R68" t="inlineStr"/>
-      <c r="S68" t="inlineStr"/>
       <c r="T68" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="U68" t="inlineStr"/>
-      <c r="V68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="2" t="inlineStr">
@@ -3824,33 +3544,33 @@
           <t>outdoor environment [BCIO:026046]</t>
         </is>
       </c>
-      <c r="D69" s="2" t="inlineStr"/>
-      <c r="E69" s="2" t="inlineStr"/>
-      <c r="F69" s="2" t="inlineStr"/>
-      <c r="G69" s="2" t="inlineStr"/>
-      <c r="H69" s="2" t="inlineStr"/>
-      <c r="I69" s="2" t="inlineStr"/>
-      <c r="J69" s="2" t="inlineStr"/>
-      <c r="K69" s="2" t="inlineStr"/>
-      <c r="L69" s="2" t="inlineStr"/>
+      <c r="D69" s="2" t="n"/>
+      <c r="E69" s="2" t="n"/>
+      <c r="F69" s="2" t="n"/>
+      <c r="G69" s="2" t="n"/>
+      <c r="H69" s="2" t="n"/>
+      <c r="I69" s="2" t="n"/>
+      <c r="J69" s="2" t="n"/>
+      <c r="K69" s="2" t="n"/>
+      <c r="L69" s="2" t="n"/>
       <c r="M69" s="2" t="inlineStr">
         <is>
           <t>An outdoor environment for the passage of persons or cyclists on land</t>
         </is>
       </c>
-      <c r="N69" s="2" t="inlineStr"/>
-      <c r="O69" s="2" t="inlineStr"/>
-      <c r="P69" s="2" t="inlineStr"/>
-      <c r="Q69" s="2" t="inlineStr"/>
-      <c r="R69" s="2" t="inlineStr"/>
-      <c r="S69" s="2" t="inlineStr"/>
+      <c r="N69" s="2" t="n"/>
+      <c r="O69" s="2" t="n"/>
+      <c r="P69" s="2" t="n"/>
+      <c r="Q69" s="2" t="n"/>
+      <c r="R69" s="2" t="n"/>
+      <c r="S69" s="2" t="n"/>
       <c r="T69" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U69" s="2" t="inlineStr"/>
-      <c r="V69" s="2" t="inlineStr"/>
+      <c r="U69" s="2" t="n"/>
+      <c r="V69" s="2" t="n"/>
     </row>
     <row r="70">
       <c r="A70" s="2" t="inlineStr">
@@ -3868,33 +3588,33 @@
           <t>path or pavement [BCIO:026048]</t>
         </is>
       </c>
-      <c r="D70" s="2" t="inlineStr"/>
-      <c r="E70" s="2" t="inlineStr"/>
-      <c r="F70" s="2" t="inlineStr"/>
-      <c r="G70" s="2" t="inlineStr"/>
-      <c r="H70" s="2" t="inlineStr"/>
-      <c r="I70" s="2" t="inlineStr"/>
-      <c r="J70" s="2" t="inlineStr"/>
-      <c r="K70" s="2" t="inlineStr"/>
-      <c r="L70" s="2" t="inlineStr"/>
+      <c r="D70" s="2" t="n"/>
+      <c r="E70" s="2" t="n"/>
+      <c r="F70" s="2" t="n"/>
+      <c r="G70" s="2" t="n"/>
+      <c r="H70" s="2" t="n"/>
+      <c r="I70" s="2" t="n"/>
+      <c r="J70" s="2" t="n"/>
+      <c r="K70" s="2" t="n"/>
+      <c r="L70" s="2" t="n"/>
       <c r="M70" s="2" t="inlineStr">
         <is>
           <t>A path or pavement for the passage of persons only on land.</t>
         </is>
       </c>
-      <c r="N70" s="2" t="inlineStr"/>
-      <c r="O70" s="2" t="inlineStr"/>
-      <c r="P70" s="2" t="inlineStr"/>
-      <c r="Q70" s="2" t="inlineStr"/>
-      <c r="R70" s="2" t="inlineStr"/>
-      <c r="S70" s="2" t="inlineStr"/>
+      <c r="N70" s="2" t="n"/>
+      <c r="O70" s="2" t="n"/>
+      <c r="P70" s="2" t="n"/>
+      <c r="Q70" s="2" t="n"/>
+      <c r="R70" s="2" t="n"/>
+      <c r="S70" s="2" t="n"/>
       <c r="T70" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U70" s="2" t="inlineStr"/>
-      <c r="V70" s="2" t="inlineStr"/>
+      <c r="U70" s="2" t="n"/>
+      <c r="V70" s="2" t="n"/>
     </row>
     <row r="71">
       <c r="A71" s="2" t="inlineStr">
@@ -3912,33 +3632,33 @@
           <t>path or pavement [BCIO:026048]</t>
         </is>
       </c>
-      <c r="D71" s="2" t="inlineStr"/>
-      <c r="E71" s="2" t="inlineStr"/>
-      <c r="F71" s="2" t="inlineStr"/>
-      <c r="G71" s="2" t="inlineStr"/>
-      <c r="H71" s="2" t="inlineStr"/>
-      <c r="I71" s="2" t="inlineStr"/>
-      <c r="J71" s="2" t="inlineStr"/>
-      <c r="K71" s="2" t="inlineStr"/>
-      <c r="L71" s="2" t="inlineStr"/>
+      <c r="D71" s="2" t="n"/>
+      <c r="E71" s="2" t="n"/>
+      <c r="F71" s="2" t="n"/>
+      <c r="G71" s="2" t="n"/>
+      <c r="H71" s="2" t="n"/>
+      <c r="I71" s="2" t="n"/>
+      <c r="J71" s="2" t="n"/>
+      <c r="K71" s="2" t="n"/>
+      <c r="L71" s="2" t="n"/>
       <c r="M71" s="2" t="inlineStr">
         <is>
           <t>A path or pavement for the passage of people using bicycles only on land.</t>
         </is>
       </c>
-      <c r="N71" s="2" t="inlineStr"/>
-      <c r="O71" s="2" t="inlineStr"/>
-      <c r="P71" s="2" t="inlineStr"/>
-      <c r="Q71" s="2" t="inlineStr"/>
-      <c r="R71" s="2" t="inlineStr"/>
-      <c r="S71" s="2" t="inlineStr"/>
+      <c r="N71" s="2" t="n"/>
+      <c r="O71" s="2" t="n"/>
+      <c r="P71" s="2" t="n"/>
+      <c r="Q71" s="2" t="n"/>
+      <c r="R71" s="2" t="n"/>
+      <c r="S71" s="2" t="n"/>
       <c r="T71" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U71" s="2" t="inlineStr"/>
-      <c r="V71" s="2" t="inlineStr"/>
+      <c r="U71" s="2" t="n"/>
+      <c r="V71" s="2" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Setting/inputs/Setting.xlsx
+++ b/Setting/inputs/Setting.xlsx
@@ -560,7 +560,11 @@
           <t>transportation [BCIO:026041]</t>
         </is>
       </c>
-      <c r="D2" s="2" t="inlineStr"/>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
       <c r="E2" s="2" t="inlineStr"/>
       <c r="F2" s="2" t="inlineStr"/>
       <c r="G2" s="2" t="inlineStr"/>
@@ -579,7 +583,11 @@
       <c r="P2" s="2" t="inlineStr"/>
       <c r="Q2" s="2" t="inlineStr"/>
       <c r="R2" s="2" t="inlineStr"/>
-      <c r="S2" s="2" t="inlineStr"/>
+      <c r="S2" s="2" t="inlineStr">
+        <is>
+          <t>ZZ</t>
+        </is>
+      </c>
       <c r="T2" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>

--- a/Setting/inputs/Setting.xlsx
+++ b/Setting/inputs/Setting.xlsx
@@ -565,24 +565,24 @@
           <t>test</t>
         </is>
       </c>
-      <c r="E2" s="2" t="inlineStr"/>
-      <c r="F2" s="2" t="inlineStr"/>
-      <c r="G2" s="2" t="inlineStr"/>
-      <c r="H2" s="2" t="inlineStr"/>
-      <c r="I2" s="2" t="inlineStr"/>
-      <c r="J2" s="2" t="inlineStr"/>
-      <c r="K2" s="2" t="inlineStr"/>
-      <c r="L2" s="2" t="inlineStr"/>
+      <c r="E2" s="2" t="n"/>
+      <c r="F2" s="2" t="n"/>
+      <c r="G2" s="2" t="n"/>
+      <c r="H2" s="2" t="n"/>
+      <c r="I2" s="2" t="n"/>
+      <c r="J2" s="2" t="n"/>
+      <c r="K2" s="2" t="n"/>
+      <c r="L2" s="2" t="n"/>
       <c r="M2" s="2" t="inlineStr">
         <is>
           <t>A form of transporation which can transport patients for health treatment, and in some instances will also provide out-of-hospital healthcare to the patient.</t>
         </is>
       </c>
-      <c r="N2" s="2" t="inlineStr"/>
-      <c r="O2" s="2" t="inlineStr"/>
-      <c r="P2" s="2" t="inlineStr"/>
-      <c r="Q2" s="2" t="inlineStr"/>
-      <c r="R2" s="2" t="inlineStr"/>
+      <c r="N2" s="2" t="n"/>
+      <c r="O2" s="2" t="n"/>
+      <c r="P2" s="2" t="n"/>
+      <c r="Q2" s="2" t="n"/>
+      <c r="R2" s="2" t="n"/>
       <c r="S2" s="2" t="inlineStr">
         <is>
           <t>ZZ</t>
@@ -593,8 +593,8 @@
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U2" s="2" t="inlineStr"/>
-      <c r="V2" s="2" t="inlineStr"/>
+      <c r="U2" s="2" t="n"/>
+      <c r="V2" s="2" t="n"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
@@ -612,37 +612,37 @@
           <t>attribute of location [BCIO:026003]</t>
         </is>
       </c>
-      <c r="D3" s="2" t="inlineStr"/>
-      <c r="E3" s="2" t="inlineStr"/>
-      <c r="F3" s="2" t="inlineStr"/>
-      <c r="G3" s="2" t="inlineStr"/>
-      <c r="H3" s="2" t="inlineStr"/>
-      <c r="I3" s="2" t="inlineStr"/>
-      <c r="J3" s="2" t="inlineStr"/>
-      <c r="K3" s="2" t="inlineStr"/>
-      <c r="L3" s="2" t="inlineStr"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="inlineStr">
         <is>
           <t>An attribute of location describing the overall socioeconomic state of a location.</t>
         </is>
       </c>
-      <c r="N3" s="2" t="inlineStr"/>
-      <c r="O3" s="2" t="inlineStr"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
       <c r="P3" s="2" t="inlineStr">
         <is>
           <t>disadvantaged area; crime rates; World Bank Classifications</t>
         </is>
       </c>
-      <c r="Q3" s="2" t="inlineStr"/>
-      <c r="R3" s="2" t="inlineStr"/>
-      <c r="S3" s="2" t="inlineStr"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
       <c r="T3" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U3" s="2" t="inlineStr"/>
-      <c r="V3" s="2" t="inlineStr"/>
+      <c r="U3" s="2" t="n"/>
+      <c r="V3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
@@ -660,37 +660,37 @@
           <t>community facility [BCIO:026029]</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr"/>
-      <c r="E4" s="2" t="inlineStr"/>
-      <c r="F4" s="2" t="inlineStr"/>
-      <c r="G4" s="2" t="inlineStr"/>
-      <c r="H4" s="2" t="inlineStr"/>
-      <c r="I4" s="2" t="inlineStr"/>
-      <c r="J4" s="2" t="inlineStr"/>
-      <c r="K4" s="2" t="inlineStr"/>
-      <c r="L4" s="2" t="inlineStr"/>
+      <c r="D4" s="2" t="n"/>
+      <c r="E4" s="2" t="n"/>
+      <c r="F4" s="2" t="n"/>
+      <c r="G4" s="2" t="n"/>
+      <c r="H4" s="2" t="n"/>
+      <c r="I4" s="2" t="n"/>
+      <c r="J4" s="2" t="n"/>
+      <c r="K4" s="2" t="n"/>
+      <c r="L4" s="2" t="n"/>
       <c r="M4" s="2" t="inlineStr">
         <is>
           <t>A community facility designed to entertain or amuse.</t>
         </is>
       </c>
-      <c r="N4" s="2" t="inlineStr"/>
-      <c r="O4" s="2" t="inlineStr"/>
+      <c r="N4" s="2" t="n"/>
+      <c r="O4" s="2" t="n"/>
       <c r="P4" s="2" t="inlineStr">
         <is>
           <t>cinema; theatre; disco</t>
         </is>
       </c>
-      <c r="Q4" s="2" t="inlineStr"/>
-      <c r="R4" s="2" t="inlineStr"/>
-      <c r="S4" s="2" t="inlineStr"/>
+      <c r="Q4" s="2" t="n"/>
+      <c r="R4" s="2" t="n"/>
+      <c r="S4" s="2" t="n"/>
       <c r="T4" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U4" s="2" t="inlineStr"/>
-      <c r="V4" s="2" t="inlineStr"/>
+      <c r="U4" s="2" t="n"/>
+      <c r="V4" s="2" t="n"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
@@ -713,32 +713,32 @@
           <t>Behaviour change intervention physical setting [BCIO:026000]</t>
         </is>
       </c>
-      <c r="E5" s="2" t="inlineStr"/>
-      <c r="F5" s="2" t="inlineStr"/>
-      <c r="G5" s="2" t="inlineStr"/>
-      <c r="H5" s="2" t="inlineStr"/>
-      <c r="I5" s="2" t="inlineStr"/>
-      <c r="J5" s="2" t="inlineStr"/>
-      <c r="K5" s="2" t="inlineStr"/>
-      <c r="L5" s="2" t="inlineStr"/>
+      <c r="E5" s="2" t="n"/>
+      <c r="F5" s="2" t="n"/>
+      <c r="G5" s="2" t="n"/>
+      <c r="H5" s="2" t="n"/>
+      <c r="I5" s="2" t="n"/>
+      <c r="J5" s="2" t="n"/>
+      <c r="K5" s="2" t="n"/>
+      <c r="L5" s="2" t="n"/>
       <c r="M5" s="2" t="inlineStr">
         <is>
           <t>Features of a given location, such as social and economic characteristics.</t>
         </is>
       </c>
-      <c r="N5" s="2" t="inlineStr"/>
-      <c r="O5" s="2" t="inlineStr"/>
-      <c r="P5" s="2" t="inlineStr"/>
-      <c r="Q5" s="2" t="inlineStr"/>
-      <c r="R5" s="2" t="inlineStr"/>
-      <c r="S5" s="2" t="inlineStr"/>
+      <c r="N5" s="2" t="n"/>
+      <c r="O5" s="2" t="n"/>
+      <c r="P5" s="2" t="n"/>
+      <c r="Q5" s="2" t="n"/>
+      <c r="R5" s="2" t="n"/>
+      <c r="S5" s="2" t="n"/>
       <c r="T5" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U5" s="2" t="inlineStr"/>
-      <c r="V5" s="2" t="inlineStr"/>
+      <c r="U5" s="2" t="n"/>
+      <c r="V5" s="2" t="n"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -756,15 +756,6 @@
           <t>outdoor environment [BCIO:026046]</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr">
         <is>
           <t>A landform consisting of loose rock particles such as sand, gravel, shingle, pebbles, cobble, or even shell fragments along the shoreline of a body of wate</t>
@@ -780,17 +771,11 @@
           <t>Environment Ontology</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="inlineStr"/>
       <c r="T6" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="U6" t="inlineStr"/>
-      <c r="V6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
@@ -808,33 +793,33 @@
           <t>healthcare facility [OMRSE:00000102]</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr"/>
-      <c r="E7" s="2" t="inlineStr"/>
-      <c r="F7" s="2" t="inlineStr"/>
-      <c r="G7" s="2" t="inlineStr"/>
-      <c r="H7" s="2" t="inlineStr"/>
-      <c r="I7" s="2" t="inlineStr"/>
-      <c r="J7" s="2" t="inlineStr"/>
-      <c r="K7" s="2" t="inlineStr"/>
-      <c r="L7" s="2" t="inlineStr"/>
+      <c r="D7" s="2" t="n"/>
+      <c r="E7" s="2" t="n"/>
+      <c r="F7" s="2" t="n"/>
+      <c r="G7" s="2" t="n"/>
+      <c r="H7" s="2" t="n"/>
+      <c r="I7" s="2" t="n"/>
+      <c r="J7" s="2" t="n"/>
+      <c r="K7" s="2" t="n"/>
+      <c r="L7" s="2" t="n"/>
       <c r="M7" s="2" t="inlineStr">
         <is>
           <t>A healthcare facility that is run by a care home organization and is the bearer of a care home function.</t>
         </is>
       </c>
-      <c r="N7" s="2" t="inlineStr"/>
-      <c r="O7" s="2" t="inlineStr"/>
-      <c r="P7" s="2" t="inlineStr"/>
-      <c r="Q7" s="2" t="inlineStr"/>
-      <c r="R7" s="2" t="inlineStr"/>
-      <c r="S7" s="2" t="inlineStr"/>
+      <c r="N7" s="2" t="n"/>
+      <c r="O7" s="2" t="n"/>
+      <c r="P7" s="2" t="n"/>
+      <c r="Q7" s="2" t="n"/>
+      <c r="R7" s="2" t="n"/>
+      <c r="S7" s="2" t="n"/>
       <c r="T7" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U7" s="2" t="inlineStr"/>
-      <c r="V7" s="2" t="inlineStr"/>
+      <c r="U7" s="2" t="n"/>
+      <c r="V7" s="2" t="n"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
@@ -852,37 +837,37 @@
           <t>facility [OMRSE:00000062]</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr"/>
-      <c r="E8" s="2" t="inlineStr"/>
-      <c r="F8" s="2" t="inlineStr"/>
-      <c r="G8" s="2" t="inlineStr"/>
-      <c r="H8" s="2" t="inlineStr"/>
-      <c r="I8" s="2" t="inlineStr"/>
-      <c r="J8" s="2" t="inlineStr"/>
-      <c r="K8" s="2" t="inlineStr"/>
-      <c r="L8" s="2" t="inlineStr"/>
+      <c r="D8" s="2" t="n"/>
+      <c r="E8" s="2" t="n"/>
+      <c r="F8" s="2" t="n"/>
+      <c r="G8" s="2" t="n"/>
+      <c r="H8" s="2" t="n"/>
+      <c r="I8" s="2" t="n"/>
+      <c r="J8" s="2" t="n"/>
+      <c r="K8" s="2" t="n"/>
+      <c r="L8" s="2" t="n"/>
       <c r="M8" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">A facility used by a group of people living in the same place or having a particular characteristic in common. </t>
         </is>
       </c>
-      <c r="N8" s="2" t="inlineStr"/>
-      <c r="O8" s="2" t="inlineStr"/>
+      <c r="N8" s="2" t="n"/>
+      <c r="O8" s="2" t="n"/>
       <c r="P8" s="2" t="inlineStr">
         <is>
           <t>food bank; recycling centre</t>
         </is>
       </c>
-      <c r="Q8" s="2" t="inlineStr"/>
-      <c r="R8" s="2" t="inlineStr"/>
-      <c r="S8" s="2" t="inlineStr"/>
+      <c r="Q8" s="2" t="n"/>
+      <c r="R8" s="2" t="n"/>
+      <c r="S8" s="2" t="n"/>
       <c r="T8" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U8" s="2" t="inlineStr"/>
-      <c r="V8" s="2" t="inlineStr"/>
+      <c r="U8" s="2" t="n"/>
+      <c r="V8" s="2" t="n"/>
     </row>
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
@@ -900,37 +885,37 @@
           <t>healthcare facility [OMRSE:00000102]</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr"/>
-      <c r="E9" s="2" t="inlineStr"/>
-      <c r="F9" s="2" t="inlineStr"/>
-      <c r="G9" s="2" t="inlineStr"/>
-      <c r="H9" s="2" t="inlineStr"/>
-      <c r="I9" s="2" t="inlineStr"/>
-      <c r="J9" s="2" t="inlineStr"/>
-      <c r="K9" s="2" t="inlineStr"/>
-      <c r="L9" s="2" t="inlineStr"/>
+      <c r="D9" s="2" t="n"/>
+      <c r="E9" s="2" t="n"/>
+      <c r="F9" s="2" t="n"/>
+      <c r="G9" s="2" t="n"/>
+      <c r="H9" s="2" t="n"/>
+      <c r="I9" s="2" t="n"/>
+      <c r="J9" s="2" t="n"/>
+      <c r="K9" s="2" t="n"/>
+      <c r="L9" s="2" t="n"/>
       <c r="M9" s="2" t="inlineStr">
         <is>
           <t>A clinic providing healthcare services to people in a certain area</t>
         </is>
       </c>
-      <c r="N9" s="2" t="inlineStr"/>
-      <c r="O9" s="2" t="inlineStr"/>
+      <c r="N9" s="2" t="n"/>
+      <c r="O9" s="2" t="n"/>
       <c r="P9" s="2" t="inlineStr">
         <is>
           <t>polyclinic</t>
         </is>
       </c>
-      <c r="Q9" s="2" t="inlineStr"/>
-      <c r="R9" s="2" t="inlineStr"/>
-      <c r="S9" s="2" t="inlineStr"/>
+      <c r="Q9" s="2" t="n"/>
+      <c r="R9" s="2" t="n"/>
+      <c r="S9" s="2" t="n"/>
       <c r="T9" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U9" s="2" t="inlineStr"/>
-      <c r="V9" s="2" t="inlineStr"/>
+      <c r="U9" s="2" t="n"/>
+      <c r="V9" s="2" t="n"/>
     </row>
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
@@ -948,33 +933,33 @@
           <t>community healthcare facility [BCIO:026019]</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr"/>
-      <c r="E10" s="2" t="inlineStr"/>
-      <c r="F10" s="2" t="inlineStr"/>
-      <c r="G10" s="2" t="inlineStr"/>
-      <c r="H10" s="2" t="inlineStr"/>
-      <c r="I10" s="2" t="inlineStr"/>
-      <c r="J10" s="2" t="inlineStr"/>
-      <c r="K10" s="2" t="inlineStr"/>
-      <c r="L10" s="2" t="inlineStr"/>
+      <c r="D10" s="2" t="n"/>
+      <c r="E10" s="2" t="n"/>
+      <c r="F10" s="2" t="n"/>
+      <c r="G10" s="2" t="n"/>
+      <c r="H10" s="2" t="n"/>
+      <c r="I10" s="2" t="n"/>
+      <c r="J10" s="2" t="n"/>
+      <c r="K10" s="2" t="n"/>
+      <c r="L10" s="2" t="n"/>
       <c r="M10" s="2" t="inlineStr">
         <is>
           <t>A healthcare facility to treat patients in the community without them staying overnight.</t>
         </is>
       </c>
-      <c r="N10" s="2" t="inlineStr"/>
-      <c r="O10" s="2" t="inlineStr"/>
-      <c r="P10" s="2" t="inlineStr"/>
-      <c r="Q10" s="2" t="inlineStr"/>
-      <c r="R10" s="2" t="inlineStr"/>
-      <c r="S10" s="2" t="inlineStr"/>
+      <c r="N10" s="2" t="n"/>
+      <c r="O10" s="2" t="n"/>
+      <c r="P10" s="2" t="n"/>
+      <c r="Q10" s="2" t="n"/>
+      <c r="R10" s="2" t="n"/>
+      <c r="S10" s="2" t="n"/>
       <c r="T10" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U10" s="2" t="inlineStr"/>
-      <c r="V10" s="2" t="inlineStr"/>
+      <c r="U10" s="2" t="n"/>
+      <c r="V10" s="2" t="n"/>
     </row>
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
@@ -992,37 +977,37 @@
           <t>geographic location [GAZ:00000448]</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr"/>
-      <c r="E11" s="2" t="inlineStr"/>
-      <c r="F11" s="2" t="inlineStr"/>
-      <c r="G11" s="2" t="inlineStr"/>
-      <c r="H11" s="2" t="inlineStr"/>
-      <c r="I11" s="2" t="inlineStr"/>
-      <c r="J11" s="2" t="inlineStr"/>
-      <c r="K11" s="2" t="inlineStr"/>
-      <c r="L11" s="2" t="inlineStr"/>
+      <c r="D11" s="2" t="n"/>
+      <c r="E11" s="2" t="n"/>
+      <c r="F11" s="2" t="n"/>
+      <c r="G11" s="2" t="n"/>
+      <c r="H11" s="2" t="n"/>
+      <c r="I11" s="2" t="n"/>
+      <c r="J11" s="2" t="n"/>
+      <c r="K11" s="2" t="n"/>
+      <c r="L11" s="2" t="n"/>
       <c r="M11" s="2" t="inlineStr">
         <is>
           <t>A geographical location of a country where the intervention takes place.</t>
         </is>
       </c>
-      <c r="N11" s="2" t="inlineStr"/>
-      <c r="O11" s="2" t="inlineStr"/>
+      <c r="N11" s="2" t="n"/>
+      <c r="O11" s="2" t="n"/>
       <c r="P11" s="2" t="inlineStr">
         <is>
           <t>United Kingdom; Spain</t>
         </is>
       </c>
-      <c r="Q11" s="2" t="inlineStr"/>
-      <c r="R11" s="2" t="inlineStr"/>
-      <c r="S11" s="2" t="inlineStr"/>
+      <c r="Q11" s="2" t="n"/>
+      <c r="R11" s="2" t="n"/>
+      <c r="S11" s="2" t="n"/>
       <c r="T11" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U11" s="2" t="inlineStr"/>
-      <c r="V11" s="2" t="inlineStr"/>
+      <c r="U11" s="2" t="n"/>
+      <c r="V11" s="2" t="n"/>
     </row>
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
@@ -1040,37 +1025,37 @@
           <t>facility [OMRSE:00000062]</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr"/>
-      <c r="E12" s="2" t="inlineStr"/>
-      <c r="F12" s="2" t="inlineStr"/>
-      <c r="G12" s="2" t="inlineStr"/>
-      <c r="H12" s="2" t="inlineStr"/>
-      <c r="I12" s="2" t="inlineStr"/>
-      <c r="J12" s="2" t="inlineStr"/>
-      <c r="K12" s="2" t="inlineStr"/>
-      <c r="L12" s="2" t="inlineStr"/>
+      <c r="D12" s="2" t="n"/>
+      <c r="E12" s="2" t="n"/>
+      <c r="F12" s="2" t="n"/>
+      <c r="G12" s="2" t="n"/>
+      <c r="H12" s="2" t="n"/>
+      <c r="I12" s="2" t="n"/>
+      <c r="J12" s="2" t="n"/>
+      <c r="K12" s="2" t="n"/>
+      <c r="L12" s="2" t="n"/>
       <c r="M12" s="2" t="inlineStr">
         <is>
           <t>A facility where individuals are being reprimanded, detained or imprisoned.</t>
         </is>
       </c>
-      <c r="N12" s="2" t="inlineStr"/>
-      <c r="O12" s="2" t="inlineStr"/>
+      <c r="N12" s="2" t="n"/>
+      <c r="O12" s="2" t="n"/>
       <c r="P12" s="2" t="inlineStr">
         <is>
           <t>prison</t>
         </is>
       </c>
-      <c r="Q12" s="2" t="inlineStr"/>
-      <c r="R12" s="2" t="inlineStr"/>
-      <c r="S12" s="2" t="inlineStr"/>
+      <c r="Q12" s="2" t="n"/>
+      <c r="R12" s="2" t="n"/>
+      <c r="S12" s="2" t="n"/>
       <c r="T12" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U12" s="2" t="inlineStr"/>
-      <c r="V12" s="2" t="inlineStr"/>
+      <c r="U12" s="2" t="n"/>
+      <c r="V12" s="2" t="n"/>
     </row>
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
@@ -1088,33 +1073,33 @@
           <t>healthcare facility [OMRSE:00000102]</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr"/>
-      <c r="E13" s="2" t="inlineStr"/>
-      <c r="F13" s="2" t="inlineStr"/>
-      <c r="G13" s="2" t="inlineStr"/>
-      <c r="H13" s="2" t="inlineStr"/>
-      <c r="I13" s="2" t="inlineStr"/>
-      <c r="J13" s="2" t="inlineStr"/>
-      <c r="K13" s="2" t="inlineStr"/>
-      <c r="L13" s="2" t="inlineStr"/>
+      <c r="D13" s="2" t="n"/>
+      <c r="E13" s="2" t="n"/>
+      <c r="F13" s="2" t="n"/>
+      <c r="G13" s="2" t="n"/>
+      <c r="H13" s="2" t="n"/>
+      <c r="I13" s="2" t="n"/>
+      <c r="J13" s="2" t="n"/>
+      <c r="K13" s="2" t="n"/>
+      <c r="L13" s="2" t="n"/>
       <c r="M13" s="2" t="inlineStr">
         <is>
           <t>A healthcare facility where dental healthcare is provided.</t>
         </is>
       </c>
-      <c r="N13" s="2" t="inlineStr"/>
-      <c r="O13" s="2" t="inlineStr"/>
-      <c r="P13" s="2" t="inlineStr"/>
-      <c r="Q13" s="2" t="inlineStr"/>
-      <c r="R13" s="2" t="inlineStr"/>
-      <c r="S13" s="2" t="inlineStr"/>
+      <c r="N13" s="2" t="n"/>
+      <c r="O13" s="2" t="n"/>
+      <c r="P13" s="2" t="n"/>
+      <c r="Q13" s="2" t="n"/>
+      <c r="R13" s="2" t="n"/>
+      <c r="S13" s="2" t="n"/>
       <c r="T13" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U13" s="2" t="inlineStr"/>
-      <c r="V13" s="2" t="inlineStr"/>
+      <c r="U13" s="2" t="n"/>
+      <c r="V13" s="2" t="n"/>
     </row>
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
@@ -1132,29 +1117,29 @@
           <t>healthcare facility [OMRSE:00000102]</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr"/>
-      <c r="E14" s="2" t="inlineStr"/>
-      <c r="F14" s="2" t="inlineStr"/>
-      <c r="G14" s="2" t="inlineStr"/>
-      <c r="H14" s="2" t="inlineStr"/>
-      <c r="I14" s="2" t="inlineStr"/>
-      <c r="J14" s="2" t="inlineStr"/>
-      <c r="K14" s="2" t="inlineStr"/>
-      <c r="L14" s="2" t="inlineStr"/>
+      <c r="D14" s="2" t="n"/>
+      <c r="E14" s="2" t="n"/>
+      <c r="F14" s="2" t="n"/>
+      <c r="G14" s="2" t="n"/>
+      <c r="H14" s="2" t="n"/>
+      <c r="I14" s="2" t="n"/>
+      <c r="J14" s="2" t="n"/>
+      <c r="K14" s="2" t="n"/>
+      <c r="L14" s="2" t="n"/>
       <c r="M14" s="2" t="inlineStr">
         <is>
           <t>A healthcare facility led by doctors.</t>
         </is>
       </c>
-      <c r="N14" s="2" t="inlineStr"/>
-      <c r="O14" s="2" t="inlineStr"/>
+      <c r="N14" s="2" t="n"/>
+      <c r="O14" s="2" t="n"/>
       <c r="P14" s="2" t="inlineStr">
         <is>
           <t>general practitioners surgery; doctor surgery</t>
         </is>
       </c>
-      <c r="Q14" s="2" t="inlineStr"/>
-      <c r="R14" s="2" t="inlineStr"/>
+      <c r="Q14" s="2" t="n"/>
+      <c r="R14" s="2" t="n"/>
       <c r="S14" s="2" t="inlineStr">
         <is>
           <t>AW</t>
@@ -1165,8 +1150,8 @@
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U14" s="2" t="inlineStr"/>
-      <c r="V14" s="2" t="inlineStr"/>
+      <c r="U14" s="2" t="n"/>
+      <c r="V14" s="2" t="n"/>
     </row>
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
@@ -1184,33 +1169,33 @@
           <t>rehabilitation facility [OMRSE:00000106]</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr"/>
-      <c r="E15" s="2" t="inlineStr"/>
-      <c r="F15" s="2" t="inlineStr"/>
-      <c r="G15" s="2" t="inlineStr"/>
-      <c r="H15" s="2" t="inlineStr"/>
-      <c r="I15" s="2" t="inlineStr"/>
-      <c r="J15" s="2" t="inlineStr"/>
-      <c r="K15" s="2" t="inlineStr"/>
-      <c r="L15" s="2" t="inlineStr"/>
+      <c r="D15" s="2" t="n"/>
+      <c r="E15" s="2" t="n"/>
+      <c r="F15" s="2" t="n"/>
+      <c r="G15" s="2" t="n"/>
+      <c r="H15" s="2" t="n"/>
+      <c r="I15" s="2" t="n"/>
+      <c r="J15" s="2" t="n"/>
+      <c r="K15" s="2" t="n"/>
+      <c r="L15" s="2" t="n"/>
       <c r="M15" s="2" t="inlineStr">
         <is>
           <t>A rehabilitation facility to assist the recovery of people with drug or alcohol addiction.</t>
         </is>
       </c>
-      <c r="N15" s="2" t="inlineStr"/>
-      <c r="O15" s="2" t="inlineStr"/>
-      <c r="P15" s="2" t="inlineStr"/>
-      <c r="Q15" s="2" t="inlineStr"/>
-      <c r="R15" s="2" t="inlineStr"/>
-      <c r="S15" s="2" t="inlineStr"/>
+      <c r="N15" s="2" t="n"/>
+      <c r="O15" s="2" t="n"/>
+      <c r="P15" s="2" t="n"/>
+      <c r="Q15" s="2" t="n"/>
+      <c r="R15" s="2" t="n"/>
+      <c r="S15" s="2" t="n"/>
       <c r="T15" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U15" s="2" t="inlineStr"/>
-      <c r="V15" s="2" t="inlineStr"/>
+      <c r="U15" s="2" t="n"/>
+      <c r="V15" s="2" t="n"/>
     </row>
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
@@ -1228,37 +1213,37 @@
           <t>educational facility [BCIO:026022]</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr"/>
-      <c r="E16" s="2" t="inlineStr"/>
-      <c r="F16" s="2" t="inlineStr"/>
-      <c r="G16" s="2" t="inlineStr"/>
-      <c r="H16" s="2" t="inlineStr"/>
-      <c r="I16" s="2" t="inlineStr"/>
-      <c r="J16" s="2" t="inlineStr"/>
-      <c r="K16" s="2" t="inlineStr"/>
-      <c r="L16" s="2" t="inlineStr"/>
+      <c r="D16" s="2" t="n"/>
+      <c r="E16" s="2" t="n"/>
+      <c r="F16" s="2" t="n"/>
+      <c r="G16" s="2" t="n"/>
+      <c r="H16" s="2" t="n"/>
+      <c r="I16" s="2" t="n"/>
+      <c r="J16" s="2" t="n"/>
+      <c r="K16" s="2" t="n"/>
+      <c r="L16" s="2" t="n"/>
       <c r="M16" s="2" t="inlineStr">
         <is>
           <t>An educational facility in which pre-school education is provided.</t>
         </is>
       </c>
-      <c r="N16" s="2" t="inlineStr"/>
-      <c r="O16" s="2" t="inlineStr"/>
+      <c r="N16" s="2" t="n"/>
+      <c r="O16" s="2" t="n"/>
       <c r="P16" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">nursery school </t>
         </is>
       </c>
-      <c r="Q16" s="2" t="inlineStr"/>
-      <c r="R16" s="2" t="inlineStr"/>
-      <c r="S16" s="2" t="inlineStr"/>
+      <c r="Q16" s="2" t="n"/>
+      <c r="R16" s="2" t="n"/>
+      <c r="S16" s="2" t="n"/>
       <c r="T16" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U16" s="2" t="inlineStr"/>
-      <c r="V16" s="2" t="inlineStr"/>
+      <c r="U16" s="2" t="n"/>
+      <c r="V16" s="2" t="n"/>
     </row>
     <row r="17">
       <c r="A17" s="2" t="inlineStr">
@@ -1276,33 +1261,33 @@
           <t>facility [OMRSE:00000062]</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr"/>
-      <c r="E17" s="2" t="inlineStr"/>
-      <c r="F17" s="2" t="inlineStr"/>
-      <c r="G17" s="2" t="inlineStr"/>
-      <c r="H17" s="2" t="inlineStr"/>
-      <c r="I17" s="2" t="inlineStr"/>
-      <c r="J17" s="2" t="inlineStr"/>
-      <c r="K17" s="2" t="inlineStr"/>
-      <c r="L17" s="2" t="inlineStr"/>
+      <c r="D17" s="2" t="n"/>
+      <c r="E17" s="2" t="n"/>
+      <c r="F17" s="2" t="n"/>
+      <c r="G17" s="2" t="n"/>
+      <c r="H17" s="2" t="n"/>
+      <c r="I17" s="2" t="n"/>
+      <c r="J17" s="2" t="n"/>
+      <c r="K17" s="2" t="n"/>
+      <c r="L17" s="2" t="n"/>
       <c r="M17" s="2" t="inlineStr">
         <is>
           <t>A facility in which formal education is provided to a student population.</t>
         </is>
       </c>
-      <c r="N17" s="2" t="inlineStr"/>
-      <c r="O17" s="2" t="inlineStr"/>
-      <c r="P17" s="2" t="inlineStr"/>
-      <c r="Q17" s="2" t="inlineStr"/>
-      <c r="R17" s="2" t="inlineStr"/>
-      <c r="S17" s="2" t="inlineStr"/>
+      <c r="N17" s="2" t="n"/>
+      <c r="O17" s="2" t="n"/>
+      <c r="P17" s="2" t="n"/>
+      <c r="Q17" s="2" t="n"/>
+      <c r="R17" s="2" t="n"/>
+      <c r="S17" s="2" t="n"/>
       <c r="T17" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U17" s="2" t="inlineStr"/>
-      <c r="V17" s="2" t="inlineStr"/>
+      <c r="U17" s="2" t="n"/>
+      <c r="V17" s="2" t="n"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1320,15 +1305,6 @@
           <t>hospital facility [OMRSE:00000063]</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr">
         <is>
           <t>A health care facility that bears a function to provide emergency healthcare services and the acute care of patients who present without prior appointment, having arrived either by their own means or by ambulance</t>
@@ -1344,17 +1320,11 @@
           <t>OMRSE_00000114</t>
         </is>
       </c>
-      <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="inlineStr"/>
-      <c r="R18" t="inlineStr"/>
-      <c r="S18" t="inlineStr"/>
       <c r="T18" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="U18" t="inlineStr"/>
-      <c r="V18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1372,15 +1342,6 @@
           <t>site [BFO:0000029]</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr">
         <is>
           <t>An architectural structure that bears some function3</t>
@@ -1396,17 +1357,11 @@
           <t>Ontology of Medically Related Social Entities</t>
         </is>
       </c>
-      <c r="P19" t="inlineStr"/>
-      <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="inlineStr"/>
-      <c r="S19" t="inlineStr"/>
       <c r="T19" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="U19" t="inlineStr"/>
-      <c r="V19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
@@ -1424,33 +1379,33 @@
           <t>facility [OMRSE:00000062]</t>
         </is>
       </c>
-      <c r="D20" s="2" t="inlineStr"/>
-      <c r="E20" s="2" t="inlineStr"/>
-      <c r="F20" s="2" t="inlineStr"/>
-      <c r="G20" s="2" t="inlineStr"/>
-      <c r="H20" s="2" t="inlineStr"/>
-      <c r="I20" s="2" t="inlineStr"/>
-      <c r="J20" s="2" t="inlineStr"/>
-      <c r="K20" s="2" t="inlineStr"/>
-      <c r="L20" s="2" t="inlineStr"/>
+      <c r="D20" s="2" t="n"/>
+      <c r="E20" s="2" t="n"/>
+      <c r="F20" s="2" t="n"/>
+      <c r="G20" s="2" t="n"/>
+      <c r="H20" s="2" t="n"/>
+      <c r="I20" s="2" t="n"/>
+      <c r="J20" s="2" t="n"/>
+      <c r="K20" s="2" t="n"/>
+      <c r="L20" s="2" t="n"/>
       <c r="M20" s="2" t="inlineStr">
         <is>
           <t>A facility of a building or group of buildings where goods are manufactured or assembled chiefly by machine</t>
         </is>
       </c>
-      <c r="N20" s="2" t="inlineStr"/>
-      <c r="O20" s="2" t="inlineStr"/>
-      <c r="P20" s="2" t="inlineStr"/>
-      <c r="Q20" s="2" t="inlineStr"/>
-      <c r="R20" s="2" t="inlineStr"/>
-      <c r="S20" s="2" t="inlineStr"/>
+      <c r="N20" s="2" t="n"/>
+      <c r="O20" s="2" t="n"/>
+      <c r="P20" s="2" t="n"/>
+      <c r="Q20" s="2" t="n"/>
+      <c r="R20" s="2" t="n"/>
+      <c r="S20" s="2" t="n"/>
       <c r="T20" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U20" s="2" t="inlineStr"/>
-      <c r="V20" s="2" t="inlineStr"/>
+      <c r="U20" s="2" t="n"/>
+      <c r="V20" s="2" t="n"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1468,15 +1423,6 @@
           <t>outdoor environment [BCIO:026046]</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr"/>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr">
         <is>
           <t>An area with a high density of trees. A small forest may be called a wood</t>
@@ -1492,17 +1438,11 @@
           <t>Environment Ontology</t>
         </is>
       </c>
-      <c r="P21" t="inlineStr"/>
-      <c r="Q21" t="inlineStr"/>
-      <c r="R21" t="inlineStr"/>
-      <c r="S21" t="inlineStr"/>
       <c r="T21" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="U21" t="inlineStr"/>
-      <c r="V21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1520,15 +1460,6 @@
           <t>Behaviour change intervention physical setting [BCIO:026000]</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr"/>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr">
         <is>
           <t>A reference to a place on the Earth, by its name or by its geographical location</t>
@@ -1544,17 +1475,11 @@
           <t>Gazeteer Ontology</t>
         </is>
       </c>
-      <c r="P22" t="inlineStr"/>
-      <c r="Q22" t="inlineStr"/>
-      <c r="R22" t="inlineStr"/>
-      <c r="S22" t="inlineStr"/>
       <c r="T22" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="U22" t="inlineStr"/>
-      <c r="V22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1572,15 +1497,6 @@
           <t>outdoor environment [BCIO:026046]</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr"/>
-      <c r="G23" t="inlineStr"/>
-      <c r="H23" t="inlineStr"/>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr">
         <is>
           <t>An area in which grasses (Graminae) are a significant component of the vegetation</t>
@@ -1596,17 +1512,11 @@
           <t>Environment Ontology</t>
         </is>
       </c>
-      <c r="P23" t="inlineStr"/>
-      <c r="Q23" t="inlineStr"/>
-      <c r="R23" t="inlineStr"/>
-      <c r="S23" t="inlineStr"/>
       <c r="T23" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="U23" t="inlineStr"/>
-      <c r="V23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1624,15 +1534,6 @@
           <t>facility [OMRSE:00000062]</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr"/>
-      <c r="G24" t="inlineStr"/>
-      <c r="H24" t="inlineStr"/>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr">
         <is>
           <t>A facility that’s administered by a health care organisation for the purpose of providing health care to a patient population</t>
@@ -1648,17 +1549,11 @@
           <t>Ontology of Medically Related Social Entities</t>
         </is>
       </c>
-      <c r="P24" t="inlineStr"/>
-      <c r="Q24" t="inlineStr"/>
-      <c r="R24" t="inlineStr"/>
-      <c r="S24" t="inlineStr"/>
       <c r="T24" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="U24" t="inlineStr"/>
-      <c r="V24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="2" t="inlineStr">
@@ -1676,37 +1571,37 @@
           <t>area social and economic condition [BCIO:026004]</t>
         </is>
       </c>
-      <c r="D25" s="2" t="inlineStr"/>
-      <c r="E25" s="2" t="inlineStr"/>
-      <c r="F25" s="2" t="inlineStr"/>
-      <c r="G25" s="2" t="inlineStr"/>
-      <c r="H25" s="2" t="inlineStr"/>
-      <c r="I25" s="2" t="inlineStr"/>
-      <c r="J25" s="2" t="inlineStr"/>
-      <c r="K25" s="2" t="inlineStr"/>
-      <c r="L25" s="2" t="inlineStr"/>
+      <c r="D25" s="2" t="n"/>
+      <c r="E25" s="2" t="n"/>
+      <c r="F25" s="2" t="n"/>
+      <c r="G25" s="2" t="n"/>
+      <c r="H25" s="2" t="n"/>
+      <c r="I25" s="2" t="n"/>
+      <c r="J25" s="2" t="n"/>
+      <c r="K25" s="2" t="n"/>
+      <c r="L25" s="2" t="n"/>
       <c r="M25" s="2" t="inlineStr">
         <is>
           <t>An area social and economic condition described to have a high-income, whether at a country or within-country level.</t>
         </is>
       </c>
-      <c r="N25" s="2" t="inlineStr"/>
-      <c r="O25" s="2" t="inlineStr"/>
+      <c r="N25" s="2" t="n"/>
+      <c r="O25" s="2" t="n"/>
       <c r="P25" s="2" t="inlineStr">
         <is>
           <t>developed country</t>
         </is>
       </c>
-      <c r="Q25" s="2" t="inlineStr"/>
-      <c r="R25" s="2" t="inlineStr"/>
-      <c r="S25" s="2" t="inlineStr"/>
+      <c r="Q25" s="2" t="n"/>
+      <c r="R25" s="2" t="n"/>
+      <c r="S25" s="2" t="n"/>
       <c r="T25" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U25" s="2" t="inlineStr"/>
-      <c r="V25" s="2" t="inlineStr"/>
+      <c r="U25" s="2" t="n"/>
+      <c r="V25" s="2" t="n"/>
     </row>
     <row r="26">
       <c r="A26" s="2" t="inlineStr">
@@ -1724,37 +1619,37 @@
           <t>residential facility [OMRSE:00000191]</t>
         </is>
       </c>
-      <c r="D26" s="2" t="inlineStr"/>
-      <c r="E26" s="2" t="inlineStr"/>
-      <c r="F26" s="2" t="inlineStr"/>
-      <c r="G26" s="2" t="inlineStr"/>
-      <c r="H26" s="2" t="inlineStr"/>
-      <c r="I26" s="2" t="inlineStr"/>
-      <c r="J26" s="2" t="inlineStr"/>
-      <c r="K26" s="2" t="inlineStr"/>
-      <c r="L26" s="2" t="inlineStr"/>
+      <c r="D26" s="2" t="n"/>
+      <c r="E26" s="2" t="n"/>
+      <c r="F26" s="2" t="n"/>
+      <c r="G26" s="2" t="n"/>
+      <c r="H26" s="2" t="n"/>
+      <c r="I26" s="2" t="n"/>
+      <c r="J26" s="2" t="n"/>
+      <c r="K26" s="2" t="n"/>
+      <c r="L26" s="2" t="n"/>
       <c r="M26" s="2" t="inlineStr">
         <is>
           <t>A residential facility where an individual is living that is not stable and secure.</t>
         </is>
       </c>
-      <c r="N26" s="2" t="inlineStr"/>
-      <c r="O26" s="2" t="inlineStr"/>
+      <c r="N26" s="2" t="n"/>
+      <c r="O26" s="2" t="n"/>
       <c r="P26" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">an architectural structure for which an individual does not have a legal right to stay </t>
         </is>
       </c>
-      <c r="Q26" s="2" t="inlineStr"/>
-      <c r="R26" s="2" t="inlineStr"/>
-      <c r="S26" s="2" t="inlineStr"/>
+      <c r="Q26" s="2" t="n"/>
+      <c r="R26" s="2" t="n"/>
+      <c r="S26" s="2" t="n"/>
       <c r="T26" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U26" s="2" t="inlineStr"/>
-      <c r="V26" s="2" t="inlineStr"/>
+      <c r="U26" s="2" t="n"/>
+      <c r="V26" s="2" t="n"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1772,15 +1667,6 @@
           <t>healthcare facility [OMRSE:00000102]</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr"/>
-      <c r="G27" t="inlineStr"/>
-      <c r="H27" t="inlineStr"/>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
       <c r="M27" t="inlineStr">
         <is>
           <t>A health care facility that bears a function to provide healthcare to the sick or terminally ill</t>
@@ -1796,17 +1682,11 @@
           <t>Ontology of Medically Related Social Entities; contacted ontology authors to add definition</t>
         </is>
       </c>
-      <c r="P27" t="inlineStr"/>
-      <c r="Q27" t="inlineStr"/>
-      <c r="R27" t="inlineStr"/>
-      <c r="S27" t="inlineStr"/>
       <c r="T27" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="U27" t="inlineStr"/>
-      <c r="V27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1824,15 +1704,6 @@
           <t>healthcare facility [OMRSE:00000102]</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr"/>
-      <c r="G28" t="inlineStr"/>
-      <c r="H28" t="inlineStr"/>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
       <c r="M28" t="inlineStr">
         <is>
           <t>A facility that is run by a hospital organization, such as emergency departments, outpatient clinics and rehabilitation and is the bearer of a hospital function</t>
@@ -1848,17 +1719,11 @@
           <t>Ontology of Medically Related Social Entities</t>
         </is>
       </c>
-      <c r="P28" t="inlineStr"/>
-      <c r="Q28" t="inlineStr"/>
-      <c r="R28" t="inlineStr"/>
-      <c r="S28" t="inlineStr"/>
       <c r="T28" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="U28" t="inlineStr"/>
-      <c r="V28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="2" t="inlineStr">
@@ -1876,33 +1741,33 @@
           <t>hospital facility [OMRSE:00000063]</t>
         </is>
       </c>
-      <c r="D29" s="2" t="inlineStr"/>
-      <c r="E29" s="2" t="inlineStr"/>
-      <c r="F29" s="2" t="inlineStr"/>
-      <c r="G29" s="2" t="inlineStr"/>
-      <c r="H29" s="2" t="inlineStr"/>
-      <c r="I29" s="2" t="inlineStr"/>
-      <c r="J29" s="2" t="inlineStr"/>
-      <c r="K29" s="2" t="inlineStr"/>
-      <c r="L29" s="2" t="inlineStr"/>
+      <c r="D29" s="2" t="n"/>
+      <c r="E29" s="2" t="n"/>
+      <c r="F29" s="2" t="n"/>
+      <c r="G29" s="2" t="n"/>
+      <c r="H29" s="2" t="n"/>
+      <c r="I29" s="2" t="n"/>
+      <c r="J29" s="2" t="n"/>
+      <c r="K29" s="2" t="n"/>
+      <c r="L29" s="2" t="n"/>
       <c r="M29" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">A hospital facility to treat patients without them staying overnight, often after a hospital visit. </t>
         </is>
       </c>
-      <c r="N29" s="2" t="inlineStr"/>
-      <c r="O29" s="2" t="inlineStr"/>
-      <c r="P29" s="2" t="inlineStr"/>
-      <c r="Q29" s="2" t="inlineStr"/>
-      <c r="R29" s="2" t="inlineStr"/>
-      <c r="S29" s="2" t="inlineStr"/>
+      <c r="N29" s="2" t="n"/>
+      <c r="O29" s="2" t="n"/>
+      <c r="P29" s="2" t="n"/>
+      <c r="Q29" s="2" t="n"/>
+      <c r="R29" s="2" t="n"/>
+      <c r="S29" s="2" t="n"/>
       <c r="T29" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U29" s="2" t="inlineStr"/>
-      <c r="V29" s="2" t="inlineStr"/>
+      <c r="U29" s="2" t="n"/>
+      <c r="V29" s="2" t="n"/>
     </row>
     <row r="30">
       <c r="A30" s="2" t="inlineStr">
@@ -1920,37 +1785,37 @@
           <t>community facility [BCIO:026029]</t>
         </is>
       </c>
-      <c r="D30" s="2" t="inlineStr"/>
-      <c r="E30" s="2" t="inlineStr"/>
-      <c r="F30" s="2" t="inlineStr"/>
-      <c r="G30" s="2" t="inlineStr"/>
-      <c r="H30" s="2" t="inlineStr"/>
-      <c r="I30" s="2" t="inlineStr"/>
-      <c r="J30" s="2" t="inlineStr"/>
-      <c r="K30" s="2" t="inlineStr"/>
-      <c r="L30" s="2" t="inlineStr"/>
+      <c r="D30" s="2" t="n"/>
+      <c r="E30" s="2" t="n"/>
+      <c r="F30" s="2" t="n"/>
+      <c r="G30" s="2" t="n"/>
+      <c r="H30" s="2" t="n"/>
+      <c r="I30" s="2" t="n"/>
+      <c r="J30" s="2" t="n"/>
+      <c r="K30" s="2" t="n"/>
+      <c r="L30" s="2" t="n"/>
       <c r="M30" s="2" t="inlineStr">
         <is>
           <t>A community facility used to serve food.</t>
         </is>
       </c>
-      <c r="N30" s="2" t="inlineStr"/>
-      <c r="O30" s="2" t="inlineStr"/>
+      <c r="N30" s="2" t="n"/>
+      <c r="O30" s="2" t="n"/>
       <c r="P30" s="2" t="inlineStr">
         <is>
           <t>diner; restaurant; pub; bar</t>
         </is>
       </c>
-      <c r="Q30" s="2" t="inlineStr"/>
-      <c r="R30" s="2" t="inlineStr"/>
-      <c r="S30" s="2" t="inlineStr"/>
+      <c r="Q30" s="2" t="n"/>
+      <c r="R30" s="2" t="n"/>
+      <c r="S30" s="2" t="n"/>
       <c r="T30" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U30" s="2" t="inlineStr"/>
-      <c r="V30" s="2" t="inlineStr"/>
+      <c r="U30" s="2" t="n"/>
+      <c r="V30" s="2" t="n"/>
     </row>
     <row r="31">
       <c r="A31" s="2" t="inlineStr">
@@ -1968,33 +1833,33 @@
           <t>residential facility [OMRSE:00000191]</t>
         </is>
       </c>
-      <c r="D31" s="2" t="inlineStr"/>
-      <c r="E31" s="2" t="inlineStr"/>
-      <c r="F31" s="2" t="inlineStr"/>
-      <c r="G31" s="2" t="inlineStr"/>
-      <c r="H31" s="2" t="inlineStr"/>
-      <c r="I31" s="2" t="inlineStr"/>
-      <c r="J31" s="2" t="inlineStr"/>
-      <c r="K31" s="2" t="inlineStr"/>
-      <c r="L31" s="2" t="inlineStr"/>
+      <c r="D31" s="2" t="n"/>
+      <c r="E31" s="2" t="n"/>
+      <c r="F31" s="2" t="n"/>
+      <c r="G31" s="2" t="n"/>
+      <c r="H31" s="2" t="n"/>
+      <c r="I31" s="2" t="n"/>
+      <c r="J31" s="2" t="n"/>
+      <c r="K31" s="2" t="n"/>
+      <c r="L31" s="2" t="n"/>
       <c r="M31" s="2" t="inlineStr">
         <is>
           <t>A facility where an individual is living alone or with one or more person. The individuals do not have to be related.</t>
         </is>
       </c>
-      <c r="N31" s="2" t="inlineStr"/>
-      <c r="O31" s="2" t="inlineStr"/>
-      <c r="P31" s="2" t="inlineStr"/>
-      <c r="Q31" s="2" t="inlineStr"/>
-      <c r="R31" s="2" t="inlineStr"/>
-      <c r="S31" s="2" t="inlineStr"/>
+      <c r="N31" s="2" t="n"/>
+      <c r="O31" s="2" t="n"/>
+      <c r="P31" s="2" t="n"/>
+      <c r="Q31" s="2" t="n"/>
+      <c r="R31" s="2" t="n"/>
+      <c r="S31" s="2" t="n"/>
       <c r="T31" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U31" s="2" t="inlineStr"/>
-      <c r="V31" s="2" t="inlineStr"/>
+      <c r="U31" s="2" t="n"/>
+      <c r="V31" s="2" t="n"/>
     </row>
     <row r="32">
       <c r="A32" s="2" t="inlineStr">
@@ -2012,33 +1877,33 @@
           <t>community facility [BCIO:026029]</t>
         </is>
       </c>
-      <c r="D32" s="2" t="inlineStr"/>
-      <c r="E32" s="2" t="inlineStr"/>
-      <c r="F32" s="2" t="inlineStr"/>
-      <c r="G32" s="2" t="inlineStr"/>
-      <c r="H32" s="2" t="inlineStr"/>
-      <c r="I32" s="2" t="inlineStr"/>
-      <c r="J32" s="2" t="inlineStr"/>
-      <c r="K32" s="2" t="inlineStr"/>
-      <c r="L32" s="2" t="inlineStr"/>
+      <c r="D32" s="2" t="n"/>
+      <c r="E32" s="2" t="n"/>
+      <c r="F32" s="2" t="n"/>
+      <c r="G32" s="2" t="n"/>
+      <c r="H32" s="2" t="n"/>
+      <c r="I32" s="2" t="n"/>
+      <c r="J32" s="2" t="n"/>
+      <c r="K32" s="2" t="n"/>
+      <c r="L32" s="2" t="n"/>
       <c r="M32" s="2" t="inlineStr">
         <is>
           <t>A community facility containing a collection of books and learning resources for loan.</t>
         </is>
       </c>
-      <c r="N32" s="2" t="inlineStr"/>
-      <c r="O32" s="2" t="inlineStr"/>
-      <c r="P32" s="2" t="inlineStr"/>
-      <c r="Q32" s="2" t="inlineStr"/>
-      <c r="R32" s="2" t="inlineStr"/>
-      <c r="S32" s="2" t="inlineStr"/>
+      <c r="N32" s="2" t="n"/>
+      <c r="O32" s="2" t="n"/>
+      <c r="P32" s="2" t="n"/>
+      <c r="Q32" s="2" t="n"/>
+      <c r="R32" s="2" t="n"/>
+      <c r="S32" s="2" t="n"/>
       <c r="T32" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U32" s="2" t="inlineStr"/>
-      <c r="V32" s="2" t="inlineStr"/>
+      <c r="U32" s="2" t="n"/>
+      <c r="V32" s="2" t="n"/>
     </row>
     <row r="33">
       <c r="A33" s="2" t="inlineStr">
@@ -2056,37 +1921,37 @@
           <t>area social and economic condition [BCIO:026004]</t>
         </is>
       </c>
-      <c r="D33" s="2" t="inlineStr"/>
-      <c r="E33" s="2" t="inlineStr"/>
-      <c r="F33" s="2" t="inlineStr"/>
-      <c r="G33" s="2" t="inlineStr"/>
-      <c r="H33" s="2" t="inlineStr"/>
-      <c r="I33" s="2" t="inlineStr"/>
-      <c r="J33" s="2" t="inlineStr"/>
-      <c r="K33" s="2" t="inlineStr"/>
-      <c r="L33" s="2" t="inlineStr"/>
+      <c r="D33" s="2" t="n"/>
+      <c r="E33" s="2" t="n"/>
+      <c r="F33" s="2" t="n"/>
+      <c r="G33" s="2" t="n"/>
+      <c r="H33" s="2" t="n"/>
+      <c r="I33" s="2" t="n"/>
+      <c r="J33" s="2" t="n"/>
+      <c r="K33" s="2" t="n"/>
+      <c r="L33" s="2" t="n"/>
       <c r="M33" s="2" t="inlineStr">
         <is>
           <t>An area social and economic condition described to have a low-income, whether at a country or within-country level.</t>
         </is>
       </c>
-      <c r="N33" s="2" t="inlineStr"/>
-      <c r="O33" s="2" t="inlineStr"/>
+      <c r="N33" s="2" t="n"/>
+      <c r="O33" s="2" t="n"/>
       <c r="P33" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">developing country </t>
         </is>
       </c>
-      <c r="Q33" s="2" t="inlineStr"/>
-      <c r="R33" s="2" t="inlineStr"/>
-      <c r="S33" s="2" t="inlineStr"/>
+      <c r="Q33" s="2" t="n"/>
+      <c r="R33" s="2" t="n"/>
+      <c r="S33" s="2" t="n"/>
       <c r="T33" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U33" s="2" t="inlineStr"/>
-      <c r="V33" s="2" t="inlineStr"/>
+      <c r="U33" s="2" t="n"/>
+      <c r="V33" s="2" t="n"/>
     </row>
     <row r="34">
       <c r="A34" s="2" t="inlineStr">
@@ -2104,33 +1969,33 @@
           <t>school facility [OMRSE:00000064]</t>
         </is>
       </c>
-      <c r="D34" s="2" t="inlineStr"/>
-      <c r="E34" s="2" t="inlineStr"/>
-      <c r="F34" s="2" t="inlineStr"/>
-      <c r="G34" s="2" t="inlineStr"/>
-      <c r="H34" s="2" t="inlineStr"/>
-      <c r="I34" s="2" t="inlineStr"/>
-      <c r="J34" s="2" t="inlineStr"/>
-      <c r="K34" s="2" t="inlineStr"/>
-      <c r="L34" s="2" t="inlineStr"/>
+      <c r="D34" s="2" t="n"/>
+      <c r="E34" s="2" t="n"/>
+      <c r="F34" s="2" t="n"/>
+      <c r="G34" s="2" t="n"/>
+      <c r="H34" s="2" t="n"/>
+      <c r="I34" s="2" t="n"/>
+      <c r="J34" s="2" t="n"/>
+      <c r="K34" s="2" t="n"/>
+      <c r="L34" s="2" t="n"/>
       <c r="M34" s="2" t="inlineStr">
         <is>
           <t>A school facility providing education between primary and secondary school.</t>
         </is>
       </c>
-      <c r="N34" s="2" t="inlineStr"/>
-      <c r="O34" s="2" t="inlineStr"/>
-      <c r="P34" s="2" t="inlineStr"/>
-      <c r="Q34" s="2" t="inlineStr"/>
-      <c r="R34" s="2" t="inlineStr"/>
-      <c r="S34" s="2" t="inlineStr"/>
+      <c r="N34" s="2" t="n"/>
+      <c r="O34" s="2" t="n"/>
+      <c r="P34" s="2" t="n"/>
+      <c r="Q34" s="2" t="n"/>
+      <c r="R34" s="2" t="n"/>
+      <c r="S34" s="2" t="n"/>
       <c r="T34" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U34" s="2" t="inlineStr"/>
-      <c r="V34" s="2" t="inlineStr"/>
+      <c r="U34" s="2" t="n"/>
+      <c r="V34" s="2" t="n"/>
     </row>
     <row r="35">
       <c r="A35" s="2" t="inlineStr">
@@ -2148,37 +2013,37 @@
           <t>facility [OMRSE:00000062]</t>
         </is>
       </c>
-      <c r="D35" s="2" t="inlineStr"/>
-      <c r="E35" s="2" t="inlineStr"/>
-      <c r="F35" s="2" t="inlineStr"/>
-      <c r="G35" s="2" t="inlineStr"/>
-      <c r="H35" s="2" t="inlineStr"/>
-      <c r="I35" s="2" t="inlineStr"/>
-      <c r="J35" s="2" t="inlineStr"/>
-      <c r="K35" s="2" t="inlineStr"/>
-      <c r="L35" s="2" t="inlineStr"/>
+      <c r="D35" s="2" t="n"/>
+      <c r="E35" s="2" t="n"/>
+      <c r="F35" s="2" t="n"/>
+      <c r="G35" s="2" t="n"/>
+      <c r="H35" s="2" t="n"/>
+      <c r="I35" s="2" t="n"/>
+      <c r="J35" s="2" t="n"/>
+      <c r="K35" s="2" t="n"/>
+      <c r="L35" s="2" t="n"/>
       <c r="M35" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">A facility relating to or characteristic of soldiers or armed forces </t>
         </is>
       </c>
-      <c r="N35" s="2" t="inlineStr"/>
-      <c r="O35" s="2" t="inlineStr"/>
+      <c r="N35" s="2" t="n"/>
+      <c r="O35" s="2" t="n"/>
       <c r="P35" s="2" t="inlineStr">
         <is>
           <t>army; navy; air force</t>
         </is>
       </c>
-      <c r="Q35" s="2" t="inlineStr"/>
-      <c r="R35" s="2" t="inlineStr"/>
-      <c r="S35" s="2" t="inlineStr"/>
+      <c r="Q35" s="2" t="n"/>
+      <c r="R35" s="2" t="n"/>
+      <c r="S35" s="2" t="n"/>
       <c r="T35" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U35" s="2" t="inlineStr"/>
-      <c r="V35" s="2" t="inlineStr"/>
+      <c r="U35" s="2" t="n"/>
+      <c r="V35" s="2" t="n"/>
     </row>
     <row r="36">
       <c r="A36" s="2" t="inlineStr">
@@ -2196,37 +2061,37 @@
           <t>transportation [BCIO:026041]</t>
         </is>
       </c>
-      <c r="D36" s="2" t="inlineStr"/>
-      <c r="E36" s="2" t="inlineStr"/>
-      <c r="F36" s="2" t="inlineStr"/>
-      <c r="G36" s="2" t="inlineStr"/>
-      <c r="H36" s="2" t="inlineStr"/>
-      <c r="I36" s="2" t="inlineStr"/>
-      <c r="J36" s="2" t="inlineStr"/>
-      <c r="K36" s="2" t="inlineStr"/>
-      <c r="L36" s="2" t="inlineStr"/>
+      <c r="D36" s="2" t="n"/>
+      <c r="E36" s="2" t="n"/>
+      <c r="F36" s="2" t="n"/>
+      <c r="G36" s="2" t="n"/>
+      <c r="H36" s="2" t="n"/>
+      <c r="I36" s="2" t="n"/>
+      <c r="J36" s="2" t="n"/>
+      <c r="K36" s="2" t="n"/>
+      <c r="L36" s="2" t="n"/>
       <c r="M36" s="2" t="inlineStr">
         <is>
           <t>A form of transportation delivering interventions in transient locations.</t>
         </is>
       </c>
-      <c r="N36" s="2" t="inlineStr"/>
-      <c r="O36" s="2" t="inlineStr"/>
+      <c r="N36" s="2" t="n"/>
+      <c r="O36" s="2" t="n"/>
       <c r="P36" s="2" t="inlineStr">
         <is>
           <t>mobile van</t>
         </is>
       </c>
-      <c r="Q36" s="2" t="inlineStr"/>
-      <c r="R36" s="2" t="inlineStr"/>
-      <c r="S36" s="2" t="inlineStr"/>
+      <c r="Q36" s="2" t="n"/>
+      <c r="R36" s="2" t="n"/>
+      <c r="S36" s="2" t="n"/>
       <c r="T36" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U36" s="2" t="inlineStr"/>
-      <c r="V36" s="2" t="inlineStr"/>
+      <c r="U36" s="2" t="n"/>
+      <c r="V36" s="2" t="n"/>
     </row>
     <row r="37">
       <c r="A37" s="2" t="inlineStr">
@@ -2244,37 +2109,37 @@
           <t>residential facility [OMRSE:00000191]</t>
         </is>
       </c>
-      <c r="D37" s="2" t="inlineStr"/>
-      <c r="E37" s="2" t="inlineStr"/>
-      <c r="F37" s="2" t="inlineStr"/>
-      <c r="G37" s="2" t="inlineStr"/>
-      <c r="H37" s="2" t="inlineStr"/>
-      <c r="I37" s="2" t="inlineStr"/>
-      <c r="J37" s="2" t="inlineStr"/>
-      <c r="K37" s="2" t="inlineStr"/>
-      <c r="L37" s="2" t="inlineStr"/>
+      <c r="D37" s="2" t="n"/>
+      <c r="E37" s="2" t="n"/>
+      <c r="F37" s="2" t="n"/>
+      <c r="G37" s="2" t="n"/>
+      <c r="H37" s="2" t="n"/>
+      <c r="I37" s="2" t="n"/>
+      <c r="J37" s="2" t="n"/>
+      <c r="K37" s="2" t="n"/>
+      <c r="L37" s="2" t="n"/>
       <c r="M37" s="2" t="inlineStr">
         <is>
           <t>A facility where an individual lives with many others that may be collected according to a social structure such as education or disability.</t>
         </is>
       </c>
-      <c r="N37" s="2" t="inlineStr"/>
-      <c r="O37" s="2" t="inlineStr"/>
+      <c r="N37" s="2" t="n"/>
+      <c r="O37" s="2" t="n"/>
       <c r="P37" s="2" t="inlineStr">
         <is>
           <t>bedsit</t>
         </is>
       </c>
-      <c r="Q37" s="2" t="inlineStr"/>
-      <c r="R37" s="2" t="inlineStr"/>
-      <c r="S37" s="2" t="inlineStr"/>
+      <c r="Q37" s="2" t="n"/>
+      <c r="R37" s="2" t="n"/>
+      <c r="S37" s="2" t="n"/>
       <c r="T37" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U37" s="2" t="inlineStr"/>
-      <c r="V37" s="2" t="inlineStr"/>
+      <c r="U37" s="2" t="n"/>
+      <c r="V37" s="2" t="n"/>
     </row>
     <row r="38">
       <c r="A38" s="2" t="inlineStr">
@@ -2292,33 +2157,33 @@
           <t>facility [OMRSE:00000062]</t>
         </is>
       </c>
-      <c r="D38" s="2" t="inlineStr"/>
-      <c r="E38" s="2" t="inlineStr"/>
-      <c r="F38" s="2" t="inlineStr"/>
-      <c r="G38" s="2" t="inlineStr"/>
-      <c r="H38" s="2" t="inlineStr"/>
-      <c r="I38" s="2" t="inlineStr"/>
-      <c r="J38" s="2" t="inlineStr"/>
-      <c r="K38" s="2" t="inlineStr"/>
-      <c r="L38" s="2" t="inlineStr"/>
+      <c r="D38" s="2" t="n"/>
+      <c r="E38" s="2" t="n"/>
+      <c r="F38" s="2" t="n"/>
+      <c r="G38" s="2" t="n"/>
+      <c r="H38" s="2" t="n"/>
+      <c r="I38" s="2" t="n"/>
+      <c r="J38" s="2" t="n"/>
+      <c r="K38" s="2" t="n"/>
+      <c r="L38" s="2" t="n"/>
       <c r="M38" s="2" t="inlineStr">
         <is>
           <t>A facility of a room, set of rooms, or building used as a place for commercial, professional, or bureaucratic work.</t>
         </is>
       </c>
-      <c r="N38" s="2" t="inlineStr"/>
-      <c r="O38" s="2" t="inlineStr"/>
-      <c r="P38" s="2" t="inlineStr"/>
-      <c r="Q38" s="2" t="inlineStr"/>
-      <c r="R38" s="2" t="inlineStr"/>
-      <c r="S38" s="2" t="inlineStr"/>
+      <c r="N38" s="2" t="n"/>
+      <c r="O38" s="2" t="n"/>
+      <c r="P38" s="2" t="n"/>
+      <c r="Q38" s="2" t="n"/>
+      <c r="R38" s="2" t="n"/>
+      <c r="S38" s="2" t="n"/>
       <c r="T38" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U38" s="2" t="inlineStr"/>
-      <c r="V38" s="2" t="inlineStr"/>
+      <c r="U38" s="2" t="n"/>
+      <c r="V38" s="2" t="n"/>
     </row>
     <row r="39">
       <c r="A39" s="2" t="inlineStr">
@@ -2336,33 +2201,33 @@
           <t>site [BFO:0000029]</t>
         </is>
       </c>
-      <c r="D39" s="2" t="inlineStr"/>
-      <c r="E39" s="2" t="inlineStr"/>
-      <c r="F39" s="2" t="inlineStr"/>
-      <c r="G39" s="2" t="inlineStr"/>
-      <c r="H39" s="2" t="inlineStr"/>
-      <c r="I39" s="2" t="inlineStr"/>
-      <c r="J39" s="2" t="inlineStr"/>
-      <c r="K39" s="2" t="inlineStr"/>
-      <c r="L39" s="2" t="inlineStr"/>
+      <c r="D39" s="2" t="n"/>
+      <c r="E39" s="2" t="n"/>
+      <c r="F39" s="2" t="n"/>
+      <c r="G39" s="2" t="n"/>
+      <c r="H39" s="2" t="n"/>
+      <c r="I39" s="2" t="n"/>
+      <c r="J39" s="2" t="n"/>
+      <c r="K39" s="2" t="n"/>
+      <c r="L39" s="2" t="n"/>
       <c r="M39" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">A site which is an outdoor location outside of a building. </t>
         </is>
       </c>
-      <c r="N39" s="2" t="inlineStr"/>
-      <c r="O39" s="2" t="inlineStr"/>
-      <c r="P39" s="2" t="inlineStr"/>
-      <c r="Q39" s="2" t="inlineStr"/>
-      <c r="R39" s="2" t="inlineStr"/>
-      <c r="S39" s="2" t="inlineStr"/>
+      <c r="N39" s="2" t="n"/>
+      <c r="O39" s="2" t="n"/>
+      <c r="P39" s="2" t="n"/>
+      <c r="Q39" s="2" t="n"/>
+      <c r="R39" s="2" t="n"/>
+      <c r="S39" s="2" t="n"/>
       <c r="T39" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U39" s="2" t="inlineStr"/>
-      <c r="V39" s="2" t="inlineStr"/>
+      <c r="U39" s="2" t="n"/>
+      <c r="V39" s="2" t="n"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -2380,15 +2245,6 @@
           <t>outdoor environment [BCIO:026046]</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr"/>
-      <c r="E40" t="inlineStr"/>
-      <c r="F40" t="inlineStr"/>
-      <c r="G40" t="inlineStr"/>
-      <c r="H40" t="inlineStr"/>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
       <c r="M40" t="inlineStr">
         <is>
           <t>A bounded area of land, or water, usually in its natural or semi-natural (landscaped) state and set aside for some purpose, usually to do with recreation or conservation</t>
@@ -2404,17 +2260,11 @@
           <t>Environment Ontology</t>
         </is>
       </c>
-      <c r="P40" t="inlineStr"/>
-      <c r="Q40" t="inlineStr"/>
-      <c r="R40" t="inlineStr"/>
-      <c r="S40" t="inlineStr"/>
       <c r="T40" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="U40" t="inlineStr"/>
-      <c r="V40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="2" t="inlineStr">
@@ -2432,33 +2282,33 @@
           <t>outdoor environment [BCIO:026046]</t>
         </is>
       </c>
-      <c r="D41" s="2" t="inlineStr"/>
-      <c r="E41" s="2" t="inlineStr"/>
-      <c r="F41" s="2" t="inlineStr"/>
-      <c r="G41" s="2" t="inlineStr"/>
-      <c r="H41" s="2" t="inlineStr"/>
-      <c r="I41" s="2" t="inlineStr"/>
-      <c r="J41" s="2" t="inlineStr"/>
-      <c r="K41" s="2" t="inlineStr"/>
-      <c r="L41" s="2" t="inlineStr"/>
+      <c r="D41" s="2" t="n"/>
+      <c r="E41" s="2" t="n"/>
+      <c r="F41" s="2" t="n"/>
+      <c r="G41" s="2" t="n"/>
+      <c r="H41" s="2" t="n"/>
+      <c r="I41" s="2" t="n"/>
+      <c r="J41" s="2" t="n"/>
+      <c r="K41" s="2" t="n"/>
+      <c r="L41" s="2" t="n"/>
       <c r="M41" s="2" t="inlineStr">
         <is>
           <t>An outdoor environment for the passage of persons or cyclists on land</t>
         </is>
       </c>
-      <c r="N41" s="2" t="inlineStr"/>
-      <c r="O41" s="2" t="inlineStr"/>
-      <c r="P41" s="2" t="inlineStr"/>
-      <c r="Q41" s="2" t="inlineStr"/>
-      <c r="R41" s="2" t="inlineStr"/>
-      <c r="S41" s="2" t="inlineStr"/>
+      <c r="N41" s="2" t="n"/>
+      <c r="O41" s="2" t="n"/>
+      <c r="P41" s="2" t="n"/>
+      <c r="Q41" s="2" t="n"/>
+      <c r="R41" s="2" t="n"/>
+      <c r="S41" s="2" t="n"/>
       <c r="T41" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U41" s="2" t="inlineStr"/>
-      <c r="V41" s="2" t="inlineStr"/>
+      <c r="U41" s="2" t="n"/>
+      <c r="V41" s="2" t="n"/>
     </row>
     <row r="42">
       <c r="A42" s="2" t="inlineStr">
@@ -2476,33 +2326,33 @@
           <t>path or pavement [BCIO:026048]</t>
         </is>
       </c>
-      <c r="D42" s="2" t="inlineStr"/>
-      <c r="E42" s="2" t="inlineStr"/>
-      <c r="F42" s="2" t="inlineStr"/>
-      <c r="G42" s="2" t="inlineStr"/>
-      <c r="H42" s="2" t="inlineStr"/>
-      <c r="I42" s="2" t="inlineStr"/>
-      <c r="J42" s="2" t="inlineStr"/>
-      <c r="K42" s="2" t="inlineStr"/>
-      <c r="L42" s="2" t="inlineStr"/>
+      <c r="D42" s="2" t="n"/>
+      <c r="E42" s="2" t="n"/>
+      <c r="F42" s="2" t="n"/>
+      <c r="G42" s="2" t="n"/>
+      <c r="H42" s="2" t="n"/>
+      <c r="I42" s="2" t="n"/>
+      <c r="J42" s="2" t="n"/>
+      <c r="K42" s="2" t="n"/>
+      <c r="L42" s="2" t="n"/>
       <c r="M42" s="2" t="inlineStr">
         <is>
           <t>A path or pavement for the passage of people using bicycles only on land.</t>
         </is>
       </c>
-      <c r="N42" s="2" t="inlineStr"/>
-      <c r="O42" s="2" t="inlineStr"/>
-      <c r="P42" s="2" t="inlineStr"/>
-      <c r="Q42" s="2" t="inlineStr"/>
-      <c r="R42" s="2" t="inlineStr"/>
-      <c r="S42" s="2" t="inlineStr"/>
+      <c r="N42" s="2" t="n"/>
+      <c r="O42" s="2" t="n"/>
+      <c r="P42" s="2" t="n"/>
+      <c r="Q42" s="2" t="n"/>
+      <c r="R42" s="2" t="n"/>
+      <c r="S42" s="2" t="n"/>
       <c r="T42" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U42" s="2" t="inlineStr"/>
-      <c r="V42" s="2" t="inlineStr"/>
+      <c r="U42" s="2" t="n"/>
+      <c r="V42" s="2" t="n"/>
     </row>
     <row r="43">
       <c r="A43" s="2" t="inlineStr">
@@ -2520,33 +2370,33 @@
           <t>path or pavement [BCIO:026048]</t>
         </is>
       </c>
-      <c r="D43" s="2" t="inlineStr"/>
-      <c r="E43" s="2" t="inlineStr"/>
-      <c r="F43" s="2" t="inlineStr"/>
-      <c r="G43" s="2" t="inlineStr"/>
-      <c r="H43" s="2" t="inlineStr"/>
-      <c r="I43" s="2" t="inlineStr"/>
-      <c r="J43" s="2" t="inlineStr"/>
-      <c r="K43" s="2" t="inlineStr"/>
-      <c r="L43" s="2" t="inlineStr"/>
+      <c r="D43" s="2" t="n"/>
+      <c r="E43" s="2" t="n"/>
+      <c r="F43" s="2" t="n"/>
+      <c r="G43" s="2" t="n"/>
+      <c r="H43" s="2" t="n"/>
+      <c r="I43" s="2" t="n"/>
+      <c r="J43" s="2" t="n"/>
+      <c r="K43" s="2" t="n"/>
+      <c r="L43" s="2" t="n"/>
       <c r="M43" s="2" t="inlineStr">
         <is>
           <t>A path or pavement for the passage of persons only on land.</t>
         </is>
       </c>
-      <c r="N43" s="2" t="inlineStr"/>
-      <c r="O43" s="2" t="inlineStr"/>
-      <c r="P43" s="2" t="inlineStr"/>
-      <c r="Q43" s="2" t="inlineStr"/>
-      <c r="R43" s="2" t="inlineStr"/>
-      <c r="S43" s="2" t="inlineStr"/>
+      <c r="N43" s="2" t="n"/>
+      <c r="O43" s="2" t="n"/>
+      <c r="P43" s="2" t="n"/>
+      <c r="Q43" s="2" t="n"/>
+      <c r="R43" s="2" t="n"/>
+      <c r="S43" s="2" t="n"/>
       <c r="T43" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U43" s="2" t="inlineStr"/>
-      <c r="V43" s="2" t="inlineStr"/>
+      <c r="U43" s="2" t="n"/>
+      <c r="V43" s="2" t="n"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -2564,15 +2414,6 @@
           <t>healthcare facility [OMRSE:00000102]</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr"/>
-      <c r="E44" t="inlineStr"/>
-      <c r="F44" t="inlineStr"/>
-      <c r="G44" t="inlineStr"/>
-      <c r="H44" t="inlineStr"/>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr">
         <is>
           <t>A health care facility whose function is to store, prepare, dispense, and monitor the usage of pharmaceutical drugs among patients in a given area or encountered in a given health care provider organization</t>
@@ -2588,17 +2429,11 @@
           <t>The Prescription of Drugs Ontology</t>
         </is>
       </c>
-      <c r="P44" t="inlineStr"/>
-      <c r="Q44" t="inlineStr"/>
-      <c r="R44" t="inlineStr"/>
-      <c r="S44" t="inlineStr"/>
       <c r="T44" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="U44" t="inlineStr"/>
-      <c r="V44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="2" t="inlineStr">
@@ -2616,33 +2451,33 @@
           <t>attribute of location [BCIO:026003]</t>
         </is>
       </c>
-      <c r="D45" s="2" t="inlineStr"/>
-      <c r="E45" s="2" t="inlineStr"/>
-      <c r="F45" s="2" t="inlineStr"/>
-      <c r="G45" s="2" t="inlineStr"/>
-      <c r="H45" s="2" t="inlineStr"/>
-      <c r="I45" s="2" t="inlineStr"/>
-      <c r="J45" s="2" t="inlineStr"/>
-      <c r="K45" s="2" t="inlineStr"/>
-      <c r="L45" s="2" t="inlineStr"/>
+      <c r="D45" s="2" t="n"/>
+      <c r="E45" s="2" t="n"/>
+      <c r="F45" s="2" t="n"/>
+      <c r="G45" s="2" t="n"/>
+      <c r="H45" s="2" t="n"/>
+      <c r="I45" s="2" t="n"/>
+      <c r="J45" s="2" t="n"/>
+      <c r="K45" s="2" t="n"/>
+      <c r="L45" s="2" t="n"/>
       <c r="M45" s="2" t="inlineStr">
         <is>
           <t>An attribute of location describing the density of an area, in terms of people and resources within it.</t>
         </is>
       </c>
-      <c r="N45" s="2" t="inlineStr"/>
-      <c r="O45" s="2" t="inlineStr"/>
-      <c r="P45" s="2" t="inlineStr"/>
-      <c r="Q45" s="2" t="inlineStr"/>
-      <c r="R45" s="2" t="inlineStr"/>
-      <c r="S45" s="2" t="inlineStr"/>
+      <c r="N45" s="2" t="n"/>
+      <c r="O45" s="2" t="n"/>
+      <c r="P45" s="2" t="n"/>
+      <c r="Q45" s="2" t="n"/>
+      <c r="R45" s="2" t="n"/>
+      <c r="S45" s="2" t="n"/>
       <c r="T45" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U45" s="2" t="inlineStr"/>
-      <c r="V45" s="2" t="inlineStr"/>
+      <c r="U45" s="2" t="n"/>
+      <c r="V45" s="2" t="n"/>
     </row>
     <row r="46">
       <c r="A46" s="2" t="inlineStr">
@@ -2660,33 +2495,33 @@
           <t>school facility [OMRSE:00000064]</t>
         </is>
       </c>
-      <c r="D46" s="2" t="inlineStr"/>
-      <c r="E46" s="2" t="inlineStr"/>
-      <c r="F46" s="2" t="inlineStr"/>
-      <c r="G46" s="2" t="inlineStr"/>
-      <c r="H46" s="2" t="inlineStr"/>
-      <c r="I46" s="2" t="inlineStr"/>
-      <c r="J46" s="2" t="inlineStr"/>
-      <c r="K46" s="2" t="inlineStr"/>
-      <c r="L46" s="2" t="inlineStr"/>
+      <c r="D46" s="2" t="n"/>
+      <c r="E46" s="2" t="n"/>
+      <c r="F46" s="2" t="n"/>
+      <c r="G46" s="2" t="n"/>
+      <c r="H46" s="2" t="n"/>
+      <c r="I46" s="2" t="n"/>
+      <c r="J46" s="2" t="n"/>
+      <c r="K46" s="2" t="n"/>
+      <c r="L46" s="2" t="n"/>
       <c r="M46" s="2" t="inlineStr">
         <is>
           <t>A school facility for younger children, typically aged between five and eleven.</t>
         </is>
       </c>
-      <c r="N46" s="2" t="inlineStr"/>
-      <c r="O46" s="2" t="inlineStr"/>
-      <c r="P46" s="2" t="inlineStr"/>
-      <c r="Q46" s="2" t="inlineStr"/>
-      <c r="R46" s="2" t="inlineStr"/>
-      <c r="S46" s="2" t="inlineStr"/>
+      <c r="N46" s="2" t="n"/>
+      <c r="O46" s="2" t="n"/>
+      <c r="P46" s="2" t="n"/>
+      <c r="Q46" s="2" t="n"/>
+      <c r="R46" s="2" t="n"/>
+      <c r="S46" s="2" t="n"/>
       <c r="T46" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U46" s="2" t="inlineStr"/>
-      <c r="V46" s="2" t="inlineStr"/>
+      <c r="U46" s="2" t="n"/>
+      <c r="V46" s="2" t="n"/>
     </row>
     <row r="47">
       <c r="A47" s="2" t="inlineStr">
@@ -2704,37 +2539,37 @@
           <t>transportation [BCIO:026041]</t>
         </is>
       </c>
-      <c r="D47" s="2" t="inlineStr"/>
-      <c r="E47" s="2" t="inlineStr"/>
-      <c r="F47" s="2" t="inlineStr"/>
-      <c r="G47" s="2" t="inlineStr"/>
-      <c r="H47" s="2" t="inlineStr"/>
-      <c r="I47" s="2" t="inlineStr"/>
-      <c r="J47" s="2" t="inlineStr"/>
-      <c r="K47" s="2" t="inlineStr"/>
-      <c r="L47" s="2" t="inlineStr"/>
+      <c r="D47" s="2" t="n"/>
+      <c r="E47" s="2" t="n"/>
+      <c r="F47" s="2" t="n"/>
+      <c r="G47" s="2" t="n"/>
+      <c r="H47" s="2" t="n"/>
+      <c r="I47" s="2" t="n"/>
+      <c r="J47" s="2" t="n"/>
+      <c r="K47" s="2" t="n"/>
+      <c r="L47" s="2" t="n"/>
       <c r="M47" s="2" t="inlineStr">
         <is>
           <t>A form of transportation owned by an individual for individual or group use.</t>
         </is>
       </c>
-      <c r="N47" s="2" t="inlineStr"/>
-      <c r="O47" s="2" t="inlineStr"/>
+      <c r="N47" s="2" t="n"/>
+      <c r="O47" s="2" t="n"/>
       <c r="P47" s="2" t="inlineStr">
         <is>
           <t>car; bicycle; motorbike</t>
         </is>
       </c>
-      <c r="Q47" s="2" t="inlineStr"/>
-      <c r="R47" s="2" t="inlineStr"/>
-      <c r="S47" s="2" t="inlineStr"/>
+      <c r="Q47" s="2" t="n"/>
+      <c r="R47" s="2" t="n"/>
+      <c r="S47" s="2" t="n"/>
       <c r="T47" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U47" s="2" t="inlineStr"/>
-      <c r="V47" s="2" t="inlineStr"/>
+      <c r="U47" s="2" t="n"/>
+      <c r="V47" s="2" t="n"/>
     </row>
     <row r="48">
       <c r="A48" s="2" t="inlineStr">
@@ -2752,15 +2587,15 @@
           <t>healthcare facility [OMRSE:00000102]</t>
         </is>
       </c>
-      <c r="D48" s="2" t="inlineStr"/>
-      <c r="E48" s="2" t="inlineStr"/>
-      <c r="F48" s="2" t="inlineStr"/>
-      <c r="G48" s="2" t="inlineStr"/>
-      <c r="H48" s="2" t="inlineStr"/>
-      <c r="I48" s="2" t="inlineStr"/>
-      <c r="J48" s="2" t="inlineStr"/>
-      <c r="K48" s="2" t="inlineStr"/>
-      <c r="L48" s="2" t="inlineStr"/>
+      <c r="D48" s="2" t="n"/>
+      <c r="E48" s="2" t="n"/>
+      <c r="F48" s="2" t="n"/>
+      <c r="G48" s="2" t="n"/>
+      <c r="H48" s="2" t="n"/>
+      <c r="I48" s="2" t="n"/>
+      <c r="J48" s="2" t="n"/>
+      <c r="K48" s="2" t="n"/>
+      <c r="L48" s="2" t="n"/>
       <c r="M48" s="2" t="inlineStr">
         <is>
           <t>A place designed and staffed to house and treat individuals that need assistance with mental dysfunctions</t>
@@ -2776,17 +2611,17 @@
           <t>NCI Thesaurus OBO Edition</t>
         </is>
       </c>
-      <c r="P48" s="2" t="inlineStr"/>
-      <c r="Q48" s="2" t="inlineStr"/>
-      <c r="R48" s="2" t="inlineStr"/>
-      <c r="S48" s="2" t="inlineStr"/>
+      <c r="P48" s="2" t="n"/>
+      <c r="Q48" s="2" t="n"/>
+      <c r="R48" s="2" t="n"/>
+      <c r="S48" s="2" t="n"/>
       <c r="T48" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U48" s="2" t="inlineStr"/>
-      <c r="V48" s="2" t="inlineStr"/>
+      <c r="U48" s="2" t="n"/>
+      <c r="V48" s="2" t="n"/>
     </row>
     <row r="49">
       <c r="A49" s="2" t="inlineStr">
@@ -2804,15 +2639,15 @@
           <t>transportation [BCIO:026041]</t>
         </is>
       </c>
-      <c r="D49" s="2" t="inlineStr"/>
-      <c r="E49" s="2" t="inlineStr"/>
-      <c r="F49" s="2" t="inlineStr"/>
-      <c r="G49" s="2" t="inlineStr"/>
-      <c r="H49" s="2" t="inlineStr"/>
-      <c r="I49" s="2" t="inlineStr"/>
-      <c r="J49" s="2" t="inlineStr"/>
-      <c r="K49" s="2" t="inlineStr"/>
-      <c r="L49" s="2" t="inlineStr"/>
+      <c r="D49" s="2" t="n"/>
+      <c r="E49" s="2" t="n"/>
+      <c r="F49" s="2" t="n"/>
+      <c r="G49" s="2" t="n"/>
+      <c r="H49" s="2" t="n"/>
+      <c r="I49" s="2" t="n"/>
+      <c r="J49" s="2" t="n"/>
+      <c r="K49" s="2" t="n"/>
+      <c r="L49" s="2" t="n"/>
       <c r="M49" s="2" t="inlineStr">
         <is>
           <t>Forms of transportation that run on fixed routes and are available to the public, usually for a set fare</t>
@@ -2833,16 +2668,16 @@
           <t>bus; train; plane</t>
         </is>
       </c>
-      <c r="Q49" s="2" t="inlineStr"/>
-      <c r="R49" s="2" t="inlineStr"/>
-      <c r="S49" s="2" t="inlineStr"/>
+      <c r="Q49" s="2" t="n"/>
+      <c r="R49" s="2" t="n"/>
+      <c r="S49" s="2" t="n"/>
       <c r="T49" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U49" s="2" t="inlineStr"/>
-      <c r="V49" s="2" t="inlineStr"/>
+      <c r="U49" s="2" t="n"/>
+      <c r="V49" s="2" t="n"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -2860,15 +2695,6 @@
           <t>healthcare facility [OMRSE:00000102]</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr"/>
-      <c r="E50" t="inlineStr"/>
-      <c r="F50" t="inlineStr"/>
-      <c r="G50" t="inlineStr"/>
-      <c r="H50" t="inlineStr"/>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr">
         <is>
           <t>A facility to assist in physical or addiction recovery</t>
@@ -2884,17 +2710,11 @@
           <t>Ontology of Medically Related Social Entities; contacted ontology authors to add definition</t>
         </is>
       </c>
-      <c r="P50" t="inlineStr"/>
-      <c r="Q50" t="inlineStr"/>
-      <c r="R50" t="inlineStr"/>
-      <c r="S50" t="inlineStr"/>
       <c r="T50" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="U50" t="inlineStr"/>
-      <c r="V50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="2" t="inlineStr">
@@ -2912,37 +2732,37 @@
           <t>community facility [BCIO:026029]</t>
         </is>
       </c>
-      <c r="D51" s="2" t="inlineStr"/>
-      <c r="E51" s="2" t="inlineStr"/>
-      <c r="F51" s="2" t="inlineStr"/>
-      <c r="G51" s="2" t="inlineStr"/>
-      <c r="H51" s="2" t="inlineStr"/>
-      <c r="I51" s="2" t="inlineStr"/>
-      <c r="J51" s="2" t="inlineStr"/>
-      <c r="K51" s="2" t="inlineStr"/>
-      <c r="L51" s="2" t="inlineStr"/>
+      <c r="D51" s="2" t="n"/>
+      <c r="E51" s="2" t="n"/>
+      <c r="F51" s="2" t="n"/>
+      <c r="G51" s="2" t="n"/>
+      <c r="H51" s="2" t="n"/>
+      <c r="I51" s="2" t="n"/>
+      <c r="J51" s="2" t="n"/>
+      <c r="K51" s="2" t="n"/>
+      <c r="L51" s="2" t="n"/>
       <c r="M51" s="2" t="inlineStr">
         <is>
           <t>A community facility where individuals or a group of people come to perform acts of devotion and veneration.</t>
         </is>
       </c>
-      <c r="N51" s="2" t="inlineStr"/>
-      <c r="O51" s="2" t="inlineStr"/>
+      <c r="N51" s="2" t="n"/>
+      <c r="O51" s="2" t="n"/>
       <c r="P51" s="2" t="inlineStr">
         <is>
           <t>mosque; church; temple</t>
         </is>
       </c>
-      <c r="Q51" s="2" t="inlineStr"/>
-      <c r="R51" s="2" t="inlineStr"/>
-      <c r="S51" s="2" t="inlineStr"/>
+      <c r="Q51" s="2" t="n"/>
+      <c r="R51" s="2" t="n"/>
+      <c r="S51" s="2" t="n"/>
       <c r="T51" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U51" s="2" t="inlineStr"/>
-      <c r="V51" s="2" t="inlineStr"/>
+      <c r="U51" s="2" t="n"/>
+      <c r="V51" s="2" t="n"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -2960,15 +2780,6 @@
           <t>facility [OMRSE:00000062]</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr"/>
-      <c r="E52" t="inlineStr"/>
-      <c r="F52" t="inlineStr"/>
-      <c r="G52" t="inlineStr"/>
-      <c r="H52" t="inlineStr"/>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr">
         <is>
           <t>A facility, permanent or temporary, on land, in air, space or water, where scientific research or measurements can be undertaken</t>
@@ -2989,16 +2800,11 @@
           <t>research lab</t>
         </is>
       </c>
-      <c r="Q52" t="inlineStr"/>
-      <c r="R52" t="inlineStr"/>
-      <c r="S52" t="inlineStr"/>
       <c r="T52" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="U52" t="inlineStr"/>
-      <c r="V52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="2" t="inlineStr">
@@ -3016,37 +2822,37 @@
           <t>multiple occupancy residence [BCIO:026010]</t>
         </is>
       </c>
-      <c r="D53" s="2" t="inlineStr"/>
-      <c r="E53" s="2" t="inlineStr"/>
-      <c r="F53" s="2" t="inlineStr"/>
-      <c r="G53" s="2" t="inlineStr"/>
-      <c r="H53" s="2" t="inlineStr"/>
-      <c r="I53" s="2" t="inlineStr"/>
-      <c r="J53" s="2" t="inlineStr"/>
-      <c r="K53" s="2" t="inlineStr"/>
-      <c r="L53" s="2" t="inlineStr"/>
+      <c r="D53" s="2" t="n"/>
+      <c r="E53" s="2" t="n"/>
+      <c r="F53" s="2" t="n"/>
+      <c r="G53" s="2" t="n"/>
+      <c r="H53" s="2" t="n"/>
+      <c r="I53" s="2" t="n"/>
+      <c r="J53" s="2" t="n"/>
+      <c r="K53" s="2" t="n"/>
+      <c r="L53" s="2" t="n"/>
       <c r="M53" s="2" t="inlineStr">
         <is>
           <t>A multiple occupancy residence where multiple vulnerable people live</t>
         </is>
       </c>
-      <c r="N53" s="2" t="inlineStr"/>
-      <c r="O53" s="2" t="inlineStr"/>
+      <c r="N53" s="2" t="n"/>
+      <c r="O53" s="2" t="n"/>
       <c r="P53" s="2" t="inlineStr">
         <is>
           <t>retirement home</t>
         </is>
       </c>
-      <c r="Q53" s="2" t="inlineStr"/>
-      <c r="R53" s="2" t="inlineStr"/>
-      <c r="S53" s="2" t="inlineStr"/>
+      <c r="Q53" s="2" t="n"/>
+      <c r="R53" s="2" t="n"/>
+      <c r="S53" s="2" t="n"/>
       <c r="T53" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U53" s="2" t="inlineStr"/>
-      <c r="V53" s="2" t="inlineStr"/>
+      <c r="U53" s="2" t="n"/>
+      <c r="V53" s="2" t="n"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -3064,15 +2870,6 @@
           <t>facility [OMRSE:00000062]</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr"/>
-      <c r="E54" t="inlineStr"/>
-      <c r="F54" t="inlineStr"/>
-      <c r="G54" t="inlineStr"/>
-      <c r="H54" t="inlineStr"/>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
       <c r="M54" t="inlineStr">
         <is>
           <t>A facility that has at least one housing unit as part in which a person or persons live</t>
@@ -3088,17 +2885,11 @@
           <t>Ontology of Medically Related Social Entities; contacted ontology authors to add definition</t>
         </is>
       </c>
-      <c r="P54" t="inlineStr"/>
-      <c r="Q54" t="inlineStr"/>
-      <c r="R54" t="inlineStr"/>
-      <c r="S54" t="inlineStr"/>
       <c r="T54" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="U54" t="inlineStr"/>
-      <c r="V54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="2" t="inlineStr">
@@ -3116,37 +2907,37 @@
           <t>facility [OMRSE:00000062]</t>
         </is>
       </c>
-      <c r="D55" s="2" t="inlineStr"/>
-      <c r="E55" s="2" t="inlineStr"/>
-      <c r="F55" s="2" t="inlineStr"/>
-      <c r="G55" s="2" t="inlineStr"/>
-      <c r="H55" s="2" t="inlineStr"/>
-      <c r="I55" s="2" t="inlineStr"/>
-      <c r="J55" s="2" t="inlineStr"/>
-      <c r="K55" s="2" t="inlineStr"/>
-      <c r="L55" s="2" t="inlineStr"/>
+      <c r="D55" s="2" t="n"/>
+      <c r="E55" s="2" t="n"/>
+      <c r="F55" s="2" t="n"/>
+      <c r="G55" s="2" t="n"/>
+      <c r="H55" s="2" t="n"/>
+      <c r="I55" s="2" t="n"/>
+      <c r="J55" s="2" t="n"/>
+      <c r="K55" s="2" t="n"/>
+      <c r="L55" s="2" t="n"/>
       <c r="M55" s="2" t="inlineStr">
         <is>
           <t>A facility used as an outlet for shopping.</t>
         </is>
       </c>
-      <c r="N55" s="2" t="inlineStr"/>
-      <c r="O55" s="2" t="inlineStr"/>
+      <c r="N55" s="2" t="n"/>
+      <c r="O55" s="2" t="n"/>
       <c r="P55" s="2" t="inlineStr">
         <is>
           <t>supermarket; market; shopping centre</t>
         </is>
       </c>
-      <c r="Q55" s="2" t="inlineStr"/>
-      <c r="R55" s="2" t="inlineStr"/>
-      <c r="S55" s="2" t="inlineStr"/>
+      <c r="Q55" s="2" t="n"/>
+      <c r="R55" s="2" t="n"/>
+      <c r="S55" s="2" t="n"/>
       <c r="T55" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U55" s="2" t="inlineStr"/>
-      <c r="V55" s="2" t="inlineStr"/>
+      <c r="U55" s="2" t="n"/>
+      <c r="V55" s="2" t="n"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -3164,15 +2955,6 @@
           <t>outdoor environment [BCIO:026046]</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr"/>
-      <c r="E56" t="inlineStr"/>
-      <c r="F56" t="inlineStr"/>
-      <c r="G56" t="inlineStr"/>
-      <c r="H56" t="inlineStr"/>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
       <c r="M56" t="inlineStr">
         <is>
           <t>An open way for the passage of vehicles, persons, or animals on land</t>
@@ -3188,17 +2970,11 @@
           <t>Environment Ontology</t>
         </is>
       </c>
-      <c r="P56" t="inlineStr"/>
-      <c r="Q56" t="inlineStr"/>
-      <c r="R56" t="inlineStr"/>
-      <c r="S56" t="inlineStr"/>
       <c r="T56" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="U56" t="inlineStr"/>
-      <c r="V56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -3216,15 +2992,6 @@
           <t>population and resource density [BCIO:026007]</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr"/>
-      <c r="E57" t="inlineStr"/>
-      <c r="F57" t="inlineStr"/>
-      <c r="G57" t="inlineStr"/>
-      <c r="H57" t="inlineStr"/>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
       <c r="M57" t="inlineStr">
         <is>
           <t>An area which is outside of a town, city, or urban area. Rural areas are primarily used for agriculture or pastoralism and may contain rural settlements</t>
@@ -3240,17 +3007,11 @@
           <t>Environment Ontology</t>
         </is>
       </c>
-      <c r="P57" t="inlineStr"/>
-      <c r="Q57" t="inlineStr"/>
-      <c r="R57" t="inlineStr"/>
-      <c r="S57" t="inlineStr"/>
       <c r="T57" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="U57" t="inlineStr"/>
-      <c r="V57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -3268,15 +3029,6 @@
           <t>educational facility [BCIO:026022]</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr"/>
-      <c r="E58" t="inlineStr"/>
-      <c r="F58" t="inlineStr"/>
-      <c r="G58" t="inlineStr"/>
-      <c r="H58" t="inlineStr"/>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
       <c r="M58" t="inlineStr">
         <is>
           <t>A facility that is run by a school organization and is the bearer of a school function</t>
@@ -3292,17 +3044,11 @@
           <t>Ontology of Medically Related Social Entities</t>
         </is>
       </c>
-      <c r="P58" t="inlineStr"/>
-      <c r="Q58" t="inlineStr"/>
-      <c r="R58" t="inlineStr"/>
-      <c r="S58" t="inlineStr"/>
       <c r="T58" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="U58" t="inlineStr"/>
-      <c r="V58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="2" t="inlineStr">
@@ -3320,37 +3066,37 @@
           <t>school facility [OMRSE:00000064]</t>
         </is>
       </c>
-      <c r="D59" s="2" t="inlineStr"/>
-      <c r="E59" s="2" t="inlineStr"/>
-      <c r="F59" s="2" t="inlineStr"/>
-      <c r="G59" s="2" t="inlineStr"/>
-      <c r="H59" s="2" t="inlineStr"/>
-      <c r="I59" s="2" t="inlineStr"/>
-      <c r="J59" s="2" t="inlineStr"/>
-      <c r="K59" s="2" t="inlineStr"/>
-      <c r="L59" s="2" t="inlineStr"/>
+      <c r="D59" s="2" t="n"/>
+      <c r="E59" s="2" t="n"/>
+      <c r="F59" s="2" t="n"/>
+      <c r="G59" s="2" t="n"/>
+      <c r="H59" s="2" t="n"/>
+      <c r="I59" s="2" t="n"/>
+      <c r="J59" s="2" t="n"/>
+      <c r="K59" s="2" t="n"/>
+      <c r="L59" s="2" t="n"/>
       <c r="M59" s="2" t="inlineStr">
         <is>
           <t>A school facility for older children and teenagers, typically aged between eleven and eighteen.</t>
         </is>
       </c>
-      <c r="N59" s="2" t="inlineStr"/>
-      <c r="O59" s="2" t="inlineStr"/>
+      <c r="N59" s="2" t="n"/>
+      <c r="O59" s="2" t="n"/>
       <c r="P59" s="2" t="inlineStr">
         <is>
           <t>high school</t>
         </is>
       </c>
-      <c r="Q59" s="2" t="inlineStr"/>
-      <c r="R59" s="2" t="inlineStr"/>
-      <c r="S59" s="2" t="inlineStr"/>
+      <c r="Q59" s="2" t="n"/>
+      <c r="R59" s="2" t="n"/>
+      <c r="S59" s="2" t="n"/>
       <c r="T59" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U59" s="2" t="inlineStr"/>
-      <c r="V59" s="2" t="inlineStr"/>
+      <c r="U59" s="2" t="n"/>
+      <c r="V59" s="2" t="n"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -3368,15 +3114,6 @@
           <t>Behaviour change intervention physical setting [BCIO:026000]</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr"/>
-      <c r="E60" t="inlineStr"/>
-      <c r="F60" t="inlineStr"/>
-      <c r="G60" t="inlineStr"/>
-      <c r="H60" t="inlineStr"/>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
       <c r="M60" t="inlineStr">
         <is>
           <t>A three-dimensional immaterial entity that is (partially or wholly) bounded by a material entity or it is a three-dimensional immaterial part thereof.</t>
@@ -3392,17 +3129,11 @@
           <t>Basic Formal Ontology</t>
         </is>
       </c>
-      <c r="P60" t="inlineStr"/>
-      <c r="Q60" t="inlineStr"/>
-      <c r="R60" t="inlineStr"/>
-      <c r="S60" t="inlineStr"/>
       <c r="T60" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="U60" t="inlineStr"/>
-      <c r="V60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="2" t="inlineStr">
@@ -3420,37 +3151,37 @@
           <t>community facility [BCIO:026029]</t>
         </is>
       </c>
-      <c r="D61" s="2" t="inlineStr"/>
-      <c r="E61" s="2" t="inlineStr"/>
-      <c r="F61" s="2" t="inlineStr"/>
-      <c r="G61" s="2" t="inlineStr"/>
-      <c r="H61" s="2" t="inlineStr"/>
-      <c r="I61" s="2" t="inlineStr"/>
-      <c r="J61" s="2" t="inlineStr"/>
-      <c r="K61" s="2" t="inlineStr"/>
-      <c r="L61" s="2" t="inlineStr"/>
+      <c r="D61" s="2" t="n"/>
+      <c r="E61" s="2" t="n"/>
+      <c r="F61" s="2" t="n"/>
+      <c r="G61" s="2" t="n"/>
+      <c r="H61" s="2" t="n"/>
+      <c r="I61" s="2" t="n"/>
+      <c r="J61" s="2" t="n"/>
+      <c r="K61" s="2" t="n"/>
+      <c r="L61" s="2" t="n"/>
       <c r="M61" s="2" t="inlineStr">
         <is>
           <t>A community facility used for socialising by those living in a given area.</t>
         </is>
       </c>
-      <c r="N61" s="2" t="inlineStr"/>
-      <c r="O61" s="2" t="inlineStr"/>
+      <c r="N61" s="2" t="n"/>
+      <c r="O61" s="2" t="n"/>
       <c r="P61" s="2" t="inlineStr">
         <is>
           <t>YMCA; working mens club</t>
         </is>
       </c>
-      <c r="Q61" s="2" t="inlineStr"/>
-      <c r="R61" s="2" t="inlineStr"/>
-      <c r="S61" s="2" t="inlineStr"/>
+      <c r="Q61" s="2" t="n"/>
+      <c r="R61" s="2" t="n"/>
+      <c r="S61" s="2" t="n"/>
       <c r="T61" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U61" s="2" t="inlineStr"/>
-      <c r="V61" s="2" t="inlineStr"/>
+      <c r="U61" s="2" t="n"/>
+      <c r="V61" s="2" t="n"/>
     </row>
     <row r="62">
       <c r="A62" s="2" t="inlineStr">
@@ -3468,37 +3199,37 @@
           <t>community facility [BCIO:026029]</t>
         </is>
       </c>
-      <c r="D62" s="2" t="inlineStr"/>
-      <c r="E62" s="2" t="inlineStr"/>
-      <c r="F62" s="2" t="inlineStr"/>
-      <c r="G62" s="2" t="inlineStr"/>
-      <c r="H62" s="2" t="inlineStr"/>
-      <c r="I62" s="2" t="inlineStr"/>
-      <c r="J62" s="2" t="inlineStr"/>
-      <c r="K62" s="2" t="inlineStr"/>
-      <c r="L62" s="2" t="inlineStr"/>
+      <c r="D62" s="2" t="n"/>
+      <c r="E62" s="2" t="n"/>
+      <c r="F62" s="2" t="n"/>
+      <c r="G62" s="2" t="n"/>
+      <c r="H62" s="2" t="n"/>
+      <c r="I62" s="2" t="n"/>
+      <c r="J62" s="2" t="n"/>
+      <c r="K62" s="2" t="n"/>
+      <c r="L62" s="2" t="n"/>
       <c r="M62" s="2" t="inlineStr">
         <is>
           <t>A community facility used for exercising.</t>
         </is>
       </c>
-      <c r="N62" s="2" t="inlineStr"/>
-      <c r="O62" s="2" t="inlineStr"/>
+      <c r="N62" s="2" t="n"/>
+      <c r="O62" s="2" t="n"/>
       <c r="P62" s="2" t="inlineStr">
         <is>
           <t>gym; stadium; tennis court; swimming pool</t>
         </is>
       </c>
-      <c r="Q62" s="2" t="inlineStr"/>
-      <c r="R62" s="2" t="inlineStr"/>
-      <c r="S62" s="2" t="inlineStr"/>
+      <c r="Q62" s="2" t="n"/>
+      <c r="R62" s="2" t="n"/>
+      <c r="S62" s="2" t="n"/>
       <c r="T62" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U62" s="2" t="inlineStr"/>
-      <c r="V62" s="2" t="inlineStr"/>
+      <c r="U62" s="2" t="n"/>
+      <c r="V62" s="2" t="n"/>
     </row>
     <row r="63">
       <c r="A63" s="2" t="inlineStr">
@@ -3516,29 +3247,29 @@
           <t>multiple occupancy residence [BCIO:026010]</t>
         </is>
       </c>
-      <c r="D63" s="2" t="inlineStr"/>
-      <c r="E63" s="2" t="inlineStr"/>
-      <c r="F63" s="2" t="inlineStr"/>
-      <c r="G63" s="2" t="inlineStr"/>
-      <c r="H63" s="2" t="inlineStr"/>
-      <c r="I63" s="2" t="inlineStr"/>
-      <c r="J63" s="2" t="inlineStr"/>
-      <c r="K63" s="2" t="inlineStr"/>
-      <c r="L63" s="2" t="inlineStr"/>
+      <c r="D63" s="2" t="n"/>
+      <c r="E63" s="2" t="n"/>
+      <c r="F63" s="2" t="n"/>
+      <c r="G63" s="2" t="n"/>
+      <c r="H63" s="2" t="n"/>
+      <c r="I63" s="2" t="n"/>
+      <c r="J63" s="2" t="n"/>
+      <c r="K63" s="2" t="n"/>
+      <c r="L63" s="2" t="n"/>
       <c r="M63" s="2" t="inlineStr">
         <is>
           <t>A multiple occupancy residence where many students live.</t>
         </is>
       </c>
-      <c r="N63" s="2" t="inlineStr"/>
-      <c r="O63" s="2" t="inlineStr"/>
+      <c r="N63" s="2" t="n"/>
+      <c r="O63" s="2" t="n"/>
       <c r="P63" s="2" t="inlineStr">
         <is>
           <t>student hall</t>
         </is>
       </c>
-      <c r="Q63" s="2" t="inlineStr"/>
-      <c r="R63" s="2" t="inlineStr"/>
+      <c r="Q63" s="2" t="n"/>
+      <c r="R63" s="2" t="n"/>
       <c r="S63" s="2" t="inlineStr">
         <is>
           <t>JH</t>
@@ -3549,8 +3280,8 @@
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U63" s="2" t="inlineStr"/>
-      <c r="V63" s="2" t="inlineStr"/>
+      <c r="U63" s="2" t="n"/>
+      <c r="V63" s="2" t="n"/>
     </row>
     <row r="64">
       <c r="A64" s="2" t="inlineStr">
@@ -3568,33 +3299,33 @@
           <t>population and resource density [BCIO:026007]</t>
         </is>
       </c>
-      <c r="D64" s="2" t="inlineStr"/>
-      <c r="E64" s="2" t="inlineStr"/>
-      <c r="F64" s="2" t="inlineStr"/>
-      <c r="G64" s="2" t="inlineStr"/>
-      <c r="H64" s="2" t="inlineStr"/>
-      <c r="I64" s="2" t="inlineStr"/>
-      <c r="J64" s="2" t="inlineStr"/>
-      <c r="K64" s="2" t="inlineStr"/>
-      <c r="L64" s="2" t="inlineStr"/>
+      <c r="D64" s="2" t="n"/>
+      <c r="E64" s="2" t="n"/>
+      <c r="F64" s="2" t="n"/>
+      <c r="G64" s="2" t="n"/>
+      <c r="H64" s="2" t="n"/>
+      <c r="I64" s="2" t="n"/>
+      <c r="J64" s="2" t="n"/>
+      <c r="K64" s="2" t="n"/>
+      <c r="L64" s="2" t="n"/>
       <c r="M64" s="2" t="inlineStr">
         <is>
           <t>An area on the edge of a large town or city where a proportion of those who work in the town or city live.</t>
         </is>
       </c>
-      <c r="N64" s="2" t="inlineStr"/>
-      <c r="O64" s="2" t="inlineStr"/>
-      <c r="P64" s="2" t="inlineStr"/>
-      <c r="Q64" s="2" t="inlineStr"/>
-      <c r="R64" s="2" t="inlineStr"/>
-      <c r="S64" s="2" t="inlineStr"/>
+      <c r="N64" s="2" t="n"/>
+      <c r="O64" s="2" t="n"/>
+      <c r="P64" s="2" t="n"/>
+      <c r="Q64" s="2" t="n"/>
+      <c r="R64" s="2" t="n"/>
+      <c r="S64" s="2" t="n"/>
       <c r="T64" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U64" s="2" t="inlineStr"/>
-      <c r="V64" s="2" t="inlineStr"/>
+      <c r="U64" s="2" t="n"/>
+      <c r="V64" s="2" t="n"/>
     </row>
     <row r="65">
       <c r="A65" s="2" t="inlineStr">
@@ -3612,37 +3343,37 @@
           <t>residential facility [OMRSE:00000191]</t>
         </is>
       </c>
-      <c r="D65" s="2" t="inlineStr"/>
-      <c r="E65" s="2" t="inlineStr"/>
-      <c r="F65" s="2" t="inlineStr"/>
-      <c r="G65" s="2" t="inlineStr"/>
-      <c r="H65" s="2" t="inlineStr"/>
-      <c r="I65" s="2" t="inlineStr"/>
-      <c r="J65" s="2" t="inlineStr"/>
-      <c r="K65" s="2" t="inlineStr"/>
-      <c r="L65" s="2" t="inlineStr"/>
+      <c r="D65" s="2" t="n"/>
+      <c r="E65" s="2" t="n"/>
+      <c r="F65" s="2" t="n"/>
+      <c r="G65" s="2" t="n"/>
+      <c r="H65" s="2" t="n"/>
+      <c r="I65" s="2" t="n"/>
+      <c r="J65" s="2" t="n"/>
+      <c r="K65" s="2" t="n"/>
+      <c r="L65" s="2" t="n"/>
       <c r="M65" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">A residential facility where individuals are in a transitional state of housing and not staying for a prolonged period. </t>
         </is>
       </c>
-      <c r="N65" s="2" t="inlineStr"/>
-      <c r="O65" s="2" t="inlineStr"/>
+      <c r="N65" s="2" t="n"/>
+      <c r="O65" s="2" t="n"/>
       <c r="P65" s="2" t="inlineStr">
         <is>
           <t>Hostels; BandB; emergency accomnodation</t>
         </is>
       </c>
-      <c r="Q65" s="2" t="inlineStr"/>
-      <c r="R65" s="2" t="inlineStr"/>
-      <c r="S65" s="2" t="inlineStr"/>
+      <c r="Q65" s="2" t="n"/>
+      <c r="R65" s="2" t="n"/>
+      <c r="S65" s="2" t="n"/>
       <c r="T65" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U65" s="2" t="inlineStr"/>
-      <c r="V65" s="2" t="inlineStr"/>
+      <c r="U65" s="2" t="n"/>
+      <c r="V65" s="2" t="n"/>
     </row>
     <row r="66">
       <c r="A66" s="2" t="inlineStr">
@@ -3660,15 +3391,15 @@
           <t>site [BFO:0000029]</t>
         </is>
       </c>
-      <c r="D66" s="2" t="inlineStr"/>
-      <c r="E66" s="2" t="inlineStr"/>
-      <c r="F66" s="2" t="inlineStr"/>
-      <c r="G66" s="2" t="inlineStr"/>
-      <c r="H66" s="2" t="inlineStr"/>
-      <c r="I66" s="2" t="inlineStr"/>
-      <c r="J66" s="2" t="inlineStr"/>
-      <c r="K66" s="2" t="inlineStr"/>
-      <c r="L66" s="2" t="inlineStr"/>
+      <c r="D66" s="2" t="n"/>
+      <c r="E66" s="2" t="n"/>
+      <c r="F66" s="2" t="n"/>
+      <c r="G66" s="2" t="n"/>
+      <c r="H66" s="2" t="n"/>
+      <c r="I66" s="2" t="n"/>
+      <c r="J66" s="2" t="n"/>
+      <c r="K66" s="2" t="n"/>
+      <c r="L66" s="2" t="n"/>
       <c r="M66" s="2" t="inlineStr">
         <is>
           <t>Methods of traveling from one place to another.</t>
@@ -3684,17 +3415,17 @@
           <t>NCI Thesaurus OBO Edition</t>
         </is>
       </c>
-      <c r="P66" s="2" t="inlineStr"/>
-      <c r="Q66" s="2" t="inlineStr"/>
-      <c r="R66" s="2" t="inlineStr"/>
-      <c r="S66" s="2" t="inlineStr"/>
+      <c r="P66" s="2" t="n"/>
+      <c r="Q66" s="2" t="n"/>
+      <c r="R66" s="2" t="n"/>
+      <c r="S66" s="2" t="n"/>
       <c r="T66" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U66" s="2" t="inlineStr"/>
-      <c r="V66" s="2" t="inlineStr"/>
+      <c r="U66" s="2" t="n"/>
+      <c r="V66" s="2" t="n"/>
     </row>
     <row r="67">
       <c r="A67" s="2" t="inlineStr">
@@ -3712,33 +3443,33 @@
           <t>educational facility [BCIO:026022]</t>
         </is>
       </c>
-      <c r="D67" s="2" t="inlineStr"/>
-      <c r="E67" s="2" t="inlineStr"/>
-      <c r="F67" s="2" t="inlineStr"/>
-      <c r="G67" s="2" t="inlineStr"/>
-      <c r="H67" s="2" t="inlineStr"/>
-      <c r="I67" s="2" t="inlineStr"/>
-      <c r="J67" s="2" t="inlineStr"/>
-      <c r="K67" s="2" t="inlineStr"/>
-      <c r="L67" s="2" t="inlineStr"/>
+      <c r="D67" s="2" t="n"/>
+      <c r="E67" s="2" t="n"/>
+      <c r="F67" s="2" t="n"/>
+      <c r="G67" s="2" t="n"/>
+      <c r="H67" s="2" t="n"/>
+      <c r="I67" s="2" t="n"/>
+      <c r="J67" s="2" t="n"/>
+      <c r="K67" s="2" t="n"/>
+      <c r="L67" s="2" t="n"/>
       <c r="M67" s="2" t="inlineStr">
         <is>
           <t>An educational facility in which students study for degrees and academic research is done.</t>
         </is>
       </c>
-      <c r="N67" s="2" t="inlineStr"/>
-      <c r="O67" s="2" t="inlineStr"/>
-      <c r="P67" s="2" t="inlineStr"/>
-      <c r="Q67" s="2" t="inlineStr"/>
-      <c r="R67" s="2" t="inlineStr"/>
-      <c r="S67" s="2" t="inlineStr"/>
+      <c r="N67" s="2" t="n"/>
+      <c r="O67" s="2" t="n"/>
+      <c r="P67" s="2" t="n"/>
+      <c r="Q67" s="2" t="n"/>
+      <c r="R67" s="2" t="n"/>
+      <c r="S67" s="2" t="n"/>
       <c r="T67" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U67" s="2" t="inlineStr"/>
-      <c r="V67" s="2" t="inlineStr"/>
+      <c r="U67" s="2" t="n"/>
+      <c r="V67" s="2" t="n"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -3756,15 +3487,6 @@
           <t>population and resource density [BCIO:026007]</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr"/>
-      <c r="E68" t="inlineStr"/>
-      <c r="F68" t="inlineStr"/>
-      <c r="G68" t="inlineStr"/>
-      <c r="H68" t="inlineStr"/>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
       <c r="M68" t="inlineStr">
         <is>
           <t>Incorporated populated place</t>
@@ -3780,17 +3502,11 @@
           <t>Environment Ontology</t>
         </is>
       </c>
-      <c r="P68" t="inlineStr"/>
-      <c r="Q68" t="inlineStr"/>
-      <c r="R68" t="inlineStr"/>
-      <c r="S68" t="inlineStr"/>
       <c r="T68" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="U68" t="inlineStr"/>
-      <c r="V68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="2" t="inlineStr">
@@ -3808,33 +3524,33 @@
           <t>educational facility [BCIO:026022]</t>
         </is>
       </c>
-      <c r="D69" s="2" t="inlineStr"/>
-      <c r="E69" s="2" t="inlineStr"/>
-      <c r="F69" s="2" t="inlineStr"/>
-      <c r="G69" s="2" t="inlineStr"/>
-      <c r="H69" s="2" t="inlineStr"/>
-      <c r="I69" s="2" t="inlineStr"/>
-      <c r="J69" s="2" t="inlineStr"/>
-      <c r="K69" s="2" t="inlineStr"/>
-      <c r="L69" s="2" t="inlineStr"/>
+      <c r="D69" s="2" t="n"/>
+      <c r="E69" s="2" t="n"/>
+      <c r="F69" s="2" t="n"/>
+      <c r="G69" s="2" t="n"/>
+      <c r="H69" s="2" t="n"/>
+      <c r="I69" s="2" t="n"/>
+      <c r="J69" s="2" t="n"/>
+      <c r="K69" s="2" t="n"/>
+      <c r="L69" s="2" t="n"/>
       <c r="M69" s="2" t="inlineStr">
         <is>
           <t>An educational facility providing practically based, occupationally-specific teaching.</t>
         </is>
       </c>
-      <c r="N69" s="2" t="inlineStr"/>
-      <c r="O69" s="2" t="inlineStr"/>
-      <c r="P69" s="2" t="inlineStr"/>
-      <c r="Q69" s="2" t="inlineStr"/>
-      <c r="R69" s="2" t="inlineStr"/>
-      <c r="S69" s="2" t="inlineStr"/>
+      <c r="N69" s="2" t="n"/>
+      <c r="O69" s="2" t="n"/>
+      <c r="P69" s="2" t="n"/>
+      <c r="Q69" s="2" t="n"/>
+      <c r="R69" s="2" t="n"/>
+      <c r="S69" s="2" t="n"/>
       <c r="T69" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U69" s="2" t="inlineStr"/>
-      <c r="V69" s="2" t="inlineStr"/>
+      <c r="U69" s="2" t="n"/>
+      <c r="V69" s="2" t="n"/>
     </row>
     <row r="70">
       <c r="A70" s="2" t="inlineStr">
@@ -3852,33 +3568,33 @@
           <t>outdoor environment [BCIO:026046]</t>
         </is>
       </c>
-      <c r="D70" s="2" t="inlineStr"/>
-      <c r="E70" s="2" t="inlineStr"/>
-      <c r="F70" s="2" t="inlineStr"/>
-      <c r="G70" s="2" t="inlineStr"/>
-      <c r="H70" s="2" t="inlineStr"/>
-      <c r="I70" s="2" t="inlineStr"/>
-      <c r="J70" s="2" t="inlineStr"/>
-      <c r="K70" s="2" t="inlineStr"/>
-      <c r="L70" s="2" t="inlineStr"/>
+      <c r="D70" s="2" t="n"/>
+      <c r="E70" s="2" t="n"/>
+      <c r="F70" s="2" t="n"/>
+      <c r="G70" s="2" t="n"/>
+      <c r="H70" s="2" t="n"/>
+      <c r="I70" s="2" t="n"/>
+      <c r="J70" s="2" t="n"/>
+      <c r="K70" s="2" t="n"/>
+      <c r="L70" s="2" t="n"/>
       <c r="M70" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">An outdoor environment set in an expanse of water. </t>
         </is>
       </c>
-      <c r="N70" s="2" t="inlineStr"/>
-      <c r="O70" s="2" t="inlineStr"/>
-      <c r="P70" s="2" t="inlineStr"/>
-      <c r="Q70" s="2" t="inlineStr"/>
-      <c r="R70" s="2" t="inlineStr"/>
-      <c r="S70" s="2" t="inlineStr"/>
+      <c r="N70" s="2" t="n"/>
+      <c r="O70" s="2" t="n"/>
+      <c r="P70" s="2" t="n"/>
+      <c r="Q70" s="2" t="n"/>
+      <c r="R70" s="2" t="n"/>
+      <c r="S70" s="2" t="n"/>
       <c r="T70" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U70" s="2" t="inlineStr"/>
-      <c r="V70" s="2" t="inlineStr"/>
+      <c r="U70" s="2" t="n"/>
+      <c r="V70" s="2" t="n"/>
     </row>
     <row r="71">
       <c r="A71" s="2" t="inlineStr">
@@ -3896,37 +3612,37 @@
           <t>geographic location [GAZ:00000448]</t>
         </is>
       </c>
-      <c r="D71" s="2" t="inlineStr"/>
-      <c r="E71" s="2" t="inlineStr"/>
-      <c r="F71" s="2" t="inlineStr"/>
-      <c r="G71" s="2" t="inlineStr"/>
-      <c r="H71" s="2" t="inlineStr"/>
-      <c r="I71" s="2" t="inlineStr"/>
-      <c r="J71" s="2" t="inlineStr"/>
-      <c r="K71" s="2" t="inlineStr"/>
-      <c r="L71" s="2" t="inlineStr"/>
+      <c r="D71" s="2" t="n"/>
+      <c r="E71" s="2" t="n"/>
+      <c r="F71" s="2" t="n"/>
+      <c r="G71" s="2" t="n"/>
+      <c r="H71" s="2" t="n"/>
+      <c r="I71" s="2" t="n"/>
+      <c r="J71" s="2" t="n"/>
+      <c r="K71" s="2" t="n"/>
+      <c r="L71" s="2" t="n"/>
       <c r="M71" s="2" t="inlineStr">
         <is>
           <t>A geographical location within a country where the intervention takes place.</t>
         </is>
       </c>
-      <c r="N71" s="2" t="inlineStr"/>
-      <c r="O71" s="2" t="inlineStr"/>
+      <c r="N71" s="2" t="n"/>
+      <c r="O71" s="2" t="n"/>
       <c r="P71" s="2" t="inlineStr">
         <is>
           <t>Region; Town; City; State; New York; Rotterdam</t>
         </is>
       </c>
-      <c r="Q71" s="2" t="inlineStr"/>
-      <c r="R71" s="2" t="inlineStr"/>
-      <c r="S71" s="2" t="inlineStr"/>
+      <c r="Q71" s="2" t="n"/>
+      <c r="R71" s="2" t="n"/>
+      <c r="S71" s="2" t="n"/>
       <c r="T71" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="U71" s="2" t="inlineStr"/>
-      <c r="V71" s="2" t="inlineStr"/>
+      <c r="U71" s="2" t="n"/>
+      <c r="V71" s="2" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
